--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-v2\parts-list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF99F25-5E86-4792-9550-6C6CB620D5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1D7E8-FFF3-4DD5-9CE9-4B4E09C1DBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1D7E8-FFF3-4DD5-9CE9-4B4E09C1DBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24450412-BA24-4F87-950D-8E9FAB90CF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="3444" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="437">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -467,18 +467,6 @@
     <t>Or other canned duster</t>
   </si>
   <si>
-    <t>Optical Wonder</t>
-  </si>
-  <si>
-    <t>Baader Planetarium</t>
-  </si>
-  <si>
-    <t>Microfiber cloth, Optical Wonder</t>
-  </si>
-  <si>
-    <t>General cleaning cloth for non-risky surfaces (Eyepieces etc)</t>
-  </si>
-  <si>
     <t>19569/16OZ</t>
   </si>
   <si>
@@ -491,42 +479,12 @@
     <t>A decent supply is recommend (though it is not consumed much)</t>
   </si>
   <si>
-    <t>13023MPRM2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kummer </t>
-  </si>
-  <si>
-    <t>EPO-TEK 302-3M in 2.5 g pre-pack, burst seal, 25x packs (minimum order)</t>
-  </si>
-  <si>
-    <t>1 2.5g package is sufficent to glue 10 mirrors, Fabian will take care of that</t>
-  </si>
-  <si>
     <t>MC-50E</t>
   </si>
   <si>
     <t>Lens Tissues, 25 Sheets per Booklet, 50 Booklets in a Closeable Box </t>
   </si>
   <si>
-    <t>ESK11</t>
-  </si>
-  <si>
-    <t>BNC Adapters Essentials Kit, 62 Pieces</t>
-  </si>
-  <si>
-    <t>This or any other BNC-Kit with all the common connectors (e.g. T, L, Straight etc.)</t>
-  </si>
-  <si>
-    <t>CA2848</t>
-  </si>
-  <si>
-    <t>SMA Coaxial Cable, SMA Male to BNC Male, 48" (1219 mm)</t>
-  </si>
-  <si>
-    <t>Sometimes useful</t>
-  </si>
-  <si>
     <t>2249-C-120</t>
   </si>
   <si>
@@ -557,15 +515,6 @@
     <t xml:space="preserve">Sometimes useful </t>
   </si>
   <si>
-    <t>PLT2</t>
-  </si>
-  <si>
-    <t>Ø1/2" (Ø12.7 mm) Photoluminescent Stickers, Qty: 100</t>
-  </si>
-  <si>
-    <t>Sometimes useful for marking setups in darkness</t>
-  </si>
-  <si>
     <t>T743-2.0</t>
   </si>
   <si>
@@ -641,9 +590,6 @@
     <t>Multiport-power outlets</t>
   </si>
   <si>
-    <t>Swiss power cords to standard cold-device plugs</t>
-  </si>
-  <si>
     <t>Cable wraps</t>
   </si>
   <si>
@@ -686,12 +632,6 @@
     <t>Detection Path</t>
   </si>
   <si>
-    <t>Servo-Dynamixel-Adapter-V2.ipt</t>
-  </si>
-  <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>Large-cuvette-mount-30mm-V1.ipt</t>
   </si>
   <si>
@@ -725,21 +665,6 @@
     <t>Redesign is being worked on</t>
   </si>
   <si>
-    <t>Cube_30_with_35mm_hole</t>
-  </si>
-  <si>
-    <t>M605-to-X95-adapter-V1</t>
-  </si>
-  <si>
-    <t>X95carrier-to-M605-adapter-V1</t>
-  </si>
-  <si>
-    <t>XT95P3_X95_Base_plate_mod</t>
-  </si>
-  <si>
-    <t>Modified XT95P3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample cuvettes </t>
   </si>
   <si>
@@ -809,21 +734,6 @@
     <t>Optional</t>
   </si>
   <si>
-    <t>60 mm Cage Plate</t>
-  </si>
-  <si>
-    <t>ER1</t>
-  </si>
-  <si>
-    <t>Cage Assembly Rod, 1" Long, Ø6 mm</t>
-  </si>
-  <si>
-    <t>RC1</t>
-  </si>
-  <si>
-    <t>Dovetail Rail Carrier</t>
-  </si>
-  <si>
     <t>TR75/M</t>
   </si>
   <si>
@@ -849,12 +759,6 @@
   </si>
   <si>
     <t>FOV 25 mm diagonal</t>
-  </si>
-  <si>
-    <t>LCFW5</t>
-  </si>
-  <si>
-    <t>60 mm Cage Filter Wheel for Five Ø2" (Ø50 mm) Filters</t>
   </si>
   <si>
     <t>Controller: Includes TG8, TGCOM, 2x TGDCM2, SA-JOY+ZF Contols four DC servo motors,</t>
@@ -1232,9 +1136,6 @@
     <t>3D printed</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>GCE001</t>
   </si>
   <si>
@@ -1391,32 +1292,71 @@
     <t xml:space="preserve">BA1S/M </t>
   </si>
   <si>
-    <t>Todo: Buy, test, adapt the code and connection diagram.</t>
-  </si>
-  <si>
-    <t>Option 1: Motorized flip mount</t>
-  </si>
-  <si>
-    <t>Option 2: Servo-driven filter wheel</t>
-  </si>
-  <si>
-    <t>Option 3: Manual filter wheel</t>
-  </si>
-  <si>
     <t>Two positions: (1) quadband emission filter (2) no filter, alignment mode. Fits most of the use cases.</t>
   </si>
   <si>
     <t>5 positions available. Motorized filterwheel is useful when multiple bandpass filters are used during an acquisition. This helps separate emission spectra of the labels.</t>
   </si>
   <si>
-    <t>In many cases a single quad-band detection filter is sufficient, if no strict separation of emission spectra is required. However, manual switching to alignment (no filter) position is cumbersome.</t>
-  </si>
-  <si>
     <t>Laser safety snap-on covers</t>
   </si>
   <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>184-902-0064-000</t>
+  </si>
+  <si>
+    <t>184-903-0163-100</t>
+  </si>
+  <si>
+    <t>USB to RS485 Serial Converter Cable</t>
+  </si>
+  <si>
+    <t>895-USBRS485WE5000BT</t>
+  </si>
+  <si>
+    <t>5-Position filter wheel for 2-inch filters</t>
+  </si>
+  <si>
+    <t>Robotis FR07-S101K Set</t>
+  </si>
+  <si>
+    <t>Option 1: Servo-driven filter wheel</t>
+  </si>
+  <si>
+    <t>Option 2: Motorized flip mount</t>
+  </si>
+  <si>
+    <t>Deprecated 10mm Galvos</t>
+  </si>
+  <si>
+    <t>QS15X-AG</t>
+  </si>
+  <si>
+    <t>Ø15 mm Beam Galvo System, X-Axis Protected Silver Mirror</t>
+  </si>
+  <si>
+    <t>CBLS3F</t>
+  </si>
+  <si>
+    <t>Command and Power Cables for QS15/20/30/45, SS, &amp; SP Series Galvo Scanners</t>
+  </si>
+  <si>
+    <t>GPWR15</t>
+  </si>
+  <si>
+    <t>±15 V Power Supply for BLINK &amp; QS, SS, SP, &amp; XG Series Galvo Scanners</t>
+  </si>
+  <si>
+    <t>To be tested:</t>
+  </si>
+  <si>
+    <t>Standard cables are 60 cm long. Sufficient?</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">STL files in </t>
+      <t xml:space="preserve">See files files in folder </t>
     </r>
     <r>
       <rPr>
@@ -1426,48 +1366,39 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/laser-safety</t>
+      <t>/custom-parts/laser-safety/</t>
+    </r>
+  </si>
+  <si>
+    <t>Cage60mm-2sides-InnerD75mm-L75mm.stl</t>
+  </si>
+  <si>
+    <r>
+      <t>See folder</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> folder</t>
+      <t xml:space="preserve"> /custom-parts/filter-wheel/</t>
     </r>
   </si>
   <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>184-902-0064-000</t>
-  </si>
-  <si>
-    <t>184-903-0163-100</t>
-  </si>
-  <si>
-    <t>USB to RS485 Serial Converter Cable</t>
-  </si>
-  <si>
-    <t>895-USBRS485WE5000BT</t>
-  </si>
-  <si>
-    <t>5-Position filter wheel for 2-inch filters</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Robotis FR07-S101K Set</t>
+    <t>FilterWheel-2inch-5pos.stl</t>
+  </si>
+  <si>
+    <t>Todo: Adapt the code and test this option.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1549,14 +1480,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF1F497D"/>
       <name val="Arial"/>
@@ -1598,7 +1521,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1661,7 +1584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,9 +1634,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1729,19 +1658,16 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1751,8 +1677,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1769,7 +1695,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1778,10 +1704,20 @@
     <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2169,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K234"/>
+  <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2133,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2248,33 +2184,33 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="30">
+      <c r="B5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <v>25000</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f>D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
-        <v>277</v>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2285,24 +2221,24 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2318,54 +2254,54 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
         <v>1008062</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>0</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="39">
         <v>7400</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="39">
         <f>E10*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="I10" s="41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="41">
+      <c r="G10" s="53"/>
+      <c r="I10" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="38">
         <v>0</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="39">
         <v>20000</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="39">
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="I11" s="41" t="s">
-        <v>295</v>
+      <c r="G11" s="53"/>
+      <c r="I11" s="38" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2396,10 +2332,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2423,172 +2359,172 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="44">
-        <v>1</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="D15" s="41">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
         <v>1807</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="55">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="44">
-        <v>1</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="D16" s="41">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
         <v>132</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="55">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="G16" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="H16" s="44" t="s">
+      <c r="G16" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="44">
-        <v>1</v>
-      </c>
-      <c r="E17" s="28">
+      <c r="D17" s="41">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
         <v>250</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="55">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="44">
-        <v>1</v>
-      </c>
-      <c r="E18" s="28">
+      <c r="D18" s="41">
+        <v>1</v>
+      </c>
+      <c r="E18" s="25">
         <v>1807</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="55">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
-      <c r="G18" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="H18" s="44" t="s">
+      <c r="G18" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="I18" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="44">
-        <v>1</v>
-      </c>
-      <c r="E19" s="28">
+      <c r="D19" s="41">
+        <v>1</v>
+      </c>
+      <c r="E19" s="25">
         <v>200</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="55">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="44">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28">
+      <c r="D20" s="41">
+        <v>1</v>
+      </c>
+      <c r="E20" s="25">
         <v>1939</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="55">
         <f t="shared" si="0"/>
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>395</v>
+        <v>371</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2612,10 +2548,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2639,10 +2575,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2653,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2666,10 +2602,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2693,28 +2629,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2727,21 +2663,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2754,21 +2690,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>426</v>
+      <c r="A28" s="54" t="s">
+        <v>393</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2781,21 +2717,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>429</v>
+      <c r="A29" s="54" t="s">
+        <v>396</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2808,21 +2744,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>432</v>
+      <c r="A30" s="54" t="s">
+        <v>399</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2835,21 +2771,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>437</v>
+      <c r="A31" s="54" t="s">
+        <v>404</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2862,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2874,7 +2810,7 @@
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -2896,7 +2832,7 @@
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2985,57 +2921,57 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="D40" s="44">
+    <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" s="41">
         <v>2</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="43">
         <v>13</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="55">
         <f>E40*D40</f>
         <v>26</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="D41" s="44">
+    <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="41">
         <v>2</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="43">
         <v>18</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="55">
         <f>E41*D41</f>
         <v>36</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>53</v>
@@ -3060,7 +2996,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29">
+      <c r="A43" s="26">
         <v>91863</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3076,923 +3012,941 @@
         <v>400</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" ref="F43:F68" si="1">E43*D43</f>
+        <f t="shared" ref="F43:F73" si="1">E43*D43</f>
         <v>800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="D44" s="51">
+    <row r="44" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="48">
         <v>0</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="49">
         <v>656</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="I44" s="51" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="H44" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" s="48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="44">
+      <c r="B45" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="41">
         <v>2</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="43">
         <v>31</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="55">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="H45" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="D46" s="48">
+      <c r="H45" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="45">
         <v>10</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="46">
         <v>16</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="57">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="H46" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="I46" s="48" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="48">
+      <c r="H46" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="45">
         <v>4</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="46">
         <v>41</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="57">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="H47" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="D48" s="44">
+      <c r="H47" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" s="41">
         <v>2</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="43">
         <v>99</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="55">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="H48" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="D49" s="48">
+      <c r="H48" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="45">
         <v>6</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="46">
         <v>189</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="57">
         <f t="shared" si="1"/>
         <v>1134</v>
       </c>
-      <c r="H49" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="I49" s="48" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="D50" s="48">
+      <c r="H49" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" s="45">
         <v>6</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="46">
         <v>110</v>
       </c>
-      <c r="F50" s="60">
+      <c r="F50" s="57">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="H50" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="I50" s="48" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="D51" s="44">
+      <c r="H50" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="I50" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="41">
         <v>4</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="43">
         <v>13</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="55">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="H51" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="D52" s="44">
+      <c r="H51" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" s="41">
         <v>2</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="43">
         <v>8</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="55">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H52" s="44" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="D53" s="44">
+      <c r="H52" s="41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="41">
         <v>4</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="43">
         <v>7</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="55">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H53" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" s="44">
+      <c r="H53" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" s="41">
         <v>6</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="43">
         <v>5</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="55">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H54" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="I54" s="44" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="D55" s="44">
+      <c r="H54" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="41">
         <v>4</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="43">
         <v>6</v>
       </c>
-      <c r="F55" s="58">
+      <c r="F55" s="55">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H55" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="I55" s="44" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="D56" s="44">
+      <c r="H55" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="41">
         <v>4</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="43">
         <v>5</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F56" s="55">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H56" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="I56" s="44" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="44">
+      <c r="H56" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="41">
         <v>2</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="43">
         <v>5</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H57" s="44" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="D58" s="48">
+      <c r="H57" s="41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" s="45">
         <v>2</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="46">
         <v>398</v>
       </c>
-      <c r="F58" s="60">
+      <c r="F58" s="57">
         <f t="shared" si="1"/>
         <v>796</v>
       </c>
-      <c r="H58" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="I58" s="48" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="D59" s="48">
+      <c r="H58" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="45">
         <v>2</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="46">
         <v>26</v>
       </c>
-      <c r="F59" s="60">
+      <c r="F59" s="57">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="H59" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="I59" s="48" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="B60" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="D60" s="48">
+      <c r="H59" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="45">
         <v>2</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="46">
         <v>30</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="57">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H60" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="I60" s="48" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="D61" s="44">
+      <c r="H60" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61" s="41">
         <v>2</v>
       </c>
-      <c r="E61" s="46">
+      <c r="E61" s="43">
         <v>36</v>
       </c>
-      <c r="F61" s="58">
+      <c r="F61" s="55">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="H61" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="I61" s="53" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="D62" s="44">
+      <c r="H61" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I61" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="C62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="55"/>
+      <c r="I62" s="50"/>
+    </row>
+    <row r="63" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63" s="62">
         <v>2</v>
       </c>
-      <c r="E62" s="46">
+      <c r="E63" s="63">
         <v>1757</v>
       </c>
-      <c r="F62" s="58">
+      <c r="F63" s="64">
         <f t="shared" si="1"/>
         <v>3514</v>
       </c>
-      <c r="H62" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="I62" s="53" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="58"/>
-      <c r="I63" s="53" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="D64" s="44">
+      <c r="H63" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="I63" s="65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64"/>
+      <c r="I64" s="65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="62">
         <v>2</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E65" s="63">
         <v>59</v>
       </c>
-      <c r="F64" s="58">
-        <f>E64*D64</f>
+      <c r="F65" s="64">
+        <f>E65*D65</f>
         <v>118</v>
       </c>
-      <c r="H64" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="I64" s="53"/>
-    </row>
-    <row r="65" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="D65" s="44">
-        <v>1</v>
-      </c>
-      <c r="E65" s="46">
+      <c r="H65" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="I65" s="65"/>
+    </row>
+    <row r="66" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="D66" s="62">
+        <v>1</v>
+      </c>
+      <c r="E66" s="63">
         <v>495</v>
       </c>
-      <c r="F65" s="58">
-        <f>E65*D65</f>
+      <c r="F66" s="64">
+        <f>E66*D66</f>
         <v>495</v>
       </c>
-      <c r="H65" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="I65" s="44" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="D66" s="44">
+      <c r="H66" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="I66" s="62" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="C67" s="66"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="69"/>
+    </row>
+    <row r="68" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="B68" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="D68" s="67">
         <v>2</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E68" s="68">
+        <v>2104</v>
+      </c>
+      <c r="F68" s="69">
+        <f>E68*D68</f>
+        <v>4208</v>
+      </c>
+      <c r="H68" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="I68" s="67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="67">
+        <v>2</v>
+      </c>
+      <c r="E69" s="68">
+        <v>82</v>
+      </c>
+      <c r="F69" s="69">
+        <f>E69*D69</f>
+        <v>164</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="D70" s="67">
+        <v>1</v>
+      </c>
+      <c r="E70" s="68">
+        <v>390</v>
+      </c>
+      <c r="F70" s="69">
+        <f>E70*D70</f>
+        <v>390</v>
+      </c>
+      <c r="H70" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="I70" s="67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="D71" s="41">
+        <v>2</v>
+      </c>
+      <c r="E71" s="43">
         <v>25</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F71" s="55">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H66" s="44" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="54" t="s">
-        <v>379</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="D67" s="44">
+      <c r="H71" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D72" s="41">
         <v>2</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E72" s="43">
         <v>35</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F72" s="55">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H67" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="I67" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="J67" s="55" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="D68" s="44">
+      <c r="H72" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I72" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="J72" s="52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="D73" s="41">
         <v>2</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E73" s="43">
         <v>92</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F73" s="55">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H73" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I73" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="E74" s="43"/>
+      <c r="F74" s="55"/>
+      <c r="H74" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="55"/>
+    </row>
+    <row r="76" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="55"/>
+    </row>
+    <row r="77" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="55"/>
+    </row>
+    <row r="78" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="I68" s="44" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="C69" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="58"/>
-      <c r="I69" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="58"/>
-    </row>
-    <row r="71" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="58"/>
-    </row>
-    <row r="72" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="58"/>
-    </row>
-    <row r="73" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="45" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B79" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="C79" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="44">
-        <v>1</v>
-      </c>
-      <c r="E74" s="46"/>
-      <c r="F74" s="58"/>
-      <c r="I74" s="44" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>411</v>
-      </c>
-      <c r="D75" s="44">
-        <v>1</v>
-      </c>
-      <c r="E75" s="46">
+      <c r="D79" s="41">
+        <v>1</v>
+      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="55"/>
+      <c r="I79" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" s="41">
+        <v>1</v>
+      </c>
+      <c r="E80" s="43">
         <v>63</v>
       </c>
-      <c r="F75" s="58">
-        <f>D75*E75</f>
+      <c r="F80" s="55">
+        <f>D80*E80</f>
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="D76" s="44">
+    <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="41">
         <v>2</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E81" s="43">
         <v>69</v>
       </c>
-      <c r="F76" s="58">
-        <f>D76*E76</f>
+      <c r="F81" s="55">
+        <f>D81*E81</f>
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="D77" s="44">
-        <v>1</v>
-      </c>
-      <c r="E77" s="46">
+    <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82" s="41">
+        <v>1</v>
+      </c>
+      <c r="E82" s="43">
         <v>10</v>
       </c>
-      <c r="F77" s="58">
-        <f>D77*E77</f>
+      <c r="F82" s="55">
+        <f>D82*E82</f>
         <v>10</v>
       </c>
-      <c r="I77" s="44" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44" t="s">
+      <c r="I82" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B83" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C83" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="44">
-        <v>1</v>
-      </c>
-      <c r="E78" s="46"/>
-      <c r="F78" s="58"/>
-      <c r="I78" s="44" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="1:10" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="45" t="s">
-        <v>442</v>
-      </c>
-      <c r="D82" s="44">
-        <v>1</v>
-      </c>
-      <c r="E82" s="46">
-        <v>656</v>
-      </c>
-      <c r="F82" s="58">
-        <f>E82*D82</f>
-        <v>656</v>
-      </c>
-      <c r="I82" s="55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="D83" s="44">
-        <v>1</v>
-      </c>
-      <c r="E83" s="46">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F83" s="58">
-        <f>E83*D83</f>
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="12">
-        <v>4.87</v>
-      </c>
-      <c r="F84" s="58">
-        <f>E84*D84</f>
-        <v>4.87</v>
-      </c>
+      <c r="D83" s="41">
+        <v>1</v>
+      </c>
+      <c r="E83" s="43"/>
+      <c r="F83" s="55"/>
+      <c r="I83" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>14</v>
@@ -4017,13 +3971,13 @@
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -4045,13 +3999,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -4072,1522 +4026,1543 @@
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
-      <c r="I90" s="65" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="F91" s="61"/>
-    </row>
-    <row r="92" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="F92" s="61"/>
-    </row>
-    <row r="93" spans="1:10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D93" s="26">
-        <v>1</v>
-      </c>
-      <c r="E93" s="28">
-        <v>189</v>
-      </c>
-      <c r="F93" s="62"/>
-    </row>
-    <row r="94" spans="1:10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D94" s="26">
-        <v>1</v>
-      </c>
-      <c r="E94" s="28">
-        <v>37</v>
-      </c>
-      <c r="F94" s="62"/>
-    </row>
-    <row r="95" spans="1:10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="26">
-        <v>2</v>
-      </c>
-      <c r="E95" s="28">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="F95" s="62"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="3">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3">
-        <v>5</v>
-      </c>
+      <c r="I90" s="41" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C91" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="D93" s="41">
+        <v>0</v>
+      </c>
+      <c r="E93" s="43">
+        <v>656</v>
+      </c>
+      <c r="F93" s="55">
+        <f>E93*D93</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="52"/>
+    </row>
+    <row r="94" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="D94" s="41">
+        <v>0</v>
+      </c>
+      <c r="E94" s="43">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F94" s="55">
+        <f>E94*D94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="F95" s="55">
+        <f>E95*D95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F96" s="58"/>
+    </row>
+    <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" s="58"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>265</v>
+        <v>60</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
       </c>
-      <c r="E98" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F99" s="61"/>
-    </row>
-    <row r="100" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F100" s="61"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="E98" s="5">
+        <v>1075</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" ref="F98:F103" si="2">E98*D98</f>
+        <v>1075</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="3">
-        <v>1</v>
-      </c>
-      <c r="E101" s="5">
-        <v>1075</v>
-      </c>
-      <c r="F101" s="5">
-        <f t="shared" ref="F101:F106" si="2">E101*D101</f>
-        <v>1075</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102" s="41" t="s">
+      <c r="C99" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="41">
+      <c r="D99" s="38">
         <v>0</v>
       </c>
-      <c r="E102" s="42">
+      <c r="E99" s="39">
         <v>1350</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F99" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="41" t="s">
+      <c r="G99" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41" t="s">
+      <c r="I99" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B100" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C100" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D103" s="41">
+      <c r="D100" s="38">
         <v>0</v>
       </c>
-      <c r="E103" s="42">
+      <c r="E100" s="39">
         <v>1350</v>
       </c>
-      <c r="F103" s="42">
+      <c r="F100" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="41" t="s">
+      <c r="G100" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41" t="s">
+      <c r="I100" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B101" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C104" s="41" t="s">
+      <c r="C101" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D104" s="41">
+      <c r="D101" s="38">
         <v>0</v>
       </c>
-      <c r="E104" s="43">
+      <c r="E101" s="40">
         <v>1445</v>
       </c>
-      <c r="F104" s="42">
+      <c r="F101" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="41" t="s">
+      <c r="G101" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41" t="s">
+      <c r="I101" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B102" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C102" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="41">
+      <c r="D102" s="38">
         <v>0</v>
       </c>
-      <c r="E105" s="42">
+      <c r="E102" s="39">
         <v>1130</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F102" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="G102" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I105" s="41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="41" t="s">
+      <c r="I102" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B103" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C103" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="41">
+      <c r="D103" s="38">
         <v>0</v>
       </c>
-      <c r="E106" s="42">
+      <c r="E103" s="39">
         <v>1130</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F103" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="41" t="s">
+      <c r="G103" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I106" s="41" t="s">
+      <c r="I103" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A104" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+    </row>
+    <row r="105" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D105" s="32">
+        <v>1</v>
+      </c>
+      <c r="E105" s="33">
+        <v>6734</v>
+      </c>
+      <c r="F105" s="33">
+        <f>D105*E105</f>
+        <v>6734</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="35">
+        <v>11454</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F106" s="5">
+        <f>D106*E106</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="33" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-    </row>
-    <row r="108" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D108" s="35">
-        <v>1</v>
-      </c>
-      <c r="E108" s="36">
-        <v>6734</v>
-      </c>
-      <c r="F108" s="36">
-        <f>D108*E108</f>
-        <v>6734</v>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="35">
+        <v>11044</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>9387</v>
+      </c>
+      <c r="F107" s="5">
+        <f>D107*E107</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" ref="F108:F109" si="3">D108*E108</f>
+        <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="I108" s="35" t="s">
-        <v>282</v>
+      <c r="H108" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="38">
-        <v>11454</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>285</v>
+      <c r="A109" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="D109" s="3">
         <v>0</v>
       </c>
       <c r="E109" s="5">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F109" s="5">
-        <f>D109*E109</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="38">
-        <v>11044</v>
-      </c>
-      <c r="B110" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C110" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="5">
-        <v>9387</v>
-      </c>
-      <c r="F110" s="5">
-        <f>D110*E110</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>294</v>
-      </c>
+      <c r="H109" s="32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F111" s="5">
-        <f t="shared" ref="F111:F112" si="3">D111*E111</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="B111" s="32"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="C112" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D112" s="3">
-        <v>0</v>
-      </c>
-      <c r="E112" s="5">
-        <v>2500</v>
-      </c>
-      <c r="F112" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="33" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A113" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
+      <c r="B112" s="32"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="32"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="35"/>
+      <c r="B114" s="32"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="35"/>
+      <c r="B115" s="32"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="35"/>
+      <c r="B116" s="32"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="35"/>
+      <c r="B117" s="32"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="35"/>
+      <c r="B118" s="32"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
+      <c r="B119" s="32"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="35"/>
+      <c r="B120" s="32"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="35"/>
+      <c r="B121" s="32"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="35"/>
+      <c r="B122" s="32"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="35"/>
+      <c r="B123" s="32"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="35"/>
+      <c r="B124" s="32"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="35"/>
+      <c r="B125" s="32"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="35"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="35"/>
+      <c r="B126" s="32"/>
+    </row>
+    <row r="128" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="35"/>
-    </row>
-    <row r="131" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
+      <c r="A129" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F129" s="5">
+        <f>E129*D129</f>
+        <v>3582</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" ref="F130:F137" si="4">E130*D130</f>
+        <v>1630</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>886</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" si="4"/>
+        <v>886</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="D132" s="3">
         <v>1</v>
       </c>
       <c r="E132" s="5">
-        <v>3582</v>
+        <v>163</v>
       </c>
       <c r="F132" s="5">
-        <f>E132*D132</f>
-        <v>3582</v>
+        <f t="shared" si="4"/>
+        <v>163</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
       </c>
       <c r="E133" s="5">
-        <v>1630</v>
+        <v>11</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" ref="F133:F140" si="4">E133*D133</f>
-        <v>1630</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
       </c>
       <c r="E134" s="5">
-        <v>886</v>
+        <v>520</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="4"/>
-        <v>886</v>
+        <f>E134*D134</f>
+        <v>520</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I134" s="3" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
       </c>
       <c r="E135" s="5">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="4"/>
-        <v>163</v>
+        <f>E135*D135</f>
+        <v>193</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I135" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B136" s="3" t="s">
+    </row>
+    <row r="136" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B136" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1</v>
-      </c>
-      <c r="E136" s="5">
-        <v>11</v>
-      </c>
-      <c r="F136" s="5">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D137" s="3">
-        <v>1</v>
-      </c>
-      <c r="E137" s="5">
-        <v>520</v>
-      </c>
-      <c r="F137" s="5">
-        <f>E137*D137</f>
-        <v>520</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D138" s="3">
-        <v>1</v>
-      </c>
-      <c r="E138" s="5">
-        <v>193</v>
-      </c>
-      <c r="F138" s="5">
-        <f>E138*D138</f>
-        <v>193</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B139" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" s="41" t="s">
+      <c r="C136" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D139" s="41">
+      <c r="D136" s="38">
         <v>0</v>
       </c>
-      <c r="E139" s="42">
+      <c r="E136" s="39">
         <v>2800</v>
       </c>
-      <c r="F139" s="42">
+      <c r="F136" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G139" s="41" t="s">
+      <c r="G136" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I139" s="41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="B140" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="C140" s="41" t="s">
+      <c r="I136" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D140" s="41">
+      <c r="D137" s="38">
         <v>16</v>
       </c>
-      <c r="E140" s="42">
+      <c r="E137" s="39">
         <v>10</v>
       </c>
-      <c r="F140" s="42">
+      <c r="F137" s="39">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="G140" s="41" t="s">
+      <c r="G137" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I140" s="41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+      <c r="I137" s="38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
+      <c r="C141" s="7"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5">
+        <v>488</v>
+      </c>
+      <c r="F142" s="5">
+        <f t="shared" ref="F142:F166" si="5">E142*D142</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5">
+        <v>184</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5">
+        <v>76</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
       </c>
       <c r="E145" s="5">
-        <v>488</v>
+        <v>184</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" ref="F145:F169" si="5">E145*D145</f>
-        <v>488</v>
+        <f t="shared" si="5"/>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D146" s="3">
         <v>1</v>
       </c>
       <c r="E146" s="5">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="F146" s="5">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D147" s="3">
         <v>1</v>
       </c>
       <c r="E147" s="5">
-        <v>76</v>
+        <v>32.78</v>
       </c>
       <c r="F147" s="5">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D148" s="3">
         <v>1</v>
       </c>
       <c r="E148" s="5">
-        <v>184</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F148" s="5">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D149" s="3">
         <v>1</v>
       </c>
       <c r="E149" s="5">
-        <v>31</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F149" s="5">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D150" s="3">
         <v>1</v>
       </c>
       <c r="E150" s="5">
-        <v>32.78</v>
+        <v>17</v>
       </c>
       <c r="F150" s="5">
         <f t="shared" si="5"/>
-        <v>32.78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D151" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" s="5">
-        <v>94.180155999999997</v>
+        <v>21.21</v>
       </c>
       <c r="F151" s="5">
         <f t="shared" si="5"/>
-        <v>94.180155999999997</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D152" s="3">
         <v>1</v>
       </c>
       <c r="E152" s="5">
-        <v>36.799999999999997</v>
+        <v>304.75</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="5"/>
-        <v>36.799999999999997</v>
+        <v>304.75</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D153" s="3">
         <v>1</v>
       </c>
       <c r="E153" s="5">
-        <v>17</v>
+        <v>148.21</v>
       </c>
       <c r="F153" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>148.21</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" s="5">
-        <v>21.21</v>
+        <v>348.45</v>
       </c>
       <c r="F154" s="5">
         <f t="shared" si="5"/>
-        <v>42.42</v>
+        <v>348.45</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D155" s="3">
         <v>1</v>
       </c>
       <c r="E155" s="5">
-        <v>304.75</v>
+        <v>60.95</v>
       </c>
       <c r="F155" s="5">
         <f t="shared" si="5"/>
-        <v>304.75</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>106</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D156" s="3">
         <v>1</v>
       </c>
       <c r="E156" s="5">
-        <v>148.21</v>
+        <v>34.5</v>
       </c>
       <c r="F156" s="5">
         <f t="shared" si="5"/>
-        <v>148.21</v>
+        <v>34.5</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D157" s="3">
         <v>1</v>
       </c>
       <c r="E157" s="5">
-        <v>348.45</v>
+        <v>51.45</v>
       </c>
       <c r="F157" s="5">
         <f t="shared" si="5"/>
-        <v>348.45</v>
+        <v>51.45</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D158" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" s="5">
-        <v>60.95</v>
+        <v>13.8</v>
       </c>
       <c r="F158" s="5">
         <f t="shared" si="5"/>
-        <v>60.95</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D159" s="3">
         <v>1</v>
       </c>
       <c r="E159" s="5">
-        <v>34.5</v>
+        <v>19.09</v>
       </c>
       <c r="F159" s="5">
         <f t="shared" si="5"/>
-        <v>34.5</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>115</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D160" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" s="5">
-        <v>51.45</v>
+        <v>40.51</v>
       </c>
       <c r="F160" s="5">
         <f t="shared" si="5"/>
-        <v>51.45</v>
+        <v>81.02</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D161" s="3">
         <v>2</v>
       </c>
       <c r="E161" s="5">
-        <v>13.8</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F161" s="5">
         <f t="shared" si="5"/>
-        <v>27.6</v>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D162" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E162" s="5">
-        <v>19.09</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" si="5"/>
-        <v>19.09</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>280.416</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D163" s="3">
         <v>2</v>
       </c>
       <c r="E163" s="5">
-        <v>40.51</v>
+        <v>28.75</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="5"/>
-        <v>81.02</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>124</v>
+        <v>57.5</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D164" s="3">
         <v>2</v>
       </c>
       <c r="E164" s="5">
-        <v>83.598116000000005</v>
+        <v>38.872799999999998</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="5"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>115</v>
+        <v>77.745599999999996</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="B165" s="3" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D165" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E165" s="5">
-        <v>70.103999999999999</v>
+        <v>205</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="5"/>
-        <v>280.416</v>
+        <v>205</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D166" s="3">
         <v>2</v>
       </c>
       <c r="E166" s="5">
-        <v>28.75</v>
+        <v>12</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="5"/>
-        <v>57.5</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D167" s="3">
+        <v>24</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="10"/>
+    </row>
+    <row r="168" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D169" s="3">
+        <v>4</v>
+      </c>
+      <c r="E169" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F169" s="5">
+        <f t="shared" ref="F169:F188" si="6">E169*D169</f>
+        <v>66</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D170" s="3">
         <v>2</v>
       </c>
-      <c r="E167" s="5">
-        <v>38.872799999999998</v>
-      </c>
-      <c r="F167" s="5">
-        <f t="shared" si="5"/>
-        <v>77.745599999999996</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D168" s="3">
-        <v>1</v>
-      </c>
-      <c r="E168" s="5">
-        <v>205</v>
-      </c>
-      <c r="F168" s="5">
-        <f t="shared" si="5"/>
-        <v>205</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D169" s="3">
-        <v>2</v>
-      </c>
-      <c r="E169" s="5">
-        <v>12</v>
-      </c>
-      <c r="F169" s="5">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="10"/>
-    </row>
-    <row r="171" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F171" s="9"/>
+      <c r="E170" s="5">
+        <v>140</v>
+      </c>
+      <c r="F170" s="5">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="5">
+        <v>85.1</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" si="6"/>
+        <v>85.1</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D172" s="3">
         <v>4</v>
       </c>
       <c r="E172" s="5">
-        <v>16.5</v>
+        <v>15.25</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" ref="F172:F196" si="6">E172*D172</f>
-        <v>66</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>142</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D173" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E173" s="5">
-        <v>7.47</v>
+        <v>16.5</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="6"/>
-        <v>29.88</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D174" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E174" s="5">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="6"/>
-        <v>280</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D175" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E175" s="5">
-        <v>438</v>
+        <v>24</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>438</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D176" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" s="5">
-        <v>85.1</v>
+        <v>32</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>85.1</v>
+        <v>64</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D177" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177" s="5">
-        <v>914</v>
+        <v>51.58</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>914</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>159</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D178" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" s="5">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D179" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E179" s="5">
-        <v>15.25</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>84</v>
@@ -5596,14 +5571,14 @@
         <v>166</v>
       </c>
       <c r="D180" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E180" s="5">
-        <v>16.5</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>165</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5617,59 +5592,56 @@
         <v>168</v>
       </c>
       <c r="D181" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E181" s="5">
-        <v>24</v>
+        <v>60.95</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D182" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E182" s="5">
-        <v>24</v>
+        <v>119.416</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>119.416</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" s="5">
-        <v>32</v>
+        <v>105.8</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>172</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5683,83 +5655,77 @@
         <v>174</v>
       </c>
       <c r="D184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184" s="5">
-        <v>25</v>
+        <v>119.6</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>175</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="D185" s="3">
         <v>2</v>
       </c>
       <c r="E185" s="5">
-        <v>51.58</v>
+        <v>92</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>103.16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="D186" s="3">
         <v>1</v>
       </c>
       <c r="E186" s="5">
-        <v>60</v>
+        <v>96.23</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>180</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D187" s="3">
         <v>1</v>
       </c>
       <c r="E187" s="5">
-        <v>136.47999999999999</v>
+        <v>102.44</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+        <v>102.44</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -5770,733 +5736,464 @@
         <v>84</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D188" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" s="5">
-        <v>136.47999999999999</v>
+        <v>28</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="C189" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D189" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C190" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C189" s="3" t="s">
+      <c r="D190" s="3">
+        <v>1</v>
+      </c>
+      <c r="I190" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D189" s="3">
-        <v>1</v>
-      </c>
-      <c r="E189" s="5">
-        <v>60.95</v>
-      </c>
-      <c r="F189" s="5">
-        <f t="shared" si="6"/>
-        <v>60.95</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C191" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C190" s="3" t="s">
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D190" s="3">
-        <v>1</v>
-      </c>
-      <c r="E190" s="5">
-        <v>119.416</v>
-      </c>
-      <c r="F190" s="5">
-        <f t="shared" si="6"/>
-        <v>119.416</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="C195" s="7"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B196" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C191" s="3" t="s">
+      <c r="C196" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D191" s="3">
-        <v>1</v>
-      </c>
-      <c r="E191" s="5">
-        <v>105.8</v>
-      </c>
-      <c r="F191" s="5">
-        <f t="shared" si="6"/>
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="D196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C192" s="3" t="s">
+      <c r="I196" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D192" s="3">
+      <c r="J196" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B197" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D198" s="3">
         <v>2</v>
       </c>
-      <c r="E192" s="5">
-        <v>119.6</v>
-      </c>
-      <c r="F192" s="5">
-        <f t="shared" si="6"/>
-        <v>239.2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="G198" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J198" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D193" s="3">
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B200" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J200" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201" s="3">
         <v>2</v>
       </c>
-      <c r="E193" s="5">
-        <v>92</v>
-      </c>
-      <c r="F193" s="5">
-        <f t="shared" si="6"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D194" s="3">
-        <v>1</v>
-      </c>
-      <c r="E194" s="5">
-        <v>96.23</v>
-      </c>
-      <c r="F194" s="5">
-        <f t="shared" si="6"/>
-        <v>96.23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D195" s="3">
-        <v>1</v>
-      </c>
-      <c r="E195" s="5">
-        <v>102.44</v>
-      </c>
-      <c r="F195" s="5">
-        <f t="shared" si="6"/>
-        <v>102.44</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C196" s="3" t="s">
+      <c r="G201" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D196" s="3">
+      <c r="I201" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J201" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202" s="3">
         <v>2</v>
       </c>
-      <c r="E196" s="5">
-        <v>28</v>
-      </c>
-      <c r="F196" s="5">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C197" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D197" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C198" s="3" t="s">
+      <c r="G202" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J202" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D198" s="3">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C199" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D199" s="3">
-        <v>1</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C200" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D200" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C204" s="7"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-    </row>
-    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B205" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D205" s="3">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3" t="s">
+      <c r="F204" s="59"/>
+      <c r="G204" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I204" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="I205" s="3" t="s">
+      <c r="J204" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K205" s="4"/>
-    </row>
-    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B206" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C206" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D206" s="3">
-        <v>1</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K206" s="4"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B207" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C207" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+      <c r="E207" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F207" s="5">
+        <f t="shared" ref="F207:F217" si="7">E207*D207</f>
+        <v>0</v>
+      </c>
+      <c r="I207" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D207" s="3">
-        <v>2</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J207" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C208" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+      <c r="E208" s="5">
+        <v>764</v>
+      </c>
+      <c r="F208" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D208" s="3">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3" t="s">
+      <c r="D209" s="3">
+        <v>0</v>
+      </c>
+      <c r="E209" s="5">
+        <v>816</v>
+      </c>
+      <c r="F209" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D209" s="3">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C210" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="D210" s="3">
         <v>0</v>
       </c>
-      <c r="G210" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J210" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C211" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D211" s="3">
-        <v>2</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I211" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J211" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C212" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D212" s="3">
-        <v>2</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J212" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D213" s="3">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B214" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C214" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D214" s="19">
-        <v>10</v>
-      </c>
-      <c r="F214" s="63"/>
-      <c r="G214" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I214" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J214" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B215" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C215" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D215" s="3">
-        <v>2</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K215" s="4"/>
-    </row>
-    <row r="216" spans="1:11" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B216" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D216" s="3">
-        <v>1</v>
-      </c>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J216" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B217" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D217" s="3">
-        <v>1</v>
-      </c>
-      <c r="E217" s="22"/>
-      <c r="F217" s="22"/>
-      <c r="G217" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J217" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D218" s="3">
-        <v>1</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J218" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D221" s="3">
-        <v>0</v>
-      </c>
-      <c r="E221" s="5">
-        <v>518.5</v>
-      </c>
-      <c r="F221" s="5">
-        <f t="shared" ref="F221:F231" si="7">E221*D221</f>
-        <v>0</v>
-      </c>
-      <c r="I221" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D222" s="3">
-        <v>0</v>
-      </c>
-      <c r="E222" s="5">
-        <v>764</v>
-      </c>
-      <c r="F222" s="5">
+      <c r="E210" s="5">
+        <v>952</v>
+      </c>
+      <c r="F210" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D223" s="3">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D211" s="3">
         <v>0</v>
       </c>
-      <c r="E223" s="5">
-        <v>816</v>
-      </c>
-      <c r="F223" s="5">
+      <c r="E211" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="F211" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I223" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D224" s="3">
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D212" s="3">
         <v>0</v>
       </c>
-      <c r="E224" s="5">
-        <v>952</v>
-      </c>
-      <c r="F224" s="5">
+      <c r="E212" s="5">
+        <v>128.5</v>
+      </c>
+      <c r="F212" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D225" s="3">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D213" s="3">
         <v>0</v>
       </c>
-      <c r="E225" s="5">
-        <v>99.5</v>
-      </c>
-      <c r="F225" s="5">
+      <c r="E213" s="5">
+        <v>156</v>
+      </c>
+      <c r="F213" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D226" s="3">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D214" s="3">
         <v>0</v>
       </c>
-      <c r="E226" s="5">
-        <v>128.5</v>
-      </c>
-      <c r="F226" s="5">
+      <c r="E214" s="5">
+        <v>184.5</v>
+      </c>
+      <c r="F214" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D227" s="3">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D215" s="3">
         <v>0</v>
       </c>
-      <c r="E227" s="5">
-        <v>156</v>
-      </c>
-      <c r="F227" s="5">
+      <c r="E215" s="5">
+        <v>106.5</v>
+      </c>
+      <c r="F215" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D228" s="3">
-        <v>0</v>
-      </c>
-      <c r="E228" s="5">
-        <v>184.5</v>
-      </c>
-      <c r="F228" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D229" s="3">
-        <v>0</v>
-      </c>
-      <c r="E229" s="5">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D216" s="3">
+        <v>6</v>
+      </c>
+      <c r="E216" s="5">
         <v>106.5</v>
       </c>
-      <c r="F229" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D230" s="3">
-        <v>6</v>
-      </c>
-      <c r="E230" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="F230" s="5">
+      <c r="F216" s="5">
         <f t="shared" si="7"/>
         <v>639</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D231" s="3">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="3">
         <v>10</v>
       </c>
-      <c r="E231" s="5">
+      <c r="E217" s="5">
         <v>121.5</v>
       </c>
-      <c r="F231" s="5">
+      <c r="F217" s="5">
         <f t="shared" si="7"/>
         <v>1215</v>
       </c>
-      <c r="I231" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E234" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F234" s="5">
-        <f>SUM(F3:F232)</f>
-        <v>101285.71398799999</v>
+      <c r="I217" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E220" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F220" s="5">
+        <f>SUM(F3:F218)</f>
+        <v>103939.31398799999</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C111" r:id="rId1" xr:uid="{67732474-80B4-4B9F-B7F4-8404FF2C5C7F}"/>
-    <hyperlink ref="C108" r:id="rId2" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
-    <hyperlink ref="C112" r:id="rId3" xr:uid="{45DA022D-F6DD-4A17-9406-F3AFCDB6F6B9}"/>
-    <hyperlink ref="C110" r:id="rId4" xr:uid="{F54B111C-4718-45BF-A954-B0E31DB7F5D0}"/>
+    <hyperlink ref="C108" r:id="rId1" xr:uid="{67732474-80B4-4B9F-B7F4-8404FF2C5C7F}"/>
+    <hyperlink ref="C105" r:id="rId2" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
+    <hyperlink ref="C109" r:id="rId3" xr:uid="{45DA022D-F6DD-4A17-9406-F3AFCDB6F6B9}"/>
+    <hyperlink ref="C107" r:id="rId4" xr:uid="{F54B111C-4718-45BF-A954-B0E31DB7F5D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24450412-BA24-4F87-950D-8E9FAB90CF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E62078-DB90-4189-A3BE-15EEE8007E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="3444" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,43 +671,7 @@
     <t>Portmann Instruments</t>
   </si>
   <si>
-    <t>UQ-205-H80 10x20x80</t>
-  </si>
-  <si>
     <t>Whole-Mouse CNS Cuvettes</t>
-  </si>
-  <si>
-    <t>UQ-753-H100 40x40x100</t>
-  </si>
-  <si>
-    <t>UQ-205-H120 10x20x120</t>
-  </si>
-  <si>
-    <t>UQ-753-H120 40x40x120</t>
-  </si>
-  <si>
-    <t>UQ-751 20x20 mm</t>
-  </si>
-  <si>
-    <t>UQ-752 30x30</t>
-  </si>
-  <si>
-    <t>UQ-753 40x40</t>
-  </si>
-  <si>
-    <t>UQ-754 50x50</t>
-  </si>
-  <si>
-    <t>UQ-203 5x10x45</t>
-  </si>
-  <si>
-    <t>UQ-204 10x10x45</t>
-  </si>
-  <si>
-    <t>UQ-205 10x20x45</t>
-  </si>
-  <si>
-    <t>Standard cuvette for mouse brains &amp; CLARITY</t>
   </si>
   <si>
     <t>SUM</t>
@@ -1392,6 +1356,42 @@
   </si>
   <si>
     <t>Todo: Adapt the code and test this option.</t>
+  </si>
+  <si>
+    <t>UG-205-H80 10x20x80</t>
+  </si>
+  <si>
+    <t>UG-753-H100 40x40x100</t>
+  </si>
+  <si>
+    <t>UG-205-H120 10x20x120</t>
+  </si>
+  <si>
+    <t>UG-753-H120 40x40x120</t>
+  </si>
+  <si>
+    <t>UG-751 20x20 mm</t>
+  </si>
+  <si>
+    <t>UG-752 30x30</t>
+  </si>
+  <si>
+    <t>UG-753 40x40</t>
+  </si>
+  <si>
+    <t>UG-754 50x50</t>
+  </si>
+  <si>
+    <t>UG-203 5x10x45</t>
+  </si>
+  <si>
+    <t>UG-204 10x10x45</t>
+  </si>
+  <si>
+    <t>UG-205 10x20x45</t>
+  </si>
+  <si>
+    <t>Material: glass, RI=1.52. For quartz  (e.g. CLARITY imaging, RI=1.47), replace UG qwith UQ in the part name.</t>
   </si>
 </sst>
 </file>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,18 +2184,18 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D5" s="27">
         <v>0</v>
@@ -2210,7 +2210,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2221,24 +2221,24 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2254,7 +2254,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2262,7 +2262,7 @@
         <v>1008062</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>16</v>
@@ -2279,15 +2279,15 @@
       </c>
       <c r="G10" s="53"/>
       <c r="I10" s="38" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D11" s="38">
         <v>0</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="G11" s="53"/>
       <c r="I11" s="38" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2332,10 +2332,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2383,10 +2383,10 @@
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>132</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>13</v>
@@ -2437,10 +2437,10 @@
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2464,13 +2464,13 @@
         <v>1807</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2494,10 +2494,10 @@
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2521,10 +2521,10 @@
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2548,10 +2548,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,10 +2575,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2602,10 +2602,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2629,28 +2629,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2663,21 +2663,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2690,21 +2690,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2717,21 +2717,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2744,21 +2744,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2771,21 +2771,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2923,13 +2923,13 @@
     </row>
     <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D40" s="41">
         <v>2</v>
@@ -2947,13 +2947,13 @@
     </row>
     <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D41" s="41">
         <v>2</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>53</v>
@@ -3019,7 +3019,7 @@
         <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>57</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>46</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>84</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D45" s="41">
         <v>2</v>
@@ -3076,21 +3076,21 @@
         <v>62</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D46" s="45">
         <v>10</v>
@@ -3103,21 +3103,21 @@
         <v>160</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D47" s="45">
         <v>4</v>
@@ -3130,21 +3130,21 @@
         <v>164</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D48" s="41">
         <v>2</v>
@@ -3157,21 +3157,21 @@
         <v>198</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="I48" s="41" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D49" s="45">
         <v>6</v>
@@ -3184,21 +3184,21 @@
         <v>1134</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D50" s="45">
         <v>6</v>
@@ -3211,21 +3211,21 @@
         <v>660</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D51" s="41">
         <v>4</v>
@@ -3238,21 +3238,21 @@
         <v>52</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I51" s="41" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D52" s="41">
         <v>2</v>
@@ -3265,18 +3265,18 @@
         <v>16</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D53" s="41">
         <v>4</v>
@@ -3289,21 +3289,21 @@
         <v>28</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I53" s="41" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D54" s="41">
         <v>6</v>
@@ -3316,21 +3316,21 @@
         <v>30</v>
       </c>
       <c r="H54" s="41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I54" s="41" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B55" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D55" s="41">
         <v>4</v>
@@ -3343,21 +3343,21 @@
         <v>24</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I55" s="41" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D56" s="41">
         <v>4</v>
@@ -3370,21 +3370,21 @@
         <v>20</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B57" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D57" s="41">
         <v>2</v>
@@ -3397,18 +3397,18 @@
         <v>10</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D58" s="45">
         <v>2</v>
@@ -3421,21 +3421,21 @@
         <v>796</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="I58" s="45" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B59" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D59" s="45">
         <v>2</v>
@@ -3448,21 +3448,21 @@
         <v>52</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D60" s="45">
         <v>2</v>
@@ -3475,21 +3475,21 @@
         <v>60</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="I60" s="45" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D61" s="41">
         <v>2</v>
@@ -3502,15 +3502,15 @@
         <v>72</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I61" s="50" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="71" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C62" s="42"/>
       <c r="E62" s="43"/>
@@ -3519,13 +3519,13 @@
     </row>
     <row r="63" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="61" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D63" s="62">
         <v>2</v>
@@ -3538,10 +3538,10 @@
         <v>3514</v>
       </c>
       <c r="H63" s="62" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3550,18 +3550,18 @@
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="I64" s="65" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="61" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D65" s="62">
         <v>2</v>
@@ -3574,19 +3574,19 @@
         <v>118</v>
       </c>
       <c r="H65" s="62" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D66" s="62">
         <v>1</v>
@@ -3599,15 +3599,15 @@
         <v>495</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I66" s="62" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="70" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C67" s="66"/>
       <c r="E67" s="68"/>
@@ -3615,13 +3615,13 @@
     </row>
     <row r="68" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B68" s="67" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D68" s="67">
         <v>2</v>
@@ -3634,21 +3634,21 @@
         <v>4208</v>
       </c>
       <c r="H68" s="67" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I68" s="67" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B69" s="67" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D69" s="67">
         <v>2</v>
@@ -3661,18 +3661,18 @@
         <v>164</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B70" s="67" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D70" s="67">
         <v>1</v>
@@ -3685,21 +3685,21 @@
         <v>390</v>
       </c>
       <c r="H70" s="67" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I70" s="67" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D71" s="41">
         <v>2</v>
@@ -3712,18 +3712,18 @@
         <v>50</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="51" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D72" s="41">
         <v>2</v>
@@ -3736,24 +3736,24 @@
         <v>70</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I72" s="50" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="J72" s="52" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D73" s="41">
         <v>2</v>
@@ -3766,29 +3766,29 @@
         <v>184</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I73" s="41" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="55"/>
       <c r="H74" s="41" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
     </row>
     <row r="78" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -3832,18 +3832,18 @@
       <c r="E79" s="43"/>
       <c r="F79" s="55"/>
       <c r="I79" s="41" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D81" s="41">
         <v>2</v>
@@ -3879,13 +3879,13 @@
     </row>
     <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D82" s="41">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3917,36 +3917,36 @@
       <c r="E83" s="43"/>
       <c r="F83" s="55"/>
       <c r="I83" s="41" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>14</v>
@@ -3971,13 +3971,13 @@
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -3999,13 +3999,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -4026,47 +4026,47 @@
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C91" s="72" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="42" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B93" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D93" s="41">
         <v>0</v>
@@ -4082,13 +4082,13 @@
     </row>
     <row r="94" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B94" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D94" s="41">
         <v>0</v>
@@ -4103,13 +4103,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>84</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D95" s="3">
         <v>0</v>
@@ -4124,13 +4124,13 @@
     </row>
     <row r="96" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F96" s="58"/>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F97" s="58"/>
     </row>
@@ -4158,7 +4158,7 @@
         <v>13</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
         <v>13</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>13</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
         <v>13</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4293,25 +4293,25 @@
         <v>13</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="29" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
     </row>
     <row r="105" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D105" s="32">
         <v>1</v>
@@ -4327,10 +4327,10 @@
         <v>13</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,10 +4338,10 @@
         <v>11454</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D106" s="3">
         <v>0</v>
@@ -4357,10 +4357,10 @@
         <v>13</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,10 +4368,10 @@
         <v>11044</v>
       </c>
       <c r="B107" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="37" t="s">
         <v>249</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>261</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
@@ -4387,21 +4387,21 @@
         <v>13</v>
       </c>
       <c r="H107" s="32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
@@ -4417,21 +4417,21 @@
         <v>13</v>
       </c>
       <c r="H108" s="32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D109" s="3">
         <v>0</v>
@@ -4447,12 +4447,12 @@
         <v>13</v>
       </c>
       <c r="H109" s="32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="29" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
@@ -4536,18 +4536,18 @@
         <v>73</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
@@ -4563,18 +4563,18 @@
         <v>73</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D131" s="3">
         <v>1</v>
@@ -4590,18 +4590,18 @@
         <v>73</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D132" s="3">
         <v>1</v>
@@ -4617,7 +4617,7 @@
         <v>73</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,7 +4628,7 @@
         <v>72</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
@@ -4716,15 +4716,15 @@
         <v>73</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C137" s="38" t="s">
         <v>81</v>
@@ -4743,7 +4743,7 @@
         <v>73</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5968,6 +5968,9 @@
       <c r="A206" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="B206" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
     </row>
@@ -5976,7 +5979,7 @@
         <v>210</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="D207" s="3">
         <v>0</v>
@@ -5989,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -5997,7 +6000,7 @@
         <v>210</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
@@ -6015,7 +6018,7 @@
         <v>210</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>214</v>
+        <v>427</v>
       </c>
       <c r="D209" s="3">
         <v>0</v>
@@ -6028,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
@@ -6036,7 +6039,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="D210" s="3">
         <v>0</v>
@@ -6054,7 +6057,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>216</v>
+        <v>429</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
@@ -6072,7 +6075,7 @@
         <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>217</v>
+        <v>430</v>
       </c>
       <c r="D212" s="3">
         <v>0</v>
@@ -6090,7 +6093,7 @@
         <v>210</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>218</v>
+        <v>431</v>
       </c>
       <c r="D213" s="3">
         <v>0</v>
@@ -6108,7 +6111,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>219</v>
+        <v>432</v>
       </c>
       <c r="D214" s="3">
         <v>0</v>
@@ -6126,7 +6129,7 @@
         <v>210</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>220</v>
+        <v>433</v>
       </c>
       <c r="D215" s="3">
         <v>0</v>
@@ -6144,7 +6147,7 @@
         <v>210</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>221</v>
+        <v>434</v>
       </c>
       <c r="D216" s="3">
         <v>6</v>
@@ -6162,7 +6165,7 @@
         <v>210</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>222</v>
+        <v>435</v>
       </c>
       <c r="D217" s="3">
         <v>10</v>
@@ -6174,13 +6177,10 @@
         <f t="shared" si="7"/>
         <v>1215</v>
       </c>
-      <c r="I217" s="3" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="220" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E220" s="21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F220" s="5">
         <f>SUM(F3:F218)</f>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E62078-DB90-4189-A3BE-15EEE8007E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D62D9D-5150-4289-8532-088DA5B6C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5772" yWindow="7212" windowWidth="34560" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="439">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>NI PXI-6733 with 8 16-Bit Waveform Analog Outputs</t>
-  </si>
-  <si>
-    <t>BNC to SMB cable, 3 m</t>
   </si>
   <si>
     <t>Alignment Tools</t>
@@ -869,15 +866,6 @@
     <t>199006-01</t>
   </si>
   <si>
-    <t>Optional, depending on the laser control interface (SMA, SMB, etc).</t>
-  </si>
-  <si>
-    <t>Reichelt, Thorlabs, AliExpress, or elsewhere</t>
-  </si>
-  <si>
-    <t>varies</t>
-  </si>
-  <si>
     <t>Digitec or elsewhere</t>
   </si>
   <si>
@@ -1392,6 +1380,24 @@
   </si>
   <si>
     <t>Material: glass, RI=1.52. For quartz  (e.g. CLARITY imaging, RI=1.47), replace UG qwith UQ in the part name.</t>
+  </si>
+  <si>
+    <t>Depending on the laser control interface (Oxxius: SMB).</t>
+  </si>
+  <si>
+    <t>PAA236R</t>
+  </si>
+  <si>
+    <t>SMB Coaxial Cable, 90° SMB Female to BNC Male, 36" (914 mm)</t>
+  </si>
+  <si>
+    <t>CA2806</t>
+  </si>
+  <si>
+    <t>SMA Coaxial Cable, SMA Male to BNC Male, 6" (152 mm)</t>
+  </si>
+  <si>
+    <t>Depends on laser interface. Oxxius: IO connector must be modified, pin24 (MDL-FSTM) and pin16 (GND Digital), to accept arm switching signal.</t>
   </si>
 </sst>
 </file>
@@ -2105,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,18 +2190,18 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>227</v>
       </c>
       <c r="D5" s="27">
         <v>0</v>
@@ -2210,7 +2216,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2221,24 +2227,24 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2254,7 +2260,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2262,7 +2268,7 @@
         <v>1008062</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>16</v>
@@ -2279,15 +2285,15 @@
       </c>
       <c r="G10" s="53"/>
       <c r="I10" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" s="38">
         <v>0</v>
@@ -2301,7 +2307,7 @@
       </c>
       <c r="G11" s="53"/>
       <c r="I11" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2332,10 +2338,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2359,7 +2365,7 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2383,10 +2389,10 @@
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2410,7 +2416,7 @@
         <v>132</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>13</v>
@@ -2437,10 +2443,10 @@
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2464,13 +2470,13 @@
         <v>1807</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2494,10 +2500,10 @@
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2521,10 +2527,10 @@
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2548,10 +2554,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,10 +2581,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,7 +2595,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2602,10 +2608,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2629,28 +2635,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2663,21 +2669,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2690,21 +2696,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2717,21 +2723,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2744,21 +2750,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2771,21 +2777,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2798,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2810,7 +2816,7 @@
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -2832,7 +2838,7 @@
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2923,13 +2929,13 @@
     </row>
     <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D40" s="41">
         <v>2</v>
@@ -2947,13 +2953,13 @@
     </row>
     <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D41" s="41">
         <v>2</v>
@@ -2971,7 +2977,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>53</v>
@@ -3019,7 +3025,7 @@
         <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>57</v>
@@ -3027,13 +3033,13 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>230</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>231</v>
       </c>
       <c r="D44" s="48">
         <v>0</v>
@@ -3049,21 +3055,21 @@
         <v>46</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D45" s="41">
         <v>2</v>
@@ -3076,21 +3082,21 @@
         <v>62</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D46" s="45">
         <v>10</v>
@@ -3103,21 +3109,21 @@
         <v>160</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D47" s="45">
         <v>4</v>
@@ -3130,21 +3136,21 @@
         <v>164</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D48" s="41">
         <v>2</v>
@@ -3157,21 +3163,21 @@
         <v>198</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I48" s="41" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D49" s="45">
         <v>6</v>
@@ -3184,21 +3190,21 @@
         <v>1134</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D50" s="45">
         <v>6</v>
@@ -3211,21 +3217,21 @@
         <v>660</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D51" s="41">
         <v>4</v>
@@ -3238,21 +3244,21 @@
         <v>52</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I51" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D52" s="41">
         <v>2</v>
@@ -3265,18 +3271,18 @@
         <v>16</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>222</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>223</v>
       </c>
       <c r="D53" s="41">
         <v>4</v>
@@ -3289,21 +3295,21 @@
         <v>28</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I53" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D54" s="41">
         <v>6</v>
@@ -3316,21 +3322,21 @@
         <v>30</v>
       </c>
       <c r="H54" s="41" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I54" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D55" s="41">
         <v>4</v>
@@ -3343,21 +3349,21 @@
         <v>24</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I55" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D56" s="41">
         <v>4</v>
@@ -3370,21 +3376,21 @@
         <v>20</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>220</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>221</v>
       </c>
       <c r="D57" s="41">
         <v>2</v>
@@ -3397,18 +3403,18 @@
         <v>10</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D58" s="45">
         <v>2</v>
@@ -3421,21 +3427,21 @@
         <v>796</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I58" s="45" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D59" s="45">
         <v>2</v>
@@ -3448,21 +3454,21 @@
         <v>52</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D60" s="45">
         <v>2</v>
@@ -3475,21 +3481,21 @@
         <v>60</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I60" s="45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D61" s="41">
         <v>2</v>
@@ -3502,15 +3508,15 @@
         <v>72</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I61" s="50" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C62" s="42"/>
       <c r="E62" s="43"/>
@@ -3519,29 +3525,29 @@
     </row>
     <row r="63" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="61" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D63" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" s="63">
         <v>1757</v>
       </c>
       <c r="F63" s="64">
         <f t="shared" si="1"/>
-        <v>3514</v>
+        <v>0</v>
       </c>
       <c r="H63" s="62" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I63" s="65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3550,64 +3556,64 @@
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="I64" s="65" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D65" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65" s="63">
         <v>59</v>
       </c>
       <c r="F65" s="64">
         <f>E65*D65</f>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="H65" s="62" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D66" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="63">
         <v>495</v>
       </c>
       <c r="F66" s="64">
         <f>E66*D66</f>
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I66" s="62" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="70" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C67" s="66"/>
       <c r="E67" s="68"/>
@@ -3615,13 +3621,13 @@
     </row>
     <row r="68" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D68" s="67">
         <v>2</v>
@@ -3634,21 +3640,21 @@
         <v>4208</v>
       </c>
       <c r="H68" s="67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I68" s="67" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D69" s="67">
         <v>2</v>
@@ -3661,18 +3667,18 @@
         <v>164</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D70" s="67">
         <v>1</v>
@@ -3685,21 +3691,21 @@
         <v>390</v>
       </c>
       <c r="H70" s="67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I70" s="67" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D71" s="41">
         <v>2</v>
@@ -3712,18 +3718,18 @@
         <v>50</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="51" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D72" s="41">
         <v>2</v>
@@ -3736,24 +3742,24 @@
         <v>70</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I72" s="50" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J72" s="52" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D73" s="41">
         <v>2</v>
@@ -3766,29 +3772,29 @@
         <v>184</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I73" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="55"/>
       <c r="H74" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3811,7 +3817,7 @@
     </row>
     <row r="78" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -3832,18 +3838,18 @@
       <c r="E79" s="43"/>
       <c r="F79" s="55"/>
       <c r="I79" s="41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
@@ -3858,13 +3864,13 @@
     </row>
     <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D81" s="41">
         <v>2</v>
@@ -3879,13 +3885,13 @@
     </row>
     <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D82" s="41">
         <v>1</v>
@@ -3898,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3917,36 +3923,36 @@
       <c r="E83" s="43"/>
       <c r="F83" s="55"/>
       <c r="I83" s="41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>14</v>
@@ -3971,13 +3977,13 @@
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -3999,13 +4005,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -4026,47 +4032,47 @@
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C91" s="72" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="42" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D93" s="41">
         <v>0</v>
@@ -4082,13 +4088,13 @@
     </row>
     <row r="94" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D94" s="41">
         <v>0</v>
@@ -4103,13 +4109,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D95" s="3">
         <v>0</v>
@@ -4124,13 +4130,13 @@
     </row>
     <row r="96" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F96" s="58"/>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F97" s="58"/>
     </row>
@@ -4158,7 +4164,7 @@
         <v>13</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4185,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4212,7 +4218,7 @@
         <v>13</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4239,7 +4245,7 @@
         <v>13</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4266,7 +4272,7 @@
         <v>13</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -4293,25 +4299,25 @@
         <v>13</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
     </row>
     <row r="105" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B105" s="32" t="s">
-        <v>237</v>
-      </c>
       <c r="C105" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D105" s="32">
         <v>1</v>
@@ -4327,10 +4333,10 @@
         <v>13</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,10 +4344,10 @@
         <v>11454</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D106" s="3">
         <v>0</v>
@@ -4357,10 +4363,10 @@
         <v>13</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,10 +4374,10 @@
         <v>11044</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
@@ -4387,21 +4393,21 @@
         <v>13</v>
       </c>
       <c r="H107" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
@@ -4417,21 +4423,21 @@
         <v>13</v>
       </c>
       <c r="H108" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D109" s="3">
         <v>0</v>
@@ -4447,12 +4453,12 @@
         <v>13</v>
       </c>
       <c r="H109" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
@@ -4536,18 +4542,18 @@
         <v>73</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
@@ -4556,25 +4562,25 @@
         <v>1630</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" ref="F130:F137" si="4">E130*D130</f>
+        <f t="shared" ref="F130:F138" si="4">E130*D130</f>
         <v>1630</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D131" s="3">
         <v>1</v>
@@ -4590,18 +4596,18 @@
         <v>73</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D132" s="3">
         <v>1</v>
@@ -4617,7 +4623,7 @@
         <v>73</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,7 +4634,7 @@
         <v>72</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
@@ -4670,13 +4676,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
@@ -4716,859 +4722,881 @@
         <v>73</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="38">
-        <v>16</v>
-      </c>
-      <c r="E137" s="39">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="B137" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D137" s="41">
         <v>10</v>
       </c>
-      <c r="F137" s="39">
+      <c r="E137" s="55">
+        <v>12</v>
+      </c>
+      <c r="F137" s="55">
         <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="G137" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G137" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I137" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C141" s="7"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
+      <c r="I137" s="41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="D138" s="41">
+        <v>1</v>
+      </c>
+      <c r="E138" s="55">
+        <v>14</v>
+      </c>
+      <c r="F138" s="55">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G138" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138" s="41" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="3">
+        <v>4</v>
+      </c>
+      <c r="E139" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="F139" s="5">
+        <f>E139*D139</f>
+        <v>61</v>
+      </c>
+      <c r="G139" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="3">
+        <v>10</v>
+      </c>
+      <c r="E140" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F140" s="5">
+        <f>E140*D140</f>
+        <v>165</v>
+      </c>
+      <c r="G140" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D141" s="3">
+        <v>10</v>
+      </c>
+      <c r="E141" s="5">
+        <v>24</v>
+      </c>
+      <c r="F141" s="5">
+        <f>E141*D141</f>
+        <v>240</v>
+      </c>
+      <c r="G141" s="41" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="3">
+        <v>6</v>
+      </c>
+      <c r="E142" s="5">
+        <v>24</v>
+      </c>
+      <c r="F142" s="5">
+        <f>E142*D142</f>
+        <v>144</v>
+      </c>
+      <c r="G142" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+    </row>
+    <row r="146" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="5">
+        <v>488</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" ref="F147:F171" si="5">E147*D147</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D142" s="3">
-        <v>1</v>
-      </c>
-      <c r="E142" s="5">
-        <v>488</v>
-      </c>
-      <c r="F142" s="5">
-        <f t="shared" ref="F142:F166" si="5">E142*D142</f>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="B148" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D143" s="3">
-        <v>1</v>
-      </c>
-      <c r="E143" s="5">
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5">
         <v>184</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F148" s="5">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D144" s="3">
-        <v>1</v>
-      </c>
-      <c r="E144" s="5">
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+      <c r="E149" s="5">
         <v>76</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F149" s="5">
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D145" s="3">
-        <v>1</v>
-      </c>
-      <c r="E145" s="5">
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="5">
         <v>184</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F150" s="5">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D146" s="3">
-        <v>1</v>
-      </c>
-      <c r="E146" s="5">
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="5">
         <v>31</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F151" s="5">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D147" s="3">
-        <v>1</v>
-      </c>
-      <c r="E147" s="5">
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+      <c r="E152" s="5">
         <v>32.78</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F152" s="5">
         <f t="shared" si="5"/>
         <v>32.78</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D148" s="3">
-        <v>1</v>
-      </c>
-      <c r="E148" s="5">
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5">
         <v>94.180155999999997</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F153" s="5">
         <f t="shared" si="5"/>
         <v>94.180155999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D149" s="3">
-        <v>1</v>
-      </c>
-      <c r="E149" s="5">
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F154" s="5">
         <f t="shared" si="5"/>
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D150" s="3">
-        <v>1</v>
-      </c>
-      <c r="E150" s="5">
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5">
         <v>17</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F155" s="5">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D151" s="3">
+      <c r="D156" s="3">
         <v>2</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E156" s="5">
         <v>21.21</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F156" s="5">
         <f t="shared" si="5"/>
         <v>42.42</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D152" s="3">
-        <v>1</v>
-      </c>
-      <c r="E152" s="5">
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+      <c r="E157" s="5">
         <v>304.75</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F157" s="5">
         <f t="shared" si="5"/>
         <v>304.75</v>
       </c>
-      <c r="I152" s="3" t="s">
+      <c r="I157" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="B158" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D153" s="3">
-        <v>1</v>
-      </c>
-      <c r="E153" s="5">
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5">
         <v>148.21</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F158" s="5">
         <f t="shared" si="5"/>
         <v>148.21</v>
       </c>
-      <c r="I153" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="I158" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D154" s="3">
-        <v>1</v>
-      </c>
-      <c r="E154" s="5">
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5">
         <v>348.45</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F159" s="5">
         <f t="shared" si="5"/>
         <v>348.45</v>
       </c>
-      <c r="I154" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="I159" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D155" s="3">
-        <v>1</v>
-      </c>
-      <c r="E155" s="5">
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5">
         <v>60.95</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F160" s="5">
         <f t="shared" si="5"/>
         <v>60.95</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D156" s="3">
-        <v>1</v>
-      </c>
-      <c r="E156" s="5">
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+      <c r="E161" s="5">
         <v>34.5</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F161" s="5">
         <f t="shared" si="5"/>
         <v>34.5</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="I161" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="B162" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" s="3">
-        <v>1</v>
-      </c>
-      <c r="E157" s="5">
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5">
         <v>51.45</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F162" s="5">
         <f t="shared" si="5"/>
         <v>51.45</v>
       </c>
-      <c r="I157" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="I162" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D158" s="3">
+      <c r="D163" s="3">
         <v>2</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E163" s="5">
         <v>13.8</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F163" s="5">
         <f t="shared" si="5"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D159" s="3">
-        <v>1</v>
-      </c>
-      <c r="E159" s="5">
+      <c r="D164" s="3">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5">
         <v>19.09</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F164" s="5">
         <f t="shared" si="5"/>
         <v>19.09</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D160" s="3">
+      <c r="D165" s="3">
         <v>2</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E165" s="5">
         <v>40.51</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F165" s="5">
         <f t="shared" si="5"/>
         <v>81.02</v>
       </c>
-      <c r="I160" s="3" t="s">
+      <c r="I165" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="B166" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D161" s="3">
+      <c r="D166" s="3">
         <v>2</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E166" s="5">
         <v>83.598116000000005</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F166" s="5">
         <f t="shared" si="5"/>
         <v>167.19623200000001</v>
       </c>
-      <c r="I161" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="I166" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D162" s="3">
+      <c r="D167" s="3">
         <v>4</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E167" s="5">
         <v>70.103999999999999</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F167" s="5">
         <f t="shared" si="5"/>
         <v>280.416</v>
       </c>
-      <c r="I162" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+      <c r="I167" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D163" s="3">
+      <c r="D168" s="3">
         <v>2</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E168" s="5">
         <v>28.75</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F168" s="5">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="I163" s="4" t="s">
+      <c r="I168" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="B169" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D164" s="3">
+      <c r="D169" s="3">
         <v>2</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E169" s="5">
         <v>38.872799999999998</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F169" s="5">
         <f t="shared" si="5"/>
         <v>77.745599999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="3" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D165" s="3">
-        <v>1</v>
-      </c>
-      <c r="E165" s="5">
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5">
         <v>205</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F170" s="5">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="I165" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D166" s="3">
+      <c r="I170" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D171" s="3">
         <v>2</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E171" s="5">
         <v>12</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F171" s="5">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="I166" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="10"/>
-    </row>
-    <row r="168" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
+      <c r="I171" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="10"/>
+    </row>
+    <row r="173" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F168" s="9"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="B174" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D174" s="3">
+        <v>4</v>
+      </c>
+      <c r="E174" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F174" s="5">
+        <f t="shared" ref="F174:F189" si="6">E174*D174</f>
+        <v>66</v>
+      </c>
+      <c r="I174" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D169" s="3">
-        <v>4</v>
-      </c>
-      <c r="E169" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F169" s="5">
-        <f t="shared" ref="F169:F188" si="6">E169*D169</f>
-        <v>66</v>
-      </c>
-      <c r="I169" s="3" t="s">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D170" s="3">
+      <c r="D175" s="3">
         <v>2</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E175" s="5">
         <v>140</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F175" s="5">
         <f t="shared" si="6"/>
         <v>280</v>
       </c>
-      <c r="I170" s="3" t="s">
+      <c r="I175" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="B176" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D171" s="3">
-        <v>1</v>
-      </c>
-      <c r="E171" s="5">
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5">
         <v>85.1</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F176" s="5">
         <f t="shared" si="6"/>
         <v>85.1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D172" s="3">
-        <v>4</v>
-      </c>
-      <c r="E172" s="5">
-        <v>15.25</v>
-      </c>
-      <c r="F172" s="5">
-        <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D173" s="3">
-        <v>10</v>
-      </c>
-      <c r="E173" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F173" s="5">
-        <f t="shared" si="6"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D174" s="3">
-        <v>10</v>
-      </c>
-      <c r="E174" s="5">
-        <v>24</v>
-      </c>
-      <c r="F174" s="5">
-        <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" s="3" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D175" s="3">
-        <v>6</v>
-      </c>
-      <c r="E175" s="5">
-        <v>24</v>
-      </c>
-      <c r="F175" s="5">
-        <f t="shared" si="6"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="B177" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D176" s="3">
+      <c r="D177" s="3">
         <v>2</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E177" s="5">
         <v>32</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F177" s="5">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="I176" s="3" t="s">
+      <c r="I177" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="B178" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D177" s="3">
+      <c r="D178" s="3">
         <v>2</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E178" s="5">
         <v>51.58</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F178" s="5">
         <f t="shared" si="6"/>
         <v>103.16</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D178" s="3">
-        <v>1</v>
-      </c>
-      <c r="E178" s="5">
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="E179" s="5">
         <v>60</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F179" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I178" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D179" s="3">
-        <v>1</v>
-      </c>
-      <c r="E179" s="5">
-        <v>136.47999999999999</v>
-      </c>
-      <c r="F179" s="5">
-        <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+      <c r="I179" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D180" s="3">
         <v>1</v>
@@ -5583,487 +5611,490 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D181" s="3">
         <v>1</v>
       </c>
       <c r="E181" s="5">
-        <v>60.95</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>60.95</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D182" s="3">
         <v>1</v>
       </c>
       <c r="E182" s="5">
-        <v>119.416</v>
+        <v>60.95</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>119.416</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D183" s="3">
         <v>1</v>
       </c>
       <c r="E183" s="5">
-        <v>105.8</v>
+        <v>119.416</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>105.8</v>
+        <v>119.416</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D184" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" s="5">
-        <v>119.6</v>
+        <v>105.8</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>239.2</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D185" s="3">
         <v>2</v>
       </c>
       <c r="E185" s="5">
-        <v>92</v>
+        <v>119.6</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D186" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="5">
-        <v>96.23</v>
+        <v>92</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>96.23</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D187" s="3">
         <v>1</v>
       </c>
       <c r="E187" s="5">
-        <v>102.44</v>
+        <v>96.23</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>102.44</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D188" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" s="5">
-        <v>28</v>
+        <v>102.44</v>
       </c>
       <c r="F188" s="5">
         <f t="shared" si="6"/>
+        <v>102.44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2</v>
+      </c>
+      <c r="E189" s="5">
+        <v>28</v>
+      </c>
+      <c r="F189" s="5">
+        <f t="shared" si="6"/>
         <v>56</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C189" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D189" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C190" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D190" s="3">
-        <v>1</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C191" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C192" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D191" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C195" s="7"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-    </row>
-    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B196" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D196" s="3">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J196" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K196" s="4"/>
+      <c r="C196" s="7"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="18"/>
     </row>
     <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C197" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C197" s="19" t="s">
-        <v>193</v>
-      </c>
       <c r="D197" s="3">
         <v>1</v>
       </c>
       <c r="G197" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I197" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I197" s="3" t="s">
+      <c r="J197" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J197" s="3" t="s">
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B198" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C198" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="K197" s="4"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>194</v>
-      </c>
       <c r="D198" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I198" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I198" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="J198" s="3" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K198" s="4"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="D199" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>198</v>
+        <v>187</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D200" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J200" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D201" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G201" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I201" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="J201" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D202" s="3">
         <v>2</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J202" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B203" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C203" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J203" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D203" s="3">
-        <v>1</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J203" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="20" t="s">
+      <c r="B205" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C205" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C204" s="19" t="s">
+      <c r="D205" s="19">
+        <v>10</v>
+      </c>
+      <c r="F205" s="59"/>
+      <c r="G205" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I205" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D204" s="19">
-        <v>10</v>
-      </c>
-      <c r="F204" s="59"/>
-      <c r="G204" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="I204" s="4" t="s">
+      <c r="J205" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="J204" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A206" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="E206" s="9"/>
-      <c r="F206" s="9"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D207" s="3">
-        <v>0</v>
-      </c>
-      <c r="E207" s="5">
-        <v>518.5</v>
-      </c>
-      <c r="F207" s="5">
-        <f t="shared" ref="F207:F217" si="7">E207*D207</f>
-        <v>0</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B207" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
       </c>
       <c r="E208" s="5">
-        <v>764</v>
+        <v>518.5</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F208:F218" si="7">E208*D208</f>
         <v>0</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D209" s="3">
         <v>0</v>
       </c>
       <c r="E209" s="5">
-        <v>816</v>
+        <v>764</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I209" s="3" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D210" s="3">
         <v>0</v>
       </c>
       <c r="E210" s="5">
-        <v>952</v>
+        <v>816</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="I210" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
       </c>
       <c r="E211" s="5">
-        <v>99.5</v>
+        <v>952</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="7"/>
@@ -6072,16 +6103,16 @@
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D212" s="3">
         <v>0</v>
       </c>
       <c r="E212" s="5">
-        <v>128.5</v>
+        <v>99.5</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="7"/>
@@ -6090,16 +6121,16 @@
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D213" s="3">
         <v>0</v>
       </c>
       <c r="E213" s="5">
-        <v>156</v>
+        <v>128.5</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="7"/>
@@ -6108,16 +6139,16 @@
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D214" s="3">
         <v>0</v>
       </c>
       <c r="E214" s="5">
-        <v>184.5</v>
+        <v>156</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="7"/>
@@ -6126,16 +6157,16 @@
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D215" s="3">
         <v>0</v>
       </c>
       <c r="E215" s="5">
-        <v>106.5</v>
+        <v>184.5</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="7"/>
@@ -6144,47 +6175,65 @@
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D216" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E216" s="5">
         <v>106.5</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="7"/>
-        <v>639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D217" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E217" s="5">
-        <v>121.5</v>
+        <v>106.5</v>
       </c>
       <c r="F217" s="5">
         <f t="shared" si="7"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D218" s="3">
+        <v>10</v>
+      </c>
+      <c r="E218" s="5">
+        <v>121.5</v>
+      </c>
+      <c r="F218" s="5">
+        <f t="shared" si="7"/>
         <v>1215</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E220" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F220" s="5">
-        <f>SUM(F3:F218)</f>
-        <v>103939.31398799999</v>
+    <row r="221" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E221" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F221" s="5">
+        <f>SUM(F3:F219)</f>
+        <v>99786.313987999994</v>
       </c>
     </row>
   </sheetData>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D62D9D-5150-4289-8532-088DA5B6C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBAE75-ABCF-45DB-9A6D-1583C1E7F0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5772" yWindow="7212" windowWidth="34560" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="436">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -311,16 +311,7 @@
     <t>30 mm Cage Cube-Mounted Protected Aluminum Turning Mirror, M4 Tap</t>
   </si>
   <si>
-    <t>SM1FC</t>
-  </si>
-  <si>
-    <t>FC/PC Fiber Adapter Plate with External SM1 (1.035"-40) Thread</t>
-  </si>
-  <si>
     <t>SM1FCA</t>
-  </si>
-  <si>
-    <t>FC/APC Fiber Adapter Plate with External SM1 (1.035"-40) Thread</t>
   </si>
   <si>
     <t>AC254-100-A-ML</t>
@@ -1013,9 +1004,6 @@
     <t>M3 mirror assembly</t>
   </si>
   <si>
-    <t>M1, M2, M3 fold mirrors, in each arm</t>
-  </si>
-  <si>
     <t>Cage assembly</t>
   </si>
   <si>
@@ -1398,6 +1386,9 @@
   </si>
   <si>
     <t>Depends on laser interface. Oxxius: IO connector must be modified, pin24 (MDL-FSTM) and pin16 (GND Digital), to accept arm switching signal.</t>
+  </si>
+  <si>
+    <t>M1, M2 fold mirrors, in each arm</t>
   </si>
 </sst>
 </file>
@@ -2111,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K221"/>
+  <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,18 +2181,18 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" s="27">
         <v>0</v>
@@ -2216,7 +2207,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2227,24 +2218,24 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2260,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2268,7 +2259,7 @@
         <v>1008062</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>16</v>
@@ -2285,15 +2276,15 @@
       </c>
       <c r="G10" s="53"/>
       <c r="I10" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D11" s="38">
         <v>0</v>
@@ -2307,7 +2298,7 @@
       </c>
       <c r="G11" s="53"/>
       <c r="I11" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2338,10 +2329,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2365,7 +2356,7 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2389,10 +2380,10 @@
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2407,7 @@
         <v>132</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>13</v>
@@ -2443,10 +2434,10 @@
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2470,13 +2461,13 @@
         <v>1807</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2500,10 +2491,10 @@
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2527,10 +2518,10 @@
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2554,10 +2545,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2581,10 +2572,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2595,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2608,10 +2599,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2635,28 +2626,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2669,21 +2660,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2696,21 +2687,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2723,21 +2714,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2750,21 +2741,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2777,21 +2768,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2804,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2816,7 +2807,7 @@
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -2838,7 +2829,7 @@
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2929,13 +2920,13 @@
     </row>
     <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D40" s="41">
         <v>2</v>
@@ -2947,861 +2938,888 @@
         <f>E40*D40</f>
         <v>26</v>
       </c>
+      <c r="G40" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H40" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="43">
-        <v>18</v>
-      </c>
-      <c r="F41" s="55">
+      <c r="E41" s="5">
+        <v>17</v>
+      </c>
+      <c r="F41" s="5">
         <f>E41*D41</f>
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>30</v>
-      </c>
-      <c r="F42" s="5">
-        <v>30</v>
+    <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="41">
+        <v>2</v>
+      </c>
+      <c r="E42" s="43">
+        <v>18</v>
+      </c>
+      <c r="F42" s="55">
+        <f>E42*D42</f>
+        <v>36</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="26">
-        <v>91863</v>
-      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" ref="F43:F73" si="1">E43*D43</f>
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
+        <v>91863</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>400</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" ref="F44:F74" si="1">E44*D44</f>
+        <v>800</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" s="48">
+    <row r="45" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="48">
         <v>0</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E45" s="49">
         <v>656</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F45" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G45" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D45" s="41">
+      <c r="H45" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="41">
         <v>2</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E46" s="43">
         <v>31</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F46" s="55">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="H46" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="45">
+      <c r="I46" s="41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="45">
         <v>10</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E47" s="46">
         <v>16</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F47" s="57">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="H46" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="I46" s="45" t="s">
+      <c r="H47" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="D47" s="45">
+      <c r="D48" s="45">
         <v>4</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E48" s="46">
         <v>41</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F48" s="57">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="H47" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="I47" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" s="41">
+      <c r="H48" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="41">
         <v>2</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E49" s="43">
         <v>99</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F49" s="55">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="H48" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="45">
-        <v>6</v>
-      </c>
-      <c r="E49" s="46">
-        <v>189</v>
-      </c>
-      <c r="F49" s="57">
-        <f t="shared" si="1"/>
-        <v>1134</v>
-      </c>
-      <c r="H49" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>318</v>
+      <c r="H49" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D50" s="45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50" s="46">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="F50" s="57">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>756</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>296</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="41">
+      <c r="C51" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="45">
         <v>4</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="46">
+        <v>110</v>
+      </c>
+      <c r="F51" s="57">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="I51" s="45" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="41">
+        <v>4</v>
+      </c>
+      <c r="E52" s="43">
         <v>13</v>
       </c>
-      <c r="F51" s="55">
+      <c r="F52" s="55">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="H51" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="D52" s="41">
+      <c r="H52" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="41">
         <v>2</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E53" s="43">
         <v>8</v>
       </c>
-      <c r="F52" s="55">
+      <c r="F53" s="55">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H52" s="41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="41">
+      <c r="H53" s="41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="41">
         <v>4</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E54" s="43">
         <v>7</v>
       </c>
-      <c r="F53" s="55">
+      <c r="F54" s="55">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H53" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="H54" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I54" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="B54" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="D54" s="41">
+    </row>
+    <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="41">
         <v>6</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E55" s="43">
         <v>5</v>
       </c>
-      <c r="F54" s="55">
+      <c r="F55" s="55">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H54" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="I54" s="41" t="s">
+      <c r="H55" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="D55" s="41">
+      <c r="D56" s="41">
         <v>4</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E56" s="43">
         <v>6</v>
       </c>
-      <c r="F55" s="55">
+      <c r="F56" s="55">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H55" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="I55" s="41" t="s">
+      <c r="H56" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="D56" s="41">
+      <c r="B57" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="41">
         <v>4</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E57" s="43">
         <v>5</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F57" s="55">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H56" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="41">
+      <c r="H57" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="41">
         <v>2</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E58" s="43">
         <v>5</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F58" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H57" s="41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="45">
+      <c r="H58" s="41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" s="45">
         <v>2</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E59" s="46">
         <v>398</v>
       </c>
-      <c r="F58" s="57">
+      <c r="F59" s="57">
         <f t="shared" si="1"/>
         <v>796</v>
       </c>
-      <c r="H58" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="I58" s="45" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="D59" s="45">
+      <c r="H59" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="45">
         <v>2</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E60" s="46">
         <v>26</v>
       </c>
-      <c r="F59" s="57">
+      <c r="F60" s="57">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="H59" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="I59" s="45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="H60" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="B60" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="D60" s="45">
+      <c r="I60" s="45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="45">
         <v>2</v>
       </c>
-      <c r="E60" s="46">
+      <c r="E61" s="46">
         <v>30</v>
       </c>
-      <c r="F60" s="57">
+      <c r="F61" s="57">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H61" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I61" s="45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="I60" s="45" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="D61" s="41">
+      <c r="D62" s="41">
         <v>2</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E62" s="43">
         <v>36</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F62" s="55">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="H61" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="I61" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="71" t="s">
-        <v>407</v>
-      </c>
-      <c r="C62" s="42"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="55"/>
-      <c r="I62" s="50"/>
-    </row>
-    <row r="63" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="B63" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="D63" s="62">
+      <c r="H62" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="C63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="55"/>
+      <c r="I63" s="50"/>
+    </row>
+    <row r="64" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="D64" s="62">
         <v>0</v>
       </c>
-      <c r="E63" s="63">
+      <c r="E64" s="63">
         <v>1757</v>
       </c>
-      <c r="F63" s="64">
+      <c r="F64" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H63" s="62" t="s">
-        <v>324</v>
-      </c>
-      <c r="I63" s="65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
+      <c r="H64" s="62" t="s">
+        <v>320</v>
+      </c>
       <c r="I64" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="64"/>
+      <c r="I65" s="65" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="61" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="D65" s="62">
-        <v>0</v>
-      </c>
-      <c r="E65" s="63">
-        <v>59</v>
-      </c>
-      <c r="F65" s="64">
-        <f>E65*D65</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="62" t="s">
-        <v>324</v>
-      </c>
-      <c r="I65" s="65"/>
-    </row>
-    <row r="66" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="B66" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="61" t="s">
-        <v>336</v>
       </c>
       <c r="D66" s="62">
         <v>0</v>
       </c>
       <c r="E66" s="63">
-        <v>495</v>
+        <v>59</v>
       </c>
       <c r="F66" s="64">
         <f>E66*D66</f>
         <v>0</v>
       </c>
       <c r="H66" s="62" t="s">
-        <v>324</v>
-      </c>
-      <c r="I66" s="62" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="70" t="s">
-        <v>414</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="69"/>
-    </row>
-    <row r="68" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="B68" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="D68" s="67">
-        <v>2</v>
-      </c>
-      <c r="E68" s="68">
-        <v>2104</v>
-      </c>
-      <c r="F68" s="69">
-        <f>E68*D68</f>
-        <v>4208</v>
-      </c>
-      <c r="H68" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="I68" s="67" t="s">
-        <v>415</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="I66" s="65"/>
+    </row>
+    <row r="67" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="62">
+        <v>0</v>
+      </c>
+      <c r="E67" s="63">
+        <v>495</v>
+      </c>
+      <c r="F67" s="64">
+        <f>E67*D67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" s="62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="C68" s="66"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="69"/>
     </row>
     <row r="69" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B69" s="67" t="s">
         <v>83</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D69" s="67">
         <v>2</v>
       </c>
       <c r="E69" s="68">
-        <v>82</v>
+        <v>2104</v>
       </c>
       <c r="F69" s="69">
         <f>E69*D69</f>
-        <v>164</v>
+        <v>4208</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>324</v>
+        <v>320</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B70" s="67" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D70" s="67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="68">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="F70" s="69">
         <f>E70*D70</f>
+        <v>164</v>
+      </c>
+      <c r="H70" s="67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="D71" s="67">
+        <v>1</v>
+      </c>
+      <c r="E71" s="68">
         <v>390</v>
       </c>
-      <c r="H70" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="I70" s="67" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="D71" s="41">
+      <c r="F71" s="69">
+        <f>E71*D71</f>
+        <v>390</v>
+      </c>
+      <c r="H71" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I71" s="67" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D72" s="41">
         <v>2</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E72" s="43">
         <v>25</v>
       </c>
-      <c r="F71" s="55">
+      <c r="F72" s="55">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H71" s="41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="D72" s="41">
+      <c r="H72" s="41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" s="41">
         <v>2</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E73" s="43">
         <v>35</v>
       </c>
-      <c r="F72" s="55">
+      <c r="F73" s="55">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H72" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="I72" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="J72" s="52" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
+      <c r="H73" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I73" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J73" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="B73" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D73" s="41">
+    </row>
+    <row r="74" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D74" s="41">
         <v>2</v>
       </c>
-      <c r="E73" s="43">
+      <c r="E74" s="43">
         <v>92</v>
       </c>
-      <c r="F73" s="55">
+      <c r="F74" s="55">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="H73" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="I73" s="41" t="s">
+      <c r="H74" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" s="41" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="55"/>
-      <c r="H74" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="C75" s="42"/>
+      <c r="C75" s="60" t="s">
+        <v>393</v>
+      </c>
       <c r="E75" s="43"/>
       <c r="F75" s="55"/>
+      <c r="H75" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="76" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
@@ -3815,185 +3833,163 @@
       <c r="E77" s="43"/>
       <c r="F77" s="55"/>
     </row>
-    <row r="78" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="41">
-        <v>1</v>
-      </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="55"/>
-      <c r="I79" s="41" t="s">
-        <v>369</v>
-      </c>
+    <row r="78" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="55"/>
+    </row>
+    <row r="79" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>361</v>
+        <v>29</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80" s="43"/>
+      <c r="F80" s="55"/>
+      <c r="I80" s="41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D81" s="41">
+        <v>1</v>
+      </c>
+      <c r="E81" s="43">
         <v>63</v>
-      </c>
-      <c r="F80" s="55">
-        <f>D80*E80</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
-        <v>366</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="D81" s="41">
-        <v>2</v>
-      </c>
-      <c r="E81" s="43">
-        <v>69</v>
       </c>
       <c r="F81" s="55">
         <f>D81*E81</f>
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
-        <v>364</v>
+      <c r="A82" s="51" t="s">
+        <v>362</v>
       </c>
       <c r="B82" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="C82" s="42" t="s">
-        <v>365</v>
-      </c>
       <c r="D82" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="43">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F82" s="55">
         <f>D82*E82</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D83" s="41">
+        <v>1</v>
+      </c>
+      <c r="E83" s="43">
         <v>10</v>
       </c>
-      <c r="I82" s="41" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41" t="s">
+      <c r="F83" s="55">
+        <f>D83*E83</f>
+        <v>10</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B84" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C84" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="41">
-        <v>1</v>
-      </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="55"/>
-      <c r="I83" s="41" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>405</v>
+      <c r="D84" s="41">
+        <v>1</v>
+      </c>
+      <c r="E84" s="43"/>
+      <c r="F84" s="55"/>
+      <c r="I84" s="41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>396</v>
+    <row r="86" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="5">
-        <v>250</v>
-      </c>
-      <c r="F87" s="5">
-        <f>E87*D87</f>
-        <v>250</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" s="4"/>
+    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
       </c>
       <c r="E88" s="5">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="F88" s="5">
         <f>E88*D88</f>
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>13</v>
@@ -4003,25 +3999,25 @@
       </c>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
       </c>
       <c r="E89" s="5">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F89" s="5">
         <f>E89*D89</f>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>13</v>
@@ -4029,180 +4025,181 @@
       <c r="H89" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
-      <c r="I90" s="41" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C91" s="72" t="s">
-        <v>420</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>395</v>
+      <c r="E90" s="5">
+        <v>43</v>
+      </c>
+      <c r="F90" s="5">
+        <f>E90*D90</f>
+        <v>43</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C92" s="72" t="s">
+        <v>416</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="B93" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="D93" s="41">
-        <v>0</v>
-      </c>
-      <c r="E93" s="43">
-        <v>656</v>
-      </c>
-      <c r="F93" s="55">
-        <f>E93*D93</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="52"/>
-    </row>
-    <row r="94" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="42" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B94" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D94" s="41">
         <v>0</v>
       </c>
       <c r="E94" s="43">
-        <v>4.6500000000000004</v>
+        <v>656</v>
       </c>
       <c r="F94" s="55">
         <f>E94*D94</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>394</v>
+      <c r="I94" s="52"/>
+    </row>
+    <row r="95" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
+        <v>386</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D95" s="3">
+      <c r="C95" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="D95" s="41">
         <v>0</v>
       </c>
-      <c r="E95" s="12">
-        <v>4.87</v>
+      <c r="E95" s="43">
+        <v>4.6500000000000004</v>
       </c>
       <c r="F95" s="55">
         <f>E95*D95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F96" s="58"/>
-    </row>
-    <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
-        <v>217</v>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="F96" s="55">
+        <f>E96*D96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
+        <v>213</v>
       </c>
       <c r="F97" s="58"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="58"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5">
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
         <v>1075</v>
       </c>
-      <c r="F98" s="5">
-        <f t="shared" ref="F98:F103" si="2">E98*D98</f>
+      <c r="F99" s="5">
+        <f t="shared" ref="F99:F104" si="2">E99*D99</f>
         <v>1075</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I98" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B99" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="38">
-        <v>0</v>
-      </c>
-      <c r="E99" s="39">
-        <v>1350</v>
-      </c>
-      <c r="F99" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="38" t="s">
-        <v>218</v>
+      <c r="I99" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D100" s="38">
         <v>0</v>
@@ -4218,24 +4215,24 @@
         <v>13</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B101" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D101" s="38">
         <v>0</v>
       </c>
-      <c r="E101" s="40">
-        <v>1445</v>
+      <c r="E101" s="39">
+        <v>1350</v>
       </c>
       <c r="F101" s="39">
         <f t="shared" si="2"/>
@@ -4245,24 +4242,24 @@
         <v>13</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B102" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D102" s="38">
         <v>0</v>
       </c>
-      <c r="E102" s="39">
-        <v>1130</v>
+      <c r="E102" s="40">
+        <v>1445</v>
       </c>
       <c r="F102" s="39">
         <f t="shared" si="2"/>
@@ -4272,18 +4269,18 @@
         <v>13</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D103" s="38">
         <v>0</v>
@@ -4299,91 +4296,88 @@
         <v>13</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-    </row>
-    <row r="105" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="38">
+        <v>0</v>
+      </c>
+      <c r="E104" s="39">
+        <v>1130</v>
+      </c>
+      <c r="F104" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A105" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D105" s="32">
-        <v>1</v>
-      </c>
-      <c r="E105" s="33">
+      <c r="D106" s="32">
+        <v>1</v>
+      </c>
+      <c r="E106" s="33">
         <v>6734</v>
       </c>
-      <c r="F105" s="33">
-        <f>D105*E105</f>
+      <c r="F106" s="33">
+        <f>D106*E106</f>
         <v>6734</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="I105" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="35">
-        <v>11454</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" s="3">
-        <v>0</v>
-      </c>
-      <c r="E106" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F106" s="5">
-        <f>D106*E106</f>
-        <v>0</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
-        <v>11044</v>
+        <v>11454</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
       </c>
       <c r="E107" s="5">
-        <v>9387</v>
+        <v>5000</v>
       </c>
       <c r="F107" s="5">
         <f>D107*E107</f>
@@ -4393,435 +4387,441 @@
         <v>13</v>
       </c>
       <c r="H107" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>242</v>
+      <c r="A108" s="35">
+        <v>11044</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
       </c>
       <c r="E108" s="5">
-        <v>2000</v>
+        <v>9387</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" ref="F108:F109" si="3">D108*E108</f>
+        <f>D108*E108</f>
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H108" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D109" s="3">
         <v>0</v>
       </c>
       <c r="E109" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" ref="F109:F110" si="3">D109*E109</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="5">
         <v>2500</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F110" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="32"/>
+      <c r="H110" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="32"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="32"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="32"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="32"/>
     </row>
-    <row r="128" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="32"/>
+    </row>
+    <row r="129" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D129" s="3">
-        <v>1</v>
-      </c>
-      <c r="E129" s="5">
-        <v>3582</v>
-      </c>
-      <c r="F129" s="5">
-        <f>E129*D129</f>
-        <v>3582</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
       </c>
       <c r="E130" s="5">
-        <v>1630</v>
+        <v>3582</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" ref="F130:F138" si="4">E130*D130</f>
-        <v>1630</v>
+        <f>E130*D130</f>
+        <v>3582</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D131" s="3">
         <v>1</v>
       </c>
       <c r="E131" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" ref="F131:F139" si="4">E131*D131</f>
+        <v>1630</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5">
         <v>886</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F132" s="5">
         <f t="shared" si="4"/>
         <v>886</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="I132" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D132" s="3">
-        <v>1</v>
-      </c>
-      <c r="E132" s="5">
+      <c r="C133" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="5">
         <v>163</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F133" s="5">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="I133" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D133" s="3">
-        <v>1</v>
-      </c>
-      <c r="E133" s="5">
+      <c r="C134" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
         <v>11</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F134" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D134" s="3">
-        <v>1</v>
-      </c>
-      <c r="E134" s="5">
-        <v>520</v>
-      </c>
-      <c r="F134" s="5">
-        <f>E134*D134</f>
-        <v>520</v>
-      </c>
       <c r="G134" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
       </c>
       <c r="E135" s="5">
-        <v>193</v>
+        <v>520</v>
       </c>
       <c r="F135" s="5">
         <f>E135*D135</f>
-        <v>193</v>
+        <v>520</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="38" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
+        <v>193</v>
+      </c>
+      <c r="F136" s="5">
+        <f>E136*D136</f>
+        <v>193</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B137" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C137" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D136" s="38">
+      <c r="D137" s="38">
         <v>0</v>
       </c>
-      <c r="E136" s="39">
+      <c r="E137" s="39">
         <v>2800</v>
       </c>
-      <c r="F136" s="39">
+      <c r="F137" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G136" s="38" t="s">
+      <c r="G137" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I136" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="B137" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="D137" s="41">
+      <c r="I137" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="D138" s="41">
         <v>10</v>
       </c>
-      <c r="E137" s="55">
+      <c r="E138" s="55">
         <v>12</v>
       </c>
-      <c r="F137" s="55">
+      <c r="F138" s="55">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="G137" s="41" t="s">
+      <c r="G138" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I137" s="41" t="s">
+      <c r="I138" s="41" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="B139" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="41" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="B138" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="D138" s="41">
-        <v>1</v>
-      </c>
-      <c r="E138" s="55">
+      <c r="D139" s="41">
+        <v>1</v>
+      </c>
+      <c r="E139" s="55">
         <v>14</v>
       </c>
-      <c r="F138" s="55">
+      <c r="F139" s="55">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G138" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I138" s="41" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" s="3">
-        <v>4</v>
-      </c>
-      <c r="E139" s="5">
-        <v>15.25</v>
-      </c>
-      <c r="F139" s="5">
-        <f>E139*D139</f>
-        <v>61</v>
-      </c>
       <c r="G139" s="41" t="s">
         <v>73</v>
       </c>
+      <c r="I139" s="41" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D140" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E140" s="5">
-        <v>16.5</v>
+        <v>15.25</v>
       </c>
       <c r="F140" s="5">
         <f>E140*D140</f>
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="G140" s="41" t="s">
         <v>73</v>
@@ -4829,23 +4829,23 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D141" s="3">
         <v>10</v>
       </c>
       <c r="E141" s="5">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="F141" s="5">
         <f>E141*D141</f>
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="G141" s="41" t="s">
         <v>73</v>
@@ -4853,535 +4853,535 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D142" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E142" s="5">
         <v>24</v>
       </c>
       <c r="F142" s="5">
         <f>E142*D142</f>
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="G142" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" s="3">
+        <v>6</v>
+      </c>
+      <c r="E143" s="5">
+        <v>24</v>
+      </c>
+      <c r="F143" s="5">
+        <f>E143*D143</f>
+        <v>144</v>
+      </c>
+      <c r="G143" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+    </row>
+    <row r="147" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D147" s="3">
-        <v>1</v>
-      </c>
-      <c r="E147" s="5">
-        <v>488</v>
-      </c>
-      <c r="F147" s="5">
-        <f t="shared" ref="F147:F171" si="5">E147*D147</f>
-        <v>488</v>
-      </c>
+      <c r="C147" s="7"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5">
+        <v>488</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" ref="F148:F169" si="5">E148*D148</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="B149" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D148" s="3">
-        <v>1</v>
-      </c>
-      <c r="E148" s="5">
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+      <c r="E149" s="5">
         <v>184</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F149" s="5">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="B150" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D149" s="3">
-        <v>1</v>
-      </c>
-      <c r="E149" s="5">
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="5">
         <v>76</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F150" s="5">
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="B151" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D150" s="3">
-        <v>1</v>
-      </c>
-      <c r="E150" s="5">
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="5">
         <v>184</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F151" s="5">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D151" s="3">
-        <v>1</v>
-      </c>
-      <c r="E151" s="5">
-        <v>31</v>
-      </c>
-      <c r="F151" s="5">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D152" s="3">
         <v>1</v>
       </c>
       <c r="E152" s="5">
-        <v>32.78</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="5"/>
-        <v>32.78</v>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D153" s="3">
         <v>1</v>
       </c>
       <c r="E153" s="5">
-        <v>94.180155999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F153" s="5">
         <f t="shared" si="5"/>
-        <v>94.180155999999997</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D154" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" s="5">
-        <v>36.799999999999997</v>
+        <v>21.21</v>
       </c>
       <c r="F154" s="5">
         <f t="shared" si="5"/>
-        <v>36.799999999999997</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D155" s="3">
         <v>1</v>
       </c>
       <c r="E155" s="5">
-        <v>17</v>
+        <v>304.75</v>
       </c>
       <c r="F155" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>304.75</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D156" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" s="5">
-        <v>21.21</v>
+        <v>148.21</v>
       </c>
       <c r="F156" s="5">
         <f t="shared" si="5"/>
-        <v>42.42</v>
+        <v>148.21</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D157" s="3">
         <v>1</v>
       </c>
       <c r="E157" s="5">
-        <v>304.75</v>
+        <v>348.45</v>
       </c>
       <c r="F157" s="5">
         <f t="shared" si="5"/>
-        <v>304.75</v>
+        <v>348.45</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
       </c>
       <c r="E158" s="5">
-        <v>148.21</v>
+        <v>60.95</v>
       </c>
       <c r="F158" s="5">
         <f t="shared" si="5"/>
-        <v>148.21</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>105</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D159" s="3">
         <v>1</v>
       </c>
       <c r="E159" s="5">
-        <v>348.45</v>
+        <v>34.5</v>
       </c>
       <c r="F159" s="5">
         <f t="shared" si="5"/>
-        <v>348.45</v>
+        <v>34.5</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D160" s="3">
         <v>1</v>
       </c>
       <c r="E160" s="5">
-        <v>60.95</v>
+        <v>51.45</v>
       </c>
       <c r="F160" s="5">
         <f t="shared" si="5"/>
-        <v>60.95</v>
+        <v>51.45</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D161" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" s="5">
-        <v>34.5</v>
+        <v>13.8</v>
       </c>
       <c r="F161" s="5">
         <f t="shared" si="5"/>
-        <v>34.5</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>114</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D162" s="3">
         <v>1</v>
       </c>
       <c r="E162" s="5">
-        <v>51.45</v>
+        <v>19.09</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" si="5"/>
-        <v>51.45</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>114</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D163" s="3">
         <v>2</v>
       </c>
       <c r="E163" s="5">
-        <v>13.8</v>
+        <v>40.51</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="5"/>
-        <v>27.6</v>
+        <v>81.02</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D164" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="5">
-        <v>19.09</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="5"/>
-        <v>19.09</v>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D165" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E165" s="5">
-        <v>40.51</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="5"/>
-        <v>81.02</v>
+        <v>280.416</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D166" s="3">
         <v>2</v>
       </c>
       <c r="E166" s="5">
-        <v>83.598116000000005</v>
+        <v>28.75</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="5"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>114</v>
+        <v>57.5</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C167" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D167" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E167" s="5">
-        <v>70.103999999999999</v>
+        <v>38.872799999999998</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="5"/>
-        <v>280.416</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>77.745599999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D168" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" s="5">
-        <v>28.75</v>
+        <v>205</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="5"/>
-        <v>57.5</v>
-      </c>
-      <c r="I168" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>133</v>
@@ -5390,178 +5390,184 @@
         <v>2</v>
       </c>
       <c r="E169" s="5">
-        <v>38.872799999999998</v>
+        <v>12</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="5"/>
-        <v>77.745599999999996</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="10"/>
+    </row>
+    <row r="171" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D170" s="3">
-        <v>1</v>
-      </c>
-      <c r="E170" s="5">
-        <v>205</v>
-      </c>
-      <c r="F170" s="5">
-        <f t="shared" si="5"/>
-        <v>205</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C171" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D171" s="3">
+      <c r="C172" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="3">
+        <v>4</v>
+      </c>
+      <c r="E172" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F172" s="5">
+        <f t="shared" ref="F172:F187" si="6">E172*D172</f>
+        <v>66</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D173" s="3">
         <v>2</v>
       </c>
-      <c r="E171" s="5">
-        <v>12</v>
-      </c>
-      <c r="F171" s="5">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="10"/>
-    </row>
-    <row r="173" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F173" s="9"/>
+      <c r="E173" s="5">
+        <v>140</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D174" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E174" s="5">
-        <v>16.5</v>
+        <v>85.1</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" ref="F174:F189" si="6">E174*D174</f>
-        <v>66</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>141</v>
+        <f t="shared" si="6"/>
+        <v>85.1</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D175" s="3">
         <v>2</v>
       </c>
       <c r="E175" s="5">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>64</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D176" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" s="5">
-        <v>85.1</v>
+        <v>51.58</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="6"/>
-        <v>85.1</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D177" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" s="5">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D178" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" s="5">
-        <v>51.58</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="6"/>
-        <v>103.16</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,20 +5578,17 @@
         <v>83</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D179" s="3">
         <v>1</v>
       </c>
       <c r="E179" s="5">
-        <v>60</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>162</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5602,200 +5605,177 @@
         <v>1</v>
       </c>
       <c r="E180" s="5">
-        <v>136.47999999999999</v>
+        <v>60.95</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D181" s="3">
         <v>1</v>
       </c>
       <c r="E181" s="5">
-        <v>136.47999999999999</v>
+        <v>119.416</v>
       </c>
       <c r="F181" s="5">
         <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+        <v>119.416</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D182" s="3">
         <v>1</v>
       </c>
       <c r="E182" s="5">
-        <v>60.95</v>
+        <v>105.8</v>
       </c>
       <c r="F182" s="5">
         <f t="shared" si="6"/>
-        <v>60.95</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D183" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" s="5">
-        <v>119.416</v>
+        <v>119.6</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="6"/>
-        <v>119.416</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184" s="5">
-        <v>105.8</v>
+        <v>92</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="6"/>
-        <v>105.8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D185" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185" s="5">
-        <v>119.6</v>
+        <v>96.23</v>
       </c>
       <c r="F185" s="5">
         <f t="shared" si="6"/>
-        <v>239.2</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D186" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" s="5">
-        <v>92</v>
+        <v>102.44</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>102.44</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D187" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187" s="5">
-        <v>96.23</v>
+        <v>28</v>
       </c>
       <c r="F187" s="5">
         <f t="shared" si="6"/>
-        <v>96.23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C188" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D188" s="3">
-        <v>1</v>
-      </c>
-      <c r="E188" s="5">
-        <v>102.44</v>
-      </c>
-      <c r="F188" s="5">
-        <f t="shared" si="6"/>
-        <v>102.44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+      <c r="I189" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D189" s="3">
-        <v>2</v>
-      </c>
-      <c r="E189" s="5">
-        <v>28</v>
-      </c>
-      <c r="F189" s="5">
-        <f t="shared" si="6"/>
-        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -5803,446 +5783,427 @@
         <v>182</v>
       </c>
       <c r="D190" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C191" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D191" s="3">
-        <v>1</v>
-      </c>
-      <c r="I191" s="3" t="s">
+      <c r="C194" s="7"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="18"/>
+    </row>
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B195" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C192" s="3" t="s">
+      <c r="C195" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D192" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="8" t="s">
+      <c r="D195" s="3">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C196" s="7"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-    </row>
-    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I195" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K195" s="4"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B196" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C197" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J197" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D197" s="3">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J197" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K197" s="4"/>
-    </row>
-    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C198" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D198" s="3">
         <v>1</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I198" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K198" s="4"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D199" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J199" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
+      </c>
+      <c r="J199" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C200" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D200" s="3">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J200" s="3" t="s">
-        <v>191</v>
+      <c r="I200" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J200" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D201" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I201" s="3" t="s">
         <v>199</v>
       </c>
       <c r="J201" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C202" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D202" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I202" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="J202" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="3" t="s">
-        <v>187</v>
+      <c r="B203" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C203" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D203" s="3">
-        <v>2</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I203" s="3" t="s">
-        <v>202</v>
+      <c r="D203" s="19">
+        <v>10</v>
+      </c>
+      <c r="F203" s="59"/>
+      <c r="G203" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="J203" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D204" s="3">
-        <v>1</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C205" s="19" t="s">
+      <c r="B205" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B206" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D205" s="19">
-        <v>10</v>
-      </c>
-      <c r="F205" s="59"/>
-      <c r="G205" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="I205" s="4" t="s">
+      <c r="C206" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F206" s="5">
+        <f t="shared" ref="F206:F216" si="7">E206*D206</f>
+        <v>0</v>
+      </c>
+      <c r="I206" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="J205" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B207" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+      <c r="E207" s="5">
+        <v>764</v>
+      </c>
+      <c r="F207" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
       </c>
       <c r="E208" s="5">
-        <v>518.5</v>
+        <v>816</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" ref="F208:F218" si="7">E208*D208</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D209" s="3">
         <v>0</v>
       </c>
       <c r="E209" s="5">
-        <v>764</v>
+        <v>952</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D210" s="3">
         <v>0</v>
       </c>
       <c r="E210" s="5">
-        <v>816</v>
+        <v>99.5</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I210" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
       </c>
       <c r="E211" s="5">
-        <v>952</v>
+        <v>128.5</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D212" s="3">
         <v>0</v>
       </c>
       <c r="E212" s="5">
-        <v>99.5</v>
+        <v>156</v>
       </c>
       <c r="F212" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D213" s="3">
         <v>0</v>
       </c>
       <c r="E213" s="5">
-        <v>128.5</v>
+        <v>184.5</v>
       </c>
       <c r="F213" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D214" s="3">
         <v>0</v>
       </c>
       <c r="E214" s="5">
-        <v>156</v>
+        <v>106.5</v>
       </c>
       <c r="F214" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D215" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E215" s="5">
-        <v>184.5</v>
+        <v>106.5</v>
       </c>
       <c r="F215" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D216" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E216" s="5">
-        <v>106.5</v>
+        <v>121.5</v>
       </c>
       <c r="F216" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D217" s="3">
-        <v>6</v>
-      </c>
-      <c r="E217" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="F217" s="5">
-        <f t="shared" si="7"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D218" s="3">
-        <v>10</v>
-      </c>
-      <c r="E218" s="5">
-        <v>121.5</v>
-      </c>
-      <c r="F218" s="5">
-        <f t="shared" si="7"/>
         <v>1215</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E221" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F221" s="5">
-        <f>SUM(F3:F219)</f>
-        <v>99786.313987999994</v>
+    <row r="219" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E219" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F219" s="5">
+        <f>SUM(F3:F217)</f>
+        <v>99141.533987999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C108" r:id="rId1" xr:uid="{67732474-80B4-4B9F-B7F4-8404FF2C5C7F}"/>
-    <hyperlink ref="C105" r:id="rId2" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
-    <hyperlink ref="C109" r:id="rId3" xr:uid="{45DA022D-F6DD-4A17-9406-F3AFCDB6F6B9}"/>
-    <hyperlink ref="C107" r:id="rId4" xr:uid="{F54B111C-4718-45BF-A954-B0E31DB7F5D0}"/>
+    <hyperlink ref="C109" r:id="rId1" xr:uid="{67732474-80B4-4B9F-B7F4-8404FF2C5C7F}"/>
+    <hyperlink ref="C106" r:id="rId2" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
+    <hyperlink ref="C110" r:id="rId3" xr:uid="{45DA022D-F6DD-4A17-9406-F3AFCDB6F6B9}"/>
+    <hyperlink ref="C108" r:id="rId4" xr:uid="{F54B111C-4718-45BF-A954-B0E31DB7F5D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEBAE75-ABCF-45DB-9A6D-1583C1E7F0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF0CFCC-9529-4158-A9FE-ECB7CC199E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5772" yWindow="7212" windowWidth="34560" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8976" yWindow="3876" windowWidth="32904" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="433">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -714,12 +714,6 @@
   </si>
   <si>
     <t>Controller: Includes TG8, TGCOM, 2x TGDCM2, SA-JOY+ZF Contols four DC servo motors,</t>
-  </si>
-  <si>
-    <t>MFF101/M</t>
-  </si>
-  <si>
-    <t>Motorized Filter Flip Mount with Ø1" Optic Holder, M4 Tap</t>
   </si>
   <si>
     <t>Oxxius</t>
@@ -860,9 +854,6 @@
     <t>Digitec or elsewhere</t>
   </si>
   <si>
-    <t>Arm switching</t>
-  </si>
-  <si>
     <t>Excitation arms</t>
   </si>
   <si>
@@ -932,9 +923,6 @@
     <t>SM1 Lens Tube, 1.00" Thread Depth, One Retaining Ring Included</t>
   </si>
   <si>
-    <t>SM1A9</t>
-  </si>
-  <si>
     <t>Adapter with External C-Mount Threads and Internal SM1 Threads, 4.4 mm Spacer</t>
   </si>
   <si>
@@ -1068,9 +1056,6 @@
   </si>
   <si>
     <t>Galvo bracket must be modified (using milling machine), see Galvo-bracket-modified.ipt</t>
-  </si>
-  <si>
-    <t>Optional, only if the laser combiner has only one output (S=FISBA, Skyra). Left/right illumination switching</t>
   </si>
   <si>
     <t>3D printed</t>
@@ -1389,6 +1374,12 @@
   </si>
   <si>
     <t>M1, M2 fold mirrors, in each arm</t>
+  </si>
+  <si>
+    <t>SM1A10</t>
+  </si>
+  <si>
+    <t>varies</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1509,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,12 +1555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,7 +1618,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1685,35 +1670,31 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -2102,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K219"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:G42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2162,7 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>224</v>
@@ -2207,7 +2188,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2232,10 +2213,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2251,7 +2232,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2274,9 +2255,9 @@
         <f>E10*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="50"/>
       <c r="I10" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -2284,7 +2265,7 @@
         <v>211</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="38">
         <v>0</v>
@@ -2296,9 +2277,9 @@
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="50"/>
       <c r="I11" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2329,10 +2310,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2356,7 +2337,7 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2375,15 +2356,15 @@
       <c r="E15" s="25">
         <v>1807</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="52">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2402,12 +2383,12 @@
       <c r="E16" s="25">
         <v>132</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="52">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>13</v>
@@ -2429,15 +2410,15 @@
       <c r="E17" s="25">
         <v>250</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="52">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2456,18 +2437,18 @@
       <c r="E18" s="25">
         <v>1807</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="52">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2486,15 +2467,15 @@
       <c r="E19" s="25">
         <v>200</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="52">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2513,15 +2494,15 @@
       <c r="E20" s="25">
         <v>1939</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="52">
         <f t="shared" si="0"/>
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2545,10 +2526,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2572,10 +2553,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,10 +2580,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2626,28 +2607,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2660,21 +2641,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2687,21 +2668,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>373</v>
+      <c r="A28" s="51" t="s">
+        <v>368</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2714,21 +2695,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>376</v>
-      </c>
       <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2741,21 +2722,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>379</v>
+      <c r="A30" s="51" t="s">
+        <v>374</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2768,21 +2749,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
-        <v>384</v>
+      <c r="A31" s="51" t="s">
+        <v>379</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2795,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2829,7 +2810,7 @@
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2851,7 +2832,7 @@
         <v>780</v>
       </c>
       <c r="F37" s="5">
-        <f>E37*D37</f>
+        <f t="shared" ref="F37:F42" si="1">E37*D37</f>
         <v>1560</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -2878,7 +2859,7 @@
         <v>280</v>
       </c>
       <c r="F38" s="5">
-        <f>E38*D38</f>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -2908,7 +2889,7 @@
         <v>85</v>
       </c>
       <c r="F39" s="5">
-        <f>E39*D39</f>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -2920,13 +2901,13 @@
     </row>
     <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D40" s="41">
         <v>2</v>
@@ -2934,8 +2915,8 @@
       <c r="E40" s="43">
         <v>13</v>
       </c>
-      <c r="F40" s="55">
-        <f>E40*D40</f>
+      <c r="F40" s="52">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -2962,7 +2943,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="5">
-        <f>E41*D41</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -2974,13 +2955,13 @@
     </row>
     <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>291</v>
+        <v>431</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D42" s="41">
         <v>2</v>
@@ -2988,8 +2969,8 @@
       <c r="E42" s="43">
         <v>18</v>
       </c>
-      <c r="F42" s="55">
-        <f>E42*D42</f>
+      <c r="F42" s="52">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -3000,8 +2981,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="B43" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>53</v>
@@ -3042,155 +3026,152 @@
         <v>400</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" ref="F44:F74" si="1">E44*D44</f>
+        <f t="shared" ref="F44:F73" si="2">E44*D44</f>
         <v>800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
-        <v>226</v>
+    <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="48">
-        <v>0</v>
-      </c>
-      <c r="E45" s="49">
-        <v>656</v>
-      </c>
-      <c r="F45" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="48" t="s">
+      <c r="C45" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="41">
+        <v>2</v>
+      </c>
+      <c r="E45" s="43">
+        <v>31</v>
+      </c>
+      <c r="F45" s="52">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="I45" s="48" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>91</v>
+    </row>
+    <row r="46" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D46" s="41">
-        <v>2</v>
-      </c>
-      <c r="E46" s="43">
-        <v>31</v>
-      </c>
-      <c r="F46" s="55">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="I46" s="41" t="s">
+      <c r="D46" s="45">
+        <v>10</v>
+      </c>
+      <c r="E46" s="46">
+        <v>16</v>
+      </c>
+      <c r="F46" s="53">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="I46" s="45" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D47" s="45">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E47" s="46">
-        <v>16</v>
-      </c>
-      <c r="F47" s="57">
-        <f t="shared" si="1"/>
-        <v>160</v>
+        <v>41</v>
+      </c>
+      <c r="F47" s="53">
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="45">
+      <c r="D48" s="41">
+        <v>2</v>
+      </c>
+      <c r="E48" s="43">
+        <v>99</v>
+      </c>
+      <c r="F48" s="52">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="45">
         <v>4</v>
       </c>
-      <c r="E48" s="46">
-        <v>41</v>
-      </c>
-      <c r="F48" s="57">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="I48" s="45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" s="41">
-        <v>2</v>
-      </c>
-      <c r="E49" s="43">
-        <v>99</v>
-      </c>
-      <c r="F49" s="55">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="I49" s="41" t="s">
+      <c r="E49" s="46">
+        <v>189</v>
+      </c>
+      <c r="F49" s="53">
+        <f t="shared" si="2"/>
+        <v>756</v>
+      </c>
+      <c r="H49" s="45" t="s">
         <v>282</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -3207,122 +3188,122 @@
         <v>4</v>
       </c>
       <c r="E50" s="46">
-        <v>189</v>
-      </c>
-      <c r="F50" s="57">
-        <f t="shared" si="1"/>
-        <v>756</v>
+        <v>110</v>
+      </c>
+      <c r="F50" s="53">
+        <f t="shared" si="2"/>
+        <v>440</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
-        <v>286</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>289</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="45">
+      <c r="C51" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" s="41">
         <v>4</v>
       </c>
-      <c r="E51" s="46">
-        <v>110</v>
-      </c>
-      <c r="F51" s="57">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="I51" s="45" t="s">
-        <v>435</v>
+      <c r="E51" s="43">
+        <v>13</v>
+      </c>
+      <c r="F51" s="52">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D52" s="41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="43">
-        <v>13</v>
-      </c>
-      <c r="F52" s="55">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="F52" s="52">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="D53" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" s="43">
-        <v>8</v>
-      </c>
-      <c r="F53" s="55">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="F53" s="52">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>324</v>
+        <v>272</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="D54" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E54" s="43">
-        <v>7</v>
-      </c>
-      <c r="F54" s="55">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="F54" s="52">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="H54" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I54" s="41" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3336,537 +3317,531 @@
         <v>296</v>
       </c>
       <c r="D55" s="41">
+        <v>4</v>
+      </c>
+      <c r="E55" s="43">
         <v>6</v>
       </c>
-      <c r="E55" s="43">
-        <v>5</v>
-      </c>
-      <c r="F55" s="55">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="F55" s="52">
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I55" s="41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D56" s="41">
         <v>4</v>
       </c>
       <c r="E56" s="43">
-        <v>6</v>
-      </c>
-      <c r="F56" s="55">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="F56" s="52">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="B57" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="D57" s="41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="43">
         <v>5</v>
       </c>
-      <c r="F57" s="55">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="F57" s="52">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
-        <v>216</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>301</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D58" s="41">
+      <c r="C58" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="45">
         <v>2</v>
       </c>
-      <c r="E58" s="43">
-        <v>5</v>
-      </c>
-      <c r="F58" s="55">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>324</v>
+      <c r="E58" s="46">
+        <v>398</v>
+      </c>
+      <c r="F58" s="53">
+        <f t="shared" si="2"/>
+        <v>796</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="44" t="s">
         <v>305</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>306</v>
       </c>
       <c r="D59" s="45">
         <v>2</v>
       </c>
       <c r="E59" s="46">
-        <v>398</v>
-      </c>
-      <c r="F59" s="57">
-        <f t="shared" si="1"/>
-        <v>796</v>
+        <v>26</v>
+      </c>
+      <c r="F59" s="53">
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="44" t="s">
         <v>308</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>309</v>
       </c>
       <c r="D60" s="45">
         <v>2</v>
       </c>
       <c r="E60" s="46">
-        <v>26</v>
-      </c>
-      <c r="F60" s="57">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="F60" s="53">
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="H60" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" s="41">
+        <v>2</v>
+      </c>
+      <c r="E61" s="43">
+        <v>36</v>
+      </c>
+      <c r="F61" s="52">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I61" s="47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="C62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="52"/>
+      <c r="I62" s="47"/>
+    </row>
+    <row r="63" spans="1:9" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="I60" s="45" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="D61" s="45">
-        <v>2</v>
-      </c>
-      <c r="E61" s="46">
-        <v>30</v>
-      </c>
-      <c r="F61" s="57">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="H61" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="I61" s="45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="42" t="s">
+      <c r="B63" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="58">
+        <v>0</v>
+      </c>
+      <c r="E63" s="59">
+        <v>1757</v>
+      </c>
+      <c r="F63" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="42" t="s">
+      <c r="I63" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="D62" s="41">
-        <v>2</v>
-      </c>
-      <c r="E62" s="43">
-        <v>36</v>
-      </c>
-      <c r="F62" s="55">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="I62" s="50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="C63" s="42"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="55"/>
-      <c r="I63" s="50"/>
-    </row>
-    <row r="64" spans="1:9" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="B64" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="D64" s="62">
+    </row>
+    <row r="64" spans="1:9" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
+      <c r="I64" s="61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="D65" s="58">
         <v>0</v>
       </c>
-      <c r="E64" s="63">
-        <v>1757</v>
-      </c>
-      <c r="F64" s="64">
-        <f t="shared" si="1"/>
+      <c r="E65" s="59">
+        <v>59</v>
+      </c>
+      <c r="F65" s="60">
+        <f>E65*D65</f>
         <v>0</v>
       </c>
-      <c r="H64" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="I64" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="64"/>
-      <c r="I65" s="65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="B66" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="D66" s="62">
+      <c r="H65" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="I65" s="61"/>
+    </row>
+    <row r="66" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" s="58">
         <v>0</v>
       </c>
-      <c r="E66" s="63">
-        <v>59</v>
-      </c>
-      <c r="F66" s="64">
+      <c r="E66" s="59">
+        <v>495</v>
+      </c>
+      <c r="F66" s="60">
         <f>E66*D66</f>
         <v>0</v>
       </c>
-      <c r="H66" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="I66" s="65"/>
-    </row>
-    <row r="67" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="D67" s="62">
-        <v>0</v>
-      </c>
-      <c r="E67" s="63">
-        <v>495</v>
-      </c>
-      <c r="F67" s="64">
-        <f>E67*D67</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="I67" s="62" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="67" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="70" t="s">
-        <v>410</v>
-      </c>
-      <c r="C68" s="66"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="69"/>
-    </row>
-    <row r="69" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="66" t="s">
+      <c r="H66" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="I66" s="58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="63" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="C67" s="62"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+    </row>
+    <row r="68" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="B68" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="63">
+        <v>2</v>
+      </c>
+      <c r="E68" s="64">
+        <v>2104</v>
+      </c>
+      <c r="F68" s="65">
+        <f>E68*D68</f>
+        <v>4208</v>
+      </c>
+      <c r="H68" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="I68" s="63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="D69" s="63">
+        <v>2</v>
+      </c>
+      <c r="E69" s="64">
+        <v>82</v>
+      </c>
+      <c r="F69" s="65">
+        <f>E69*D69</f>
+        <v>164</v>
+      </c>
+      <c r="H69" s="63" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="B69" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="D69" s="67">
+      <c r="D70" s="63">
+        <v>1</v>
+      </c>
+      <c r="E70" s="64">
+        <v>390</v>
+      </c>
+      <c r="F70" s="65">
+        <f>E70*D70</f>
+        <v>390</v>
+      </c>
+      <c r="H70" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="I70" s="63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" s="41">
         <v>2</v>
       </c>
-      <c r="E69" s="68">
-        <v>2104</v>
-      </c>
-      <c r="F69" s="69">
-        <f>E69*D69</f>
-        <v>4208</v>
-      </c>
-      <c r="H69" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="I69" s="67" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="B70" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="D70" s="67">
-        <v>2</v>
-      </c>
-      <c r="E70" s="68">
-        <v>82</v>
-      </c>
-      <c r="F70" s="69">
-        <f>E70*D70</f>
-        <v>164</v>
-      </c>
-      <c r="H70" s="67" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="B71" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="D71" s="67">
-        <v>1</v>
-      </c>
-      <c r="E71" s="68">
-        <v>390</v>
-      </c>
-      <c r="F71" s="69">
-        <f>E71*D71</f>
-        <v>390</v>
-      </c>
-      <c r="H71" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="I71" s="67" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
-        <v>322</v>
+      <c r="E71" s="43">
+        <v>25</v>
+      </c>
+      <c r="F71" s="52">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="s">
+        <v>323</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D72" s="41">
         <v>2</v>
       </c>
       <c r="E72" s="43">
-        <v>25</v>
-      </c>
-      <c r="F72" s="55">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="F72" s="52">
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="H72" s="41" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="51" t="s">
-        <v>327</v>
+      <c r="I72" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J72" s="49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>322</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D73" s="41">
         <v>2</v>
       </c>
       <c r="E73" s="43">
-        <v>35</v>
-      </c>
-      <c r="F73" s="55">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>92</v>
+      </c>
+      <c r="F73" s="52">
+        <f t="shared" si="2"/>
+        <v>184</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="I73" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="J73" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="I73" s="41" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="D74" s="41">
-        <v>2</v>
-      </c>
-      <c r="E74" s="43">
-        <v>92</v>
-      </c>
-      <c r="F74" s="55">
-        <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="E74" s="43"/>
+      <c r="F74" s="52"/>
       <c r="H74" s="41" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>393</v>
-      </c>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="C75" s="42"/>
       <c r="E75" s="43"/>
-      <c r="F75" s="55"/>
-      <c r="H75" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="I75" s="41" t="s">
-        <v>412</v>
-      </c>
+      <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="C76" s="42"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="55"/>
+      <c r="F76" s="52"/>
     </row>
     <row r="77" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="C77" s="42"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="55"/>
-    </row>
-    <row r="78" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="55"/>
-    </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
+      <c r="F77" s="52"/>
+    </row>
+    <row r="78" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="41">
+        <v>1</v>
+      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="52"/>
+      <c r="I79" s="41" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="55"/>
-      <c r="I80" s="41" t="s">
-        <v>365</v>
+      <c r="E80" s="43">
+        <v>63</v>
+      </c>
+      <c r="F80" s="52">
+        <f>D80*E80</f>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="48" t="s">
         <v>357</v>
       </c>
       <c r="B81" s="41" t="s">
@@ -3876,120 +3851,127 @@
         <v>358</v>
       </c>
       <c r="D81" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="43">
-        <v>63</v>
-      </c>
-      <c r="F81" s="55">
+        <v>69</v>
+      </c>
+      <c r="F81" s="52">
         <f>D81*E81</f>
-        <v>63</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="51" t="s">
-        <v>362</v>
+      <c r="A82" s="42" t="s">
+        <v>355</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D82" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="43">
-        <v>69</v>
-      </c>
-      <c r="F82" s="55">
+        <v>10</v>
+      </c>
+      <c r="F82" s="52">
         <f>D82*E82</f>
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="41">
+        <v>1</v>
+      </c>
+      <c r="E83" s="43"/>
+      <c r="F83" s="52"/>
+      <c r="I83" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="B83" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="D83" s="41">
-        <v>1</v>
-      </c>
-      <c r="E83" s="43">
-        <v>10</v>
-      </c>
-      <c r="F83" s="55">
-        <f>D83*E83</f>
-        <v>10</v>
-      </c>
-      <c r="I83" s="41" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="41">
-        <v>1</v>
-      </c>
-      <c r="E84" s="43"/>
-      <c r="F84" s="55"/>
-      <c r="I84" s="41" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>230</v>
+    </row>
+    <row r="84" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>401</v>
+    <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
+    <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5">
+        <v>250</v>
+      </c>
+      <c r="F87" s="5">
+        <f>E87*D87</f>
+        <v>250</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D88" s="3">
         <v>1</v>
       </c>
       <c r="E88" s="5">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="F88" s="5">
         <f>E88*D88</f>
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>13</v>
@@ -3999,25 +3981,25 @@
       </c>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
       </c>
       <c r="E89" s="5">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F89" s="5">
         <f>E89*D89</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>13</v>
@@ -4025,181 +4007,180 @@
       <c r="H89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5">
-        <v>43</v>
-      </c>
-      <c r="F90" s="5">
-        <f>E90*D90</f>
-        <v>43</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D91" s="3">
-        <v>1</v>
-      </c>
-      <c r="I91" s="41" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C92" s="72" t="s">
-        <v>416</v>
+      <c r="C91" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="41">
+        <v>0</v>
+      </c>
+      <c r="E93" s="43">
+        <v>656</v>
+      </c>
+      <c r="F93" s="52">
+        <f>E93*D93</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="49"/>
+    </row>
+    <row r="94" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B94" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D94" s="41">
         <v>0</v>
       </c>
       <c r="E94" s="43">
-        <v>656</v>
-      </c>
-      <c r="F94" s="55">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F94" s="52">
         <f>E94*D94</f>
         <v>0</v>
       </c>
-      <c r="I94" s="52"/>
-    </row>
-    <row r="95" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
-        <v>386</v>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="D95" s="41">
+      <c r="C95" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" s="3">
         <v>0</v>
       </c>
-      <c r="E95" s="43">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F95" s="55">
+      <c r="E95" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="F95" s="52">
         <f>E95*D95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B96" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D96" s="3">
+    <row r="96" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="54"/>
+    </row>
+    <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1075</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" ref="F98:F103" si="3">E98*D98</f>
+        <v>1075</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="38">
         <v>0</v>
       </c>
-      <c r="E96" s="12">
-        <v>4.87</v>
-      </c>
-      <c r="F96" s="55">
-        <f>E96*D96</f>
+      <c r="E99" s="39">
+        <v>1350</v>
+      </c>
+      <c r="F99" s="39">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" s="58"/>
-    </row>
-    <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="58"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" s="3">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5">
-        <v>1075</v>
-      </c>
-      <c r="F99" s="5">
-        <f t="shared" ref="F99:F104" si="2">E99*D99</f>
-        <v>1075</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>221</v>
+      <c r="I99" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D100" s="38">
         <v>0</v>
@@ -4208,7 +4189,7 @@
         <v>1350</v>
       </c>
       <c r="F100" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="38" t="s">
@@ -4220,22 +4201,22 @@
     </row>
     <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B101" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D101" s="38">
         <v>0</v>
       </c>
-      <c r="E101" s="39">
-        <v>1350</v>
+      <c r="E101" s="40">
+        <v>1445</v>
       </c>
       <c r="F101" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="38" t="s">
@@ -4247,22 +4228,22 @@
     </row>
     <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B102" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D102" s="38">
         <v>0</v>
       </c>
-      <c r="E102" s="40">
-        <v>1445</v>
+      <c r="E102" s="39">
+        <v>1130</v>
       </c>
       <c r="F102" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="38" t="s">
@@ -4274,13 +4255,13 @@
     </row>
     <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D103" s="38">
         <v>0</v>
@@ -4289,7 +4270,7 @@
         <v>1130</v>
       </c>
       <c r="F103" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="38" t="s">
@@ -4299,85 +4280,88 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B104" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" s="38">
+    <row r="104" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A104" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+    </row>
+    <row r="105" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="32">
+        <v>1</v>
+      </c>
+      <c r="E105" s="33">
+        <v>6734</v>
+      </c>
+      <c r="F105" s="33">
+        <f>D105*E105</f>
+        <v>6734</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="35">
+        <v>11454</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" s="3">
         <v>0</v>
       </c>
-      <c r="E104" s="39">
-        <v>1130</v>
-      </c>
-      <c r="F104" s="39">
-        <f t="shared" si="2"/>
+      <c r="E106" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F106" s="5">
+        <f>D106*E106</f>
         <v>0</v>
-      </c>
-      <c r="G104" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-    </row>
-    <row r="106" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" s="32">
-        <v>1</v>
-      </c>
-      <c r="E106" s="33">
-        <v>6734</v>
-      </c>
-      <c r="F106" s="33">
-        <f>D106*E106</f>
-        <v>6734</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>234</v>
+        <v>242</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="35">
-        <v>11454</v>
+        <v>11044</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
       </c>
       <c r="E107" s="5">
-        <v>5000</v>
+        <v>9387</v>
       </c>
       <c r="F107" s="5">
         <f>D107*E107</f>
@@ -4387,180 +4371,177 @@
         <v>13</v>
       </c>
       <c r="H107" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I107" s="3" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="35">
-        <v>11044</v>
+      <c r="A108" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B108" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" s="37" t="s">
         <v>233</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>245</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
       </c>
       <c r="E108" s="5">
-        <v>9387</v>
+        <v>2000</v>
       </c>
       <c r="F108" s="5">
-        <f>D108*E108</f>
+        <f t="shared" ref="F108:F109" si="4">D108*E108</f>
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H108" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D109" s="3">
         <v>0</v>
       </c>
       <c r="E109" s="5">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" ref="F109:F110" si="3">D109*E109</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H109" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="C110" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="5">
-        <v>2500</v>
-      </c>
-      <c r="F110" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
+    </row>
+    <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="32"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="32"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" s="32"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="32"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="32"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="32"/>
-    </row>
-    <row r="129" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+    <row r="128" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F129" s="5">
+        <f>E129*D129</f>
+        <v>3582</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
       </c>
       <c r="E130" s="5">
-        <v>3582</v>
+        <v>1630</v>
       </c>
       <c r="F130" s="5">
-        <f>E130*D130</f>
-        <v>3582</v>
+        <f t="shared" ref="F130:F138" si="5">E130*D130</f>
+        <v>1630</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>73</v>
@@ -4571,104 +4552,101 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D131" s="3">
         <v>1</v>
       </c>
       <c r="E131" s="5">
-        <v>1630</v>
+        <v>886</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" ref="F131:F139" si="4">E131*D131</f>
-        <v>1630</v>
+        <f t="shared" si="5"/>
+        <v>886</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D132" s="3">
         <v>1</v>
       </c>
       <c r="E132" s="5">
-        <v>886</v>
+        <v>163</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="4"/>
-        <v>886</v>
+        <f t="shared" si="5"/>
+        <v>163</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
       </c>
       <c r="E133" s="5">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="4"/>
-        <v>163</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
       </c>
       <c r="E134" s="5">
-        <v>11</v>
+        <v>520</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>E134*D134</f>
+        <v>520</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>73</v>
@@ -4676,98 +4654,101 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
       </c>
       <c r="E135" s="5">
-        <v>520</v>
+        <v>193</v>
       </c>
       <c r="F135" s="5">
         <f>E135*D135</f>
-        <v>520</v>
+        <v>193</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" s="3" t="s">
+    <row r="136" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B136" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1</v>
-      </c>
-      <c r="E136" s="5">
-        <v>193</v>
-      </c>
-      <c r="F136" s="5">
-        <f>E136*D136</f>
-        <v>193</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="C136" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="38">
+        <v>0</v>
+      </c>
+      <c r="E136" s="39">
+        <v>2800</v>
+      </c>
+      <c r="F136" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="38">
-        <v>0</v>
-      </c>
-      <c r="E137" s="39">
-        <v>2800</v>
-      </c>
-      <c r="F137" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="38" t="s">
+      <c r="I136" s="38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="B137" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D137" s="41">
+        <v>10</v>
+      </c>
+      <c r="E137" s="52">
+        <v>12</v>
+      </c>
+      <c r="F137" s="52">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="G137" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I137" s="38" t="s">
-        <v>263</v>
+      <c r="I137" s="41" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="41" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B138" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D138" s="41">
-        <v>10</v>
-      </c>
-      <c r="E138" s="55">
-        <v>12</v>
-      </c>
-      <c r="F138" s="55">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="E138" s="52">
+        <v>14</v>
+      </c>
+      <c r="F138" s="52">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="G138" s="41" t="s">
         <v>73</v>
@@ -4776,52 +4757,49 @@
         <v>429</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="B139" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C139" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="D139" s="41">
-        <v>1</v>
-      </c>
-      <c r="E139" s="55">
-        <v>14</v>
-      </c>
-      <c r="F139" s="55">
-        <f t="shared" si="4"/>
-        <v>14</v>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D139" s="3">
+        <v>4</v>
+      </c>
+      <c r="E139" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="F139" s="5">
+        <f>E139*D139</f>
+        <v>61</v>
       </c>
       <c r="G139" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I139" s="41" t="s">
-        <v>434</v>
-      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D140" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E140" s="5">
-        <v>15.25</v>
+        <v>16.5</v>
       </c>
       <c r="F140" s="5">
         <f>E140*D140</f>
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="G140" s="41" t="s">
         <v>73</v>
@@ -4829,23 +4807,23 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D141" s="3">
         <v>10</v>
       </c>
       <c r="E141" s="5">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="F141" s="5">
         <f>E141*D141</f>
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="G141" s="41" t="s">
         <v>73</v>
@@ -4853,230 +4831,230 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D142" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E142" s="5">
         <v>24</v>
       </c>
       <c r="F142" s="5">
         <f>E142*D142</f>
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="G142" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D143" s="3">
-        <v>6</v>
-      </c>
-      <c r="E143" s="5">
-        <v>24</v>
-      </c>
-      <c r="F143" s="5">
-        <f>E143*D143</f>
-        <v>144</v>
-      </c>
-      <c r="G143" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E144" s="55"/>
-      <c r="F144" s="55"/>
-    </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
+    <row r="143" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+    </row>
+    <row r="146" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
+      <c r="C146" s="7"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="5">
+        <v>488</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" ref="F147:F168" si="6">E147*D147</f>
+        <v>488</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D148" s="3">
         <v>1</v>
       </c>
       <c r="E148" s="5">
-        <v>488</v>
+        <v>184</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" ref="F148:F169" si="5">E148*D148</f>
-        <v>488</v>
+        <f t="shared" si="6"/>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D149" s="3">
         <v>1</v>
       </c>
       <c r="E149" s="5">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="5"/>
-        <v>184</v>
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D150" s="3">
         <v>1</v>
       </c>
       <c r="E150" s="5">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="5"/>
-        <v>76</v>
+        <f t="shared" si="6"/>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D151" s="3">
         <v>1</v>
       </c>
       <c r="E151" s="5">
-        <v>184</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="5"/>
-        <v>184</v>
+        <f t="shared" si="6"/>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D152" s="3">
         <v>1</v>
       </c>
       <c r="E152" s="5">
-        <v>94.180155999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="5"/>
-        <v>94.180155999999997</v>
+        <f t="shared" si="6"/>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D153" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" s="5">
-        <v>36.799999999999997</v>
+        <v>21.21</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="5"/>
-        <v>36.799999999999997</v>
+        <f t="shared" si="6"/>
+        <v>42.42</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" s="5">
-        <v>21.21</v>
+        <v>304.75</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="5"/>
-        <v>42.42</v>
+        <f t="shared" si="6"/>
+        <v>304.75</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D155" s="3">
         <v>1</v>
       </c>
       <c r="E155" s="5">
-        <v>304.75</v>
+        <v>148.21</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="5"/>
-        <v>304.75</v>
+        <f t="shared" si="6"/>
+        <v>148.21</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>102</v>
@@ -5084,23 +5062,23 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D156" s="3">
         <v>1</v>
       </c>
       <c r="E156" s="5">
-        <v>148.21</v>
+        <v>348.45</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="5"/>
-        <v>148.21</v>
+        <f t="shared" si="6"/>
+        <v>348.45</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>102</v>
@@ -5108,68 +5086,68 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D157" s="3">
         <v>1</v>
       </c>
       <c r="E157" s="5">
-        <v>348.45</v>
+        <v>60.95</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" si="5"/>
-        <v>348.45</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>102</v>
+        <f t="shared" si="6"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
       </c>
       <c r="E158" s="5">
-        <v>60.95</v>
+        <v>34.5</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="5"/>
-        <v>60.95</v>
+        <f t="shared" si="6"/>
+        <v>34.5</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D159" s="3">
         <v>1</v>
       </c>
       <c r="E159" s="5">
-        <v>34.5</v>
+        <v>51.45</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="5"/>
-        <v>34.5</v>
+        <f t="shared" si="6"/>
+        <v>51.45</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>111</v>
@@ -5177,185 +5155,182 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D160" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" s="5">
-        <v>51.45</v>
+        <v>13.8</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="5"/>
-        <v>51.45</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>111</v>
+        <f t="shared" si="6"/>
+        <v>27.6</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D161" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" s="5">
-        <v>13.8</v>
+        <v>19.09</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="5"/>
-        <v>27.6</v>
+        <f t="shared" si="6"/>
+        <v>19.09</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D162" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" s="5">
-        <v>19.09</v>
+        <v>40.51</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="5"/>
-        <v>19.09</v>
+        <f t="shared" si="6"/>
+        <v>81.02</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D163" s="3">
         <v>2</v>
       </c>
       <c r="E163" s="5">
-        <v>40.51</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="5"/>
-        <v>81.02</v>
+        <f t="shared" si="6"/>
+        <v>167.19623200000001</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D164" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E164" s="5">
-        <v>83.598116000000005</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="5"/>
-        <v>167.19623200000001</v>
+        <f t="shared" si="6"/>
+        <v>280.416</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D165" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E165" s="5">
-        <v>70.103999999999999</v>
+        <v>28.75</v>
       </c>
       <c r="F165" s="5">
-        <f t="shared" si="5"/>
-        <v>280.416</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>57.5</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D166" s="3">
         <v>2</v>
       </c>
       <c r="E166" s="5">
-        <v>28.75</v>
+        <v>38.872799999999998</v>
       </c>
       <c r="F166" s="5">
-        <f t="shared" si="5"/>
-        <v>57.5</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>128</v>
+        <f t="shared" si="6"/>
+        <v>77.745599999999996</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="B167" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D167" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" s="5">
-        <v>38.872799999999998</v>
+        <v>205</v>
       </c>
       <c r="F167" s="5">
-        <f t="shared" si="5"/>
-        <v>77.745599999999996</v>
+        <f t="shared" si="6"/>
+        <v>205</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5363,190 +5338,190 @@
         <v>131</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D168" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" s="5">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="F168" s="5">
-        <f t="shared" si="5"/>
-        <v>205</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D169" s="3">
-        <v>2</v>
-      </c>
-      <c r="E169" s="5">
-        <v>12</v>
-      </c>
-      <c r="F169" s="5">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="10"/>
-    </row>
-    <row r="171" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="10"/>
+    </row>
+    <row r="170" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F171" s="9"/>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D171" s="3">
+        <v>4</v>
+      </c>
+      <c r="E171" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" ref="F171:F186" si="7">E171*D171</f>
+        <v>66</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D172" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E172" s="5">
-        <v>16.5</v>
+        <v>140</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" ref="F172:F187" si="6">E172*D172</f>
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>280</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D173" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" s="5">
-        <v>140</v>
+        <v>85.1</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="6"/>
-        <v>280</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>142</v>
+        <f t="shared" si="7"/>
+        <v>85.1</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D174" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" s="5">
-        <v>85.1</v>
+        <v>32</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" si="6"/>
-        <v>85.1</v>
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D175" s="3">
         <v>2</v>
       </c>
       <c r="E175" s="5">
-        <v>32</v>
+        <v>51.58</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>154</v>
+        <f t="shared" si="7"/>
+        <v>103.16</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D176" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176" s="5">
-        <v>51.58</v>
+        <v>60</v>
       </c>
       <c r="F176" s="5">
-        <f t="shared" si="6"/>
-        <v>103.16</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D177" s="3">
         <v>1</v>
       </c>
       <c r="E177" s="5">
-        <v>60</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F177" s="5">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>159</v>
+        <f t="shared" si="7"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5557,7 +5532,7 @@
         <v>83</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D178" s="3">
         <v>1</v>
@@ -5566,240 +5541,240 @@
         <v>136.47999999999999</v>
       </c>
       <c r="F178" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.47999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D179" s="3">
         <v>1</v>
       </c>
       <c r="E179" s="5">
-        <v>136.47999999999999</v>
+        <v>60.95</v>
       </c>
       <c r="F179" s="5">
-        <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+        <f t="shared" si="7"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D180" s="3">
         <v>1</v>
       </c>
       <c r="E180" s="5">
-        <v>60.95</v>
+        <v>119.416</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="6"/>
-        <v>60.95</v>
+        <f t="shared" si="7"/>
+        <v>119.416</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D181" s="3">
         <v>1</v>
       </c>
       <c r="E181" s="5">
-        <v>119.416</v>
+        <v>105.8</v>
       </c>
       <c r="F181" s="5">
-        <f t="shared" si="6"/>
-        <v>119.416</v>
+        <f t="shared" si="7"/>
+        <v>105.8</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D182" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182" s="5">
-        <v>105.8</v>
+        <v>119.6</v>
       </c>
       <c r="F182" s="5">
-        <f t="shared" si="6"/>
-        <v>105.8</v>
+        <f t="shared" si="7"/>
+        <v>239.2</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D183" s="3">
         <v>2</v>
       </c>
       <c r="E183" s="5">
-        <v>119.6</v>
+        <v>92</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" si="6"/>
-        <v>239.2</v>
+        <f t="shared" si="7"/>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D184" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" s="5">
-        <v>92</v>
+        <v>96.23</v>
       </c>
       <c r="F184" s="5">
-        <f t="shared" si="6"/>
-        <v>184</v>
+        <f t="shared" si="7"/>
+        <v>96.23</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D185" s="3">
         <v>1</v>
       </c>
       <c r="E185" s="5">
-        <v>96.23</v>
+        <v>102.44</v>
       </c>
       <c r="F185" s="5">
-        <f t="shared" si="6"/>
-        <v>96.23</v>
+        <f t="shared" si="7"/>
+        <v>102.44</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D186" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="5">
-        <v>102.44</v>
+        <v>28</v>
       </c>
       <c r="F186" s="5">
-        <f t="shared" si="6"/>
-        <v>102.44</v>
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C187" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D187" s="3">
-        <v>2</v>
-      </c>
-      <c r="E187" s="5">
-        <v>28</v>
-      </c>
-      <c r="F187" s="5">
-        <f t="shared" si="6"/>
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C188" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D188" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C189" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D189" s="3">
         <v>1</v>
       </c>
-      <c r="I189" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C190" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D190" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="s">
+    </row>
+    <row r="193" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C194" s="7"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
+      <c r="C193" s="7"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B194" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K194" s="4"/>
     </row>
     <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D195" s="3">
         <v>1</v>
@@ -5815,42 +5790,38 @@
       </c>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D196" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K196" s="4"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C197" s="19" t="s">
-        <v>190</v>
+      <c r="C197" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D197" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J197" s="3" t="s">
         <v>188</v>
@@ -5860,17 +5831,20 @@
       <c r="B198" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>192</v>
+      <c r="C198" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="D198" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J198" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J198" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -5878,16 +5852,16 @@
         <v>184</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>195</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J199" s="19" t="s">
         <v>197</v>
@@ -5898,7 +5872,7 @@
         <v>184</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D200" s="3">
         <v>2</v>
@@ -5917,92 +5891,90 @@
       <c r="B201" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C201" s="19" t="s">
-        <v>200</v>
+      <c r="C201" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D201" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I201" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J201" s="19" t="s">
+      <c r="J201" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="19">
+        <v>10</v>
+      </c>
+      <c r="F202" s="55"/>
+      <c r="G202" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J202" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D202" s="3">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J202" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C203" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D203" s="19">
-        <v>10</v>
-      </c>
-      <c r="F203" s="59"/>
-      <c r="G203" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J203" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="8" t="s">
+    <row r="204" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
+      <c r="B204" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B205" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+      <c r="E205" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F205" s="5">
+        <f t="shared" ref="F205:F215" si="8">E205*D205</f>
+        <v>0</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B206" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D206" s="3">
         <v>0</v>
       </c>
       <c r="E206" s="5">
-        <v>518.5</v>
+        <v>764</v>
       </c>
       <c r="F206" s="5">
-        <f t="shared" ref="F206:F216" si="7">E206*D206</f>
+        <f t="shared" si="8"/>
         <v>0</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -6010,17 +5982,20 @@
         <v>206</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D207" s="3">
         <v>0</v>
       </c>
       <c r="E207" s="5">
-        <v>764</v>
+        <v>816</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -6028,20 +6003,17 @@
         <v>206</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
       </c>
       <c r="E208" s="5">
-        <v>816</v>
+        <v>952</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
-      </c>
-      <c r="I208" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
@@ -6049,16 +6021,16 @@
         <v>206</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D209" s="3">
         <v>0</v>
       </c>
       <c r="E209" s="5">
-        <v>952</v>
+        <v>99.5</v>
       </c>
       <c r="F209" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6067,16 +6039,16 @@
         <v>206</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D210" s="3">
         <v>0</v>
       </c>
       <c r="E210" s="5">
-        <v>99.5</v>
+        <v>128.5</v>
       </c>
       <c r="F210" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6085,16 +6057,16 @@
         <v>206</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
       </c>
       <c r="E211" s="5">
-        <v>128.5</v>
+        <v>156</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6103,16 +6075,16 @@
         <v>206</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D212" s="3">
         <v>0</v>
       </c>
       <c r="E212" s="5">
-        <v>156</v>
+        <v>184.5</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6121,16 +6093,16 @@
         <v>206</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D213" s="3">
         <v>0</v>
       </c>
       <c r="E213" s="5">
-        <v>184.5</v>
+        <v>106.5</v>
       </c>
       <c r="F213" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6139,17 +6111,17 @@
         <v>206</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D214" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E214" s="5">
         <v>106.5</v>
       </c>
       <c r="F214" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>639</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
@@ -6157,53 +6129,35 @@
         <v>206</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D215" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E215" s="5">
-        <v>106.5</v>
+        <v>121.5</v>
       </c>
       <c r="F215" s="5">
-        <f t="shared" si="7"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D216" s="3">
-        <v>10</v>
-      </c>
-      <c r="E216" s="5">
-        <v>121.5</v>
-      </c>
-      <c r="F216" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1215</v>
       </c>
     </row>
-    <row r="219" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E219" s="21" t="s">
+    <row r="218" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E218" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F219" s="5">
-        <f>SUM(F3:F217)</f>
-        <v>99141.533987999996</v>
+      <c r="F218" s="5">
+        <f>SUM(F3:F216)</f>
+        <v>99059.533987999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C109" r:id="rId1" xr:uid="{67732474-80B4-4B9F-B7F4-8404FF2C5C7F}"/>
-    <hyperlink ref="C106" r:id="rId2" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
-    <hyperlink ref="C110" r:id="rId3" xr:uid="{45DA022D-F6DD-4A17-9406-F3AFCDB6F6B9}"/>
-    <hyperlink ref="C108" r:id="rId4" xr:uid="{F54B111C-4718-45BF-A954-B0E31DB7F5D0}"/>
+    <hyperlink ref="C108" r:id="rId1" xr:uid="{67732474-80B4-4B9F-B7F4-8404FF2C5C7F}"/>
+    <hyperlink ref="C105" r:id="rId2" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
+    <hyperlink ref="C109" r:id="rId3" xr:uid="{45DA022D-F6DD-4A17-9406-F3AFCDB6F6B9}"/>
+    <hyperlink ref="C107" r:id="rId4" xr:uid="{F54B111C-4718-45BF-A954-B0E31DB7F5D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF0CFCC-9529-4158-A9FE-ECB7CC199E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B115D-0D9A-4771-9D9A-A06D730E507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="3876" windowWidth="32904" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10200" yWindow="3696" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="426">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -722,9 +722,6 @@
     <t>Alternative. FOV 29 mm diagonal</t>
   </si>
   <si>
-    <t>Detection: Filter wheels</t>
-  </si>
-  <si>
     <t>Detection: Lenses</t>
   </si>
   <si>
@@ -737,43 +734,10 @@
     <t>1.2x telecentric lens, F-mount, suitable for sensors up to 25 megapixel and with an image format of 32mm (diagonal).</t>
   </si>
   <si>
-    <t>0.9X, 28.7mm F-Mount PlatinumTL™ Telecentric Lens</t>
-  </si>
-  <si>
     <t>1.2x Lensagon T25M-12-155I</t>
   </si>
   <si>
-    <t>2x Lensagon TM42-10M-20-75</t>
-  </si>
-  <si>
-    <t>Edmund</t>
-  </si>
-  <si>
-    <t>62-902</t>
-  </si>
-  <si>
-    <t>2x telecentric lens with very flat FOV, designed by request of L.Sacconi. Default mount M42x0.75 (T-mount), needs F-mount adapter.</t>
-  </si>
-  <si>
-    <t>0.9x telecentric lens</t>
-  </si>
-  <si>
-    <t>0.5X, 28.7mm F-Mount PlatinumTL™ Telecentric Lens</t>
-  </si>
-  <si>
-    <t>62-912</t>
-  </si>
-  <si>
     <t>Camera assembly</t>
-  </si>
-  <si>
-    <t>3x Lensagon T25M-30-78</t>
-  </si>
-  <si>
-    <t>3x telecentric lens  is suitable for sensors up to 25 megapixel and with an image format of 32mm (diagonal).</t>
-  </si>
-  <si>
-    <t>Alternative. Moderate-cost 4-channel laser, with mature software and good support. Requires additional switching mechanism (flip mirror).</t>
   </si>
   <si>
     <t>Recommended. Includes switching module between 2 laser ports, controlled by TTL signal.</t>
@@ -842,9 +806,6 @@
     <t>Cable between the Chassis and the PC</t>
   </si>
   <si>
-    <t>Optional. Only if you need more than 4 laser lines.</t>
-  </si>
-  <si>
     <t>SH68-68-EPM Shielded Cable, 68 D-Type to 68 D-Type, 1M</t>
   </si>
   <si>
@@ -971,15 +932,6 @@
     <t>Linear stage for M3 mirror adjustment</t>
   </si>
   <si>
-    <t>AB90H</t>
-  </si>
-  <si>
-    <t>Slim Right-Angle Bracket with Counterbored Slots</t>
-  </si>
-  <si>
-    <t>Bracket for M3 mirror mounting on linear stage</t>
-  </si>
-  <si>
     <t>XRN-B1/M</t>
   </si>
   <si>
@@ -1245,12 +1197,6 @@
   </si>
   <si>
     <t>Robotis FR07-S101K Set</t>
-  </si>
-  <si>
-    <t>Option 1: Servo-driven filter wheel</t>
-  </si>
-  <si>
-    <t>Option 2: Motorized flip mount</t>
   </si>
   <si>
     <t>Deprecated 10mm Galvos</t>
@@ -1380,6 +1326,51 @@
   </si>
   <si>
     <t>varies</t>
+  </si>
+  <si>
+    <t>mirror-bracket.stl</t>
+  </si>
+  <si>
+    <t>Braket for M3 kinematic mirror mount</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bracket for M3 mirror mounting on linear stage. Folder </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/custom-parts/excitation-mirror-bracket/</t>
+    </r>
+  </si>
+  <si>
+    <t>HW-KIT5</t>
+  </si>
+  <si>
+    <t>4-40 Cap Screw and Hardware Kit</t>
+  </si>
+  <si>
+    <t>Option 1: Servo-driven filter wheel. ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm)</t>
+  </si>
+  <si>
+    <t>Option 2: Motorized flip mount ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm)</t>
+  </si>
+  <si>
+    <t>Detection: Filter wheels (OPTIONAL)</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>OPTIONAL. Only if you need more than 4 laser lines.</t>
+  </si>
+  <si>
+    <t>Alternative. Moderate-cost 4-channel laser, with mature software and good support. Requires switching mechanism or laser duplication.</t>
   </si>
 </sst>
 </file>
@@ -2083,15 +2074,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K218"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="86.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" style="3" customWidth="1"/>
@@ -2162,7 +2153,7 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>224</v>
@@ -2216,7 +2207,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2232,7 +2223,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2257,7 +2248,7 @@
       </c>
       <c r="G10" s="50"/>
       <c r="I10" s="38" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -2265,7 +2256,7 @@
         <v>211</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D11" s="38">
         <v>0</v>
@@ -2279,7 +2270,7 @@
       </c>
       <c r="G11" s="50"/>
       <c r="I11" s="38" t="s">
-        <v>245</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2310,10 +2301,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2337,7 +2328,7 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2361,10 +2352,10 @@
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2388,7 +2379,7 @@
         <v>132</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>13</v>
@@ -2415,10 +2406,10 @@
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2442,13 +2433,13 @@
         <v>1807</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2472,10 +2463,10 @@
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2499,10 +2490,10 @@
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,10 +2517,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2553,10 +2544,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2580,10 +2571,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2607,28 +2598,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2641,21 +2632,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2668,21 +2659,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2695,21 +2686,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2722,21 +2713,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2749,21 +2740,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2776,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2810,7 +2801,7 @@
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2901,13 +2892,13 @@
     </row>
     <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D40" s="41">
         <v>2</v>
@@ -2955,13 +2946,13 @@
     </row>
     <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D42" s="41">
         <v>2</v>
@@ -2982,10 +2973,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>53</v>
@@ -3026,14 +3017,14 @@
         <v>400</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" ref="F44:F73" si="2">E44*D44</f>
+        <f t="shared" ref="F44:F74" si="2">E44*D44</f>
         <v>800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>57</v>
@@ -3047,7 +3038,7 @@
         <v>83</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D45" s="41">
         <v>2</v>
@@ -3060,21 +3051,21 @@
         <v>62</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D46" s="45">
         <v>10</v>
@@ -3087,21 +3078,21 @@
         <v>160</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D47" s="45">
         <v>2</v>
@@ -3114,21 +3105,21 @@
         <v>82</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D48" s="41">
         <v>2</v>
@@ -3141,21 +3132,21 @@
         <v>198</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I48" s="41" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D49" s="45">
         <v>4</v>
@@ -3168,21 +3159,21 @@
         <v>756</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D50" s="45">
         <v>4</v>
@@ -3195,21 +3186,21 @@
         <v>440</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D51" s="41">
         <v>4</v>
@@ -3222,21 +3213,21 @@
         <v>52</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="I51" s="41" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D52" s="41">
         <v>2</v>
@@ -3249,7 +3240,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3273,21 +3264,21 @@
         <v>28</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="I53" s="41" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D54" s="41">
         <v>6</v>
@@ -3300,21 +3291,21 @@
         <v>30</v>
       </c>
       <c r="H54" s="41" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="I54" s="41" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B55" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D55" s="41">
         <v>4</v>
@@ -3327,21 +3318,21 @@
         <v>24</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="I55" s="41" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D56" s="41">
         <v>4</v>
@@ -3354,10 +3345,10 @@
         <v>20</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3381,18 +3372,18 @@
         <v>10</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D58" s="45">
         <v>2</v>
@@ -3405,48 +3396,48 @@
         <v>796</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I58" s="45" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
-        <v>304</v>
+        <v>415</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="D59" s="45">
         <v>2</v>
       </c>
       <c r="E59" s="46">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F59" s="53">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>306</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D60" s="45">
         <v>2</v>
@@ -3459,21 +3450,21 @@
         <v>60</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I60" s="45" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D61" s="41">
         <v>2</v>
@@ -3486,15 +3477,15 @@
         <v>72</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="67" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C62" s="42"/>
       <c r="E62" s="43"/>
@@ -3503,13 +3494,13 @@
     </row>
     <row r="63" spans="1:9" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="57" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B63" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D63" s="58">
         <v>0</v>
@@ -3522,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I63" s="61" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3534,18 +3525,18 @@
       <c r="E64" s="59"/>
       <c r="F64" s="60"/>
       <c r="I64" s="61" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="57" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B65" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D65" s="58">
         <v>0</v>
@@ -3558,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="H65" s="58" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I65" s="61"/>
     </row>
     <row r="66" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B66" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D66" s="58">
         <v>0</v>
@@ -3583,15 +3574,15 @@
         <v>0</v>
       </c>
       <c r="H66" s="58" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I66" s="58" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="63" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="66" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C67" s="62"/>
       <c r="E67" s="64"/>
@@ -3599,13 +3590,13 @@
     </row>
     <row r="68" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="62" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B68" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="62" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D68" s="63">
         <v>2</v>
@@ -3618,21 +3609,21 @@
         <v>4208</v>
       </c>
       <c r="H68" s="63" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I68" s="63" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="62" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B69" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C69" s="62" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="D69" s="63">
         <v>2</v>
@@ -3645,18 +3636,18 @@
         <v>164</v>
       </c>
       <c r="H69" s="63" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="62" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B70" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D70" s="63">
         <v>1</v>
@@ -3669,21 +3660,21 @@
         <v>390</v>
       </c>
       <c r="H70" s="63" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I70" s="63" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D71" s="41">
         <v>2</v>
@@ -3696,18 +3687,18 @@
         <v>50</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D72" s="41">
         <v>2</v>
@@ -3720,24 +3711,24 @@
         <v>70</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I72" s="47" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="J72" s="49" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B73" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D73" s="41">
         <v>2</v>
@@ -3750,29 +3741,37 @@
         <v>184</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I73" s="41" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>388</v>
-      </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="52"/>
+        <v>372</v>
+      </c>
+      <c r="D74" s="41">
+        <v>2</v>
+      </c>
+      <c r="E74" s="43">
+        <v>1</v>
+      </c>
+      <c r="F74" s="52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="H74" s="41" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3795,7 +3794,7 @@
     </row>
     <row r="78" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -3816,18 +3815,18 @@
       <c r="E79" s="43"/>
       <c r="F79" s="52"/>
       <c r="I79" s="41" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
@@ -3842,13 +3841,13 @@
     </row>
     <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D81" s="41">
         <v>2</v>
@@ -3863,13 +3862,13 @@
     </row>
     <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D82" s="41">
         <v>1</v>
@@ -3882,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3901,36 +3900,36 @@
       <c r="E83" s="43"/>
       <c r="F83" s="52"/>
       <c r="I83" s="41" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>228</v>
+        <v>422</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>14</v>
@@ -3955,13 +3954,13 @@
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -3983,13 +3982,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -4010,47 +4009,47 @@
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C91" s="68" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="42" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B93" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D93" s="41">
         <v>0</v>
@@ -4066,13 +4065,13 @@
     </row>
     <row r="94" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B94" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="D94" s="41">
         <v>0</v>
@@ -4087,13 +4086,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D95" s="3">
         <v>0</v>
@@ -4282,20 +4281,20 @@
     </row>
     <row r="104" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E104" s="31"/>
       <c r="F104" s="31"/>
     </row>
     <row r="105" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="32" t="s">
-        <v>231</v>
-      </c>
       <c r="C105" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D105" s="32">
         <v>1</v>
@@ -4311,1856 +4310,1738 @@
         <v>13</v>
       </c>
       <c r="H105" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B106" s="32"/>
+      <c r="H106" s="32"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="35"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="37"/>
+      <c r="H107" s="32"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="32"/>
+      <c r="C108" s="37"/>
+      <c r="H108" s="32"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="32"/>
+      <c r="C109" s="37"/>
+      <c r="H109" s="32"/>
+    </row>
+    <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="32"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="32"/>
+    </row>
+    <row r="114" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F115" s="5">
+        <f>E115*D115</f>
+        <v>3582</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" ref="F116:F124" si="4">E116*D116</f>
+        <v>1630</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I105" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="35">
-        <v>11454</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="B117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5">
+        <v>886</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="4"/>
+        <v>886</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
+        <v>163</v>
+      </c>
+      <c r="F118" s="5">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
+        <v>11</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5">
+        <v>520</v>
+      </c>
+      <c r="F120" s="5">
+        <f>E120*D120</f>
+        <v>520</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
+        <v>193</v>
+      </c>
+      <c r="F121" s="5">
+        <f>E121*D121</f>
+        <v>193</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="38">
         <v>0</v>
       </c>
-      <c r="E106" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F106" s="5">
-        <f>D106*E106</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="35">
-        <v>11044</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0</v>
-      </c>
-      <c r="E107" s="5">
-        <v>9387</v>
-      </c>
-      <c r="F107" s="5">
-        <f>D107*E107</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F108" s="5">
-        <f t="shared" ref="F108:F109" si="4">D108*E108</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="5">
-        <v>2500</v>
-      </c>
-      <c r="F109" s="5">
+      <c r="E122" s="39">
+        <v>2800</v>
+      </c>
+      <c r="F122" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="32"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="32"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="32"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="32"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="32"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="32"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="32"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="32"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="32"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="32"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="32"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="32"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="32"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="32"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="32"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="32"/>
-    </row>
-    <row r="128" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D129" s="3">
-        <v>1</v>
-      </c>
-      <c r="E129" s="5">
-        <v>3582</v>
-      </c>
-      <c r="F129" s="5">
-        <f>E129*D129</f>
-        <v>3582</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="G122" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I129" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D130" s="3">
-        <v>1</v>
-      </c>
-      <c r="E130" s="5">
-        <v>1630</v>
-      </c>
-      <c r="F130" s="5">
-        <f t="shared" ref="F130:F138" si="5">E130*D130</f>
-        <v>1630</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="I122" s="38" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B123" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" s="41">
+        <v>10</v>
+      </c>
+      <c r="E123" s="52">
+        <v>12</v>
+      </c>
+      <c r="F123" s="52">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G123" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I130" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D131" s="3">
-        <v>1</v>
-      </c>
-      <c r="E131" s="5">
-        <v>886</v>
-      </c>
-      <c r="F131" s="5">
-        <f t="shared" si="5"/>
-        <v>886</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="I123" s="41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D124" s="41">
+        <v>1</v>
+      </c>
+      <c r="E124" s="52">
+        <v>14</v>
+      </c>
+      <c r="F124" s="52">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G124" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D132" s="3">
-        <v>1</v>
-      </c>
-      <c r="E132" s="5">
-        <v>163</v>
-      </c>
-      <c r="F132" s="5">
-        <f t="shared" si="5"/>
-        <v>163</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="I124" s="41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" s="3">
+        <v>4</v>
+      </c>
+      <c r="E125" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="F125" s="5">
+        <f>E125*D125</f>
+        <v>61</v>
+      </c>
+      <c r="G125" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>260</v>
-      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" s="3">
+        <v>10</v>
+      </c>
+      <c r="E126" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F126" s="5">
+        <f>E126*D126</f>
+        <v>165</v>
+      </c>
+      <c r="G126" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D127" s="3">
+        <v>10</v>
+      </c>
+      <c r="E127" s="5">
+        <v>24</v>
+      </c>
+      <c r="F127" s="5">
+        <f>E127*D127</f>
+        <v>240</v>
+      </c>
+      <c r="G127" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" s="3">
+        <v>6</v>
+      </c>
+      <c r="E128" s="5">
+        <v>24</v>
+      </c>
+      <c r="F128" s="5">
+        <f>E128*D128</f>
+        <v>144</v>
+      </c>
+      <c r="G128" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="52"/>
+      <c r="F129" s="52"/>
+    </row>
+    <row r="132" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
       </c>
       <c r="E133" s="5">
-        <v>11</v>
+        <v>488</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>73</v>
+        <f t="shared" ref="F133:F154" si="5">E133*D133</f>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
       </c>
       <c r="E134" s="5">
-        <v>520</v>
+        <v>184</v>
       </c>
       <c r="F134" s="5">
-        <f>E134*D134</f>
-        <v>520</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
       </c>
       <c r="E135" s="5">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="F135" s="5">
-        <f>E135*D135</f>
-        <v>193</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B136" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C136" s="38" t="s">
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="D136" s="38">
-        <v>0</v>
-      </c>
-      <c r="E136" s="39">
-        <v>2800</v>
-      </c>
-      <c r="F136" s="39">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
+        <v>184</v>
+      </c>
+      <c r="F136" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I136" s="38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="B137" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="D137" s="41">
-        <v>10</v>
-      </c>
-      <c r="E137" s="52">
-        <v>12</v>
-      </c>
-      <c r="F137" s="52">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5">
+        <v>94.180155999999997</v>
+      </c>
+      <c r="F137" s="5">
         <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="G137" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I137" s="41" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="B138" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="D138" s="41">
-        <v>1</v>
-      </c>
-      <c r="E138" s="52">
-        <v>14</v>
-      </c>
-      <c r="F138" s="52">
+        <v>94.180155999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F138" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="G138" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I138" s="41" t="s">
-        <v>429</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D139" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E139" s="5">
-        <v>15.25</v>
+        <v>21.21</v>
       </c>
       <c r="F139" s="5">
-        <f>E139*D139</f>
-        <v>61</v>
-      </c>
-      <c r="G139" s="41" t="s">
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>42.42</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="D140" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E140" s="5">
-        <v>16.5</v>
+        <v>304.75</v>
       </c>
       <c r="F140" s="5">
-        <f>E140*D140</f>
-        <v>165</v>
-      </c>
-      <c r="G140" s="41" t="s">
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>304.75</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="D141" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E141" s="5">
-        <v>24</v>
+        <v>148.21</v>
       </c>
       <c r="F141" s="5">
-        <f>E141*D141</f>
-        <v>240</v>
-      </c>
-      <c r="G141" s="41" t="s">
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>148.21</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D142" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E142" s="5">
-        <v>24</v>
+        <v>348.45</v>
       </c>
       <c r="F142" s="5">
-        <f>E142*D142</f>
-        <v>144</v>
-      </c>
-      <c r="G142" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E143" s="52"/>
-      <c r="F143" s="52"/>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C146" s="7"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
+        <f t="shared" si="5"/>
+        <v>348.45</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5">
+        <v>60.95</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="5"/>
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" si="5"/>
+        <v>34.5</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5">
+        <v>51.45</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="5"/>
+        <v>51.45</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2</v>
+      </c>
+      <c r="E146" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="5"/>
+        <v>27.6</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D147" s="3">
         <v>1</v>
       </c>
       <c r="E147" s="5">
-        <v>488</v>
+        <v>19.09</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" ref="F147:F168" si="6">E147*D147</f>
-        <v>488</v>
+        <f t="shared" si="5"/>
+        <v>19.09</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D148" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" s="5">
-        <v>184</v>
+        <v>40.51</v>
       </c>
       <c r="F148" s="5">
+        <f t="shared" si="5"/>
+        <v>81.02</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2</v>
+      </c>
+      <c r="E149" s="5">
+        <v>83.598116000000005</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" si="5"/>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150" s="3">
+        <v>4</v>
+      </c>
+      <c r="E150" s="5">
+        <v>70.103999999999999</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" si="5"/>
+        <v>280.416</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2</v>
+      </c>
+      <c r="E151" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" si="5"/>
+        <v>57.5</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2</v>
+      </c>
+      <c r="E152" s="5">
+        <v>38.872799999999998</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="5"/>
+        <v>77.745599999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5">
+        <v>205</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2</v>
+      </c>
+      <c r="E154" s="5">
+        <v>12</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4</v>
+      </c>
+      <c r="E157" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" ref="F157:F173" si="6">E157*D157</f>
+        <v>66</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2</v>
+      </c>
+      <c r="E158" s="5">
+        <v>140</v>
+      </c>
+      <c r="F158" s="5">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5">
+        <v>85.1</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" si="6"/>
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2</v>
+      </c>
+      <c r="E160" s="5">
+        <v>32</v>
+      </c>
+      <c r="F160" s="5">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5">
+        <v>51.58</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" si="6"/>
+        <v>103.16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5">
+        <v>60</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5">
+        <v>136.47999999999999</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" si="6"/>
+        <v>136.47999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5">
+        <v>136.47999999999999</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" si="6"/>
+        <v>136.47999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5">
+        <v>60.95</v>
+      </c>
+      <c r="F165" s="5">
+        <f t="shared" si="6"/>
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+      <c r="E166" s="5">
+        <v>119.416</v>
+      </c>
+      <c r="F166" s="5">
+        <f t="shared" si="6"/>
+        <v>119.416</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1</v>
+      </c>
+      <c r="E167" s="5">
+        <v>105.8</v>
+      </c>
+      <c r="F167" s="5">
+        <f t="shared" si="6"/>
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2</v>
+      </c>
+      <c r="E168" s="5">
+        <v>119.6</v>
+      </c>
+      <c r="F168" s="5">
+        <f t="shared" si="6"/>
+        <v>239.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5">
+        <v>100</v>
+      </c>
+      <c r="F169" s="5">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2</v>
+      </c>
+      <c r="E170" s="5">
+        <v>92</v>
+      </c>
+      <c r="F170" s="5">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D149" s="3">
-        <v>1</v>
-      </c>
-      <c r="E149" s="5">
-        <v>76</v>
-      </c>
-      <c r="F149" s="5">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D150" s="3">
-        <v>1</v>
-      </c>
-      <c r="E150" s="5">
-        <v>184</v>
-      </c>
-      <c r="F150" s="5">
-        <f t="shared" si="6"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D151" s="3">
-        <v>1</v>
-      </c>
-      <c r="E151" s="5">
-        <v>94.180155999999997</v>
-      </c>
-      <c r="F151" s="5">
-        <f t="shared" si="6"/>
-        <v>94.180155999999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D152" s="3">
-        <v>1</v>
-      </c>
-      <c r="E152" s="5">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F152" s="5">
-        <f t="shared" si="6"/>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D153" s="3">
-        <v>2</v>
-      </c>
-      <c r="E153" s="5">
-        <v>21.21</v>
-      </c>
-      <c r="F153" s="5">
-        <f t="shared" si="6"/>
-        <v>42.42</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D154" s="3">
-        <v>1</v>
-      </c>
-      <c r="E154" s="5">
-        <v>304.75</v>
-      </c>
-      <c r="F154" s="5">
-        <f t="shared" si="6"/>
-        <v>304.75</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D155" s="3">
-        <v>1</v>
-      </c>
-      <c r="E155" s="5">
-        <v>148.21</v>
-      </c>
-      <c r="F155" s="5">
-        <f t="shared" si="6"/>
-        <v>148.21</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" s="3">
-        <v>1</v>
-      </c>
-      <c r="E156" s="5">
-        <v>348.45</v>
-      </c>
-      <c r="F156" s="5">
-        <f t="shared" si="6"/>
-        <v>348.45</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D157" s="3">
-        <v>1</v>
-      </c>
-      <c r="E157" s="5">
-        <v>60.95</v>
-      </c>
-      <c r="F157" s="5">
-        <f t="shared" si="6"/>
-        <v>60.95</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D158" s="3">
-        <v>1</v>
-      </c>
-      <c r="E158" s="5">
-        <v>34.5</v>
-      </c>
-      <c r="F158" s="5">
-        <f t="shared" si="6"/>
-        <v>34.5</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D159" s="3">
-        <v>1</v>
-      </c>
-      <c r="E159" s="5">
-        <v>51.45</v>
-      </c>
-      <c r="F159" s="5">
-        <f t="shared" si="6"/>
-        <v>51.45</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D160" s="3">
-        <v>2</v>
-      </c>
-      <c r="E160" s="5">
-        <v>13.8</v>
-      </c>
-      <c r="F160" s="5">
-        <f t="shared" si="6"/>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D161" s="3">
-        <v>1</v>
-      </c>
-      <c r="E161" s="5">
-        <v>19.09</v>
-      </c>
-      <c r="F161" s="5">
-        <f t="shared" si="6"/>
-        <v>19.09</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D162" s="3">
-        <v>2</v>
-      </c>
-      <c r="E162" s="5">
-        <v>40.51</v>
-      </c>
-      <c r="F162" s="5">
-        <f t="shared" si="6"/>
-        <v>81.02</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D163" s="3">
-        <v>2</v>
-      </c>
-      <c r="E163" s="5">
-        <v>83.598116000000005</v>
-      </c>
-      <c r="F163" s="5">
-        <f t="shared" si="6"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D164" s="3">
-        <v>4</v>
-      </c>
-      <c r="E164" s="5">
-        <v>70.103999999999999</v>
-      </c>
-      <c r="F164" s="5">
-        <f t="shared" si="6"/>
-        <v>280.416</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D165" s="3">
-        <v>2</v>
-      </c>
-      <c r="E165" s="5">
-        <v>28.75</v>
-      </c>
-      <c r="F165" s="5">
-        <f t="shared" si="6"/>
-        <v>57.5</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D166" s="3">
-        <v>2</v>
-      </c>
-      <c r="E166" s="5">
-        <v>38.872799999999998</v>
-      </c>
-      <c r="F166" s="5">
-        <f t="shared" si="6"/>
-        <v>77.745599999999996</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D167" s="3">
-        <v>1</v>
-      </c>
-      <c r="E167" s="5">
-        <v>205</v>
-      </c>
-      <c r="F167" s="5">
-        <f t="shared" si="6"/>
-        <v>205</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D168" s="3">
-        <v>2</v>
-      </c>
-      <c r="E168" s="5">
-        <v>12</v>
-      </c>
-      <c r="F168" s="5">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="10"/>
-    </row>
-    <row r="170" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F170" s="9"/>
-    </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="D171" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E171" s="5">
-        <v>16.5</v>
+        <v>96.23</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" ref="F171:F186" si="7">E171*D171</f>
-        <v>66</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>138</v>
+        <f t="shared" si="6"/>
+        <v>96.23</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D172" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" s="5">
-        <v>140</v>
+        <v>102.44</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>142</v>
+        <f t="shared" si="6"/>
+        <v>102.44</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D173" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" s="5">
-        <v>85.1</v>
+        <v>28</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="7"/>
-        <v>85.1</v>
+        <f t="shared" si="6"/>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C174" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D174" s="3">
-        <v>2</v>
-      </c>
-      <c r="E174" s="5">
-        <v>32</v>
-      </c>
-      <c r="F174" s="5">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C175" s="3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D175" s="3">
-        <v>2</v>
-      </c>
-      <c r="E175" s="5">
-        <v>51.58</v>
-      </c>
-      <c r="F175" s="5">
-        <f t="shared" si="7"/>
-        <v>103.16</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C176" s="3" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D176" s="3">
         <v>1</v>
       </c>
-      <c r="E176" s="5">
-        <v>60</v>
-      </c>
-      <c r="F176" s="5">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D177" s="3">
-        <v>1</v>
-      </c>
-      <c r="E177" s="5">
-        <v>136.47999999999999</v>
-      </c>
-      <c r="F177" s="5">
-        <f t="shared" si="7"/>
-        <v>136.47999999999999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D178" s="3">
-        <v>1</v>
-      </c>
-      <c r="E178" s="5">
-        <v>136.47999999999999</v>
-      </c>
-      <c r="F178" s="5">
-        <f t="shared" si="7"/>
-        <v>136.47999999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D179" s="3">
-        <v>1</v>
-      </c>
-      <c r="E179" s="5">
-        <v>60.95</v>
-      </c>
-      <c r="F179" s="5">
-        <f t="shared" si="7"/>
-        <v>60.95</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D180" s="3">
-        <v>1</v>
-      </c>
-      <c r="E180" s="5">
-        <v>119.416</v>
-      </c>
-      <c r="F180" s="5">
-        <f t="shared" si="7"/>
-        <v>119.416</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>167</v>
-      </c>
+    </row>
+    <row r="180" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="D181" s="3">
         <v>1</v>
       </c>
-      <c r="E181" s="5">
-        <v>105.8</v>
-      </c>
-      <c r="F181" s="5">
-        <f t="shared" si="7"/>
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="G181" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D182" s="3">
-        <v>2</v>
-      </c>
-      <c r="E182" s="5">
-        <v>119.6</v>
-      </c>
-      <c r="F182" s="5">
-        <f t="shared" si="7"/>
-        <v>239.2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>172</v>
+        <v>184</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="D183" s="3">
         <v>2</v>
       </c>
-      <c r="E183" s="5">
-        <v>92</v>
-      </c>
-      <c r="F183" s="5">
-        <f t="shared" si="7"/>
+      <c r="G183" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C184" s="3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
       </c>
-      <c r="E184" s="5">
-        <v>96.23</v>
-      </c>
-      <c r="F184" s="5">
-        <f t="shared" si="7"/>
-        <v>96.23</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="G184" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="D185" s="3">
-        <v>1</v>
-      </c>
-      <c r="E185" s="5">
-        <v>102.44</v>
-      </c>
-      <c r="F185" s="5">
-        <f t="shared" si="7"/>
-        <v>102.44</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J185" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="D186" s="3">
         <v>2</v>
       </c>
-      <c r="E186" s="5">
-        <v>28</v>
-      </c>
-      <c r="F186" s="5">
+      <c r="G186" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J186" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J187" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D189" s="19">
+        <v>10</v>
+      </c>
+      <c r="F189" s="55"/>
+      <c r="G189" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J189" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0</v>
+      </c>
+      <c r="E192" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F192" s="5">
+        <f t="shared" ref="F192:F202" si="7">E192*D192</f>
+        <v>0</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0</v>
+      </c>
+      <c r="E193" s="5">
+        <v>764</v>
+      </c>
+      <c r="F193" s="5">
         <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C187" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D187" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C188" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D188" s="3">
-        <v>1</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C189" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D189" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C193" s="7"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-    </row>
-    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C194" s="19" t="s">
-        <v>185</v>
+        <v>206</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="D194" s="3">
-        <v>1</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="E194" s="5">
+        <v>816</v>
+      </c>
+      <c r="F194" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J194" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K194" s="4"/>
-    </row>
-    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C195" s="19" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="D195" s="3">
-        <v>1</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J195" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K195" s="4"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E195" s="5">
+        <v>952</v>
+      </c>
+      <c r="F195" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>190</v>
+        <v>206</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="D196" s="3">
-        <v>2</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J196" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E196" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="F196" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="D197" s="3">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J197" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E197" s="5">
+        <v>128.5</v>
+      </c>
+      <c r="F197" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="D198" s="3">
         <v>0</v>
       </c>
-      <c r="G198" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I198" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J198" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E198" s="5">
+        <v>156</v>
+      </c>
+      <c r="F198" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C199" s="19" t="s">
-        <v>198</v>
+        <v>206</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="D199" s="3">
-        <v>2</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J199" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E199" s="5">
+        <v>184.5</v>
+      </c>
+      <c r="F199" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>200</v>
+        <v>206</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="D200" s="3">
-        <v>2</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J200" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E200" s="5">
+        <v>106.5</v>
+      </c>
+      <c r="F200" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="D201" s="3">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J201" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D202" s="19">
+        <v>6</v>
+      </c>
+      <c r="E201" s="5">
+        <v>106.5</v>
+      </c>
+      <c r="F201" s="5">
+        <f t="shared" si="7"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D202" s="3">
         <v>10</v>
       </c>
-      <c r="F202" s="55"/>
-      <c r="G202" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I202" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J202" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E204" s="9"/>
-      <c r="F204" s="9"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D205" s="3">
-        <v>0</v>
-      </c>
-      <c r="E205" s="5">
-        <v>518.5</v>
+      <c r="E202" s="5">
+        <v>121.5</v>
+      </c>
+      <c r="F202" s="5">
+        <f t="shared" si="7"/>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E205" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="F205" s="5">
-        <f t="shared" ref="F205:F215" si="8">E205*D205</f>
-        <v>0</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D206" s="3">
-        <v>0</v>
-      </c>
-      <c r="E206" s="5">
-        <v>764</v>
-      </c>
-      <c r="F206" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D207" s="3">
-        <v>0</v>
-      </c>
-      <c r="E207" s="5">
-        <v>816</v>
-      </c>
-      <c r="F207" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D208" s="3">
-        <v>0</v>
-      </c>
-      <c r="E208" s="5">
-        <v>952</v>
-      </c>
-      <c r="F208" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D209" s="3">
-        <v>0</v>
-      </c>
-      <c r="E209" s="5">
-        <v>99.5</v>
-      </c>
-      <c r="F209" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D210" s="3">
-        <v>0</v>
-      </c>
-      <c r="E210" s="5">
-        <v>128.5</v>
-      </c>
-      <c r="F210" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D211" s="3">
-        <v>0</v>
-      </c>
-      <c r="E211" s="5">
-        <v>156</v>
-      </c>
-      <c r="F211" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D212" s="3">
-        <v>0</v>
-      </c>
-      <c r="E212" s="5">
-        <v>184.5</v>
-      </c>
-      <c r="F212" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D213" s="3">
-        <v>0</v>
-      </c>
-      <c r="E213" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="F213" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D214" s="3">
-        <v>6</v>
-      </c>
-      <c r="E214" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="F214" s="5">
-        <f t="shared" si="8"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D215" s="3">
-        <v>10</v>
-      </c>
-      <c r="E215" s="5">
-        <v>121.5</v>
-      </c>
-      <c r="F215" s="5">
-        <f t="shared" si="8"/>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E218" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F218" s="5">
-        <f>SUM(F3:F216)</f>
-        <v>99059.533987999996</v>
+        <f>SUM(F3:F203)</f>
+        <v>99111.533987999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C108" r:id="rId1" xr:uid="{67732474-80B4-4B9F-B7F4-8404FF2C5C7F}"/>
-    <hyperlink ref="C105" r:id="rId2" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
-    <hyperlink ref="C109" r:id="rId3" xr:uid="{45DA022D-F6DD-4A17-9406-F3AFCDB6F6B9}"/>
-    <hyperlink ref="C107" r:id="rId4" xr:uid="{F54B111C-4718-45BF-A954-B0E31DB7F5D0}"/>
+    <hyperlink ref="C105" r:id="rId1" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B115D-0D9A-4771-9D9A-A06D730E507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13C9DBA-C156-42C5-9FF2-6F6792D1DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3696" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8352" yWindow="3984" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="426">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -947,24 +947,12 @@
     <t>Cage assembly</t>
   </si>
   <si>
-    <t>LCP03/M</t>
-  </si>
-  <si>
     <t>60 mm Blank Cage Plate, M4 Tap</t>
   </si>
   <si>
-    <t>GVS211/M</t>
-  </si>
-  <si>
-    <t>1D Large Beam (10 mm) Diameter Galvo System, Broadband Mirror (-E02), Metric, Power Supply Not Included</t>
-  </si>
-  <si>
     <t>Galvo assembly</t>
   </si>
   <si>
-    <t>Galvo cables must be ordered long (80 cm), and controller boards must be tuned accordingly, ask Thorlabs. Short (default) cables enforce placing the controller boards inside the housing, and they generate a lot of heat.</t>
-  </si>
-  <si>
     <t>ER4-P4</t>
   </si>
   <si>
@@ -974,9 +962,6 @@
     <t>Excitation obj mount</t>
   </si>
   <si>
-    <t>Needs modification, see LCP03M_modified.ipt</t>
-  </si>
-  <si>
     <t>SM2NFM</t>
   </si>
   <si>
@@ -992,33 +977,18 @@
     <t>Todo: design 3D-printable alternative</t>
   </si>
   <si>
-    <t>GPS011-EC</t>
-  </si>
-  <si>
     <t>1D or 2D Galvo System Linear Power Supply, 230 VAC</t>
   </si>
   <si>
-    <t>Power supply for 2 galvos. Voltage and plugs are country specific!</t>
-  </si>
-  <si>
     <t>The F-mount steel ring must be taken out and mounted into the modified LCP06M plate using screws.</t>
   </si>
   <si>
     <t>Needs modification (using lathe or mill), see LCP06M-Nikon-modified.ipt</t>
   </si>
   <si>
-    <t>Galvo bracket must be modified (using milling machine), see Galvo-bracket-modified.ipt</t>
-  </si>
-  <si>
     <t>3D printed</t>
   </si>
   <si>
-    <t>GCE001</t>
-  </si>
-  <si>
-    <t>Galvo Driver Card Cover</t>
-  </si>
-  <si>
     <t>Detection: Other components</t>
   </si>
   <si>
@@ -1199,9 +1169,6 @@
     <t>Robotis FR07-S101K Set</t>
   </si>
   <si>
-    <t>Deprecated 10mm Galvos</t>
-  </si>
-  <si>
     <t>QS15X-AG</t>
   </si>
   <si>
@@ -1214,13 +1181,7 @@
     <t>Command and Power Cables for QS15/20/30/45, SS, &amp; SP Series Galvo Scanners</t>
   </si>
   <si>
-    <t>GPWR15</t>
-  </si>
-  <si>
     <t>±15 V Power Supply for BLINK &amp; QS, SS, SP, &amp; XG Series Galvo Scanners</t>
-  </si>
-  <si>
-    <t>To be tested:</t>
   </si>
   <si>
     <t>Standard cables are 60 cm long. Sufficient?</t>
@@ -1372,12 +1333,51 @@
   <si>
     <t>Alternative. Moderate-cost 4-channel laser, with mature software and good support. Requires switching mechanism or laser duplication.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Preferred power supply for 2 galvos. Needs a simple adapter (3 wires), see Wiki. </t>
+  </si>
+  <si>
+    <t>Non-preferred (but offered by Thorlabs) Power supply for 2 galvos. Bare wires sticking around, unsafe!</t>
+  </si>
+  <si>
+    <t>Galvo heat sink assembled from sheets, each galvo requires 7 sheets</t>
+  </si>
+  <si>
+    <t>HeatSink-sheet-H2mm.pdf</t>
+  </si>
+  <si>
+    <t>LCP03/M, modified</t>
+  </si>
+  <si>
+    <t>Needs modification (machining), see  /custom-parts/galvo-assembly/15mm-galvo(Thorlabs-QS15)-mount/QS15-mount-modified-Thorlabs-CagePlate-LCP03.pdf</t>
+  </si>
+  <si>
+    <t>Claser-cut or water-jet cut from 2-mm Aluminum. See folder /custom-parts/galvo-assembly/15mm-galvo(Thorlabs-QS15)-mount/</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Heat sink for galvo driver</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>TODO: find specific model</t>
+  </si>
+  <si>
+    <t>GPS011 (obsolete)</t>
+  </si>
+  <si>
+    <t>GPWR15 (unsafe)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1499,8 +1499,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,18 +1561,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1609,7 +1603,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1675,18 +1669,9 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2074,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2138,7 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>224</v>
@@ -2270,7 +2255,7 @@
       </c>
       <c r="G11" s="50"/>
       <c r="I11" s="38" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2301,10 +2286,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2328,7 +2313,7 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2352,10 +2337,10 @@
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2379,7 +2364,7 @@
         <v>132</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>13</v>
@@ -2406,10 +2391,10 @@
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2433,13 +2418,13 @@
         <v>1807</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2463,10 +2448,10 @@
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -2490,10 +2475,10 @@
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2517,10 +2502,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,10 +2529,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2571,10 +2556,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2598,28 +2583,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2632,21 +2617,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2659,21 +2644,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2686,21 +2671,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2713,21 +2698,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2740,21 +2725,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2767,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2946,7 +2931,7 @@
     </row>
     <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>83</v>
@@ -2973,7 +2958,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>251</v>
@@ -3017,7 +3002,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" ref="F44:F74" si="2">E44*D44</f>
+        <f t="shared" ref="F44:F71" si="2">E44*D44</f>
         <v>800</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3162,7 +3147,7 @@
         <v>269</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -3189,7 +3174,7 @@
         <v>269</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3240,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3372,7 +3357,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -3404,13 +3389,13 @@
     </row>
     <row r="59" spans="1:9" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D59" s="45">
         <v>2</v>
@@ -3426,7 +3411,7 @@
         <v>294</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -3458,13 +3443,13 @@
     </row>
     <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>296</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>297</v>
       </c>
       <c r="D61" s="41">
         <v>2</v>
@@ -3477,691 +3462,748 @@
         <v>72</v>
       </c>
       <c r="H61" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I61" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" s="41">
+        <v>2</v>
+      </c>
+      <c r="E62" s="43">
+        <v>2104</v>
+      </c>
+      <c r="F62" s="52">
+        <f t="shared" ref="F62:F67" si="3">E62*D62</f>
+        <v>4208</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I62" s="41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="41">
+        <v>2</v>
+      </c>
+      <c r="E63" s="43">
+        <v>82</v>
+      </c>
+      <c r="F63" s="52">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="41">
+        <v>1</v>
+      </c>
+      <c r="E64" s="43">
+        <v>495</v>
+      </c>
+      <c r="F64" s="52">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="D65" s="41">
+        <v>0</v>
+      </c>
+      <c r="E65" s="43">
+        <v>390</v>
+      </c>
+      <c r="F65" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D66" s="41">
+        <v>14</v>
+      </c>
+      <c r="E66" s="43">
+        <v>20</v>
+      </c>
+      <c r="F66" s="52">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I66" s="47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="D67" s="41">
+        <v>1</v>
+      </c>
+      <c r="E67" s="43">
+        <v>10</v>
+      </c>
+      <c r="F67" s="52">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="41">
+        <v>2</v>
+      </c>
+      <c r="E68" s="43">
+        <v>25</v>
+      </c>
+      <c r="F68" s="52">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="41">
+        <v>2</v>
+      </c>
+      <c r="E69" s="43">
+        <v>35</v>
+      </c>
+      <c r="F69" s="52">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H69" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I69" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="J69" s="49" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="67" t="s">
-        <v>380</v>
-      </c>
-      <c r="C62" s="42"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="52"/>
-      <c r="I62" s="47"/>
-    </row>
-    <row r="63" spans="1:9" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="B63" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="58">
-        <v>0</v>
-      </c>
-      <c r="E63" s="59">
-        <v>1757</v>
-      </c>
-      <c r="F63" s="60">
+    <row r="70" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" s="41">
+        <v>2</v>
+      </c>
+      <c r="E70" s="43">
+        <v>92</v>
+      </c>
+      <c r="F70" s="52">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="H70" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="I63" s="61" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="60"/>
-      <c r="I64" s="61" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="58" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="B65" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" s="58">
-        <v>0</v>
-      </c>
-      <c r="E65" s="59">
-        <v>59</v>
-      </c>
-      <c r="F65" s="60">
-        <f>E65*D65</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="I65" s="61"/>
-    </row>
-    <row r="66" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="B66" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="D66" s="58">
-        <v>0</v>
-      </c>
-      <c r="E66" s="59">
-        <v>495</v>
-      </c>
-      <c r="F66" s="60">
-        <f>E66*D66</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="I66" s="58" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="63" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="C67" s="62"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="65"/>
-    </row>
-    <row r="68" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="B68" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>382</v>
-      </c>
-      <c r="D68" s="63">
-        <v>2</v>
-      </c>
-      <c r="E68" s="64">
-        <v>2104</v>
-      </c>
-      <c r="F68" s="65">
-        <f>E68*D68</f>
-        <v>4208</v>
-      </c>
-      <c r="H68" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="I68" s="63" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="B69" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="D69" s="63">
-        <v>2</v>
-      </c>
-      <c r="E69" s="64">
-        <v>82</v>
-      </c>
-      <c r="F69" s="65">
-        <f>E69*D69</f>
-        <v>164</v>
-      </c>
-      <c r="H69" s="63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="B70" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="D70" s="63">
-        <v>1</v>
-      </c>
-      <c r="E70" s="64">
-        <v>390</v>
-      </c>
-      <c r="F70" s="65">
-        <f>E70*D70</f>
-        <v>390</v>
-      </c>
-      <c r="H70" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="I70" s="63" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="42" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>303</v>
+        <v>309</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>362</v>
       </c>
       <c r="D71" s="41">
         <v>2</v>
       </c>
       <c r="E71" s="43">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F71" s="52">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H71" s="41" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="D72" s="41">
-        <v>2</v>
-      </c>
-      <c r="E72" s="43">
-        <v>35</v>
-      </c>
-      <c r="F72" s="52">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="I72" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="J72" s="49" t="s">
-        <v>310</v>
-      </c>
+      <c r="I71" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="52"/>
     </row>
     <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="D73" s="41">
-        <v>2</v>
-      </c>
-      <c r="E73" s="43">
-        <v>92</v>
-      </c>
-      <c r="F73" s="52">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="I73" s="41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="D74" s="41">
-        <v>2</v>
-      </c>
-      <c r="E74" s="43">
-        <v>1</v>
-      </c>
-      <c r="F74" s="52">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="52"/>
+      <c r="A73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="A76" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="41">
+        <v>1</v>
+      </c>
       <c r="E76" s="43"/>
       <c r="F76" s="52"/>
+      <c r="I76" s="41" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="77" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="52"/>
-    </row>
-    <row r="78" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
+      <c r="A77" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="41">
+        <v>1</v>
+      </c>
+      <c r="E77" s="43">
+        <v>63</v>
+      </c>
+      <c r="F77" s="52">
+        <f>D77*E77</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D78" s="41">
+        <v>2</v>
+      </c>
+      <c r="E78" s="43">
+        <v>69</v>
+      </c>
+      <c r="F78" s="52">
+        <f>D78*E78</f>
+        <v>138</v>
+      </c>
     </row>
     <row r="79" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="B79" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" s="41">
+        <v>1</v>
+      </c>
+      <c r="E79" s="43">
+        <v>10</v>
+      </c>
+      <c r="F79" s="52">
+        <f>D79*E79</f>
+        <v>10</v>
+      </c>
+      <c r="I79" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="41">
-        <v>1</v>
-      </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="52"/>
-      <c r="I79" s="41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="B80" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="42" t="s">
-        <v>337</v>
+      <c r="C80" s="41" t="s">
+        <v>26</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
       </c>
-      <c r="E80" s="43">
-        <v>63</v>
-      </c>
-      <c r="F80" s="52">
-        <f>D80*E80</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="D81" s="41">
-        <v>2</v>
-      </c>
-      <c r="E81" s="43">
-        <v>69</v>
-      </c>
-      <c r="F81" s="52">
-        <f>D81*E81</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="D82" s="41">
-        <v>1</v>
-      </c>
-      <c r="E82" s="43">
-        <v>10</v>
-      </c>
-      <c r="F82" s="52">
-        <f>D82*E82</f>
-        <v>10</v>
-      </c>
-      <c r="I82" s="41" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" s="41">
-        <v>1</v>
-      </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="52"/>
-      <c r="I83" s="41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="52"/>
+      <c r="I80" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>250</v>
+      </c>
+      <c r="F84" s="5">
+        <f>E84*D84</f>
+        <v>250</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <v>13</v>
+      </c>
+      <c r="F85" s="5">
+        <f>E85*D85</f>
+        <v>13</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
+        <v>43</v>
+      </c>
+      <c r="F86" s="5">
+        <f>E86*D86</f>
+        <v>43</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
       </c>
-      <c r="E87" s="5">
-        <v>250</v>
-      </c>
-      <c r="F87" s="5">
-        <f>E87*D87</f>
-        <v>250</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="I87" s="41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="41">
+        <v>0</v>
+      </c>
+      <c r="E90" s="43">
+        <v>656</v>
+      </c>
+      <c r="F90" s="52">
+        <f>E90*D90</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="49"/>
+    </row>
+    <row r="91" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" s="41">
+        <v>0</v>
+      </c>
+      <c r="E91" s="43">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F91" s="52">
+        <f>E91*D91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="F92" s="52">
+        <f>E92*D92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="54"/>
+    </row>
+    <row r="94" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="54"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1075</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" ref="F95:F100" si="4">E95*D95</f>
+        <v>1075</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="I95" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="38">
+        <v>0</v>
+      </c>
+      <c r="E96" s="39">
+        <v>1350</v>
+      </c>
+      <c r="F96" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="5">
-        <f>E88*D88</f>
+      <c r="I96" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="38">
+        <v>0</v>
+      </c>
+      <c r="E97" s="39">
+        <v>1350</v>
+      </c>
+      <c r="F97" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="I97" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="38">
+        <v>0</v>
+      </c>
+      <c r="E98" s="40">
+        <v>1445</v>
+      </c>
+      <c r="F98" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D89" s="3">
-        <v>1</v>
-      </c>
-      <c r="E89" s="5">
-        <v>43</v>
-      </c>
-      <c r="F89" s="5">
-        <f>E89*D89</f>
-        <v>43</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="41" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C91" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B93" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="41">
-        <v>0</v>
-      </c>
-      <c r="E93" s="43">
-        <v>656</v>
-      </c>
-      <c r="F93" s="52">
-        <f>E93*D93</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="49"/>
-    </row>
-    <row r="94" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="D94" s="41">
-        <v>0</v>
-      </c>
-      <c r="E94" s="43">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F94" s="52">
-        <f>E94*D94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0</v>
-      </c>
-      <c r="E95" s="12">
-        <v>4.87</v>
-      </c>
-      <c r="F95" s="52">
-        <f>E95*D95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F96" s="54"/>
-    </row>
-    <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F97" s="54"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5">
-        <v>1075</v>
-      </c>
-      <c r="F98" s="5">
-        <f t="shared" ref="F98:F103" si="3">E98*D98</f>
-        <v>1075</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>221</v>
+      <c r="I98" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B99" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D99" s="38">
         <v>0</v>
       </c>
       <c r="E99" s="39">
-        <v>1350</v>
+        <v>1130</v>
       </c>
       <c r="F99" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G99" s="38" t="s">
@@ -4173,22 +4215,22 @@
     </row>
     <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D100" s="38">
         <v>0</v>
       </c>
       <c r="E100" s="39">
-        <v>1350</v>
+        <v>1130</v>
       </c>
       <c r="F100" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G100" s="38" t="s">
@@ -4198,426 +4240,417 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" s="38">
-        <v>0</v>
-      </c>
-      <c r="E101" s="40">
-        <v>1445</v>
-      </c>
-      <c r="F101" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="38" t="s">
+    <row r="101" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+    </row>
+    <row r="102" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" s="32">
+        <v>1</v>
+      </c>
+      <c r="E102" s="33">
+        <v>6734</v>
+      </c>
+      <c r="F102" s="33">
+        <f>D102*E102</f>
+        <v>6734</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B102" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" s="38">
-        <v>0</v>
-      </c>
-      <c r="E102" s="39">
-        <v>1130</v>
-      </c>
-      <c r="F102" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103" s="38">
-        <v>0</v>
-      </c>
-      <c r="E103" s="39">
-        <v>1130</v>
-      </c>
-      <c r="F103" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-    </row>
-    <row r="105" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="32">
-        <v>1</v>
-      </c>
-      <c r="E105" s="33">
-        <v>6734</v>
-      </c>
-      <c r="F105" s="33">
-        <f>D105*E105</f>
-        <v>6734</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="32" t="s">
+      <c r="H102" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="I105" s="32" t="s">
+      <c r="I102" s="32" t="s">
         <v>231</v>
       </c>
     </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" s="32"/>
+      <c r="H103" s="32"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="35"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="37"/>
+      <c r="H104" s="32"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="32"/>
+      <c r="C105" s="37"/>
+      <c r="H105" s="32"/>
+    </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="35" t="s">
-        <v>423</v>
-      </c>
       <c r="B106" s="32"/>
+      <c r="C106" s="37"/>
       <c r="H106" s="32"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="37"/>
-      <c r="H107" s="32"/>
+    <row r="107" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="C108" s="37"/>
-      <c r="H108" s="32"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="C109" s="37"/>
-      <c r="H109" s="32"/>
-    </row>
-    <row r="110" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="32"/>
+    </row>
+    <row r="111" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="32"/>
-    </row>
-    <row r="114" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="A112" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F112" s="5">
+        <f>E112*D112</f>
+        <v>3582</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F113" s="5">
+        <f t="shared" ref="F113:F121" si="5">E113*D113</f>
+        <v>1630</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5">
+        <v>886</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="5"/>
+        <v>886</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
       </c>
       <c r="E115" s="5">
-        <v>3582</v>
+        <v>163</v>
       </c>
       <c r="F115" s="5">
-        <f>E115*D115</f>
-        <v>3582</v>
+        <f t="shared" si="5"/>
+        <v>163</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
       </c>
       <c r="E116" s="5">
-        <v>1630</v>
+        <v>11</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" ref="F116:F124" si="4">E116*D116</f>
-        <v>1630</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
       </c>
       <c r="E117" s="5">
-        <v>886</v>
+        <v>520</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="4"/>
-        <v>886</v>
+        <f>E117*D117</f>
+        <v>520</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
       </c>
       <c r="E118" s="5">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="4"/>
-        <v>163</v>
+        <f>E118*D118</f>
+        <v>193</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B119" s="3" t="s">
+    </row>
+    <row r="119" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1</v>
-      </c>
-      <c r="E119" s="5">
-        <v>11</v>
-      </c>
-      <c r="F119" s="5">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="G119" s="3" t="s">
+      <c r="C119" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="38">
+        <v>0</v>
+      </c>
+      <c r="E119" s="39">
+        <v>2800</v>
+      </c>
+      <c r="F119" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D120" s="3">
-        <v>1</v>
-      </c>
-      <c r="E120" s="5">
-        <v>520</v>
-      </c>
-      <c r="F120" s="5">
-        <f>E120*D120</f>
-        <v>520</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="I119" s="38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="D120" s="41">
+        <v>10</v>
+      </c>
+      <c r="E120" s="52">
+        <v>12</v>
+      </c>
+      <c r="F120" s="52">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="G120" s="41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-      <c r="E121" s="5">
-        <v>193</v>
-      </c>
-      <c r="F121" s="5">
-        <f>E121*D121</f>
-        <v>193</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="I120" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121" s="41">
+        <v>1</v>
+      </c>
+      <c r="E121" s="52">
+        <v>14</v>
+      </c>
+      <c r="F121" s="52">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G121" s="41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B122" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122" s="38">
-        <v>0</v>
-      </c>
-      <c r="E122" s="39">
-        <v>2800</v>
-      </c>
-      <c r="F122" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="38" t="s">
+      <c r="I121" s="41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="F122" s="5">
+        <f>E122*D122</f>
+        <v>61</v>
+      </c>
+      <c r="G122" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I122" s="38" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="B123" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="D123" s="41">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D123" s="3">
         <v>10</v>
       </c>
-      <c r="E123" s="52">
-        <v>12</v>
-      </c>
-      <c r="F123" s="52">
-        <f t="shared" si="4"/>
-        <v>120</v>
+      <c r="E123" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F123" s="5">
+        <f>E123*D123</f>
+        <v>165</v>
       </c>
       <c r="G123" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I123" s="41" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="B124" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C124" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="D124" s="41">
-        <v>1</v>
-      </c>
-      <c r="E124" s="52">
-        <v>14</v>
-      </c>
-      <c r="F124" s="52">
-        <f t="shared" si="4"/>
-        <v>14</v>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10</v>
+      </c>
+      <c r="E124" s="5">
+        <v>24</v>
+      </c>
+      <c r="F124" s="5">
+        <f>E124*D124</f>
+        <v>240</v>
       </c>
       <c r="G124" s="41" t="s">
         <v>73</v>
-      </c>
-      <c r="I124" s="41" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,1417 +4661,1345 @@
         <v>83</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D125" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E125" s="5">
-        <v>15.25</v>
+        <v>24</v>
       </c>
       <c r="F125" s="5">
         <f>E125*D125</f>
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="G125" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D126" s="3">
-        <v>10</v>
-      </c>
-      <c r="E126" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F126" s="5">
-        <f>E126*D126</f>
-        <v>165</v>
-      </c>
-      <c r="G126" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D127" s="3">
-        <v>10</v>
-      </c>
-      <c r="E127" s="5">
-        <v>24</v>
-      </c>
-      <c r="F127" s="5">
-        <f>E127*D127</f>
-        <v>240</v>
-      </c>
-      <c r="G127" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D128" s="3">
-        <v>6</v>
-      </c>
-      <c r="E128" s="5">
-        <v>24</v>
-      </c>
-      <c r="F128" s="5">
-        <f>E128*D128</f>
-        <v>144</v>
-      </c>
-      <c r="G128" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-    </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
+    <row r="126" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="52"/>
+      <c r="F126" s="52"/>
+    </row>
+    <row r="129" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="C129" s="7"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5">
+        <v>488</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" ref="F130:F151" si="6">E130*D130</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>184</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5">
+        <v>76</v>
+      </c>
+      <c r="F132" s="5">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
       </c>
       <c r="E133" s="5">
-        <v>488</v>
+        <v>184</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" ref="F133:F154" si="5">E133*D133</f>
-        <v>488</v>
+        <f t="shared" si="6"/>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
       </c>
       <c r="E134" s="5">
-        <v>184</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="5"/>
-        <v>184</v>
+        <f t="shared" si="6"/>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
       </c>
       <c r="E135" s="5">
-        <v>76</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="5"/>
-        <v>76</v>
+        <f t="shared" si="6"/>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" s="5">
-        <v>184</v>
+        <v>21.21</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="5"/>
-        <v>184</v>
+        <f t="shared" si="6"/>
+        <v>42.42</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D137" s="3">
         <v>1</v>
       </c>
       <c r="E137" s="5">
-        <v>94.180155999999997</v>
+        <v>304.75</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="5"/>
-        <v>94.180155999999997</v>
+        <f t="shared" si="6"/>
+        <v>304.75</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D138" s="3">
         <v>1</v>
       </c>
       <c r="E138" s="5">
-        <v>36.799999999999997</v>
+        <v>148.21</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="5"/>
-        <v>36.799999999999997</v>
+        <f t="shared" si="6"/>
+        <v>148.21</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D139" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" s="5">
-        <v>21.21</v>
+        <v>348.45</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="5"/>
-        <v>42.42</v>
+        <f t="shared" si="6"/>
+        <v>348.45</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
       </c>
       <c r="E140" s="5">
-        <v>304.75</v>
+        <v>60.95</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="5"/>
-        <v>304.75</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>102</v>
+        <f t="shared" si="6"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D141" s="3">
         <v>1</v>
       </c>
       <c r="E141" s="5">
-        <v>148.21</v>
+        <v>34.5</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="5"/>
-        <v>148.21</v>
+        <f t="shared" si="6"/>
+        <v>34.5</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
       </c>
       <c r="E142" s="5">
-        <v>348.45</v>
+        <v>51.45</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="5"/>
-        <v>348.45</v>
+        <f t="shared" si="6"/>
+        <v>51.45</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D143" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" s="5">
-        <v>60.95</v>
+        <v>13.8</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="5"/>
-        <v>60.95</v>
+        <f t="shared" si="6"/>
+        <v>27.6</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
       </c>
       <c r="E144" s="5">
-        <v>34.5</v>
+        <v>19.09</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="5"/>
-        <v>34.5</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>111</v>
+        <f t="shared" si="6"/>
+        <v>19.09</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D145" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" s="5">
-        <v>51.45</v>
+        <v>40.51</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="5"/>
-        <v>51.45</v>
+        <f t="shared" si="6"/>
+        <v>81.02</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D146" s="3">
         <v>2</v>
       </c>
       <c r="E146" s="5">
-        <v>13.8</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="5"/>
-        <v>27.6</v>
+        <f t="shared" si="6"/>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D147" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147" s="5">
-        <v>19.09</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="5"/>
-        <v>19.09</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>280.416</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D148" s="3">
         <v>2</v>
       </c>
       <c r="E148" s="5">
-        <v>40.51</v>
+        <v>28.75</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="5"/>
-        <v>81.02</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>120</v>
+        <f t="shared" si="6"/>
+        <v>57.5</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D149" s="3">
         <v>2</v>
       </c>
       <c r="E149" s="5">
-        <v>83.598116000000005</v>
+        <v>38.872799999999998</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="5"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>111</v>
+        <f t="shared" si="6"/>
+        <v>77.745599999999996</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="B150" s="3" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D150" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E150" s="5">
-        <v>70.103999999999999</v>
+        <v>205</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="5"/>
-        <v>280.416</v>
+        <f t="shared" si="6"/>
+        <v>205</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D151" s="3">
         <v>2</v>
       </c>
       <c r="E151" s="5">
-        <v>28.75</v>
+        <v>12</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="5"/>
-        <v>57.5</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D152" s="3">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="10"/>
+    </row>
+    <row r="153" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D154" s="3">
+        <v>4</v>
+      </c>
+      <c r="E154" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" ref="F154:F170" si="7">E154*D154</f>
+        <v>66</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D155" s="3">
         <v>2</v>
       </c>
-      <c r="E152" s="5">
-        <v>38.872799999999998</v>
-      </c>
-      <c r="F152" s="5">
-        <f t="shared" si="5"/>
-        <v>77.745599999999996</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D153" s="3">
-        <v>1</v>
-      </c>
-      <c r="E153" s="5">
-        <v>205</v>
-      </c>
-      <c r="F153" s="5">
-        <f t="shared" si="5"/>
-        <v>205</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D154" s="3">
-        <v>2</v>
-      </c>
-      <c r="E154" s="5">
-        <v>12</v>
-      </c>
-      <c r="F154" s="5">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="10"/>
-    </row>
-    <row r="156" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F156" s="9"/>
+      <c r="E155" s="5">
+        <v>140</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5">
+        <v>85.1</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="7"/>
+        <v>85.1</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D157" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E157" s="5">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" ref="F157:F173" si="6">E157*D157</f>
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>64</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D158" s="3">
         <v>2</v>
       </c>
       <c r="E158" s="5">
-        <v>140</v>
+        <v>51.58</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="6"/>
-        <v>280</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>142</v>
+        <f t="shared" si="7"/>
+        <v>103.16</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D159" s="3">
         <v>1</v>
       </c>
       <c r="E159" s="5">
-        <v>85.1</v>
+        <v>60</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="6"/>
-        <v>85.1</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D160" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" s="5">
-        <v>32</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>154</v>
+        <f t="shared" si="7"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D161" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" s="5">
-        <v>51.58</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="6"/>
-        <v>103.16</v>
+        <f t="shared" si="7"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D162" s="3">
         <v>1</v>
       </c>
       <c r="E162" s="5">
-        <v>60</v>
+        <v>60.95</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>159</v>
+        <f t="shared" si="7"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D163" s="3">
         <v>1</v>
       </c>
       <c r="E163" s="5">
-        <v>136.47999999999999</v>
+        <v>119.416</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+        <f t="shared" si="7"/>
+        <v>119.416</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D164" s="3">
         <v>1</v>
       </c>
       <c r="E164" s="5">
-        <v>136.47999999999999</v>
+        <v>105.8</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
+        <f t="shared" si="7"/>
+        <v>105.8</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D165" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="5">
-        <v>60.95</v>
+        <v>119.6</v>
       </c>
       <c r="F165" s="5">
-        <f t="shared" si="6"/>
-        <v>60.95</v>
+        <f t="shared" si="7"/>
+        <v>239.2</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="D166" s="3">
         <v>1</v>
       </c>
       <c r="E166" s="5">
-        <v>119.416</v>
+        <v>100</v>
       </c>
       <c r="F166" s="5">
-        <f t="shared" si="6"/>
-        <v>119.416</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D167" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" s="5">
-        <v>105.8</v>
+        <v>92</v>
       </c>
       <c r="F167" s="5">
-        <f t="shared" si="6"/>
-        <v>105.8</v>
+        <f t="shared" si="7"/>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D168" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" s="5">
-        <v>119.6</v>
+        <v>96.23</v>
       </c>
       <c r="F168" s="5">
-        <f t="shared" si="6"/>
-        <v>239.2</v>
+        <f t="shared" si="7"/>
+        <v>96.23</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>418</v>
+        <v>175</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="D169" s="3">
         <v>1</v>
       </c>
       <c r="E169" s="5">
-        <v>100</v>
+        <v>102.44</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>102.44</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D170" s="3">
         <v>2</v>
       </c>
       <c r="E170" s="5">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C171" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C172" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C173" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171" s="3">
-        <v>1</v>
-      </c>
-      <c r="E171" s="5">
-        <v>96.23</v>
-      </c>
-      <c r="F171" s="5">
-        <f t="shared" si="6"/>
-        <v>96.23</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D172" s="3">
-        <v>1</v>
-      </c>
-      <c r="E172" s="5">
-        <v>102.44</v>
-      </c>
-      <c r="F172" s="5">
-        <f t="shared" si="6"/>
-        <v>102.44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D173" s="3">
+      <c r="C178" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B179" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D180" s="3">
         <v>2</v>
       </c>
-      <c r="E173" s="5">
-        <v>28</v>
-      </c>
-      <c r="F173" s="5">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D174" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D176" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C180" s="7"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-    </row>
-    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G180" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C181" s="19" t="s">
-        <v>185</v>
+      <c r="C181" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J181" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K181" s="4"/>
-    </row>
-    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K182" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="J182" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D183" s="3">
         <v>2</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
+      </c>
+      <c r="J183" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B184" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>192</v>
+      <c r="C184" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="D184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J184" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>194</v>
+      <c r="C185" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D185" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I185" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J185" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
+      <c r="J185" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D186" s="3">
-        <v>2</v>
-      </c>
-      <c r="G186" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D186" s="19">
+        <v>10</v>
+      </c>
+      <c r="F186" s="55"/>
+      <c r="G186" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I186" s="3" t="s">
-        <v>199</v>
+      <c r="I186" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="J186" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D187" s="3">
-        <v>2</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D188" s="3">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J188" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B189" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D189" s="19">
-        <v>10</v>
-      </c>
-      <c r="F189" s="55"/>
-      <c r="G189" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J189" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="8" t="s">
+    <row r="188" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E191" s="9"/>
-      <c r="F191" s="9"/>
+      <c r="B188" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0</v>
+      </c>
+      <c r="E189" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F189" s="5">
+        <f t="shared" ref="F189:F199" si="8">E189*D189</f>
+        <v>0</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0</v>
+      </c>
+      <c r="E190" s="5">
+        <v>764</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E191" s="5">
+        <v>816</v>
+      </c>
+      <c r="F191" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D192" s="3">
         <v>0</v>
       </c>
       <c r="E192" s="5">
-        <v>518.5</v>
+        <v>952</v>
       </c>
       <c r="F192" s="5">
-        <f t="shared" ref="F192:F202" si="7">E192*D192</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I192" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D193" s="3">
         <v>0</v>
       </c>
       <c r="E193" s="5">
-        <v>764</v>
+        <v>99.5</v>
       </c>
       <c r="F193" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D194" s="3">
         <v>0</v>
       </c>
       <c r="E194" s="5">
-        <v>816</v>
+        <v>128.5</v>
       </c>
       <c r="F194" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I194" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D195" s="3">
         <v>0</v>
       </c>
       <c r="E195" s="5">
-        <v>952</v>
+        <v>156</v>
       </c>
       <c r="F195" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D196" s="3">
         <v>0</v>
       </c>
       <c r="E196" s="5">
-        <v>99.5</v>
+        <v>184.5</v>
       </c>
       <c r="F196" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D197" s="3">
         <v>0</v>
       </c>
       <c r="E197" s="5">
-        <v>128.5</v>
+        <v>106.5</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D198" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E198" s="5">
-        <v>156</v>
+        <v>106.5</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E199" s="5">
-        <v>184.5</v>
+        <v>121.5</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D200" s="3">
-        <v>0</v>
-      </c>
-      <c r="E200" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="F200" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D201" s="3">
-        <v>6</v>
-      </c>
-      <c r="E201" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="F201" s="5">
-        <f t="shared" si="7"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D202" s="3">
-        <v>10</v>
-      </c>
-      <c r="E202" s="5">
-        <v>121.5</v>
+        <f t="shared" si="8"/>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E202" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="F202" s="5">
-        <f t="shared" si="7"/>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E205" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F205" s="5">
-        <f>SUM(F3:F203)</f>
-        <v>99111.533987999996</v>
+        <f>SUM(F3:F200)</f>
+        <v>99506.533987999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C105" r:id="rId1" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
+    <hyperlink ref="C102" r:id="rId1" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13C9DBA-C156-42C5-9FF2-6F6792D1DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9268E1-B5D2-4C90-83A7-E1A3CFD11ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8352" yWindow="3984" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8652" yWindow="4272" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="437">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -1259,9 +1259,6 @@
     <t>UG-205 10x20x45</t>
   </si>
   <si>
-    <t>Material: glass, RI=1.52. For quartz  (e.g. CLARITY imaging, RI=1.47), replace UG qwith UQ in the part name.</t>
-  </si>
-  <si>
     <t>Depending on the laser control interface (Oxxius: SMB).</t>
   </si>
   <si>
@@ -1371,6 +1368,42 @@
   </si>
   <si>
     <t>GPWR15 (unsafe)</t>
+  </si>
+  <si>
+    <t>Material: glass, RI=1.52. For quartz  (e.g. CLARITY imaging, RI=1.47), replace UG with UQ in the part name.</t>
+  </si>
+  <si>
+    <t>Fan-mount-modified-Thorlabs-CagePlate-LCP03.ipt</t>
+  </si>
+  <si>
+    <t>Fan mount for galvos</t>
+  </si>
+  <si>
+    <t>3D printed or machined</t>
+  </si>
+  <si>
+    <t>5912-412JHHU</t>
+  </si>
+  <si>
+    <t>Barrel connector for galvo fan</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Cooling of the galvo is essential</t>
+  </si>
+  <si>
+    <t>Fan for galvo: 40x40x25mm, 12V DC, 0.25A, dust-protected (IP rating 68)</t>
+  </si>
+  <si>
+    <t>Power connector for two fans</t>
+  </si>
+  <si>
+    <t>12V, 1A power supply, barrel jack connector</t>
+  </si>
+  <si>
+    <t>Power supply for the galvo fans</t>
   </si>
 </sst>
 </file>
@@ -2059,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2288,7 @@
       </c>
       <c r="G11" s="50"/>
       <c r="I11" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2931,7 +2964,7 @@
     </row>
     <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>83</v>
@@ -2958,7 +2991,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>251</v>
@@ -3002,7 +3035,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" ref="F44:F71" si="2">E44*D44</f>
+        <f t="shared" ref="F44:F75" si="2">E44*D44</f>
         <v>800</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3147,7 +3180,7 @@
         <v>269</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3207,7 @@
         <v>269</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3389,13 +3422,13 @@
     </row>
     <row r="59" spans="1:9" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B59" s="41" t="s">
         <v>309</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D59" s="45">
         <v>2</v>
@@ -3411,7 +3444,7 @@
         <v>294</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -3443,7 +3476,7 @@
     </row>
     <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>83</v>
@@ -3465,7 +3498,7 @@
         <v>297</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -3485,7 +3518,7 @@
         <v>2104</v>
       </c>
       <c r="F62" s="52">
-        <f t="shared" ref="F62:F67" si="3">E62*D62</f>
+        <f t="shared" ref="F62:F71" si="3">E62*D62</f>
         <v>4208</v>
       </c>
       <c r="H62" s="41" t="s">
@@ -3521,7 +3554,7 @@
     </row>
     <row r="64" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="41" t="s">
         <v>83</v>
@@ -3543,12 +3576,12 @@
         <v>297</v>
       </c>
       <c r="I64" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" s="41" t="s">
         <v>83</v>
@@ -3570,18 +3603,18 @@
         <v>297</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D66" s="41">
         <v>14</v>
@@ -3597,18 +3630,18 @@
         <v>297</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B67" s="41" t="s">
         <v>363</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D67" s="41">
         <v>1</v>
@@ -3624,236 +3657,259 @@
         <v>297</v>
       </c>
       <c r="I67" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="D68" s="41">
         <v>2</v>
       </c>
       <c r="E68" s="43">
+        <v>5</v>
+      </c>
+      <c r="F68" s="52">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="D69" s="41">
+        <v>2</v>
+      </c>
+      <c r="E69" s="43">
+        <v>62</v>
+      </c>
+      <c r="F69" s="52">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="D70" s="41">
+        <v>1</v>
+      </c>
+      <c r="E70" s="43">
+        <v>2</v>
+      </c>
+      <c r="F70" s="52">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="D71" s="41">
+        <v>1</v>
+      </c>
+      <c r="E71" s="43">
+        <v>15</v>
+      </c>
+      <c r="F71" s="52">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="41">
+        <v>2</v>
+      </c>
+      <c r="E72" s="43">
         <v>25</v>
       </c>
-      <c r="F68" s="52">
+      <c r="F72" s="52">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H68" s="41" t="s">
+      <c r="H72" s="41" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
+    <row r="73" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="B69" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="42" t="s">
+      <c r="B73" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D73" s="41">
         <v>2</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E73" s="43">
         <v>35</v>
       </c>
-      <c r="F69" s="52">
+      <c r="F73" s="52">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H69" s="41" t="s">
+      <c r="H73" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="I69" s="47" t="s">
+      <c r="I73" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="J69" s="49" t="s">
+      <c r="J73" s="49" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
+    <row r="74" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="B70" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="42" t="s">
+      <c r="B74" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D74" s="41">
         <v>2</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E74" s="43">
         <v>92</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F74" s="52">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="H70" s="41" t="s">
+      <c r="H74" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="I70" s="41" t="s">
+      <c r="I74" s="41" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="42" t="s">
+    <row r="75" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B75" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C75" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D75" s="41">
         <v>2</v>
       </c>
-      <c r="E71" s="43">
-        <v>1</v>
-      </c>
-      <c r="F71" s="52">
+      <c r="E75" s="43">
+        <v>1</v>
+      </c>
+      <c r="F75" s="52">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H75" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="I71" s="41" t="s">
+      <c r="I75" s="41" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="52"/>
-    </row>
-    <row r="73" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-    </row>
     <row r="76" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="41">
-        <v>1</v>
-      </c>
+      <c r="A76" s="42"/>
+      <c r="C76" s="42"/>
       <c r="E76" s="43"/>
       <c r="F76" s="52"/>
-      <c r="I76" s="41" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="77" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" s="41">
-        <v>1</v>
-      </c>
-      <c r="E77" s="43">
-        <v>63</v>
-      </c>
-      <c r="F77" s="52">
-        <f>D77*E77</f>
-        <v>63</v>
-      </c>
+      <c r="A77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="52"/>
     </row>
     <row r="78" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="D78" s="41">
-        <v>2</v>
-      </c>
-      <c r="E78" s="43">
-        <v>69</v>
-      </c>
-      <c r="F78" s="52">
-        <f>D78*E78</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="D79" s="41">
-        <v>1</v>
-      </c>
-      <c r="E79" s="43">
-        <v>10</v>
-      </c>
-      <c r="F79" s="52">
-        <f>D79*E79</f>
-        <v>10</v>
-      </c>
-      <c r="I79" s="41" t="s">
-        <v>333</v>
-      </c>
+      <c r="A78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="52"/>
+    </row>
+    <row r="79" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
-        <v>25</v>
+      <c r="A80" s="42" t="s">
+        <v>29</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="41" t="s">
-        <v>26</v>
+      <c r="C80" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
@@ -3864,370 +3920,347 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
+    <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="41">
+        <v>1</v>
+      </c>
+      <c r="E81" s="43">
+        <v>63</v>
+      </c>
+      <c r="F81" s="52">
+        <f>D81*E81</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" s="41">
+        <v>2</v>
+      </c>
+      <c r="E82" s="43">
+        <v>69</v>
+      </c>
+      <c r="F82" s="52">
+        <f>D82*E82</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="D83" s="41">
+        <v>1</v>
+      </c>
+      <c r="E83" s="43">
+        <v>10</v>
+      </c>
+      <c r="F83" s="52">
+        <f>D83*E83</f>
+        <v>10</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="41">
+        <v>1</v>
+      </c>
+      <c r="E84" s="43"/>
+      <c r="F84" s="52"/>
+      <c r="I84" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>250</v>
+      </c>
+      <c r="F88" s="5">
+        <f>E88*D88</f>
+        <v>250</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>13</v>
+      </c>
+      <c r="F89" s="5">
+        <f>E89*D89</f>
+        <v>13</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <v>43</v>
+      </c>
+      <c r="F90" s="5">
+        <f>E90*D90</f>
+        <v>43</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="5">
-        <v>250</v>
-      </c>
-      <c r="F84" s="5">
-        <f>E84*D84</f>
-        <v>250</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="C92" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" s="41">
+        <v>0</v>
+      </c>
+      <c r="E94" s="43">
+        <v>656</v>
+      </c>
+      <c r="F94" s="52">
+        <f>E94*D94</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="49"/>
+    </row>
+    <row r="95" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="41">
+        <v>0</v>
+      </c>
+      <c r="E95" s="43">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F95" s="52">
+        <f>E95*D95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="F96" s="52">
+        <f>E96*D96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="54"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1075</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" ref="F99:F104" si="4">E99*D99</f>
+        <v>1075</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5">
-        <v>13</v>
-      </c>
-      <c r="F85" s="5">
-        <f>E85*D85</f>
-        <v>13</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-      <c r="E86" s="5">
-        <v>43</v>
-      </c>
-      <c r="F86" s="5">
-        <f>E86*D86</f>
-        <v>43</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="I87" s="41" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="D90" s="41">
-        <v>0</v>
-      </c>
-      <c r="E90" s="43">
-        <v>656</v>
-      </c>
-      <c r="F90" s="52">
-        <f>E90*D90</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="49"/>
-    </row>
-    <row r="91" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B91" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="D91" s="41">
-        <v>0</v>
-      </c>
-      <c r="E91" s="43">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F91" s="52">
-        <f>E91*D91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B92" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0</v>
-      </c>
-      <c r="E92" s="12">
-        <v>4.87</v>
-      </c>
-      <c r="F92" s="52">
-        <f>E92*D92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F93" s="54"/>
-    </row>
-    <row r="94" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" s="54"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5">
-        <v>1075</v>
-      </c>
-      <c r="F95" s="5">
-        <f t="shared" ref="F95:F100" si="4">E95*D95</f>
-        <v>1075</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D96" s="38">
-        <v>0</v>
-      </c>
-      <c r="E96" s="39">
-        <v>1350</v>
-      </c>
-      <c r="F96" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B97" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" s="38">
-        <v>0</v>
-      </c>
-      <c r="E97" s="39">
-        <v>1350</v>
-      </c>
-      <c r="F97" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B98" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="38">
-        <v>0</v>
-      </c>
-      <c r="E98" s="40">
-        <v>1445</v>
-      </c>
-      <c r="F98" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="38">
-        <v>0</v>
-      </c>
-      <c r="E99" s="39">
-        <v>1130</v>
-      </c>
-      <c r="F99" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="38" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D100" s="38">
         <v>0</v>
       </c>
       <c r="E100" s="39">
-        <v>1130</v>
+        <v>1350</v>
       </c>
       <c r="F100" s="39">
         <f t="shared" si="4"/>
@@ -4240,1496 +4273,1527 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="29" t="s">
+    <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="38">
+        <v>0</v>
+      </c>
+      <c r="E101" s="39">
+        <v>1350</v>
+      </c>
+      <c r="F101" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="38">
+        <v>0</v>
+      </c>
+      <c r="E102" s="40">
+        <v>1445</v>
+      </c>
+      <c r="F102" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="38">
+        <v>0</v>
+      </c>
+      <c r="E103" s="39">
+        <v>1130</v>
+      </c>
+      <c r="F103" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="38">
+        <v>0</v>
+      </c>
+      <c r="E104" s="39">
+        <v>1130</v>
+      </c>
+      <c r="F104" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A105" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-    </row>
-    <row r="102" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B106" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C106" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="D102" s="32">
-        <v>1</v>
-      </c>
-      <c r="E102" s="33">
+      <c r="D106" s="32">
+        <v>1</v>
+      </c>
+      <c r="E106" s="33">
         <v>6734</v>
       </c>
-      <c r="F102" s="33">
-        <f>D102*E102</f>
+      <c r="F106" s="33">
+        <f>D106*E106</f>
         <v>6734</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="32" t="s">
+      <c r="H106" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="I102" s="32" t="s">
+      <c r="I106" s="32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B103" s="32"/>
-      <c r="H103" s="32"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="37"/>
-      <c r="H104" s="32"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="32"/>
-      <c r="C105" s="37"/>
-      <c r="H105" s="32"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="32"/>
-      <c r="C106" s="37"/>
-      <c r="H106" s="32"/>
-    </row>
-    <row r="107" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B107" s="32"/>
+      <c r="H107" s="32"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="35"/>
       <c r="B108" s="32"/>
+      <c r="C108" s="37"/>
+      <c r="H108" s="32"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-    </row>
-    <row r="111" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+      <c r="C109" s="37"/>
+      <c r="H109" s="32"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="32"/>
+      <c r="C110" s="37"/>
+      <c r="H110" s="32"/>
+    </row>
+    <row r="111" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="32"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="32"/>
+    </row>
+    <row r="115" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D112" s="3">
-        <v>1</v>
-      </c>
-      <c r="E112" s="5">
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
         <v>3582</v>
       </c>
-      <c r="F112" s="5">
-        <f>E112*D112</f>
+      <c r="F116" s="5">
+        <f>E116*D116</f>
         <v>3582</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D113" s="3">
-        <v>1</v>
-      </c>
-      <c r="E113" s="5">
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5">
         <v>1630</v>
       </c>
-      <c r="F113" s="5">
-        <f t="shared" ref="F113:F121" si="5">E113*D113</f>
+      <c r="F117" s="5">
+        <f t="shared" ref="F117:F125" si="5">E117*D117</f>
         <v>1630</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="I117" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D114" s="3">
-        <v>1</v>
-      </c>
-      <c r="E114" s="5">
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
         <v>886</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F118" s="5">
         <f t="shared" si="5"/>
         <v>886</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D115" s="3">
-        <v>1</v>
-      </c>
-      <c r="E115" s="5">
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
         <v>163</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F119" s="5">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D116" s="3">
-        <v>1</v>
-      </c>
-      <c r="E116" s="5">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5">
         <v>11</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F120" s="5">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D117" s="3">
-        <v>1</v>
-      </c>
-      <c r="E117" s="5">
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
         <v>520</v>
       </c>
-      <c r="F117" s="5">
-        <f>E117*D117</f>
+      <c r="F121" s="5">
+        <f>E121*D121</f>
         <v>520</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
-      <c r="E118" s="5">
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
         <v>193</v>
       </c>
-      <c r="F118" s="5">
-        <f>E118*D118</f>
+      <c r="F122" s="5">
+        <f>E122*D122</f>
         <v>193</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="38" t="s">
+    <row r="123" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B123" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C123" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D119" s="38">
+      <c r="D123" s="38">
         <v>0</v>
       </c>
-      <c r="E119" s="39">
+      <c r="E123" s="39">
         <v>2800</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F123" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G119" s="38" t="s">
+      <c r="G123" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I119" s="38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41" t="s">
+      <c r="I123" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="B120" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="D120" s="41">
+      <c r="D124" s="41">
         <v>10</v>
       </c>
-      <c r="E120" s="52">
+      <c r="E124" s="52">
         <v>12</v>
       </c>
-      <c r="F120" s="52">
+      <c r="F124" s="52">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="G120" s="41" t="s">
+      <c r="G124" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I120" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="41" t="s">
+      <c r="I124" s="41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="B121" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="D121" s="41">
-        <v>1</v>
-      </c>
-      <c r="E121" s="52">
+      <c r="D125" s="41">
+        <v>1</v>
+      </c>
+      <c r="E125" s="52">
         <v>14</v>
       </c>
-      <c r="F121" s="52">
+      <c r="F125" s="52">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="G121" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I121" s="41" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D122" s="3">
-        <v>4</v>
-      </c>
-      <c r="E122" s="5">
-        <v>15.25</v>
-      </c>
-      <c r="F122" s="5">
-        <f>E122*D122</f>
-        <v>61</v>
-      </c>
-      <c r="G122" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D123" s="3">
-        <v>10</v>
-      </c>
-      <c r="E123" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F123" s="5">
-        <f>E123*D123</f>
-        <v>165</v>
-      </c>
-      <c r="G123" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D124" s="3">
-        <v>10</v>
-      </c>
-      <c r="E124" s="5">
-        <v>24</v>
-      </c>
-      <c r="F124" s="5">
-        <f>E124*D124</f>
-        <v>240</v>
-      </c>
-      <c r="G124" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D125" s="3">
-        <v>6</v>
-      </c>
-      <c r="E125" s="5">
-        <v>24</v>
-      </c>
-      <c r="F125" s="5">
-        <f>E125*D125</f>
-        <v>144</v>
-      </c>
       <c r="G125" s="41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-    </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
+      <c r="I125" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="3">
+        <v>4</v>
+      </c>
+      <c r="E126" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="F126" s="5">
+        <f>E126*D126</f>
+        <v>61</v>
+      </c>
+      <c r="G126" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="3">
+        <v>10</v>
+      </c>
+      <c r="E127" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F127" s="5">
+        <f>E127*D127</f>
+        <v>165</v>
+      </c>
+      <c r="G127" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="3">
+        <v>10</v>
+      </c>
+      <c r="E128" s="5">
+        <v>24</v>
+      </c>
+      <c r="F128" s="5">
+        <f>E128*D128</f>
+        <v>240</v>
+      </c>
+      <c r="G128" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="3">
+        <v>6</v>
+      </c>
+      <c r="E129" s="5">
+        <v>24</v>
+      </c>
+      <c r="F129" s="5">
+        <f>E129*D129</f>
+        <v>144</v>
+      </c>
+      <c r="G129" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+    </row>
+    <row r="133" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="C133" s="7"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="B134" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D130" s="3">
-        <v>1</v>
-      </c>
-      <c r="E130" s="5">
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
         <v>488</v>
       </c>
-      <c r="F130" s="5">
-        <f t="shared" ref="F130:F151" si="6">E130*D130</f>
+      <c r="F134" s="5">
+        <f t="shared" ref="F134:F155" si="6">E134*D134</f>
         <v>488</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B135" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D131" s="3">
-        <v>1</v>
-      </c>
-      <c r="E131" s="5">
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="5">
         <v>184</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F135" s="5">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B136" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D132" s="3">
-        <v>1</v>
-      </c>
-      <c r="E132" s="5">
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
         <v>76</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F136" s="5">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="B137" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D133" s="3">
-        <v>1</v>
-      </c>
-      <c r="E133" s="5">
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5">
         <v>184</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F137" s="5">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B138" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D134" s="3">
-        <v>1</v>
-      </c>
-      <c r="E134" s="5">
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
         <v>94.180155999999997</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F138" s="5">
         <f t="shared" si="6"/>
         <v>94.180155999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="B139" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D135" s="3">
-        <v>1</v>
-      </c>
-      <c r="E135" s="5">
+      <c r="D139" s="3">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F139" s="5">
         <f t="shared" si="6"/>
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C136" s="3" t="s">
+      <c r="B140" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D140" s="3">
         <v>2</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E140" s="5">
         <v>21.21</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F140" s="5">
         <f t="shared" si="6"/>
         <v>42.42</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" s="3" t="s">
+      <c r="B141" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D137" s="3">
-        <v>1</v>
-      </c>
-      <c r="E137" s="5">
+      <c r="D141" s="3">
+        <v>1</v>
+      </c>
+      <c r="E141" s="5">
         <v>304.75</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F141" s="5">
         <f t="shared" si="6"/>
         <v>304.75</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="I141" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" s="3" t="s">
+      <c r="B142" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D138" s="3">
-        <v>1</v>
-      </c>
-      <c r="E138" s="5">
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5">
         <v>148.21</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F142" s="5">
         <f t="shared" si="6"/>
         <v>148.21</v>
       </c>
-      <c r="I138" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C139" s="3" t="s">
+      <c r="B143" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D139" s="3">
-        <v>1</v>
-      </c>
-      <c r="E139" s="5">
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5">
         <v>348.45</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F143" s="5">
         <f t="shared" si="6"/>
         <v>348.45</v>
       </c>
-      <c r="I139" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C140" s="3" t="s">
+      <c r="B144" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D140" s="3">
-        <v>1</v>
-      </c>
-      <c r="E140" s="5">
+      <c r="D144" s="3">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5">
         <v>60.95</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F144" s="5">
         <f t="shared" si="6"/>
         <v>60.95</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C141" s="3" t="s">
+      <c r="B145" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D141" s="3">
-        <v>1</v>
-      </c>
-      <c r="E141" s="5">
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5">
         <v>34.5</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F145" s="5">
         <f t="shared" si="6"/>
         <v>34.5</v>
       </c>
-      <c r="I141" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C142" s="3" t="s">
+      <c r="B146" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D142" s="3">
-        <v>1</v>
-      </c>
-      <c r="E142" s="5">
+      <c r="D146" s="3">
+        <v>1</v>
+      </c>
+      <c r="E146" s="5">
         <v>51.45</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F146" s="5">
         <f t="shared" si="6"/>
         <v>51.45</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B147" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D147" s="3">
         <v>2</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E147" s="5">
         <v>13.8</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F147" s="5">
         <f t="shared" si="6"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="B148" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D144" s="3">
-        <v>1</v>
-      </c>
-      <c r="E144" s="5">
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5">
         <v>19.09</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F148" s="5">
         <f t="shared" si="6"/>
         <v>19.09</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B149" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D149" s="3">
         <v>2</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E149" s="5">
         <v>40.51</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F149" s="5">
         <f t="shared" si="6"/>
         <v>81.02</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C146" s="3" t="s">
+      <c r="B150" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D150" s="3">
         <v>2</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E150" s="5">
         <v>83.598116000000005</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F150" s="5">
         <f t="shared" si="6"/>
         <v>167.19623200000001</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="I150" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="B151" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D151" s="3">
         <v>4</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E151" s="5">
         <v>70.103999999999999</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F151" s="5">
         <f t="shared" si="6"/>
         <v>280.416</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="I151" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D152" s="3">
         <v>2</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E152" s="5">
         <v>28.75</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F152" s="5">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="I148" s="4" t="s">
+      <c r="I152" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D153" s="3">
         <v>2</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E153" s="5">
         <v>38.872799999999998</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F153" s="5">
         <f t="shared" si="6"/>
         <v>77.745599999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="3" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D150" s="3">
-        <v>1</v>
-      </c>
-      <c r="E150" s="5">
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5">
         <v>205</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F154" s="5">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
-      <c r="I150" s="3" t="s">
+      <c r="I154" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="3" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D155" s="3">
         <v>2</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E155" s="5">
         <v>12</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F155" s="5">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="I151" s="3" t="s">
+      <c r="I155" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="10"/>
-    </row>
-    <row r="153" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="10"/>
+    </row>
+    <row r="157" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F153" s="9"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="F157" s="9"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D158" s="3">
         <v>4</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E158" s="5">
         <v>16.5</v>
       </c>
-      <c r="F154" s="5">
-        <f t="shared" ref="F154:F170" si="7">E154*D154</f>
+      <c r="F158" s="5">
+        <f t="shared" ref="F158:F174" si="7">E158*D158</f>
         <v>66</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="I158" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D159" s="3">
         <v>2</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E159" s="5">
         <v>140</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F159" s="5">
         <f t="shared" si="7"/>
         <v>280</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="I159" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" s="3" t="s">
+      <c r="B160" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D156" s="3">
-        <v>1</v>
-      </c>
-      <c r="E156" s="5">
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5">
         <v>85.1</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F160" s="5">
         <f t="shared" si="7"/>
         <v>85.1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C157" s="3" t="s">
+      <c r="B161" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D161" s="3">
         <v>2</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E161" s="5">
         <v>32</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F161" s="5">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="I157" s="3" t="s">
+      <c r="I161" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C158" s="3" t="s">
+      <c r="B162" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D162" s="3">
         <v>2</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E162" s="5">
         <v>51.58</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F162" s="5">
         <f t="shared" si="7"/>
         <v>103.16</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C159" s="3" t="s">
+      <c r="B163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D159" s="3">
-        <v>1</v>
-      </c>
-      <c r="E159" s="5">
+      <c r="D163" s="3">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5">
         <v>60</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F163" s="5">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="I163" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C160" s="3" t="s">
+      <c r="B164" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D160" s="3">
-        <v>1</v>
-      </c>
-      <c r="E160" s="5">
+      <c r="D164" s="3">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5">
         <v>136.47999999999999</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F164" s="5">
         <f t="shared" si="7"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C161" s="3" t="s">
+      <c r="B165" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D161" s="3">
-        <v>1</v>
-      </c>
-      <c r="E161" s="5">
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5">
         <v>136.47999999999999</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F165" s="5">
         <f t="shared" si="7"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="B166" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D162" s="3">
-        <v>1</v>
-      </c>
-      <c r="E162" s="5">
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+      <c r="E166" s="5">
         <v>60.95</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F166" s="5">
         <f t="shared" si="7"/>
         <v>60.95</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C163" s="3" t="s">
+      <c r="B167" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D163" s="3">
-        <v>1</v>
-      </c>
-      <c r="E163" s="5">
+      <c r="D167" s="3">
+        <v>1</v>
+      </c>
+      <c r="E167" s="5">
         <v>119.416</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F167" s="5">
         <f t="shared" si="7"/>
         <v>119.416</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="B168" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D164" s="3">
-        <v>1</v>
-      </c>
-      <c r="E164" s="5">
+      <c r="D168" s="3">
+        <v>1</v>
+      </c>
+      <c r="E168" s="5">
         <v>105.8</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F168" s="5">
         <f t="shared" si="7"/>
         <v>105.8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" s="3" t="s">
+      <c r="B169" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D169" s="3">
         <v>2</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E169" s="5">
         <v>119.6</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F169" s="5">
         <f t="shared" si="7"/>
         <v>239.2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D166" s="3">
-        <v>1</v>
-      </c>
-      <c r="E166" s="5">
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5">
         <v>100</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F170" s="5">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" s="3" t="s">
+      <c r="B171" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D171" s="3">
         <v>2</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E171" s="5">
         <v>92</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F171" s="5">
         <f t="shared" si="7"/>
         <v>184</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C168" s="3" t="s">
+      <c r="B172" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D168" s="3">
-        <v>1</v>
-      </c>
-      <c r="E168" s="5">
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5">
         <v>96.23</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F172" s="5">
         <f t="shared" si="7"/>
         <v>96.23</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C169" s="3" t="s">
+      <c r="B173" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D169" s="3">
-        <v>1</v>
-      </c>
-      <c r="E169" s="5">
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+      <c r="E173" s="5">
         <v>102.44</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F173" s="5">
         <f t="shared" si="7"/>
         <v>102.44</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C170" s="3" t="s">
+      <c r="B174" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D174" s="3">
         <v>2</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E174" s="5">
         <v>28</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F174" s="5">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C171" s="3" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C175" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D175" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C172" s="3" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D172" s="3">
-        <v>1</v>
-      </c>
-      <c r="I172" s="3" t="s">
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="3" t="s">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C177" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D173" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C177" s="7"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-    </row>
-    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B178" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D178" s="3">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K178" s="4"/>
-    </row>
-    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B179" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D179" s="3">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K179" s="4"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C180" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D180" s="3">
-        <v>2</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D181" s="3">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C181" s="7"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J182" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J183" s="19" t="s">
-        <v>197</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K183" s="4"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B184" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D184" s="3">
         <v>2</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J184" s="19" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -5737,269 +5801,346 @@
         <v>184</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A186" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B186" s="19" t="s">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D186" s="19">
-        <v>10</v>
-      </c>
-      <c r="F186" s="55"/>
-      <c r="G186" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I186" s="4" t="s">
-        <v>204</v>
+      <c r="I186" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="J186" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J187" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D188" s="3">
+        <v>2</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J188" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B189" s="3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="D189" s="3">
-        <v>0</v>
-      </c>
-      <c r="E189" s="5">
-        <v>518.5</v>
-      </c>
-      <c r="F189" s="5">
-        <f t="shared" ref="F189:F199" si="8">E189*D189</f>
-        <v>0</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D190" s="3">
-        <v>0</v>
-      </c>
-      <c r="E190" s="5">
-        <v>764</v>
-      </c>
-      <c r="F190" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D191" s="3">
-        <v>0</v>
-      </c>
-      <c r="E191" s="5">
-        <v>816</v>
-      </c>
-      <c r="F191" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D192" s="3">
-        <v>0</v>
-      </c>
-      <c r="E192" s="5">
-        <v>952</v>
-      </c>
-      <c r="F192" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D190" s="19">
+        <v>10</v>
+      </c>
+      <c r="F190" s="55"/>
+      <c r="G190" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J190" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D193" s="3">
         <v>0</v>
       </c>
       <c r="E193" s="5">
-        <v>99.5</v>
+        <v>518.5</v>
       </c>
       <c r="F193" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F193:F203" si="8">E193*D193</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I193" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D194" s="3">
         <v>0</v>
       </c>
       <c r="E194" s="5">
-        <v>128.5</v>
+        <v>764</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D195" s="3">
         <v>0</v>
       </c>
       <c r="E195" s="5">
-        <v>156</v>
+        <v>816</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I195" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D196" s="3">
         <v>0</v>
       </c>
       <c r="E196" s="5">
-        <v>184.5</v>
+        <v>952</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D197" s="3">
         <v>0</v>
       </c>
       <c r="E197" s="5">
-        <v>106.5</v>
+        <v>99.5</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D198" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E198" s="5">
-        <v>106.5</v>
+        <v>128.5</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="8"/>
-        <v>639</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D199" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E199" s="5">
-        <v>121.5</v>
+        <v>156</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="8"/>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E202" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="5">
+        <v>184.5</v>
+      </c>
+      <c r="F200" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D201" s="3">
+        <v>4</v>
+      </c>
+      <c r="E201" s="5">
+        <v>25</v>
+      </c>
+      <c r="F201" s="5">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D202" s="3">
+        <v>4</v>
+      </c>
+      <c r="E202" s="5">
+        <v>28</v>
+      </c>
+      <c r="F202" s="5">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D203" s="3">
+        <v>6</v>
+      </c>
+      <c r="E203" s="5">
+        <v>121.5</v>
+      </c>
+      <c r="F203" s="5">
+        <f t="shared" si="8"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E206" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F202" s="5">
-        <f>SUM(F3:F200)</f>
-        <v>99506.533987999996</v>
+      <c r="F206" s="5">
+        <f>SUM(F3:F204)</f>
+        <v>98744.533987999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C102" r:id="rId1" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
+    <hyperlink ref="C106" r:id="rId1" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9268E1-B5D2-4C90-83A7-E1A3CFD11ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC26CD4-B37D-4D50-A8C0-03CF56A9F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8652" yWindow="4272" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="449">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -723,21 +723,6 @@
   </si>
   <si>
     <t>Detection: Lenses</t>
-  </si>
-  <si>
-    <t>11041 </t>
-  </si>
-  <si>
-    <t>Lensation</t>
-  </si>
-  <si>
-    <t>1.2x telecentric lens, F-mount, suitable for sensors up to 25 megapixel and with an image format of 32mm (diagonal).</t>
-  </si>
-  <si>
-    <t>1.2x Lensagon T25M-12-155I</t>
-  </si>
-  <si>
-    <t>Camera assembly</t>
   </si>
   <si>
     <t>Recommended. Includes switching module between 2 laser ports, controlled by TTL signal.</t>
@@ -1322,9 +1307,6 @@
     <t>Detection: Filter wheels (OPTIONAL)</t>
   </si>
   <si>
-    <t>IN PROGRESS</t>
-  </si>
-  <si>
     <t>OPTIONAL. Only if you need more than 4 laser lines.</t>
   </si>
   <si>
@@ -1404,6 +1386,60 @@
   </si>
   <si>
     <t>Power supply for the galvo fans</t>
+  </si>
+  <si>
+    <t>Edmund Optics</t>
+  </si>
+  <si>
+    <t>18-402</t>
+  </si>
+  <si>
+    <t>18-403</t>
+  </si>
+  <si>
+    <t>Mitutoyo Plan Apo Brightfield and Darkfield, 2X/0.055</t>
+  </si>
+  <si>
+    <t>Mitutoyo Plan Apo Brightfield and Darkfield, 5X/0.14</t>
+  </si>
+  <si>
+    <t>Mitutoyo Plan Apo Brightfield and Darkfield 7.5X/0.21</t>
+  </si>
+  <si>
+    <t>18-404</t>
+  </si>
+  <si>
+    <t>Mitutoyo Plan Apo Brightfield and Darkfield 10x/0.28</t>
+  </si>
+  <si>
+    <t>18-405</t>
+  </si>
+  <si>
+    <t>Mitutoyo-BD-black-ring.ipt</t>
+  </si>
+  <si>
+    <t>Back cover for the Mitutoyo objectives</t>
+  </si>
+  <si>
+    <t>Detection tube lens</t>
+  </si>
+  <si>
+    <t>Detection objective turret</t>
+  </si>
+  <si>
+    <t>M2M40S</t>
+  </si>
+  <si>
+    <t>SM2 adapter for Mitutoyo objectives</t>
+  </si>
+  <si>
+    <t>SM2 tube</t>
+  </si>
+  <si>
+    <t>SM2 filter adapter</t>
+  </si>
+  <si>
+    <t>SM2 to F-mount adapter</t>
   </si>
 </sst>
 </file>
@@ -1513,13 +1549,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1537,6 +1566,15 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1636,7 +1674,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1677,8 +1715,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1692,7 +1728,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1702,9 +1738,12 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2092,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2210,7 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>224</v>
@@ -2225,7 +2264,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2241,54 +2280,54 @@
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
         <v>1008062</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <v>7400</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="37">
         <f>E10*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="I10" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="G10" s="48"/>
+      <c r="I10" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="38">
+      <c r="C11" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="36">
         <v>0</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="37">
         <v>20000</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="37">
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="I11" s="38" t="s">
-        <v>411</v>
+      <c r="G11" s="48"/>
+      <c r="I11" s="36" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2319,10 +2358,10 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2346,172 +2385,172 @@
         <v>520</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="39">
         <v>1</v>
       </c>
       <c r="E15" s="25">
         <v>1807</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="50">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="39">
         <v>1</v>
       </c>
       <c r="E16" s="25">
         <v>132</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="50">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <v>1</v>
       </c>
       <c r="E17" s="25">
         <v>250</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="39">
         <v>1</v>
       </c>
       <c r="E18" s="25">
         <v>1807</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="50">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="H18" s="41" t="s">
+      <c r="G18" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="I18" s="39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="25">
         <v>200</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <v>1</v>
       </c>
       <c r="E20" s="25">
         <v>1939</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>1939</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2535,10 +2574,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,10 +2601,10 @@
         <v>2450</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,10 +2628,10 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,28 +2655,28 @@
         <v>870</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -2650,21 +2689,21 @@
         <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
@@ -2677,21 +2716,21 @@
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
-        <v>342</v>
+      <c r="A28" s="49" t="s">
+        <v>337</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2704,21 +2743,21 @@
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>345</v>
-      </c>
       <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2731,21 +2770,21 @@
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
-        <v>348</v>
+      <c r="A30" s="49" t="s">
+        <v>343</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2758,21 +2797,21 @@
         <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
-        <v>353</v>
+      <c r="A31" s="49" t="s">
+        <v>348</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2785,7 +2824,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2819,7 +2858,7 @@
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2908,30 +2947,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="41">
+    <row r="40" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="39">
         <v>2</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="41">
         <v>13</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="50">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="39" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2958,43 +2997,43 @@
       <c r="G41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" s="41">
+    <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="39">
         <v>2</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="41">
         <v>18</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="50">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>53</v>
@@ -3042,996 +3081,996 @@
         <v>46</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+    <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" s="41">
+      <c r="B45" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="39">
         <v>2</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="41">
         <v>31</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="50">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D46" s="45">
+      <c r="H45" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="43">
         <v>10</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="44">
         <v>16</v>
       </c>
-      <c r="F46" s="53">
+      <c r="F46" s="51">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H46" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="I46" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="45">
+      <c r="H46" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="43">
         <v>2</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="44">
         <v>41</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F47" s="51">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="H47" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="I47" s="45" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="D48" s="41">
+      <c r="H47" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="39">
         <v>2</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="41">
         <v>99</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="50">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="H48" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="D49" s="45">
+      <c r="H48" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="43">
         <v>4</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="44">
         <v>189</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="51">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="H49" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="D50" s="45">
+      <c r="H49" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="43">
         <v>4</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="44">
         <v>110</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="51">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="H50" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="I50" s="45" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="D51" s="41">
+      <c r="H50" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="I50" s="43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="39">
         <v>4</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="41">
         <v>13</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="50">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="H51" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I51" s="41" t="s">
+      <c r="H51" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="D52" s="41">
+      <c r="B52" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="39">
         <v>2</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="41">
         <v>8</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="50">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H52" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="H52" s="39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="42" t="s">
+      <c r="B53" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="39">
         <v>4</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="41">
         <v>7</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="50">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H53" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="D54" s="41">
+      <c r="H53" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="39">
         <v>6</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="41">
         <v>5</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F54" s="50">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H54" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I54" s="41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="41">
+      <c r="H54" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="39">
         <v>4</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="41">
         <v>6</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="50">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H55" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="D56" s="41">
+      <c r="H55" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="39">
         <v>4</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="41">
         <v>5</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="50">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H56" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
+      <c r="H56" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="42" t="s">
+      <c r="B57" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="39">
         <v>2</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="41">
         <v>5</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="50">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H57" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="D58" s="45">
+      <c r="H57" s="39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="43">
         <v>2</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="44">
         <v>398</v>
       </c>
-      <c r="F58" s="53">
+      <c r="F58" s="51">
         <f t="shared" si="2"/>
         <v>796</v>
       </c>
-      <c r="H58" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="I58" s="45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>402</v>
-      </c>
-      <c r="D59" s="45">
+      <c r="H58" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="D59" s="43">
         <v>2</v>
       </c>
-      <c r="E59" s="46">
-        <v>1</v>
-      </c>
-      <c r="F59" s="53">
+      <c r="E59" s="44">
+        <v>1</v>
+      </c>
+      <c r="F59" s="51">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H59" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="I59" s="45" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="D60" s="45">
+      <c r="H59" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="43">
         <v>2</v>
       </c>
-      <c r="E60" s="46">
+      <c r="E60" s="44">
         <v>30</v>
       </c>
-      <c r="F60" s="53">
+      <c r="F60" s="51">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H60" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D61" s="41">
+      <c r="H60" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="39">
         <v>2</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="41">
         <v>36</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="50">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="H61" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" s="47" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="D62" s="41">
+      <c r="H61" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" s="45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D62" s="39">
         <v>2</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="41">
         <v>2104</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="50">
         <f t="shared" ref="F62:F71" si="3">E62*D62</f>
         <v>4208</v>
       </c>
-      <c r="H62" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I62" s="41" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="D63" s="41">
+      <c r="H62" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" s="39">
         <v>2</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="41">
         <v>82</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="50">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="H63" s="41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="D64" s="41">
-        <v>1</v>
-      </c>
-      <c r="E64" s="43">
+      <c r="H63" s="39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="39">
+        <v>1</v>
+      </c>
+      <c r="E64" s="41">
         <v>495</v>
       </c>
-      <c r="F64" s="52">
+      <c r="F64" s="50">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="H64" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I64" s="41" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="B65" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="D65" s="41">
+      <c r="H64" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" s="39">
         <v>0</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="41">
         <v>390</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H65" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I65" s="41" t="s">
+      <c r="H65" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66" s="39" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="B66" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D66" s="41">
+      <c r="C66" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D66" s="39">
         <v>14</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="41">
         <v>20</v>
       </c>
-      <c r="F66" s="52">
+      <c r="F66" s="50">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="H66" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I66" s="47" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="B67" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="D67" s="41">
-        <v>1</v>
-      </c>
-      <c r="E67" s="43">
+      <c r="H66" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="D67" s="39">
+        <v>1</v>
+      </c>
+      <c r="E67" s="41">
         <v>10</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="50">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H67" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I67" s="41" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="D68" s="41">
+      <c r="H67" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="D68" s="39">
         <v>2</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="41">
         <v>5</v>
       </c>
-      <c r="F68" s="52">
+      <c r="F68" s="50">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H68" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
-        <v>429</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>433</v>
-      </c>
-      <c r="D69" s="41">
+      <c r="H68" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="39">
         <v>2</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="41">
         <v>62</v>
       </c>
-      <c r="F69" s="52">
+      <c r="F69" s="50">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="H69" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I69" s="41" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="D70" s="41">
-        <v>1</v>
-      </c>
-      <c r="E70" s="43">
+      <c r="H69" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="D70" s="39">
+        <v>1</v>
+      </c>
+      <c r="E70" s="41">
         <v>2</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F70" s="50">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H70" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I70" s="41" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="D71" s="41">
-        <v>1</v>
-      </c>
-      <c r="E71" s="43">
+      <c r="H70" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I70" s="39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="D71" s="39">
+        <v>1</v>
+      </c>
+      <c r="E71" s="41">
         <v>15</v>
       </c>
-      <c r="F71" s="52">
+      <c r="F71" s="50">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H71" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="I71" s="41" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="D72" s="41">
+      <c r="H71" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" s="39">
         <v>2</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="41">
         <v>25</v>
       </c>
-      <c r="F72" s="52">
+      <c r="F72" s="50">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="46" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="D73" s="41">
+      <c r="B73" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="39">
         <v>2</v>
       </c>
-      <c r="E73" s="43">
+      <c r="E73" s="41">
         <v>35</v>
       </c>
-      <c r="F73" s="52">
+      <c r="F73" s="50">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H73" s="41" t="s">
+      <c r="H73" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I73" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="J73" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="I73" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="J73" s="49" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D74" s="41">
+    </row>
+    <row r="74" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="39">
         <v>2</v>
       </c>
-      <c r="E74" s="43">
+      <c r="E74" s="41">
         <v>92</v>
       </c>
-      <c r="F74" s="52">
+      <c r="F74" s="50">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="H74" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="C75" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="D75" s="41">
+      <c r="H74" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="39">
         <v>2</v>
       </c>
-      <c r="E75" s="43">
-        <v>1</v>
-      </c>
-      <c r="F75" s="52">
+      <c r="E75" s="41">
+        <v>1</v>
+      </c>
+      <c r="F75" s="50">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H75" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="I75" s="41" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="52"/>
-    </row>
-    <row r="77" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="52"/>
-    </row>
-    <row r="78" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="52"/>
+      <c r="H75" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="50"/>
+    </row>
+    <row r="77" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="50"/>
+    </row>
+    <row r="78" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="50"/>
     </row>
     <row r="79" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
+    <row r="80" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="41">
-        <v>1</v>
-      </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="52"/>
-      <c r="I80" s="41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="D81" s="41">
-        <v>1</v>
-      </c>
-      <c r="E81" s="43">
+      <c r="D80" s="39">
+        <v>1</v>
+      </c>
+      <c r="E80" s="41"/>
+      <c r="F80" s="50"/>
+      <c r="I80" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="39">
+        <v>1</v>
+      </c>
+      <c r="E81" s="41">
         <v>63</v>
       </c>
-      <c r="F81" s="52">
+      <c r="F81" s="50">
         <f>D81*E81</f>
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="B82" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="D82" s="41">
+    <row r="82" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" s="39">
         <v>2</v>
       </c>
-      <c r="E82" s="43">
+      <c r="E82" s="41">
         <v>69</v>
       </c>
-      <c r="F82" s="52">
+      <c r="F82" s="50">
         <f>D82*E82</f>
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="B83" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="D83" s="41">
-        <v>1</v>
-      </c>
-      <c r="E83" s="43">
+    <row r="83" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="39">
+        <v>1</v>
+      </c>
+      <c r="E83" s="41">
         <v>10</v>
       </c>
-      <c r="F83" s="52">
+      <c r="F83" s="50">
         <f>D83*E83</f>
         <v>10</v>
       </c>
-      <c r="I83" s="41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+      <c r="I83" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="41">
-        <v>1</v>
-      </c>
-      <c r="E84" s="43"/>
-      <c r="F84" s="52"/>
-      <c r="I84" s="41" t="s">
-        <v>334</v>
+      <c r="D84" s="39">
+        <v>1</v>
+      </c>
+      <c r="E84" s="41"/>
+      <c r="F84" s="50"/>
+      <c r="I84" s="39" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>14</v>
@@ -4056,13 +4095,13 @@
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -4084,13 +4123,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -4111,90 +4150,90 @@
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
       </c>
-      <c r="I91" s="41" t="s">
-        <v>378</v>
+      <c r="I91" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>380</v>
+        <v>402</v>
+      </c>
+      <c r="C92" s="55" t="s">
+        <v>375</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:10" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="D94" s="41">
+    <row r="94" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" s="39">
         <v>0</v>
       </c>
-      <c r="E94" s="43">
+      <c r="E94" s="41">
         <v>656</v>
       </c>
-      <c r="F94" s="52">
+      <c r="F94" s="50">
         <f>E94*D94</f>
         <v>0</v>
       </c>
-      <c r="I94" s="49"/>
-    </row>
-    <row r="95" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="D95" s="41">
+      <c r="I94" s="47"/>
+    </row>
+    <row r="95" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B95" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D95" s="39">
         <v>0</v>
       </c>
-      <c r="E95" s="43">
+      <c r="E95" s="41">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F95" s="52">
+      <c r="F95" s="50">
         <f>E95*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B96" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D96" s="3">
         <v>0</v>
@@ -4202,7 +4241,7 @@
       <c r="E96" s="12">
         <v>4.87</v>
       </c>
-      <c r="F96" s="52">
+      <c r="F96" s="50">
         <f>E96*D96</f>
         <v>0</v>
       </c>
@@ -4211,13 +4250,13 @@
       <c r="A97" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F97" s="54"/>
+      <c r="F97" s="52"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F98" s="54"/>
+      <c r="F98" s="52"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -4246,138 +4285,138 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="38" t="s">
+    <row r="100" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C100" s="38" t="s">
+      <c r="C100" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="38">
+      <c r="D100" s="36">
         <v>0</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="37">
         <v>1350</v>
       </c>
-      <c r="F100" s="39">
+      <c r="F100" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G100" s="38" t="s">
+      <c r="G100" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="38" t="s">
+      <c r="I100" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
+    <row r="101" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="C101" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D101" s="38">
+      <c r="D101" s="36">
         <v>0</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="37">
         <v>1350</v>
       </c>
-      <c r="F101" s="39">
+      <c r="F101" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G101" s="38" t="s">
+      <c r="G101" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="38" t="s">
+      <c r="I101" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+    <row r="102" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="38">
+      <c r="D102" s="36">
         <v>0</v>
       </c>
-      <c r="E102" s="40">
+      <c r="E102" s="38">
         <v>1445</v>
       </c>
-      <c r="F102" s="39">
+      <c r="F102" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G102" s="38" t="s">
+      <c r="G102" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="38" t="s">
+      <c r="I102" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
+    <row r="103" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="38" t="s">
+      <c r="C103" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D103" s="38">
+      <c r="D103" s="36">
         <v>0</v>
       </c>
-      <c r="E103" s="39">
+      <c r="E103" s="37">
         <v>1130</v>
       </c>
-      <c r="F103" s="39">
+      <c r="F103" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G103" s="38" t="s">
+      <c r="G103" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="38" t="s">
+      <c r="I103" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
+    <row r="104" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="38">
+      <c r="D104" s="36">
         <v>0</v>
       </c>
-      <c r="E104" s="39">
+      <c r="E104" s="37">
         <v>1130</v>
       </c>
-      <c r="F104" s="39">
+      <c r="F104" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G104" s="38" t="s">
+      <c r="G104" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="38" t="s">
+      <c r="I104" s="36" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4388,410 +4427,462 @@
       <c r="E105" s="31"/>
       <c r="F105" s="31"/>
     </row>
-    <row r="106" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="34" t="s">
-        <v>229</v>
+        <v>432</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>232</v>
+        <v>431</v>
+      </c>
+      <c r="C106" s="58" t="s">
+        <v>434</v>
       </c>
       <c r="D106" s="32">
         <v>1</v>
       </c>
       <c r="E106" s="33">
-        <v>6734</v>
+        <v>912</v>
       </c>
       <c r="F106" s="33">
-        <f>D106*E106</f>
-        <v>6734</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <f>E106*D106</f>
+        <v>912</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="B107" s="32"/>
+        <v>433</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
+        <v>837</v>
+      </c>
+      <c r="F107" s="33">
+        <f t="shared" ref="F107:F111" si="5">E107*D107</f>
+        <v>837</v>
+      </c>
       <c r="H107" s="32"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="37"/>
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="C108" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1540</v>
+      </c>
+      <c r="F108" s="33">
+        <f t="shared" si="5"/>
+        <v>1540</v>
+      </c>
       <c r="H108" s="32"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="32"/>
-      <c r="C109" s="37"/>
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="C109" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1026</v>
+      </c>
+      <c r="F109" s="33">
+        <f t="shared" si="5"/>
+        <v>1026</v>
+      </c>
       <c r="H109" s="32"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="32"/>
-      <c r="C110" s="37"/>
+      <c r="A110" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="D110" s="3">
+        <v>4</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F110" s="33">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="H110" s="32"/>
     </row>
-    <row r="111" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="32"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
+        <v>60</v>
+      </c>
+      <c r="F111" s="33">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H111" s="32"/>
+    </row>
+    <row r="112" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A112" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="B113" s="32"/>
-    </row>
-    <row r="115" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+      <c r="C113" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B114" s="32"/>
+      <c r="C114" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D116" s="3">
-        <v>1</v>
-      </c>
-      <c r="E116" s="5">
-        <v>3582</v>
-      </c>
-      <c r="F116" s="5">
-        <f>E116*D116</f>
-        <v>3582</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D117" s="3">
-        <v>1</v>
-      </c>
-      <c r="E117" s="5">
-        <v>1630</v>
-      </c>
-      <c r="F117" s="5">
-        <f t="shared" ref="F117:F125" si="5">E117*D117</f>
-        <v>1630</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
-      <c r="E118" s="5">
-        <v>886</v>
-      </c>
-      <c r="F118" s="5">
-        <f t="shared" si="5"/>
-        <v>886</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="D119" s="3">
         <v>1</v>
       </c>
       <c r="E119" s="5">
-        <v>163</v>
+        <v>3582</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="5"/>
-        <v>163</v>
+        <f>E119*D119</f>
+        <v>3582</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D120" s="3">
         <v>1</v>
       </c>
       <c r="E120" s="5">
-        <v>11</v>
+        <v>1630</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" ref="F120:F128" si="6">E120*D120</f>
+        <v>1630</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="I120" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
       </c>
       <c r="E121" s="5">
-        <v>520</v>
+        <v>886</v>
       </c>
       <c r="F121" s="5">
-        <f>E121*D121</f>
-        <v>520</v>
+        <f t="shared" si="6"/>
+        <v>886</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="I121" s="3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
       </c>
       <c r="E122" s="5">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F122" s="5">
-        <f>E122*D122</f>
-        <v>193</v>
+        <f t="shared" si="6"/>
+        <v>163</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="38" t="s">
+      <c r="I122" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <v>11</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5">
+        <v>520</v>
+      </c>
+      <c r="F124" s="5">
+        <f>E124*D124</f>
+        <v>520</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
+        <v>193</v>
+      </c>
+      <c r="F125" s="5">
+        <f>E125*D125</f>
+        <v>193</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B126" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C126" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D123" s="38">
+      <c r="D126" s="36">
         <v>0</v>
       </c>
-      <c r="E123" s="39">
+      <c r="E126" s="37">
         <v>2800</v>
       </c>
-      <c r="F123" s="39">
-        <f t="shared" si="5"/>
+      <c r="F126" s="37">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G123" s="38" t="s">
+      <c r="G126" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I123" s="38" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="B124" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C124" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="D124" s="41">
+      <c r="I126" s="36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="B127" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="D127" s="39">
         <v>10</v>
       </c>
-      <c r="E124" s="52">
+      <c r="E127" s="50">
         <v>12</v>
       </c>
-      <c r="F124" s="52">
-        <f t="shared" si="5"/>
+      <c r="F127" s="50">
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="G124" s="41" t="s">
+      <c r="G127" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I124" s="41" t="s">
+      <c r="I127" s="39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="39">
+        <v>1</v>
+      </c>
+      <c r="E128" s="50">
+        <v>14</v>
+      </c>
+      <c r="F128" s="50">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G128" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128" s="39" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="B125" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C125" s="41" t="s">
-        <v>396</v>
-      </c>
-      <c r="D125" s="41">
-        <v>1</v>
-      </c>
-      <c r="E125" s="52">
-        <v>14</v>
-      </c>
-      <c r="F125" s="52">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="G125" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I125" s="41" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D126" s="3">
-        <v>4</v>
-      </c>
-      <c r="E126" s="5">
-        <v>15.25</v>
-      </c>
-      <c r="F126" s="5">
-        <f>E126*D126</f>
-        <v>61</v>
-      </c>
-      <c r="G126" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D127" s="3">
-        <v>10</v>
-      </c>
-      <c r="E127" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F127" s="5">
-        <f>E127*D127</f>
-        <v>165</v>
-      </c>
-      <c r="G127" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D128" s="3">
-        <v>10</v>
-      </c>
-      <c r="E128" s="5">
-        <v>24</v>
-      </c>
-      <c r="F128" s="5">
-        <f>E128*D128</f>
-        <v>240</v>
-      </c>
-      <c r="G128" s="41" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4802,1348 +4893,1423 @@
         <v>83</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D129" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E129" s="5">
-        <v>24</v>
+        <v>15.25</v>
       </c>
       <c r="F129" s="5">
         <f>E129*D129</f>
+        <v>61</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10</v>
+      </c>
+      <c r="E130" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F130" s="5">
+        <f>E130*D130</f>
+        <v>165</v>
+      </c>
+      <c r="G130" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10</v>
+      </c>
+      <c r="E131" s="5">
+        <v>24</v>
+      </c>
+      <c r="F131" s="5">
+        <f>E131*D131</f>
+        <v>240</v>
+      </c>
+      <c r="G131" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" s="3">
+        <v>6</v>
+      </c>
+      <c r="E132" s="5">
+        <v>24</v>
+      </c>
+      <c r="F132" s="5">
+        <f>E132*D132</f>
         <v>144</v>
       </c>
-      <c r="G129" s="41" t="s">
+      <c r="G132" s="39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-    </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+    </row>
+    <row r="136" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D134" s="3">
-        <v>1</v>
-      </c>
-      <c r="E134" s="5">
-        <v>488</v>
-      </c>
-      <c r="F134" s="5">
-        <f t="shared" ref="F134:F155" si="6">E134*D134</f>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D135" s="3">
-        <v>1</v>
-      </c>
-      <c r="E135" s="5">
-        <v>184</v>
-      </c>
-      <c r="F135" s="5">
-        <f t="shared" si="6"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1</v>
-      </c>
-      <c r="E136" s="5">
-        <v>76</v>
-      </c>
-      <c r="F136" s="5">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
+      <c r="C136" s="7"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D137" s="3">
         <v>1</v>
       </c>
       <c r="E137" s="5">
-        <v>184</v>
+        <v>488</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="6"/>
-        <v>184</v>
+        <f t="shared" ref="F137:F158" si="7">E137*D137</f>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D138" s="3">
         <v>1</v>
       </c>
       <c r="E138" s="5">
-        <v>94.180155999999997</v>
+        <v>184</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="6"/>
-        <v>94.180155999999997</v>
+        <f t="shared" si="7"/>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
       </c>
       <c r="E139" s="5">
-        <v>36.799999999999997</v>
+        <v>76</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="6"/>
-        <v>36.799999999999997</v>
+        <f t="shared" si="7"/>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D140" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" s="5">
-        <v>21.21</v>
+        <v>184</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="6"/>
-        <v>42.42</v>
+        <f t="shared" si="7"/>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D141" s="3">
         <v>1</v>
       </c>
       <c r="E141" s="5">
-        <v>304.75</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="6"/>
-        <v>304.75</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>102</v>
+        <f t="shared" si="7"/>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
       </c>
       <c r="E142" s="5">
-        <v>148.21</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="6"/>
-        <v>148.21</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>102</v>
+        <f t="shared" si="7"/>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D143" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" s="5">
-        <v>348.45</v>
+        <v>21.21</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="6"/>
-        <v>348.45</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>102</v>
+        <f t="shared" si="7"/>
+        <v>42.42</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
       </c>
       <c r="E144" s="5">
-        <v>60.95</v>
+        <v>304.75</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="6"/>
-        <v>60.95</v>
+        <f t="shared" si="7"/>
+        <v>304.75</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
       </c>
       <c r="E145" s="5">
-        <v>34.5</v>
+        <v>148.21</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="6"/>
-        <v>34.5</v>
+        <f t="shared" si="7"/>
+        <v>148.21</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D146" s="3">
         <v>1</v>
       </c>
       <c r="E146" s="5">
-        <v>51.45</v>
+        <v>348.45</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="6"/>
-        <v>51.45</v>
+        <f t="shared" si="7"/>
+        <v>348.45</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D147" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" s="5">
-        <v>13.8</v>
+        <v>60.95</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="6"/>
-        <v>27.6</v>
+        <f t="shared" si="7"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D148" s="3">
         <v>1</v>
       </c>
       <c r="E148" s="5">
-        <v>19.09</v>
+        <v>34.5</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="6"/>
-        <v>19.09</v>
+        <f t="shared" si="7"/>
+        <v>34.5</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D149" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" s="5">
-        <v>40.51</v>
+        <v>51.45</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="6"/>
-        <v>81.02</v>
+        <f t="shared" si="7"/>
+        <v>51.45</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D150" s="3">
         <v>2</v>
       </c>
       <c r="E150" s="5">
-        <v>83.598116000000005</v>
+        <v>13.8</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="6"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>111</v>
+        <f t="shared" si="7"/>
+        <v>27.6</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D151" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E151" s="5">
-        <v>70.103999999999999</v>
+        <v>19.09</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="6"/>
-        <v>280.416</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D152" s="3">
         <v>2</v>
       </c>
       <c r="E152" s="5">
-        <v>28.75</v>
+        <v>40.51</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="6"/>
-        <v>57.5</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>128</v>
+        <f t="shared" si="7"/>
+        <v>81.02</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D153" s="3">
         <v>2</v>
       </c>
       <c r="E153" s="5">
-        <v>38.872799999999998</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="6"/>
-        <v>77.745599999999996</v>
+        <f t="shared" si="7"/>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="B154" s="3" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D154" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E154" s="5">
-        <v>205</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="6"/>
-        <v>205</v>
+        <f t="shared" si="7"/>
+        <v>280.416</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="B155" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D155" s="3">
         <v>2</v>
       </c>
       <c r="E155" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="7"/>
+        <v>57.5</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2</v>
+      </c>
+      <c r="E156" s="5">
+        <v>38.872799999999998</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="7"/>
+        <v>77.745599999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+      <c r="E157" s="5">
+        <v>205</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2</v>
+      </c>
+      <c r="E158" s="5">
         <v>12</v>
       </c>
-      <c r="F155" s="5">
-        <f t="shared" si="6"/>
+      <c r="F158" s="5">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="I158" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="10"/>
-    </row>
-    <row r="157" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="s">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="10"/>
+    </row>
+    <row r="160" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F157" s="9"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D158" s="3">
-        <v>4</v>
-      </c>
-      <c r="E158" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F158" s="5">
-        <f t="shared" ref="F158:F174" si="7">E158*D158</f>
-        <v>66</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D159" s="3">
-        <v>2</v>
-      </c>
-      <c r="E159" s="5">
-        <v>140</v>
-      </c>
-      <c r="F159" s="5">
-        <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D160" s="3">
-        <v>1</v>
-      </c>
-      <c r="E160" s="5">
-        <v>85.1</v>
-      </c>
-      <c r="F160" s="5">
-        <f t="shared" si="7"/>
-        <v>85.1</v>
-      </c>
+      <c r="F160" s="9"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D161" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E161" s="5">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="7"/>
-        <v>64</v>
+        <f t="shared" ref="F161:F177" si="8">E161*D161</f>
+        <v>66</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D162" s="3">
         <v>2</v>
       </c>
       <c r="E162" s="5">
-        <v>51.58</v>
+        <v>140</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="7"/>
-        <v>103.16</v>
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D163" s="3">
         <v>1</v>
       </c>
       <c r="E163" s="5">
-        <v>60</v>
+        <v>85.1</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>159</v>
+        <f t="shared" si="8"/>
+        <v>85.1</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D164" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="5">
-        <v>136.47999999999999</v>
+        <v>32</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="7"/>
-        <v>136.47999999999999</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D165" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="5">
-        <v>136.47999999999999</v>
+        <v>51.58</v>
       </c>
       <c r="F165" s="5">
-        <f t="shared" si="7"/>
-        <v>136.47999999999999</v>
+        <f t="shared" si="8"/>
+        <v>103.16</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D166" s="3">
         <v>1</v>
       </c>
       <c r="E166" s="5">
-        <v>60.95</v>
+        <v>60</v>
       </c>
       <c r="F166" s="5">
-        <f t="shared" si="7"/>
-        <v>60.95</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D167" s="3">
         <v>1</v>
       </c>
       <c r="E167" s="5">
-        <v>119.416</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F167" s="5">
-        <f t="shared" si="7"/>
-        <v>119.416</v>
+        <f t="shared" si="8"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D168" s="3">
         <v>1</v>
       </c>
       <c r="E168" s="5">
-        <v>105.8</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F168" s="5">
-        <f t="shared" si="7"/>
-        <v>105.8</v>
+        <f t="shared" si="8"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D169" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" s="5">
-        <v>119.6</v>
+        <v>60.95</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="7"/>
-        <v>239.2</v>
+        <f t="shared" si="8"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>404</v>
+        <v>165</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="D170" s="3">
         <v>1</v>
       </c>
       <c r="E170" s="5">
-        <v>100</v>
+        <v>119.416</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>119.416</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D171" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171" s="5">
-        <v>92</v>
+        <v>105.8</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="7"/>
-        <v>184</v>
+        <f t="shared" si="8"/>
+        <v>105.8</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D172" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" s="5">
-        <v>96.23</v>
+        <v>119.6</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="7"/>
-        <v>96.23</v>
+        <f t="shared" si="8"/>
+        <v>239.2</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>175</v>
+        <v>399</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>176</v>
+        <v>400</v>
       </c>
       <c r="D173" s="3">
         <v>1</v>
       </c>
       <c r="E173" s="5">
-        <v>102.44</v>
+        <v>100</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="7"/>
-        <v>102.44</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D174" s="3">
         <v>2</v>
       </c>
       <c r="E174" s="5">
+        <v>92</v>
+      </c>
+      <c r="F174" s="5">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D175" s="3">
+        <v>1</v>
+      </c>
+      <c r="E175" s="5">
+        <v>96.23</v>
+      </c>
+      <c r="F175" s="5">
+        <f t="shared" si="8"/>
+        <v>96.23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5">
+        <v>102.44</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="8"/>
+        <v>102.44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2</v>
+      </c>
+      <c r="E177" s="5">
         <v>28</v>
       </c>
-      <c r="F174" s="5">
-        <f t="shared" si="7"/>
+      <c r="F177" s="5">
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="3" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C178" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D178" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="3" t="s">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C179" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="3" t="s">
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C177" s="3" t="s">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C180" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="8" t="s">
+      <c r="D180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="7"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-    </row>
-    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B182" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D182" s="3">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K182" s="4"/>
-    </row>
-    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B183" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D183" s="3">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K183" s="4"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D184" s="3">
-        <v>2</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C184" s="7"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>192</v>
+      <c r="C185" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="D185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K185" s="4"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J186" s="19" t="s">
-        <v>197</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K186" s="4"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D187" s="3">
         <v>2</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="19" t="s">
-        <v>200</v>
+      <c r="C188" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D188" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J188" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B189" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>201</v>
+      <c r="C189" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="D189" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B190" s="19" t="s">
+      <c r="I189" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J189" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D190" s="19">
-        <v>10</v>
-      </c>
-      <c r="F190" s="55"/>
-      <c r="G190" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2</v>
+      </c>
+      <c r="G190" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I190" s="4" t="s">
-        <v>204</v>
+      <c r="I190" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="J190" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="8" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J191" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D193" s="19">
+        <v>10</v>
+      </c>
+      <c r="F193" s="53"/>
+      <c r="G193" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J193" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D193" s="3">
-        <v>0</v>
-      </c>
-      <c r="E193" s="5">
-        <v>518.5</v>
-      </c>
-      <c r="F193" s="5">
-        <f t="shared" ref="F193:F203" si="8">E193*D193</f>
-        <v>0</v>
-      </c>
-      <c r="I193" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D194" s="3">
-        <v>0</v>
-      </c>
-      <c r="E194" s="5">
-        <v>764</v>
-      </c>
-      <c r="F194" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D195" s="3">
-        <v>0</v>
-      </c>
-      <c r="E195" s="5">
-        <v>816</v>
-      </c>
-      <c r="F195" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D196" s="3">
         <v>0</v>
       </c>
       <c r="E196" s="5">
-        <v>952</v>
+        <v>518.5</v>
       </c>
       <c r="F196" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F196:F206" si="9">E196*D196</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I196" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D197" s="3">
         <v>0</v>
       </c>
       <c r="E197" s="5">
-        <v>99.5</v>
+        <v>764</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D198" s="3">
         <v>0</v>
       </c>
       <c r="E198" s="5">
-        <v>128.5</v>
+        <v>816</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I198" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D199" s="3">
         <v>0</v>
       </c>
       <c r="E199" s="5">
-        <v>156</v>
+        <v>952</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D200" s="3">
         <v>0</v>
       </c>
       <c r="E200" s="5">
-        <v>184.5</v>
+        <v>99.5</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D201" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E201" s="5">
-        <v>25</v>
+        <v>128.5</v>
       </c>
       <c r="F201" s="5">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D202" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E202" s="5">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="F202" s="5">
-        <f t="shared" si="8"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B203" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D203" s="3">
+        <v>0</v>
+      </c>
+      <c r="E203" s="5">
+        <v>184.5</v>
+      </c>
+      <c r="F203" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D204" s="3">
+        <v>4</v>
+      </c>
+      <c r="E204" s="5">
+        <v>25</v>
+      </c>
+      <c r="F204" s="5">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D205" s="3">
+        <v>4</v>
+      </c>
+      <c r="E205" s="5">
+        <v>28</v>
+      </c>
+      <c r="F205" s="5">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D206" s="3">
         <v>6</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E206" s="5">
         <v>121.5</v>
       </c>
-      <c r="F203" s="5">
-        <f t="shared" si="8"/>
+      <c r="F206" s="5">
+        <f t="shared" si="9"/>
         <v>729</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E206" s="21" t="s">
+    <row r="209" spans="5:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E209" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F206" s="5">
-        <f>SUM(F3:F204)</f>
-        <v>98744.533987999996</v>
+      <c r="F209" s="5">
+        <f>SUM(F3:F207)</f>
+        <v>96389.533987999996</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C106" r:id="rId1" xr:uid="{3BC0AF99-F679-46A9-B7F9-6A136F582C78}"/>
+    <hyperlink ref="C106" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
+    <hyperlink ref="C107" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
+    <hyperlink ref="C108" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
+    <hyperlink ref="C109" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC26CD4-B37D-4D50-A8C0-03CF56A9F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C172AE-5265-414B-BDAE-0876CE32E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8652" yWindow="4272" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8304" yWindow="3924" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="455">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -101,12 +101,6 @@
     <t>Two parallel LS-100 servo actuators</t>
   </si>
   <si>
-    <t>LS-1007-K</t>
-  </si>
-  <si>
-    <t>Pair of right angle brackets allow LS units to be mounted vertically 68mm x 48mm x 154mm</t>
-  </si>
-  <si>
     <t>LS-50-AMCCH</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
   </si>
   <si>
     <t>Plate for attaching flat surface of linear stage to breadboard. 3.9" x 5.9"</t>
-  </si>
-  <si>
-    <t>mesoSPIM-Bridge</t>
   </si>
   <si>
     <t>Bridge part</t>
@@ -1440,6 +1431,33 @@
   </si>
   <si>
     <t>SM2 to F-mount adapter</t>
+  </si>
+  <si>
+    <t>Hardware store</t>
+  </si>
+  <si>
+    <t>Screws for galvo fam mounting: M3, L=30 mm</t>
+  </si>
+  <si>
+    <t>NOT available in Thorlabs M3 screw kit, need to be purchased elsewhere</t>
+  </si>
+  <si>
+    <t>Galvo Fan assembly: Rod 3-inch long</t>
+  </si>
+  <si>
+    <t>ER3</t>
+  </si>
+  <si>
+    <t>ToDO</t>
+  </si>
+  <si>
+    <t>Air duct made of snap-on 60-mm cage laser cover, L=52 mm</t>
+  </si>
+  <si>
+    <t>Same model as galvo assembly laser cover, scaled to L=52 mm before printing.</t>
+  </si>
+  <si>
+    <t>mesoSPIM-Bridge-wide</t>
   </si>
 </sst>
 </file>
@@ -2131,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K209"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,18 +2228,18 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D5" s="27">
         <v>0</v>
@@ -2236,7 +2254,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2247,24 +2265,24 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2277,10 +2295,10 @@
         <v>24000</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2288,7 +2306,7 @@
         <v>1008062</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>16</v>
@@ -2305,15 +2323,15 @@
       </c>
       <c r="G10" s="48"/>
       <c r="I10" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
@@ -2327,7 +2345,7 @@
       </c>
       <c r="G11" s="48"/>
       <c r="I11" s="36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2354,38 +2372,41 @@
         <v>5254</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ref="F13:F31" si="0">E13*D13</f>
+        <f t="shared" ref="F13:F30" si="0">E13*D13</f>
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>520</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1807</v>
+      </c>
+      <c r="F14" s="50">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>1807</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2402,179 +2423,179 @@
         <v>1</v>
       </c>
       <c r="E15" s="25">
-        <v>1807</v>
+        <v>132</v>
       </c>
       <c r="F15" s="50">
         <f t="shared" si="0"/>
-        <v>1807</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>309</v>
+        <v>132</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" s="39">
         <v>1</v>
       </c>
       <c r="E16" s="25">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="F16" s="50">
         <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>13</v>
+        <v>250</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="39">
         <v>1</v>
       </c>
       <c r="E17" s="25">
-        <v>250</v>
+        <v>1807</v>
       </c>
       <c r="F17" s="50">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>315</v>
+        <v>1807</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D18" s="39">
         <v>1</v>
       </c>
       <c r="E18" s="25">
-        <v>1807</v>
+        <v>200</v>
       </c>
       <c r="F18" s="50">
         <f t="shared" si="0"/>
-        <v>1807</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>13</v>
+        <v>200</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="25">
-        <v>200</v>
+        <v>1939</v>
       </c>
       <c r="F19" s="50">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>1939</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="39">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25">
-        <v>1939</v>
-      </c>
-      <c r="F20" s="50">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
+        <v>110</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>1939</v>
+        <v>110</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>306</v>
+        <v>312</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="13">
-        <v>110</v>
+        <v>2450</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>2450</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>316</v>
@@ -2582,141 +2603,141 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="13">
-        <v>2450</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>2450</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="13">
-        <v>4800</v>
+      <c r="E23" s="5">
+        <v>870</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>870</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>870</v>
-      </c>
-      <c r="F24" s="5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>70</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>870</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E26" s="5">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>336</v>
@@ -2727,7 +2748,7 @@
         <v>337</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>338</v>
@@ -2736,14 +2757,14 @@
         <v>1</v>
       </c>
       <c r="E28" s="5">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>339</v>
@@ -2754,148 +2775,151 @@
         <v>340</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="5">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="5">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>335</v>
+        <v>10</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>41</v>
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F33" s="5">
+        <f>E33*D33</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>8000</v>
-      </c>
-      <c r="F34" s="5">
-        <f>E34*D34</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>780</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36:F41" si="1">E36*D36</f>
+        <v>1560</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
       </c>
       <c r="E37" s="5">
-        <v>780</v>
+        <v>280</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" ref="F37:F42" si="1">E37*D37</f>
-        <v>1560</v>
+        <f t="shared" si="1"/>
+        <v>560</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>49</v>
@@ -2904,295 +2928,292 @@
         <v>2</v>
       </c>
       <c r="E38" s="5">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="3">
+    </row>
+    <row r="39" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="39">
         <v>2</v>
       </c>
-      <c r="E39" s="5">
-        <v>85</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="39">
-        <v>2</v>
-      </c>
-      <c r="E40" s="41">
+      <c r="E39" s="41">
         <v>13</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F39" s="50">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="G39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E40" s="5">
         <v>17</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F40" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" s="39">
+      <c r="G40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="39">
         <v>2</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E41" s="41">
         <v>18</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F41" s="50">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
+      <c r="G41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>30</v>
+      </c>
+      <c r="F42" s="5">
+        <v>30</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>395</v>
+        <v>43</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="26">
+        <v>91863</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="5">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F43" s="5">
-        <v>30</v>
+        <f t="shared" ref="F43:F77" si="2">E43*D43</f>
+        <v>800</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
-        <v>91863</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="3">
+    <row r="44" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="39">
         <v>2</v>
       </c>
-      <c r="E44" s="5">
-        <v>400</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" ref="F44:F75" si="2">E44*D44</f>
-        <v>800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="39">
-        <v>2</v>
-      </c>
-      <c r="E45" s="41">
+      <c r="E44" s="41">
         <v>31</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F44" s="50">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="H45" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="I45" s="39" t="s">
+      <c r="H44" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="43">
+        <v>10</v>
+      </c>
+      <c r="E45" s="44">
+        <v>16</v>
+      </c>
+      <c r="F45" s="51">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="I45" s="43" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" s="43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E46" s="44">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F46" s="51">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="D47" s="43">
+      <c r="D47" s="39">
         <v>2</v>
       </c>
-      <c r="E47" s="44">
-        <v>41</v>
-      </c>
-      <c r="F47" s="51">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D48" s="39">
-        <v>2</v>
-      </c>
-      <c r="E48" s="41">
+      <c r="E47" s="41">
         <v>99</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F47" s="50">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H47" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="D48" s="43">
+        <v>4</v>
+      </c>
+      <c r="E48" s="44">
+        <v>189</v>
+      </c>
+      <c r="F48" s="51">
+        <f t="shared" si="2"/>
+        <v>756</v>
+      </c>
+      <c r="H48" s="43" t="s">
         <v>261</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -3200,7 +3221,7 @@
         <v>262</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>263</v>
@@ -3209,494 +3230,494 @@
         <v>4</v>
       </c>
       <c r="E49" s="44">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="F49" s="51">
         <f t="shared" si="2"/>
-        <v>756</v>
+        <v>440</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>265</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="43">
+        <v>80</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="39">
         <v>4</v>
       </c>
-      <c r="E50" s="44">
-        <v>110</v>
-      </c>
-      <c r="F50" s="51">
+      <c r="E50" s="41">
+        <v>13</v>
+      </c>
+      <c r="F50" s="50">
         <f t="shared" si="2"/>
-        <v>440</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>393</v>
+        <v>52</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D51" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" s="41">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F51" s="50">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="D52" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="50">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>295</v>
+        <v>251</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="D53" s="39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" s="41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" s="50">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="39">
+        <v>4</v>
+      </c>
+      <c r="E54" s="41">
         <v>6</v>
-      </c>
-      <c r="E54" s="41">
-        <v>5</v>
       </c>
       <c r="F54" s="50">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="40" t="s">
         <v>277</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>278</v>
       </c>
       <c r="D55" s="39">
         <v>4</v>
       </c>
       <c r="E55" s="41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" s="50">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="D56" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" s="41">
         <v>5</v>
       </c>
       <c r="F56" s="50">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="I56" s="39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
-        <v>216</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
+        <v>280</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="39">
+        <v>80</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="43">
         <v>2</v>
       </c>
-      <c r="E57" s="41">
-        <v>5</v>
-      </c>
-      <c r="F57" s="50">
+      <c r="E57" s="44">
+        <v>398</v>
+      </c>
+      <c r="F57" s="51">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
-        <v>283</v>
+        <v>393</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="D58" s="43">
         <v>2</v>
       </c>
       <c r="E58" s="44">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="F58" s="51">
         <f t="shared" si="2"/>
-        <v>796</v>
+        <v>2</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I58" s="43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="D59" s="43">
         <v>2</v>
       </c>
       <c r="E59" s="44">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F59" s="51">
         <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="39">
         <v>2</v>
       </c>
-      <c r="H59" s="43" t="s">
+      <c r="E60" s="41">
+        <v>36</v>
+      </c>
+      <c r="F60" s="50">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="H60" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="I59" s="43" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="43">
-        <v>2</v>
-      </c>
-      <c r="E60" s="44">
-        <v>30</v>
-      </c>
-      <c r="F60" s="51">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I60" s="45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="D61" s="39">
         <v>2</v>
       </c>
       <c r="E61" s="41">
-        <v>36</v>
+        <v>2104</v>
       </c>
       <c r="F61" s="50">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f t="shared" ref="F61:F73" si="3">E61*D61</f>
+        <v>4208</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I61" s="45" t="s">
-        <v>411</v>
+        <v>289</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="40" t="s">
         <v>365</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>366</v>
       </c>
       <c r="D62" s="39">
         <v>2</v>
       </c>
       <c r="E62" s="41">
-        <v>2104</v>
+        <v>82</v>
       </c>
       <c r="F62" s="50">
-        <f t="shared" ref="F62:F71" si="3">E62*D62</f>
-        <v>4208</v>
+        <f t="shared" si="3"/>
+        <v>164</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40" t="s">
-        <v>367</v>
+      <c r="A63" s="57" t="s">
+        <v>414</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="D63" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="41">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="F63" s="50">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>495</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="D64" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="41">
-        <v>495</v>
+        <v>390</v>
       </c>
       <c r="F64" s="50">
         <f t="shared" si="3"/>
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I64" s="39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="40" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
-        <v>418</v>
-      </c>
       <c r="B65" s="39" t="s">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="D65" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E65" s="41">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="F65" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H65" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I65" s="39" t="s">
-        <v>407</v>
+        <v>289</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
-        <v>409</v>
+      <c r="A66" s="56" t="s">
+        <v>412</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D66" s="39">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E66" s="41">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F66" s="50">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="H66" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I66" s="45" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="56" t="s">
-        <v>415</v>
+        <v>289</v>
+      </c>
+      <c r="I66" s="39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
+        <v>417</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D67" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F67" s="50">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -3704,228 +3725,267 @@
         <v>420</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D68" s="39">
         <v>2</v>
       </c>
       <c r="E68" s="41">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="F68" s="50">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="D69" s="39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E69" s="41">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F69" s="50">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="H69" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="45" t="s">
-        <v>425</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="40" t="s">
+        <v>450</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D70" s="39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E70" s="41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" s="50">
         <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" s="39">
         <v>2</v>
       </c>
-      <c r="H70" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="D71" s="39">
-        <v>1</v>
-      </c>
       <c r="E71" s="41">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F71" s="50">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="D72" s="39">
+        <v>1</v>
+      </c>
+      <c r="E72" s="41">
+        <v>2</v>
+      </c>
+      <c r="F72" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="I72" s="39" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="D73" s="39">
+        <v>1</v>
+      </c>
+      <c r="E73" s="41">
         <v>15</v>
       </c>
-      <c r="H71" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I71" s="39" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="D72" s="39">
+      <c r="F73" s="50">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="I73" s="39" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="39">
         <v>2</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E74" s="41">
         <v>25</v>
       </c>
-      <c r="F72" s="50">
+      <c r="F74" s="50">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H72" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="D73" s="39">
+      <c r="H74" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="39">
         <v>2</v>
       </c>
-      <c r="E73" s="41">
+      <c r="E75" s="41">
         <v>35</v>
       </c>
-      <c r="F73" s="50">
+      <c r="F75" s="50">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H73" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="I73" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="J73" s="47" t="s">
+      <c r="H75" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I75" s="45" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
+      <c r="J75" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B74" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D74" s="39">
+      <c r="D76" s="39">
         <v>2</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E76" s="41">
         <v>92</v>
       </c>
-      <c r="F74" s="50">
+      <c r="F76" s="50">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="H74" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="I74" s="39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>357</v>
-      </c>
-      <c r="D75" s="39">
+      <c r="H76" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I76" s="39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="39">
         <v>2</v>
       </c>
-      <c r="E75" s="41">
-        <v>1</v>
-      </c>
-      <c r="F75" s="50">
+      <c r="E77" s="41">
+        <v>1</v>
+      </c>
+      <c r="F77" s="50">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H75" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="I75" s="39" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="50"/>
-    </row>
-    <row r="77" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="50"/>
+      <c r="H77" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="78" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
@@ -3933,213 +3993,169 @@
       <c r="E78" s="41"/>
       <c r="F78" s="50"/>
     </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
+    <row r="79" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="50"/>
     </row>
     <row r="80" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="39">
-        <v>1</v>
-      </c>
+      <c r="A80" s="40"/>
+      <c r="C80" s="40"/>
       <c r="E80" s="41"/>
       <c r="F80" s="50"/>
-      <c r="I80" s="39" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" s="39">
-        <v>1</v>
-      </c>
-      <c r="E81" s="41">
-        <v>63</v>
-      </c>
-      <c r="F81" s="50">
-        <f>D81*E81</f>
-        <v>63</v>
-      </c>
+    </row>
+    <row r="81" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="39">
+        <v>1</v>
+      </c>
+      <c r="E82" s="41"/>
+      <c r="F82" s="50"/>
+      <c r="I82" s="39" t="s">
         <v>326</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="D82" s="39">
-        <v>2</v>
-      </c>
-      <c r="E82" s="41">
-        <v>69</v>
-      </c>
-      <c r="F82" s="50">
-        <f>D82*E82</f>
-        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D83" s="39">
         <v>1</v>
       </c>
       <c r="E83" s="41">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="F83" s="50">
         <f>D83*E83</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" s="39">
+        <v>2</v>
+      </c>
+      <c r="E84" s="41">
+        <v>69</v>
+      </c>
+      <c r="F84" s="50">
+        <f>D84*E84</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D85" s="39">
+        <v>1</v>
+      </c>
+      <c r="E85" s="41">
         <v>10</v>
       </c>
-      <c r="I83" s="39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="39" t="s">
+      <c r="F85" s="50">
+        <f>D85*E85</f>
+        <v>10</v>
+      </c>
+      <c r="I85" s="39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="39">
-        <v>1</v>
-      </c>
-      <c r="E84" s="41"/>
-      <c r="F84" s="50"/>
-      <c r="I84" s="39" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>356</v>
+      <c r="C86" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="39">
+        <v>1</v>
+      </c>
+      <c r="E86" s="41"/>
+      <c r="F86" s="50"/>
+      <c r="I86" s="39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C88" s="3" t="s">
+    <row r="88" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
         <v>250</v>
-      </c>
-      <c r="F88" s="5">
-        <f>E88*D88</f>
-        <v>250</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D89" s="3">
-        <v>1</v>
-      </c>
-      <c r="E89" s="5">
-        <v>13</v>
-      </c>
-      <c r="F89" s="5">
-        <f>E89*D89</f>
-        <v>13</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5">
-        <v>43</v>
       </c>
       <c r="F90" s="5">
         <f>E90*D90</f>
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>13</v>
@@ -4147,213 +4163,215 @@
       <c r="H90" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
       </c>
-      <c r="I91" s="39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C92" s="55" t="s">
-        <v>375</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="E91" s="5">
+        <v>13</v>
+      </c>
+      <c r="F91" s="5">
+        <f>E91*D91</f>
+        <v>13</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
+      <c r="C92" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
+        <v>43</v>
+      </c>
+      <c r="F92" s="5">
+        <f>E92*D92</f>
+        <v>43</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B94" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="D94" s="39">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D96" s="39">
         <v>0</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E96" s="41">
         <v>656</v>
-      </c>
-      <c r="F94" s="50">
-        <f>E94*D94</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="47"/>
-    </row>
-    <row r="95" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="B95" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="D95" s="39">
-        <v>0</v>
-      </c>
-      <c r="E95" s="41">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F95" s="50">
-        <f>E95*D95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B96" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0</v>
-      </c>
-      <c r="E96" s="12">
-        <v>4.87</v>
       </c>
       <c r="F96" s="50">
         <f>E96*D96</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" s="52"/>
-    </row>
-    <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="52"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" s="3">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5">
+      <c r="I96" s="47"/>
+    </row>
+    <row r="97" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="D97" s="39">
+        <v>0</v>
+      </c>
+      <c r="E97" s="41">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F97" s="50">
+        <f>E97*D97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B98" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="F98" s="50">
+        <f>E98*D98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" s="52"/>
+    </row>
+    <row r="100" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F100" s="52"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
         <v>1075</v>
       </c>
-      <c r="F99" s="5">
-        <f t="shared" ref="F99:F104" si="4">E99*D99</f>
+      <c r="F101" s="5">
+        <f t="shared" ref="F101:F106" si="4">E101*D101</f>
         <v>1075</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100" s="36">
-        <v>0</v>
-      </c>
-      <c r="E100" s="37">
-        <v>1350</v>
-      </c>
-      <c r="F100" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" s="36">
-        <v>0</v>
-      </c>
-      <c r="E101" s="37">
-        <v>1350</v>
-      </c>
-      <c r="F101" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="36" t="s">
-        <v>215</v>
+      <c r="I101" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B102" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="36" t="s">
         <v>59</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="D102" s="36">
         <v>0</v>
       </c>
-      <c r="E102" s="38">
-        <v>1445</v>
+      <c r="E102" s="37">
+        <v>1350</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="4"/>
@@ -4363,24 +4381,24 @@
         <v>13</v>
       </c>
       <c r="I102" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D103" s="36">
         <v>0</v>
       </c>
       <c r="E103" s="37">
-        <v>1130</v>
+        <v>1350</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="4"/>
@@ -4390,24 +4408,24 @@
         <v>13</v>
       </c>
       <c r="I103" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D104" s="36">
         <v>0</v>
       </c>
-      <c r="E104" s="37">
-        <v>1130</v>
+      <c r="E104" s="38">
+        <v>1445</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="4"/>
@@ -4417,654 +4435,666 @@
         <v>13</v>
       </c>
       <c r="I104" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-    </row>
-    <row r="106" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="36">
+        <v>0</v>
+      </c>
+      <c r="E105" s="37">
+        <v>1130</v>
+      </c>
+      <c r="F105" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="36">
+        <v>0</v>
+      </c>
+      <c r="E106" s="37">
+        <v>1130</v>
+      </c>
+      <c r="F106" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+    </row>
+    <row r="108" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="D108" s="32">
+        <v>1</v>
+      </c>
+      <c r="E108" s="33">
+        <v>912</v>
+      </c>
+      <c r="F108" s="33">
+        <f>E108*D108</f>
+        <v>912</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C109" s="59" t="s">
         <v>432</v>
       </c>
-      <c r="B106" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="C106" s="58" t="s">
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>837</v>
+      </c>
+      <c r="F109" s="33">
+        <f t="shared" ref="F109:F113" si="5">E109*D109</f>
+        <v>837</v>
+      </c>
+      <c r="H109" s="32"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="D106" s="32">
-        <v>1</v>
-      </c>
-      <c r="E106" s="33">
-        <v>912</v>
-      </c>
-      <c r="F106" s="33">
-        <f>E106*D106</f>
-        <v>912</v>
-      </c>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="s">
+      <c r="B110" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C110" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="B107" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="C107" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="D107" s="3">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5">
-        <v>837</v>
-      </c>
-      <c r="F107" s="33">
-        <f t="shared" ref="F107:F111" si="5">E107*D107</f>
-        <v>837</v>
-      </c>
-      <c r="H107" s="32"/>
-    </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="C108" s="59" t="s">
-        <v>436</v>
-      </c>
-      <c r="D108" s="3">
-        <v>1</v>
-      </c>
-      <c r="E108" s="5">
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
         <v>1540</v>
       </c>
-      <c r="F108" s="33">
+      <c r="F110" s="33">
         <f t="shared" si="5"/>
         <v>1540</v>
       </c>
-      <c r="H108" s="32"/>
-    </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="C109" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5">
+      <c r="H110" s="32"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C111" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
         <v>1026</v>
       </c>
-      <c r="F109" s="33">
+      <c r="F111" s="33">
         <f t="shared" si="5"/>
         <v>1026</v>
       </c>
-      <c r="H109" s="32"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C110" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="D110" s="3">
+      <c r="H111" s="32"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D112" s="3">
         <v>4</v>
       </c>
-      <c r="E110" s="5">
-        <v>1</v>
-      </c>
-      <c r="F110" s="33">
+      <c r="E112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F112" s="33">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H110" s="32"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C111" s="60" t="s">
-        <v>445</v>
-      </c>
-      <c r="D111" s="3">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5">
+      <c r="H112" s="32"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5">
         <v>60</v>
       </c>
-      <c r="F111" s="33">
+      <c r="F113" s="33">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="H111" s="32"/>
-    </row>
-    <row r="112" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A112" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-    </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B114" s="32"/>
-      <c r="C114" s="3" t="s">
-        <v>443</v>
-      </c>
+      <c r="H113" s="32"/>
+    </row>
+    <row r="114" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
     </row>
     <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B115" s="32"/>
       <c r="C115" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B116" s="32"/>
       <c r="C116" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>79</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1</v>
-      </c>
-      <c r="E119" s="5">
-        <v>3582</v>
-      </c>
-      <c r="F119" s="5">
-        <f>E119*D119</f>
-        <v>3582</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D120" s="3">
-        <v>1</v>
-      </c>
-      <c r="E120" s="5">
-        <v>1630</v>
-      </c>
-      <c r="F120" s="5">
-        <f t="shared" ref="F120:F128" si="6">E120*D120</f>
-        <v>1630</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
       </c>
       <c r="E121" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F121" s="5">
+        <f>E121*D121</f>
+        <v>3582</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" ref="F122:F130" si="6">E122*D122</f>
+        <v>1630</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
         <v>886</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F123" s="5">
         <f t="shared" si="6"/>
         <v>886</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I121" s="3" t="s">
+      <c r="G123" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D122" s="3">
-        <v>1</v>
-      </c>
-      <c r="E122" s="5">
+      <c r="B124" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5">
         <v>163</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F124" s="5">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" s="3">
-        <v>1</v>
-      </c>
-      <c r="E123" s="5">
+      <c r="G124" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
         <v>11</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F125" s="5">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G125" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5">
+        <v>520</v>
+      </c>
+      <c r="F126" s="5">
+        <f>E126*D126</f>
+        <v>520</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5">
+        <v>193</v>
+      </c>
+      <c r="F127" s="5">
+        <f>E127*D127</f>
+        <v>193</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" s="36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-      <c r="E124" s="5">
-        <v>520</v>
-      </c>
-      <c r="F124" s="5">
-        <f>E124*D124</f>
-        <v>520</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D125" s="3">
-        <v>1</v>
-      </c>
-      <c r="E125" s="5">
-        <v>193</v>
-      </c>
-      <c r="F125" s="5">
-        <f>E125*D125</f>
-        <v>193</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B126" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C126" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" s="36">
+      <c r="D128" s="36">
         <v>0</v>
       </c>
-      <c r="E126" s="37">
+      <c r="E128" s="37">
         <v>2800</v>
       </c>
-      <c r="F126" s="37">
+      <c r="F128" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G126" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I126" s="36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="B127" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="D127" s="39">
+      <c r="G128" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128" s="36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D129" s="39">
         <v>10</v>
       </c>
-      <c r="E127" s="50">
+      <c r="E129" s="50">
         <v>12</v>
       </c>
-      <c r="F127" s="50">
+      <c r="F129" s="50">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="G127" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="I127" s="39" t="s">
+      <c r="G129" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I129" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="39" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="B128" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" s="39" t="s">
-        <v>391</v>
-      </c>
-      <c r="D128" s="39">
-        <v>1</v>
-      </c>
-      <c r="E128" s="50">
+      <c r="B130" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" s="39">
+        <v>1</v>
+      </c>
+      <c r="E130" s="50">
         <v>14</v>
       </c>
-      <c r="F128" s="50">
+      <c r="F130" s="50">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="G128" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="I128" s="39" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D129" s="3">
-        <v>4</v>
-      </c>
-      <c r="E129" s="5">
-        <v>15.25</v>
-      </c>
-      <c r="F129" s="5">
-        <f>E129*D129</f>
-        <v>61</v>
-      </c>
-      <c r="G129" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D130" s="3">
-        <v>10</v>
-      </c>
-      <c r="E130" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F130" s="5">
-        <f>E130*D130</f>
-        <v>165</v>
-      </c>
       <c r="G130" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="I130" s="39" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D131" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E131" s="5">
-        <v>24</v>
+        <v>15.25</v>
       </c>
       <c r="F131" s="5">
         <f>E131*D131</f>
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="G131" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D132" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E132" s="5">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="F132" s="5">
         <f>E132*D132</f>
+        <v>165</v>
+      </c>
+      <c r="G132" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133" s="3">
+        <v>10</v>
+      </c>
+      <c r="E133" s="5">
+        <v>24</v>
+      </c>
+      <c r="F133" s="5">
+        <f>E133*D133</f>
+        <v>240</v>
+      </c>
+      <c r="G133" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D134" s="3">
+        <v>6</v>
+      </c>
+      <c r="E134" s="5">
+        <v>24</v>
+      </c>
+      <c r="F134" s="5">
+        <f>E134*D134</f>
         <v>144</v>
       </c>
-      <c r="G132" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-    </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D137" s="3">
-        <v>1</v>
-      </c>
-      <c r="E137" s="5">
-        <v>488</v>
-      </c>
-      <c r="F137" s="5">
-        <f t="shared" ref="F137:F158" si="7">E137*D137</f>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138" s="3">
-        <v>1</v>
-      </c>
-      <c r="E138" s="5">
-        <v>184</v>
-      </c>
-      <c r="F138" s="5">
-        <f t="shared" si="7"/>
-        <v>184</v>
-      </c>
+      <c r="G134" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+    </row>
+    <row r="138" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
       </c>
       <c r="E139" s="5">
-        <v>76</v>
+        <v>488</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="7"/>
-        <v>76</v>
+        <f t="shared" ref="F139:F160" si="7">E139*D139</f>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
@@ -5079,1086 +5109,1089 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D141" s="3">
         <v>1</v>
       </c>
       <c r="E141" s="5">
-        <v>94.180155999999997</v>
+        <v>76</v>
       </c>
       <c r="F141" s="5">
         <f t="shared" si="7"/>
-        <v>94.180155999999997</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
       </c>
       <c r="E142" s="5">
-        <v>36.799999999999997</v>
+        <v>184</v>
       </c>
       <c r="F142" s="5">
         <f t="shared" si="7"/>
-        <v>36.799999999999997</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" s="5">
-        <v>21.21</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F143" s="5">
         <f t="shared" si="7"/>
-        <v>42.42</v>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
       </c>
       <c r="E144" s="5">
-        <v>304.75</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" si="7"/>
-        <v>304.75</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>102</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D145" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" s="5">
-        <v>148.21</v>
+        <v>21.21</v>
       </c>
       <c r="F145" s="5">
         <f t="shared" si="7"/>
-        <v>148.21</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>102</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D146" s="3">
         <v>1</v>
       </c>
       <c r="E146" s="5">
-        <v>348.45</v>
+        <v>304.75</v>
       </c>
       <c r="F146" s="5">
         <f t="shared" si="7"/>
-        <v>348.45</v>
+        <v>304.75</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D147" s="3">
         <v>1</v>
       </c>
       <c r="E147" s="5">
-        <v>60.95</v>
+        <v>148.21</v>
       </c>
       <c r="F147" s="5">
         <f t="shared" si="7"/>
-        <v>60.95</v>
+        <v>148.21</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D148" s="3">
         <v>1</v>
       </c>
       <c r="E148" s="5">
-        <v>34.5</v>
+        <v>348.45</v>
       </c>
       <c r="F148" s="5">
         <f t="shared" si="7"/>
-        <v>34.5</v>
+        <v>348.45</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D149" s="3">
         <v>1</v>
       </c>
       <c r="E149" s="5">
-        <v>51.45</v>
+        <v>60.95</v>
       </c>
       <c r="F149" s="5">
         <f t="shared" si="7"/>
-        <v>51.45</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>111</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D150" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" s="5">
-        <v>13.8</v>
+        <v>34.5</v>
       </c>
       <c r="F150" s="5">
         <f t="shared" si="7"/>
-        <v>27.6</v>
+        <v>34.5</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D151" s="3">
         <v>1</v>
       </c>
       <c r="E151" s="5">
-        <v>19.09</v>
+        <v>51.45</v>
       </c>
       <c r="F151" s="5">
         <f t="shared" si="7"/>
-        <v>19.09</v>
+        <v>51.45</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D152" s="3">
         <v>2</v>
       </c>
       <c r="E152" s="5">
-        <v>40.51</v>
+        <v>13.8</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="7"/>
-        <v>81.02</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>120</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D153" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" s="5">
-        <v>83.598116000000005</v>
+        <v>19.09</v>
       </c>
       <c r="F153" s="5">
         <f t="shared" si="7"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>111</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D154" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E154" s="5">
-        <v>70.103999999999999</v>
+        <v>40.51</v>
       </c>
       <c r="F154" s="5">
         <f t="shared" si="7"/>
-        <v>280.416</v>
+        <v>81.02</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D155" s="3">
         <v>2</v>
       </c>
       <c r="E155" s="5">
-        <v>28.75</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F155" s="5">
         <f t="shared" si="7"/>
-        <v>57.5</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>128</v>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D156" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E156" s="5">
-        <v>38.872799999999998</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F156" s="5">
         <f t="shared" si="7"/>
-        <v>77.745599999999996</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>280.416</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="B157" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D157" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" s="5">
-        <v>205</v>
+        <v>28.75</v>
       </c>
       <c r="F157" s="5">
         <f t="shared" si="7"/>
-        <v>205</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>102</v>
+        <v>57.5</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="B158" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D158" s="3">
         <v>2</v>
       </c>
       <c r="E158" s="5">
-        <v>12</v>
+        <v>38.872799999999998</v>
       </c>
       <c r="F158" s="5">
         <f t="shared" si="7"/>
+        <v>77.745599999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5">
+        <v>205</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2</v>
+      </c>
+      <c r="E160" s="5">
+        <v>12</v>
+      </c>
+      <c r="F160" s="5">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="I158" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="10"/>
-    </row>
-    <row r="160" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
+      <c r="I160" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="10"/>
+    </row>
+    <row r="162" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F160" s="9"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="D163" s="3">
+        <v>4</v>
+      </c>
+      <c r="E163" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" ref="F163:F179" si="8">E163*D163</f>
+        <v>66</v>
+      </c>
+      <c r="I163" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="3" t="s">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D161" s="3">
-        <v>4</v>
-      </c>
-      <c r="E161" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F161" s="5">
-        <f t="shared" ref="F161:F177" si="8">E161*D161</f>
-        <v>66</v>
-      </c>
-      <c r="I161" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B162" s="3" t="s">
+      <c r="D164" s="3">
+        <v>2</v>
+      </c>
+      <c r="E164" s="5">
         <v>140</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D162" s="3">
-        <v>2</v>
-      </c>
-      <c r="E162" s="5">
-        <v>140</v>
-      </c>
-      <c r="F162" s="5">
+      <c r="F164" s="5">
         <f t="shared" si="8"/>
         <v>280</v>
       </c>
-      <c r="I162" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D163" s="3">
-        <v>1</v>
-      </c>
-      <c r="E163" s="5">
+      <c r="I164" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5">
         <v>85.1</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F165" s="5">
         <f t="shared" si="8"/>
         <v>85.1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D164" s="3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D166" s="3">
         <v>2</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E166" s="5">
         <v>32</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F166" s="5">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="I164" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D165" s="3">
+      <c r="I166" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D167" s="3">
         <v>2</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E167" s="5">
         <v>51.58</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F167" s="5">
         <f t="shared" si="8"/>
         <v>103.16</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D166" s="3">
-        <v>1</v>
-      </c>
-      <c r="E166" s="5">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D168" s="3">
+        <v>1</v>
+      </c>
+      <c r="E168" s="5">
         <v>60</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F168" s="5">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="I166" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D167" s="3">
-        <v>1</v>
-      </c>
-      <c r="E167" s="5">
+      <c r="I168" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5">
         <v>136.47999999999999</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F169" s="5">
         <f t="shared" si="8"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D168" s="3">
-        <v>1</v>
-      </c>
-      <c r="E168" s="5">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5">
         <v>136.47999999999999</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F170" s="5">
         <f t="shared" si="8"/>
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D169" s="3">
-        <v>1</v>
-      </c>
-      <c r="E169" s="5">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="5">
         <v>60.95</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F171" s="5">
         <f t="shared" si="8"/>
         <v>60.95</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D170" s="3">
-        <v>1</v>
-      </c>
-      <c r="E170" s="5">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5">
         <v>119.416</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F172" s="5">
         <f t="shared" si="8"/>
         <v>119.416</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D171" s="3">
-        <v>1</v>
-      </c>
-      <c r="E171" s="5">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+      <c r="E173" s="5">
         <v>105.8</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F173" s="5">
         <f t="shared" si="8"/>
         <v>105.8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D172" s="3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D174" s="3">
         <v>2</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E174" s="5">
         <v>119.6</v>
       </c>
-      <c r="F172" s="5">
+      <c r="F174" s="5">
         <f t="shared" si="8"/>
         <v>239.2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D173" s="3">
-        <v>1</v>
-      </c>
-      <c r="E173" s="5">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D175" s="3">
+        <v>1</v>
+      </c>
+      <c r="E175" s="5">
         <v>100</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F175" s="5">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D174" s="3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D176" s="3">
         <v>2</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E176" s="5">
         <v>92</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F176" s="5">
         <f t="shared" si="8"/>
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D175" s="3">
-        <v>1</v>
-      </c>
-      <c r="E175" s="5">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+      <c r="E177" s="5">
         <v>96.23</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F177" s="5">
         <f t="shared" si="8"/>
         <v>96.23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D176" s="3">
-        <v>1</v>
-      </c>
-      <c r="E176" s="5">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="E178" s="5">
         <v>102.44</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F178" s="5">
         <f t="shared" si="8"/>
         <v>102.44</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D177" s="3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179" s="3">
         <v>2</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E179" s="5">
         <v>28</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F179" s="5">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C178" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D178" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C179" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D179" s="3">
-        <v>1</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C180" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D180" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C181" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C182" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B187" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C187" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D180" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="8" t="s">
+      <c r="D187" s="3">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-    </row>
-    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B185" s="3" t="s">
+      <c r="I187" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="J187" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D185" s="3">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3" t="s">
+      <c r="K187" s="4"/>
+    </row>
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B188" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C188" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I185" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K185" s="4"/>
-    </row>
-    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B186" s="3" t="s">
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I188" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D186" s="3">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K186" s="4"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D187" s="3">
-        <v>2</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J187" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D188" s="3">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="J188" s="3" t="s">
-        <v>188</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K188" s="4"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B189" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D189" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J189" s="19" t="s">
-        <v>197</v>
+        <v>188</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C190" s="19" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D190" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J190" s="19" t="s">
-        <v>197</v>
+        <v>190</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D191" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J191" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C192" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192" s="3">
+        <v>2</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J192" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J193" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D195" s="19">
+        <v>10</v>
+      </c>
+      <c r="F195" s="53"/>
+      <c r="G195" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I195" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D192" s="3">
-        <v>1</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J192" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="20" t="s">
+      <c r="J195" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D193" s="19">
-        <v>10</v>
-      </c>
-      <c r="F193" s="53"/>
-      <c r="G193" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I193" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J193" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B196" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D196" s="3">
-        <v>0</v>
-      </c>
-      <c r="E196" s="5">
-        <v>518.5</v>
-      </c>
-      <c r="F196" s="5">
-        <f t="shared" ref="F196:F206" si="9">E196*D196</f>
-        <v>0</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B197" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D197" s="3">
-        <v>0</v>
-      </c>
-      <c r="E197" s="5">
-        <v>764</v>
-      </c>
-      <c r="F197" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B197" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D198" s="3">
         <v>0</v>
       </c>
       <c r="E198" s="5">
-        <v>816</v>
+        <v>518.5</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F198:F208" si="9">E198*D198</f>
         <v>0</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D199" s="3">
         <v>0</v>
       </c>
       <c r="E199" s="5">
-        <v>952</v>
+        <v>764</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="9"/>
@@ -6167,34 +6200,37 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D200" s="3">
         <v>0</v>
       </c>
       <c r="E200" s="5">
-        <v>99.5</v>
+        <v>816</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="I200" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D201" s="3">
         <v>0</v>
       </c>
       <c r="E201" s="5">
-        <v>128.5</v>
+        <v>952</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="9"/>
@@ -6203,16 +6239,16 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D202" s="3">
         <v>0</v>
       </c>
       <c r="E202" s="5">
-        <v>156</v>
+        <v>99.5</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="9"/>
@@ -6221,16 +6257,16 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B203" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D203" s="3">
         <v>0</v>
       </c>
       <c r="E203" s="5">
-        <v>184.5</v>
+        <v>128.5</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="9"/>
@@ -6239,74 +6275,110 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B204" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D204" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E204" s="5">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B205" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D205" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E205" s="5">
-        <v>28</v>
+        <v>184.5</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="9"/>
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B206" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D206" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E206" s="5">
-        <v>121.5</v>
+        <v>25</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D207" s="3">
+        <v>4</v>
+      </c>
+      <c r="E207" s="5">
+        <v>28</v>
+      </c>
+      <c r="F207" s="5">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D208" s="3">
+        <v>6</v>
+      </c>
+      <c r="E208" s="5">
+        <v>121.5</v>
+      </c>
+      <c r="F208" s="5">
+        <f t="shared" si="9"/>
         <v>729</v>
       </c>
     </row>
-    <row r="209" spans="5:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E209" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F209" s="5">
-        <f>SUM(F3:F207)</f>
-        <v>96389.533987999996</v>
+    <row r="211" spans="5:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E211" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F211" s="5">
+        <f>SUM(F3:F209)</f>
+        <v>95915.533987999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C106" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
-    <hyperlink ref="C107" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
-    <hyperlink ref="C108" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
-    <hyperlink ref="C109" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
+    <hyperlink ref="C108" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
+    <hyperlink ref="C109" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
+    <hyperlink ref="C110" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
+    <hyperlink ref="C111" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C172AE-5265-414B-BDAE-0876CE32E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45F351-8EBC-4B90-94BB-566ED6E0E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8304" yWindow="3924" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="450">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -203,45 +203,9 @@
     <t>Have to be modified</t>
   </si>
   <si>
-    <t>F57-405SG</t>
-  </si>
-  <si>
     <t>AHF</t>
   </si>
   <si>
-    <t>QuadLine Rejectionband ZET405/488/561/640 in 50 mm diameter</t>
-  </si>
-  <si>
-    <t>F37-520SG</t>
-  </si>
-  <si>
-    <t>520/35 BrightLine HC  in 50 mm diameter</t>
-  </si>
-  <si>
-    <t>F37-542SG</t>
-  </si>
-  <si>
-    <t>542/27 BrightLine HC in 50 mm diameter</t>
-  </si>
-  <si>
-    <t>F37-515SG</t>
-  </si>
-  <si>
-    <t>515/LP BrightLine HC Longpass-Filter in 50 mm diameter</t>
-  </si>
-  <si>
-    <t>F76-561SG</t>
-  </si>
-  <si>
-    <t>561 LP Edge Basic Longpass-Filter in 50 mm diameter</t>
-  </si>
-  <si>
-    <t>F76-594SG</t>
-  </si>
-  <si>
-    <t>594 LP Edge Basic Longpass-Filter in 50 mm diameter</t>
-  </si>
-  <si>
     <t>Electronics / Signal generation</t>
   </si>
   <si>
@@ -672,9 +636,6 @@
   </si>
   <si>
     <t>Filters have to be selected according to lasers &amp; needs (flurescent markers and dyes used)</t>
-  </si>
-  <si>
-    <t>Optional</t>
   </si>
   <si>
     <t>TR75/M</t>
@@ -1100,24 +1061,6 @@
     <t>See file RD-PDT-S-to-RC2-height40mm.ipt (.stl) for details.</t>
   </si>
   <si>
-    <t>TR20/M</t>
-  </si>
-  <si>
-    <t>Ø12.7 mm Optical Post, SS, M4 Setscrew, M6 Tap, L = 20 mm</t>
-  </si>
-  <si>
-    <t>MFF102/M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorized Filter Flip Mount with Ø2" Optic Holder, M4 Tap </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1S/M </t>
-  </si>
-  <si>
-    <t>Two positions: (1) quadband emission filter (2) no filter, alignment mode. Fits most of the use cases.</t>
-  </si>
-  <si>
     <t>5 positions available. Motorized filterwheel is useful when multiple bandpass filters are used during an acquisition. This helps separate emission spectra of the labels.</t>
   </si>
   <si>
@@ -1199,9 +1142,6 @@
     <t>FilterWheel-2inch-5pos.stl</t>
   </si>
   <si>
-    <t>Todo: Adapt the code and test this option.</t>
-  </si>
-  <si>
     <t>UG-205-H80 10x20x80</t>
   </si>
   <si>
@@ -1289,15 +1229,6 @@
     <t>4-40 Cap Screw and Hardware Kit</t>
   </si>
   <si>
-    <t>Option 1: Servo-driven filter wheel. ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm)</t>
-  </si>
-  <si>
-    <t>Option 2: Motorized flip mount ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm)</t>
-  </si>
-  <si>
-    <t>Detection: Filter wheels (OPTIONAL)</t>
-  </si>
-  <si>
     <t>OPTIONAL. Only if you need more than 4 laser lines.</t>
   </si>
   <si>
@@ -1412,9 +1343,6 @@
     <t>Back cover for the Mitutoyo objectives</t>
   </si>
   <si>
-    <t>Detection tube lens</t>
-  </si>
-  <si>
     <t>Detection objective turret</t>
   </si>
   <si>
@@ -1430,9 +1358,6 @@
     <t>SM2 filter adapter</t>
   </si>
   <si>
-    <t>SM2 to F-mount adapter</t>
-  </si>
-  <si>
     <t>Hardware store</t>
   </si>
   <si>
@@ -1458,6 +1383,66 @@
   </si>
   <si>
     <t>mesoSPIM-Bridge-wide</t>
+  </si>
+  <si>
+    <t>Detection tube lens: Olympus Wide Field Tube Lens SWTLU-C f=180 mm</t>
+  </si>
+  <si>
+    <t>36-401</t>
+  </si>
+  <si>
+    <t>Note that Mitutoyo objectives assume f=200 mm tube lens, so magnification with this tube lens is 180/200=0.9 of nominal (eg 4.5x instead of 5x)</t>
+  </si>
+  <si>
+    <t>Olympus Wide Field Tube Lens to T-Mount Holder</t>
+  </si>
+  <si>
+    <t>11-149</t>
+  </si>
+  <si>
+    <t>Adapter with External SM2 to Internal T-Mount </t>
+  </si>
+  <si>
+    <t>TMA3</t>
+  </si>
+  <si>
+    <t>Olympus tube lens has unusual thread, so this adapter is handy</t>
+  </si>
+  <si>
+    <t>Adapter with External T-Mount to Internal SM2</t>
+  </si>
+  <si>
+    <t>TMA4</t>
+  </si>
+  <si>
+    <t>Another Olympus tube lens thread adapter</t>
+  </si>
+  <si>
+    <t>Yet another Olympus tube lens thread adapter</t>
+  </si>
+  <si>
+    <t>SM2NFM2</t>
+  </si>
+  <si>
+    <t>Adapter with External SM2 Threads and Male F-Mount Ring</t>
+  </si>
+  <si>
+    <t>Adapter to camera with F-mount</t>
+  </si>
+  <si>
+    <t>Adjustable SM2 tube</t>
+  </si>
+  <si>
+    <t>Edmund/Mitutoyo?</t>
+  </si>
+  <si>
+    <t>QuadLine Rejectionband ZET405/488/561/640 in 25 mm diameter</t>
+  </si>
+  <si>
+    <t>F57-405</t>
+  </si>
+  <si>
+    <t>Detection: Filter wheel (OPTIONAL). A servo-driven filter wheel. ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm)</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1677,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1735,7 +1720,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1756,12 +1740,12 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2149,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,18 +2212,18 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D5" s="27">
         <v>0</v>
@@ -2254,7 +2238,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,24 +2249,24 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2298,7 +2282,7 @@
         <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2306,7 +2290,7 @@
         <v>1008062</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>16</v>
@@ -2321,17 +2305,17 @@
         <f>E10*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="47"/>
       <c r="I10" s="36" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
@@ -2343,9 +2327,9 @@
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="47"/>
       <c r="I11" s="36" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2376,175 +2360,175 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <v>1</v>
       </c>
       <c r="E14" s="25">
         <v>1807</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <v>1</v>
       </c>
       <c r="E15" s="25">
         <v>132</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" s="39" t="s">
+      <c r="G15" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="C16" s="39" t="s">
+    <row r="16" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>1</v>
       </c>
       <c r="E16" s="25">
         <v>250</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <v>1</v>
       </c>
       <c r="E17" s="25">
         <v>1807</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H17" s="39" t="s">
+      <c r="G17" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="I17" s="38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>1</v>
       </c>
       <c r="E18" s="25">
         <v>200</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="38">
         <v>1</v>
       </c>
       <c r="E19" s="25">
         <v>1939</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>1939</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2568,10 +2552,10 @@
         <v>110</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2595,10 +2579,10 @@
         <v>2450</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2609,7 +2593,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -2622,10 +2606,10 @@
         <v>4800</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2649,28 +2633,28 @@
         <v>870</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -2683,21 +2667,21 @@
         <v>140</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
@@ -2710,21 +2694,21 @@
         <v>216</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>334</v>
+      <c r="A27" s="48" t="s">
+        <v>321</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -2737,21 +2721,21 @@
         <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>337</v>
+      <c r="A28" s="48" t="s">
+        <v>324</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2764,21 +2748,21 @@
         <v>29</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>340</v>
+      <c r="A29" s="48" t="s">
+        <v>327</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2791,21 +2775,21 @@
         <v>195</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>345</v>
-      </c>
       <c r="B30" s="10" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2818,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2830,7 +2814,7 @@
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -2852,7 +2836,7 @@
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2941,42 +2925,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="39">
+    <row r="39" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="38">
         <v>2</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="40">
         <v>13</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="49">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3">
         <v>2</v>
@@ -2991,43 +2975,43 @@
       <c r="G40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="39">
+    <row r="41" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="38">
         <v>2</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="40">
         <v>18</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="49">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>50</v>
@@ -3075,1087 +3059,1108 @@
         <v>43</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44" s="39">
+    <row r="44" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="38">
         <v>2</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="40">
         <v>31</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="49">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="H44" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="43">
+      <c r="H44" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="42">
         <v>10</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="43">
         <v>16</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="50">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H45" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" s="43">
+      <c r="H45" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="42">
         <v>2</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="43">
         <v>41</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="50">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="H46" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D47" s="39">
+      <c r="H46" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="38">
         <v>2</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="40">
         <v>99</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="49">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="H47" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D48" s="43">
+      <c r="H47" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="42">
         <v>4</v>
       </c>
-      <c r="E48" s="44">
+      <c r="E48" s="43">
         <v>189</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="50">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="H48" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="43">
+      <c r="H48" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="42">
         <v>4</v>
       </c>
-      <c r="E49" s="44">
+      <c r="E49" s="43">
         <v>110</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="50">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="H49" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="39">
+      <c r="H49" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="38">
         <v>4</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="40">
         <v>13</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="49">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="H50" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="D51" s="39">
+      <c r="H50" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="38">
         <v>2</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="40">
         <v>8</v>
       </c>
-      <c r="F51" s="50">
+      <c r="F51" s="49">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H51" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D52" s="39">
+      <c r="H51" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="38">
         <v>4</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="40">
         <v>7</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52" s="49">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H52" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D53" s="39">
+      <c r="H52" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="38">
         <v>6</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="40">
         <v>5</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F53" s="49">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H53" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54" s="39">
+      <c r="H53" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" s="38">
         <v>4</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="40">
         <v>6</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F54" s="49">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H54" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D55" s="39">
+      <c r="H54" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="38">
         <v>4</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="40">
         <v>5</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F55" s="49">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H55" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="39">
+      <c r="H55" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="38">
         <v>2</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="40">
         <v>5</v>
       </c>
-      <c r="F56" s="50">
+      <c r="F56" s="49">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="D57" s="43">
+      <c r="H56" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="42">
         <v>2</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="43">
         <v>398</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="50">
         <f t="shared" si="2"/>
         <v>796</v>
       </c>
-      <c r="H57" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="D58" s="43">
+      <c r="H57" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="D58" s="42">
         <v>2</v>
       </c>
-      <c r="E58" s="44">
-        <v>1</v>
-      </c>
-      <c r="F58" s="51">
+      <c r="E58" s="43">
+        <v>1</v>
+      </c>
+      <c r="F58" s="50">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H58" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="D59" s="43">
+      <c r="H58" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I58" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="42">
         <v>2</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="43">
         <v>30</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="50">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H59" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="I59" s="43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="D60" s="39">
+      <c r="H59" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="38">
         <v>2</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E60" s="40">
         <v>36</v>
       </c>
-      <c r="F60" s="50">
+      <c r="F60" s="49">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="H60" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="D61" s="39">
+      <c r="H60" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" s="38">
         <v>2</v>
       </c>
-      <c r="E61" s="41">
+      <c r="E61" s="40">
         <v>2104</v>
       </c>
-      <c r="F61" s="50">
+      <c r="F61" s="49">
         <f t="shared" ref="F61:F73" si="3">E61*D61</f>
         <v>4208</v>
       </c>
-      <c r="H61" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="D62" s="39">
+      <c r="H61" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D62" s="38">
         <v>2</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="40">
         <v>82</v>
       </c>
-      <c r="F62" s="50">
+      <c r="F62" s="49">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="H62" s="39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="D63" s="39">
-        <v>1</v>
-      </c>
-      <c r="E63" s="41">
+      <c r="H62" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="38">
+        <v>1</v>
+      </c>
+      <c r="E63" s="40">
         <v>495</v>
       </c>
-      <c r="F63" s="50">
+      <c r="F63" s="49">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="H63" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I63" s="39" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
-        <v>415</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="D64" s="39">
+      <c r="H63" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" s="38">
         <v>0</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="40">
         <v>390</v>
       </c>
-      <c r="F64" s="50">
+      <c r="F64" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H64" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="D65" s="39">
+      <c r="H64" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D65" s="38">
         <v>14</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="40">
         <v>20</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="49">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="H65" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I65" s="45" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="D66" s="39">
-        <v>1</v>
-      </c>
-      <c r="E66" s="41">
+      <c r="H65" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I65" s="44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="D66" s="38">
+        <v>1</v>
+      </c>
+      <c r="E66" s="40">
         <v>10</v>
       </c>
-      <c r="F66" s="50">
+      <c r="F66" s="49">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H66" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="D67" s="39">
+      <c r="H66" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="38">
         <v>2</v>
       </c>
-      <c r="E67" s="41">
+      <c r="E67" s="40">
         <v>5</v>
       </c>
-      <c r="F67" s="50">
+      <c r="F67" s="49">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="D68" s="39">
+      <c r="H67" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="38">
         <v>2</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="40">
         <v>62</v>
       </c>
-      <c r="F68" s="50">
+      <c r="F68" s="49">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="H68" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I68" s="39" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="D69" s="39">
+      <c r="H68" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69" s="38">
         <v>8</v>
       </c>
-      <c r="E69" s="41">
-        <v>1</v>
-      </c>
-      <c r="F69" s="50">
+      <c r="E69" s="40">
+        <v>1</v>
+      </c>
+      <c r="F69" s="49">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H69" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I69" s="39" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="D70" s="39">
+      <c r="H69" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D70" s="38">
         <v>6</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="40">
         <v>6</v>
       </c>
-      <c r="F70" s="50">
+      <c r="F70" s="49">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="H70" s="39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>452</v>
-      </c>
-      <c r="D71" s="39">
+      <c r="H70" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="D71" s="38">
         <v>2</v>
       </c>
-      <c r="E71" s="41">
-        <v>1</v>
-      </c>
-      <c r="F71" s="50">
+      <c r="E71" s="40">
+        <v>1</v>
+      </c>
+      <c r="F71" s="49">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H71" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I71" s="39" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="D72" s="39">
-        <v>1</v>
-      </c>
-      <c r="E72" s="41">
+      <c r="H71" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="D72" s="38">
+        <v>1</v>
+      </c>
+      <c r="E72" s="40">
         <v>2</v>
       </c>
-      <c r="F72" s="50">
+      <c r="F72" s="49">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H72" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I72" s="39" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="D73" s="39">
-        <v>1</v>
-      </c>
-      <c r="E73" s="41">
+      <c r="H72" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="D73" s="38">
+        <v>1</v>
+      </c>
+      <c r="E73" s="40">
         <v>15</v>
       </c>
-      <c r="F73" s="50">
+      <c r="F73" s="49">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H73" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I73" s="39" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="D74" s="39">
+      <c r="H73" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="38">
         <v>2</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74" s="40">
         <v>25</v>
       </c>
-      <c r="F74" s="50">
+      <c r="F74" s="49">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H74" s="39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D75" s="39">
+      <c r="H74" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="38">
         <v>2</v>
       </c>
-      <c r="E75" s="41">
+      <c r="E75" s="40">
         <v>35</v>
       </c>
-      <c r="F75" s="50">
+      <c r="F75" s="49">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H75" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I75" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="J75" s="47" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="39">
+      <c r="H75" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="J75" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="38">
         <v>2</v>
       </c>
-      <c r="E76" s="41">
+      <c r="E76" s="40">
         <v>92</v>
       </c>
-      <c r="F76" s="50">
+      <c r="F76" s="49">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="H76" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I76" s="39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>354</v>
-      </c>
-      <c r="D77" s="39">
+      <c r="H76" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="D77" s="38">
         <v>2</v>
       </c>
-      <c r="E77" s="41">
-        <v>1</v>
-      </c>
-      <c r="F77" s="50">
+      <c r="E77" s="40">
+        <v>1</v>
+      </c>
+      <c r="F77" s="49">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H77" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I77" s="39" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="50"/>
-    </row>
-    <row r="79" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="50"/>
-    </row>
-    <row r="80" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="50"/>
+      <c r="H77" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I77" s="38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="49"/>
+    </row>
+    <row r="79" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="49"/>
+    </row>
+    <row r="80" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="49"/>
     </row>
     <row r="81" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+    <row r="82" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="39">
-        <v>1</v>
-      </c>
-      <c r="E82" s="41"/>
-      <c r="F82" s="50"/>
-      <c r="I82" s="39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="D83" s="39">
-        <v>1</v>
-      </c>
-      <c r="E83" s="41">
+      <c r="D82" s="38">
+        <v>1</v>
+      </c>
+      <c r="E82" s="40"/>
+      <c r="F82" s="49"/>
+      <c r="I82" s="38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" s="38">
+        <v>1</v>
+      </c>
+      <c r="E83" s="40">
         <v>63</v>
       </c>
-      <c r="F83" s="50">
+      <c r="F83" s="49">
         <f>D83*E83</f>
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="B84" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="D84" s="39">
+    <row r="84" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="38">
         <v>2</v>
       </c>
-      <c r="E84" s="41">
+      <c r="E84" s="40">
         <v>69</v>
       </c>
-      <c r="F84" s="50">
+      <c r="F84" s="49">
         <f>D84*E84</f>
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="B85" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="D85" s="39">
-        <v>1</v>
-      </c>
-      <c r="E85" s="41">
+    <row r="85" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D85" s="38">
+        <v>1</v>
+      </c>
+      <c r="E85" s="40">
         <v>10</v>
       </c>
-      <c r="F85" s="50">
+      <c r="F85" s="49">
         <f>D85*E85</f>
         <v>10</v>
       </c>
-      <c r="I85" s="39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="I85" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="39">
-        <v>1</v>
-      </c>
-      <c r="E86" s="41"/>
-      <c r="F86" s="50"/>
-      <c r="I86" s="39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>400</v>
+      <c r="D86" s="38">
+        <v>1</v>
+      </c>
+      <c r="E86" s="40"/>
+      <c r="F86" s="49"/>
+      <c r="I86" s="38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>398</v>
+    <row r="88" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
+    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>250</v>
+      </c>
+      <c r="F89" s="5">
+        <f>E89*D89</f>
+        <v>250</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="E90" s="5">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="F90" s="5">
         <f>E90*D90</f>
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>13</v>
@@ -4165,25 +4170,25 @@
       </c>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
       </c>
       <c r="E91" s="5">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F91" s="5">
         <f>E91*D91</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>13</v>
@@ -4191,1330 +4196,1376 @@
       <c r="H91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D92" s="3">
         <v>1</v>
       </c>
-      <c r="E92" s="5">
-        <v>43</v>
-      </c>
-      <c r="F92" s="5">
-        <f>E92*D92</f>
-        <v>43</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="I92" s="38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="51"/>
+    </row>
+    <row r="94" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" s="51"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
+        <v>625</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" ref="F95" si="4">E95*D95</f>
+        <v>625</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1</v>
-      </c>
-      <c r="I93" s="39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C94" s="55" t="s">
-        <v>372</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="1:10" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="B96" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" s="39">
-        <v>0</v>
-      </c>
-      <c r="E96" s="41">
-        <v>656</v>
-      </c>
-      <c r="F96" s="50">
-        <f>E96*D96</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="47"/>
-    </row>
-    <row r="97" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B97" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="D97" s="39">
-        <v>0</v>
-      </c>
-      <c r="E97" s="41">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F97" s="50">
+      <c r="I95" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+    </row>
+    <row r="97" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="D97" s="32">
+        <v>1</v>
+      </c>
+      <c r="E97" s="33">
+        <v>912</v>
+      </c>
+      <c r="F97" s="33">
         <f>E97*D97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B98" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>271</v>
+        <v>912</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>409</v>
       </c>
       <c r="D98" s="3">
-        <v>0</v>
-      </c>
-      <c r="E98" s="12">
-        <v>4.87</v>
-      </c>
-      <c r="F98" s="50">
-        <f>E98*D98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F99" s="52"/>
-    </row>
-    <row r="100" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F100" s="52"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>837</v>
+      </c>
+      <c r="F98" s="33">
+        <f t="shared" ref="F98:F102" si="5">E98*D98</f>
+        <v>837</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="32"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1540</v>
+      </c>
+      <c r="F99" s="33">
+        <f t="shared" si="5"/>
+        <v>1540</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="32"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1026</v>
+      </c>
+      <c r="F100" s="33">
+        <f t="shared" si="5"/>
+        <v>1026</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="32"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>57</v>
+        <v>414</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="58" t="s">
+        <v>415</v>
       </c>
       <c r="D101" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" s="5">
-        <v>1075</v>
-      </c>
-      <c r="F101" s="5">
-        <f t="shared" ref="F101:F106" si="4">E101*D101</f>
-        <v>1075</v>
+        <v>1</v>
+      </c>
+      <c r="F101" s="33">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="36">
-        <v>0</v>
-      </c>
-      <c r="E102" s="37">
-        <v>1350</v>
-      </c>
-      <c r="F102" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
+      <c r="H101" s="32"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5">
         <v>60</v>
       </c>
-      <c r="B103" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="36">
-        <v>0</v>
-      </c>
-      <c r="E103" s="37">
-        <v>1350</v>
-      </c>
-      <c r="F103" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D104" s="36">
-        <v>0</v>
-      </c>
-      <c r="E104" s="38">
-        <v>1445</v>
-      </c>
-      <c r="F104" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="36">
-        <v>0</v>
-      </c>
-      <c r="E105" s="37">
-        <v>1130</v>
-      </c>
-      <c r="F105" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B106" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D106" s="36">
-        <v>0</v>
-      </c>
-      <c r="E106" s="37">
-        <v>1130</v>
-      </c>
-      <c r="F106" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-    </row>
-    <row r="108" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="C108" s="58" t="s">
-        <v>431</v>
-      </c>
-      <c r="D108" s="32">
-        <v>1</v>
-      </c>
-      <c r="E108" s="33">
-        <v>912</v>
-      </c>
-      <c r="F108" s="33">
-        <f>E108*D108</f>
-        <v>912</v>
-      </c>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="C109" s="59" t="s">
-        <v>432</v>
-      </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5">
-        <v>837</v>
-      </c>
-      <c r="F109" s="33">
-        <f t="shared" ref="F109:F113" si="5">E109*D109</f>
-        <v>837</v>
-      </c>
-      <c r="H109" s="32"/>
-    </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="C110" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="D110" s="3">
-        <v>1</v>
-      </c>
-      <c r="E110" s="5">
-        <v>1540</v>
-      </c>
-      <c r="F110" s="33">
-        <f t="shared" si="5"/>
-        <v>1540</v>
-      </c>
-      <c r="H110" s="32"/>
-    </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="C111" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="D111" s="3">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5">
-        <v>1026</v>
-      </c>
-      <c r="F111" s="33">
-        <f t="shared" si="5"/>
-        <v>1026</v>
-      </c>
-      <c r="H111" s="32"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B112" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="D112" s="3">
-        <v>4</v>
-      </c>
-      <c r="E112" s="5">
-        <v>1</v>
-      </c>
-      <c r="F112" s="33">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H112" s="32"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="D113" s="3">
-        <v>1</v>
-      </c>
-      <c r="E113" s="5">
-        <v>60</v>
-      </c>
-      <c r="F113" s="33">
+      <c r="F102" s="33">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="H113" s="32"/>
-    </row>
-    <row r="114" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-    </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B115" s="32"/>
+      <c r="G102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="32"/>
+    </row>
+    <row r="103" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>525</v>
+      </c>
+      <c r="F104" s="5">
+        <f>D104*E104</f>
+        <v>525</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5">
+        <v>214</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" ref="F105:F113" si="6">D105*E105</f>
+        <v>214</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <v>23</v>
+      </c>
+      <c r="F106" s="5">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
+        <v>23</v>
+      </c>
+      <c r="F107" s="5">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
+        <v>112</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="32"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F110" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2</v>
+      </c>
+      <c r="F111" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C115" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B116" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F115" s="5">
+        <f>E115*D115</f>
+        <v>3582</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C116" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>422</v>
+        <v>225</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" ref="F116:F124" si="7">E116*D116</f>
+        <v>1630</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>422</v>
+        <v>220</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5">
+        <v>886</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="7"/>
+        <v>886</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>422</v>
+        <v>224</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
+        <v>163</v>
+      </c>
+      <c r="F118" s="5">
+        <f t="shared" si="7"/>
+        <v>163</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
+        <v>218</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
+        <v>11</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5">
+        <v>520</v>
+      </c>
+      <c r="F120" s="5">
+        <f>E120*D120</f>
+        <v>520</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
       </c>
       <c r="E121" s="5">
-        <v>3582</v>
+        <v>193</v>
       </c>
       <c r="F121" s="5">
         <f>E121*D121</f>
-        <v>3582</v>
+        <v>193</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D122" s="3">
-        <v>1</v>
-      </c>
-      <c r="E122" s="5">
-        <v>1630</v>
-      </c>
-      <c r="F122" s="5">
-        <f t="shared" ref="F122:F130" si="6">E122*D122</f>
-        <v>1630</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D123" s="3">
-        <v>1</v>
-      </c>
-      <c r="E123" s="5">
-        <v>886</v>
-      </c>
-      <c r="F123" s="5">
-        <f t="shared" si="6"/>
-        <v>886</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-      <c r="E124" s="5">
-        <v>163</v>
-      </c>
-      <c r="F124" s="5">
-        <f t="shared" si="6"/>
-        <v>163</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>240</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D122" s="36">
+        <v>0</v>
+      </c>
+      <c r="E122" s="37">
+        <v>2800</v>
+      </c>
+      <c r="F122" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I122" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D123" s="38">
+        <v>10</v>
+      </c>
+      <c r="E123" s="49">
+        <v>12</v>
+      </c>
+      <c r="F123" s="49">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="G123" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I123" s="38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D124" s="38">
+        <v>1</v>
+      </c>
+      <c r="E124" s="49">
+        <v>14</v>
+      </c>
+      <c r="F124" s="49">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="G124" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I124" s="38" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="D125" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E125" s="5">
-        <v>11</v>
+        <v>15.25</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>70</v>
+        <f>E125*D125</f>
+        <v>61</v>
+      </c>
+      <c r="G125" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D126" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E126" s="5">
-        <v>520</v>
+        <v>16.5</v>
       </c>
       <c r="F126" s="5">
         <f>E126*D126</f>
-        <v>520</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>70</v>
+        <v>165</v>
+      </c>
+      <c r="G126" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="D127" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E127" s="5">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F127" s="5">
         <f>E127*D127</f>
-        <v>193</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B128" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C128" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D128" s="36">
-        <v>0</v>
-      </c>
-      <c r="E128" s="37">
-        <v>2800</v>
-      </c>
-      <c r="F128" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I128" s="36" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="D129" s="39">
-        <v>10</v>
-      </c>
-      <c r="E129" s="50">
-        <v>12</v>
-      </c>
-      <c r="F129" s="50">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="G129" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I129" s="39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="B130" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="D130" s="39">
-        <v>1</v>
-      </c>
-      <c r="E130" s="50">
-        <v>14</v>
-      </c>
-      <c r="F130" s="50">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="G130" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I130" s="39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D131" s="3">
-        <v>4</v>
-      </c>
-      <c r="E131" s="5">
-        <v>15.25</v>
-      </c>
-      <c r="F131" s="5">
-        <f>E131*D131</f>
-        <v>61</v>
-      </c>
-      <c r="G131" s="39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G127" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="3">
+        <v>6</v>
+      </c>
+      <c r="E128" s="5">
+        <v>24</v>
+      </c>
+      <c r="F128" s="5">
+        <f>E128*D128</f>
         <v>144</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D132" s="3">
-        <v>10</v>
-      </c>
-      <c r="E132" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F132" s="5">
-        <f>E132*D132</f>
-        <v>165</v>
-      </c>
-      <c r="G132" s="39" t="s">
-        <v>70</v>
-      </c>
+      <c r="G128" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="49"/>
+      <c r="F129" s="49"/>
+    </row>
+    <row r="132" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="D133" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E133" s="5">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="F133" s="5">
-        <f>E133*D133</f>
-        <v>240</v>
-      </c>
-      <c r="G133" s="39" t="s">
-        <v>70</v>
+        <f t="shared" ref="F133:F154" si="8">E133*D133</f>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
+        <v>184</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="5">
+        <v>76</v>
+      </c>
+      <c r="F135" s="5">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
+        <v>184</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5">
+        <v>94.180155999999997</v>
+      </c>
+      <c r="F137" s="5">
+        <f t="shared" si="8"/>
+        <v>94.180155999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D134" s="3">
-        <v>6</v>
-      </c>
-      <c r="E134" s="5">
-        <v>24</v>
-      </c>
-      <c r="F134" s="5">
-        <f>E134*D134</f>
-        <v>144</v>
-      </c>
-      <c r="G134" s="39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-    </row>
-    <row r="138" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C138" s="7"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="8"/>
+        <v>36.799999999999997</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D139" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" s="5">
-        <v>488</v>
+        <v>21.21</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" ref="F139:F160" si="7">E139*D139</f>
-        <v>488</v>
+        <f t="shared" si="8"/>
+        <v>42.42</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
       </c>
       <c r="E140" s="5">
-        <v>184</v>
+        <v>304.75</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="7"/>
-        <v>184</v>
+        <f t="shared" si="8"/>
+        <v>304.75</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D141" s="3">
         <v>1</v>
       </c>
       <c r="E141" s="5">
-        <v>76</v>
+        <v>148.21</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="7"/>
-        <v>76</v>
+        <f t="shared" si="8"/>
+        <v>148.21</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5">
+        <v>348.45</v>
+      </c>
+      <c r="F142" s="5">
+        <f t="shared" si="8"/>
+        <v>348.45</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D142" s="3">
-        <v>1</v>
-      </c>
-      <c r="E142" s="5">
-        <v>184</v>
-      </c>
-      <c r="F142" s="5">
-        <f t="shared" si="7"/>
-        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D143" s="3">
         <v>1</v>
       </c>
       <c r="E143" s="5">
-        <v>94.180155999999997</v>
+        <v>60.95</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="7"/>
-        <v>94.180155999999997</v>
+        <f t="shared" si="8"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
       </c>
       <c r="E144" s="5">
-        <v>36.799999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="7"/>
-        <v>36.799999999999997</v>
+        <f t="shared" si="8"/>
+        <v>34.5</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5">
+        <v>51.45</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="8"/>
+        <v>51.45</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D145" s="3">
-        <v>2</v>
-      </c>
-      <c r="E145" s="5">
-        <v>21.21</v>
-      </c>
-      <c r="F145" s="5">
-        <f t="shared" si="7"/>
-        <v>42.42</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D146" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" s="5">
-        <v>304.75</v>
+        <v>13.8</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="7"/>
-        <v>304.75</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>27.6</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D147" s="3">
         <v>1</v>
       </c>
       <c r="E147" s="5">
-        <v>148.21</v>
+        <v>19.09</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="7"/>
-        <v>148.21</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>19.09</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D148" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" s="5">
-        <v>348.45</v>
+        <v>40.51</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="7"/>
-        <v>348.45</v>
+        <f t="shared" si="8"/>
+        <v>81.02</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D149" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149" s="5">
-        <v>60.95</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="7"/>
-        <v>60.95</v>
+        <f t="shared" si="8"/>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D150" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150" s="5">
-        <v>34.5</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="7"/>
-        <v>34.5</v>
+        <f t="shared" si="8"/>
+        <v>280.416</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D151" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" s="5">
-        <v>51.45</v>
+        <v>28.75</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="7"/>
-        <v>51.45</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>108</v>
+        <f t="shared" si="8"/>
+        <v>57.5</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C152" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D152" s="3">
         <v>2</v>
       </c>
       <c r="E152" s="5">
-        <v>13.8</v>
+        <v>38.872799999999998</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="7"/>
-        <v>27.6</v>
+        <f t="shared" si="8"/>
+        <v>77.745599999999996</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="B153" s="3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D153" s="3">
         <v>1</v>
       </c>
       <c r="E153" s="5">
-        <v>19.09</v>
+        <v>205</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="7"/>
-        <v>19.09</v>
+        <f t="shared" si="8"/>
+        <v>205</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="B154" s="3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D154" s="3">
         <v>2</v>
       </c>
       <c r="E154" s="5">
-        <v>40.51</v>
+        <v>12</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="7"/>
-        <v>81.02</v>
+        <f t="shared" si="8"/>
+        <v>24</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C155" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D155" s="3">
-        <v>2</v>
-      </c>
-      <c r="E155" s="5">
-        <v>83.598116000000005</v>
-      </c>
-      <c r="F155" s="5">
-        <f t="shared" si="7"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C156" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D156" s="3">
+      <c r="C157" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D157" s="3">
         <v>4</v>
       </c>
-      <c r="E156" s="5">
-        <v>70.103999999999999</v>
-      </c>
-      <c r="F156" s="5">
-        <f t="shared" si="7"/>
-        <v>280.416</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B157" s="3" t="s">
+      <c r="E157" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" ref="F157:F173" si="9">E157*D157</f>
+        <v>66</v>
+      </c>
+      <c r="I157" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D157" s="3">
-        <v>2</v>
-      </c>
-      <c r="E157" s="5">
-        <v>28.75</v>
-      </c>
-      <c r="F157" s="5">
-        <f t="shared" si="7"/>
-        <v>57.5</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D158" s="3">
         <v>2</v>
       </c>
       <c r="E158" s="5">
-        <v>38.872799999999998</v>
+        <v>140</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="7"/>
-        <v>77.745599999999996</v>
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="B159" s="3" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>129</v>
@@ -5523,139 +5574,164 @@
         <v>1</v>
       </c>
       <c r="E159" s="5">
-        <v>205</v>
+        <v>85.1</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="7"/>
-        <v>205</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="9"/>
+        <v>85.1</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="B160" s="3" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D160" s="3">
         <v>2</v>
       </c>
       <c r="E160" s="5">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="10"/>
-    </row>
-    <row r="162" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F162" s="9"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5">
+        <v>51.58</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" si="9"/>
+        <v>103.16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5">
+        <v>60</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D163" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E163" s="5">
-        <v>16.5</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" ref="F163:F179" si="8">E163*D163</f>
-        <v>66</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>135</v>
+        <f t="shared" si="9"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D164" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="5">
-        <v>140</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>139</v>
+        <f t="shared" si="9"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D165" s="3">
         <v>1</v>
       </c>
       <c r="E165" s="5">
-        <v>85.1</v>
+        <v>60.95</v>
       </c>
       <c r="F165" s="5">
-        <f t="shared" si="8"/>
-        <v>85.1</v>
+        <f t="shared" si="9"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D166" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" s="5">
-        <v>32</v>
+        <v>119.416</v>
       </c>
       <c r="F166" s="5">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>151</v>
+        <f t="shared" si="9"/>
+        <v>119.416</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5663,20 +5739,20 @@
         <v>152</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D167" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" s="5">
-        <v>51.58</v>
+        <v>105.8</v>
       </c>
       <c r="F167" s="5">
-        <f t="shared" si="8"/>
-        <v>103.16</v>
+        <f t="shared" si="9"/>
+        <v>105.8</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5684,704 +5760,577 @@
         <v>154</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D168" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" s="5">
-        <v>60</v>
+        <v>119.6</v>
       </c>
       <c r="F168" s="5">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>156</v>
+        <f t="shared" si="9"/>
+        <v>239.2</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>157</v>
+        <v>376</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="D169" s="3">
         <v>1</v>
       </c>
       <c r="E169" s="5">
-        <v>136.47999999999999</v>
+        <v>100</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="8"/>
-        <v>136.47999999999999</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D170" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" s="5">
-        <v>136.47999999999999</v>
+        <v>92</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="8"/>
-        <v>136.47999999999999</v>
+        <f t="shared" si="9"/>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D171" s="3">
         <v>1</v>
       </c>
       <c r="E171" s="5">
-        <v>60.95</v>
+        <v>96.23</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="8"/>
-        <v>60.95</v>
+        <f t="shared" si="9"/>
+        <v>96.23</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D172" s="3">
         <v>1</v>
       </c>
       <c r="E172" s="5">
-        <v>119.416</v>
+        <v>102.44</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="8"/>
-        <v>119.416</v>
+        <f t="shared" si="9"/>
+        <v>102.44</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2</v>
+      </c>
+      <c r="E173" s="5">
+        <v>28</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C174" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C173" s="3" t="s">
+      <c r="D174" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C175" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D173" s="3">
-        <v>1</v>
-      </c>
-      <c r="E173" s="5">
-        <v>105.8</v>
-      </c>
-      <c r="F173" s="5">
-        <f t="shared" si="8"/>
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="D175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" s="3" t="s">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B181" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B182" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D183" s="3">
         <v>2</v>
       </c>
-      <c r="E174" s="5">
-        <v>119.6</v>
-      </c>
-      <c r="F174" s="5">
-        <f t="shared" si="8"/>
-        <v>239.2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D175" s="3">
-        <v>1</v>
-      </c>
-      <c r="E175" s="5">
-        <v>100</v>
-      </c>
-      <c r="F175" s="5">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C176" s="3" t="s">
+      <c r="G183" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D176" s="3">
+      <c r="C184" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J185" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D186" s="3">
         <v>2</v>
       </c>
-      <c r="E176" s="5">
-        <v>92</v>
-      </c>
-      <c r="F176" s="5">
-        <f t="shared" si="8"/>
+      <c r="G186" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I186" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D177" s="3">
-        <v>1</v>
-      </c>
-      <c r="E177" s="5">
-        <v>96.23</v>
-      </c>
-      <c r="F177" s="5">
-        <f t="shared" si="8"/>
-        <v>96.23</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D178" s="3">
-        <v>1</v>
-      </c>
-      <c r="E178" s="5">
-        <v>102.44</v>
-      </c>
-      <c r="F178" s="5">
-        <f t="shared" si="8"/>
-        <v>102.44</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D179" s="3">
+      <c r="J186" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D187" s="3">
         <v>2</v>
       </c>
-      <c r="E179" s="5">
-        <v>28</v>
-      </c>
-      <c r="F179" s="5">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C180" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D180" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C181" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D181" s="3">
-        <v>1</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C182" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D182" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A186" s="8" t="s">
+      <c r="G187" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C186" s="7"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-    </row>
-    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B187" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D187" s="3">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="I187" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J187" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K187" s="4"/>
-    </row>
-    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J187" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C188" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D188" s="3">
         <v>1</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K188" s="4"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D189" s="3">
-        <v>2</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I189" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C190" s="3" t="s">
+      <c r="D189" s="19">
+        <v>10</v>
+      </c>
+      <c r="F189" s="52"/>
+      <c r="G189" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I189" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D190" s="3">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3" t="s">
+      <c r="J189" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D191" s="3">
-        <v>0</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J191" s="19" t="s">
-        <v>194</v>
-      </c>
+      <c r="B191" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C192" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="D192" s="3">
-        <v>2</v>
-      </c>
-      <c r="G192" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F192" s="5">
+        <f t="shared" ref="F192:F202" si="10">E192*D192</f>
+        <v>0</v>
+      </c>
+      <c r="I192" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I192" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J192" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="D193" s="3">
-        <v>2</v>
-      </c>
-      <c r="G193" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="5">
+        <v>764</v>
+      </c>
+      <c r="F193" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0</v>
+      </c>
+      <c r="E194" s="5">
+        <v>816</v>
+      </c>
+      <c r="F194" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I194" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I193" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J193" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D194" s="3">
-        <v>1</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J194" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C195" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D195" s="19">
-        <v>10</v>
-      </c>
-      <c r="F195" s="53"/>
-      <c r="G195" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J195" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0</v>
+      </c>
+      <c r="E195" s="5">
+        <v>952</v>
+      </c>
+      <c r="F195" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0</v>
+      </c>
+      <c r="E196" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="F196" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0</v>
+      </c>
+      <c r="E197" s="5">
+        <v>128.5</v>
+      </c>
+      <c r="F197" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D198" s="3">
         <v>0</v>
       </c>
       <c r="E198" s="5">
-        <v>518.5</v>
+        <v>156</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" ref="F198:F208" si="9">E198*D198</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I198" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D199" s="3">
         <v>0</v>
       </c>
       <c r="E199" s="5">
-        <v>764</v>
+        <v>184.5</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D200" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E200" s="5">
-        <v>816</v>
+        <v>25</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D201" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E201" s="5">
-        <v>952</v>
+        <v>28</v>
       </c>
       <c r="F201" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D202" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E202" s="5">
-        <v>99.5</v>
+        <v>121.5</v>
       </c>
       <c r="F202" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B203" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D203" s="3">
-        <v>0</v>
-      </c>
-      <c r="E203" s="5">
-        <v>128.5</v>
-      </c>
-      <c r="F203" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B204" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D204" s="3">
-        <v>0</v>
-      </c>
-      <c r="E204" s="5">
-        <v>156</v>
-      </c>
-      <c r="F204" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B205" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D205" s="3">
-        <v>0</v>
-      </c>
-      <c r="E205" s="5">
-        <v>184.5</v>
+        <f t="shared" si="10"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E205" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="F205" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B206" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D206" s="3">
-        <v>4</v>
-      </c>
-      <c r="E206" s="5">
-        <v>25</v>
-      </c>
-      <c r="F206" s="5">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D207" s="3">
-        <v>4</v>
-      </c>
-      <c r="E207" s="5">
-        <v>28</v>
-      </c>
-      <c r="F207" s="5">
-        <f t="shared" si="9"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B208" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D208" s="3">
-        <v>6</v>
-      </c>
-      <c r="E208" s="5">
-        <v>121.5</v>
-      </c>
-      <c r="F208" s="5">
-        <f t="shared" si="9"/>
-        <v>729</v>
-      </c>
-    </row>
-    <row r="211" spans="5:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E211" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="F211" s="5">
-        <f>SUM(F3:F209)</f>
-        <v>95915.533987999996</v>
+        <f>SUM(F3:F203)</f>
+        <v>96362.533987999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C108" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
-    <hyperlink ref="C109" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
-    <hyperlink ref="C110" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
-    <hyperlink ref="C111" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
+    <hyperlink ref="C97" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
+    <hyperlink ref="C98" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
+    <hyperlink ref="C99" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
+    <hyperlink ref="C100" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
+    <hyperlink ref="C104" r:id="rId5" xr:uid="{54BFEC5E-01BD-448D-BEB4-DF34719378D8}"/>
+    <hyperlink ref="C105" r:id="rId6" xr:uid="{5D0C521A-A3A7-4015-ACE4-34768088AF0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45F351-8EBC-4B90-94BB-566ED6E0E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06725D-EAD2-456E-9767-FF6A4444CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8304" yWindow="3924" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="443">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -548,33 +548,18 @@
     <t>Mechanical Workshop</t>
   </si>
   <si>
-    <t>Galvomount-22mm-diameter-Thorlabs-Left.ipt</t>
-  </si>
-  <si>
     <t>Excitation Path</t>
   </si>
   <si>
-    <t>Only if Thorlabs Scanners are used</t>
-  </si>
-  <si>
     <t>Aluminium</t>
   </si>
   <si>
-    <t>Galvomount-22mm-diameter-Thorlabs-Right.ipt</t>
-  </si>
-  <si>
     <t>60mm-blank-cageplate-LCP03M-Nikon-MOD.ipt</t>
   </si>
   <si>
     <t>Modified LCP03M</t>
   </si>
   <si>
-    <t>MVX-10-Bracket-V5.ipt</t>
-  </si>
-  <si>
-    <t>Detection Path</t>
-  </si>
-  <si>
     <t>Large-cuvette-mount-30mm-V1.ipt</t>
   </si>
   <si>
@@ -597,15 +582,6 @@
   </si>
   <si>
     <t>M-060-Adapter.ipt</t>
-  </si>
-  <si>
-    <t>Will be redesigned</t>
-  </si>
-  <si>
-    <t>Sample-cuvette-clamp-20mm-V3.ipt</t>
-  </si>
-  <si>
-    <t>Redesign is being worked on</t>
   </si>
   <si>
     <t xml:space="preserve">Sample cuvettes </t>
@@ -1444,12 +1420,15 @@
   <si>
     <t>Detection: Filter wheel (OPTIONAL). A servo-driven filter wheel. ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm)</t>
   </si>
+  <si>
+    <t>UG-753-H75 40x40x75 fire-fused</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1519,13 +1498,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1675,9 +1647,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1698,17 +1670,16 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1730,7 +1701,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1738,14 +1709,13 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2133,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2131,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2212,33 +2182,33 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="B5" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="26">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>25000</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <f>D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27" t="s">
-        <v>211</v>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2249,24 +2219,24 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2282,54 +2252,54 @@
         <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
         <v>1008062</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>0</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>7400</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <f>E10*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="I10" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="G10" s="46"/>
+      <c r="I10" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="35">
         <v>0</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>20000</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="I11" s="36" t="s">
-        <v>379</v>
+      <c r="G11" s="46"/>
+      <c r="I11" s="35" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2360,175 +2330,175 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="37">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
         <v>1807</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
         <v>132</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" s="38" t="s">
+    <row r="16" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="38">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="37">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
         <v>250</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="48">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="37">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
         <v>1807</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="38" t="s">
+      <c r="G17" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="38" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="I17" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="38">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
         <v>200</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="48">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="37">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
         <v>1939</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="48">
         <f t="shared" si="0"/>
         <v>1939</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2552,10 +2522,10 @@
         <v>110</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2579,10 +2549,10 @@
         <v>2450</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2593,7 +2563,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -2606,10 +2576,10 @@
         <v>4800</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2633,28 +2603,28 @@
         <v>870</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -2667,21 +2637,21 @@
         <v>140</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
@@ -2694,21 +2664,21 @@
         <v>216</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>321</v>
+      <c r="A27" s="47" t="s">
+        <v>313</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -2721,21 +2691,21 @@
         <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>324</v>
+      <c r="A28" s="47" t="s">
+        <v>316</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2748,21 +2718,21 @@
         <v>29</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>327</v>
-      </c>
       <c r="B29" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2775,21 +2745,21 @@
         <v>195</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>332</v>
+      <c r="A30" s="47" t="s">
+        <v>324</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2802,7 +2772,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2814,7 +2784,7 @@
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -2836,7 +2806,7 @@
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2925,30 +2895,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="38">
+    <row r="39" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="37">
         <v>2</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="39">
         <v>13</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="48">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="37" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2975,43 +2945,43 @@
       <c r="G40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="38">
+    <row r="41" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="37">
         <v>2</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="39">
         <v>18</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="48">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="37" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>50</v>
@@ -3036,7 +3006,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="26">
+      <c r="A43" s="25">
         <v>91863</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3059,1067 +3029,1067 @@
         <v>43</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+    <row r="44" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="38">
+      <c r="B44" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="37">
         <v>2</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="39">
         <v>31</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="48">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="H44" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="I44" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="42">
+      <c r="H44" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="41">
         <v>10</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="42">
         <v>16</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="49">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H45" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="42">
+      <c r="H45" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="41">
         <v>2</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="42">
         <v>41</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="49">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="H46" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="38">
+      <c r="H46" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="37">
         <v>2</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="39">
         <v>99</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="48">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="H47" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="42">
+      <c r="H47" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="41">
         <v>4</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="42">
         <v>189</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="49">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="H48" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" s="42">
+      <c r="H48" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="41">
         <v>4</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="42">
         <v>110</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="49">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="H49" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="I49" s="42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="38">
+      <c r="D50" s="37">
         <v>4</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="39">
         <v>13</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="48">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="H50" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="D51" s="38">
+      <c r="H50" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="37">
         <v>2</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="39">
         <v>8</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H51" s="38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="38">
+      <c r="H51" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="37">
         <v>4</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="39">
         <v>7</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="48">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H52" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="D53" s="38">
+      <c r="H52" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="37">
         <v>6</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="39">
         <v>5</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="48">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H53" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="D54" s="38">
+      <c r="H53" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="37">
         <v>4</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="39">
         <v>6</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="48">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H54" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D55" s="38">
+      <c r="H54" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="37">
         <v>4</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="39">
         <v>5</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="48">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H55" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="I55" s="38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="38">
+      <c r="H55" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="37">
         <v>2</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="39">
         <v>5</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="48">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H56" s="38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="D57" s="42">
+      <c r="H56" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="41">
         <v>2</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="42">
         <v>398</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="49">
         <f t="shared" si="2"/>
         <v>796</v>
       </c>
-      <c r="H57" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="D58" s="42">
+      <c r="H57" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D58" s="41">
         <v>2</v>
       </c>
-      <c r="E58" s="43">
-        <v>1</v>
-      </c>
-      <c r="F58" s="50">
+      <c r="E58" s="42">
+        <v>1</v>
+      </c>
+      <c r="F58" s="49">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H58" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I58" s="42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="42">
+      <c r="H58" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="41">
         <v>2</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="42">
         <v>30</v>
       </c>
-      <c r="F59" s="50">
+      <c r="F59" s="49">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H59" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I59" s="42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="D60" s="38">
+      <c r="H59" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="37">
         <v>2</v>
       </c>
-      <c r="E60" s="40">
+      <c r="E60" s="39">
         <v>36</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F60" s="48">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="H60" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I60" s="44" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="D61" s="38">
+      <c r="H60" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" s="37">
         <v>2</v>
       </c>
-      <c r="E61" s="40">
+      <c r="E61" s="39">
         <v>2104</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F61" s="48">
         <f t="shared" ref="F61:F73" si="3">E61*D61</f>
         <v>4208</v>
       </c>
-      <c r="H61" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="D62" s="38">
+      <c r="H61" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D62" s="37">
         <v>2</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="39">
         <v>82</v>
       </c>
-      <c r="F62" s="49">
+      <c r="F62" s="48">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="H62" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
-        <v>391</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" s="38">
-        <v>1</v>
-      </c>
-      <c r="E63" s="40">
+      <c r="H62" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="37">
+        <v>1</v>
+      </c>
+      <c r="E63" s="39">
         <v>495</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="48">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="H63" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I63" s="38" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="D64" s="38">
+      <c r="H63" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D64" s="37">
         <v>0</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="39">
         <v>390</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H64" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I64" s="38" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="D65" s="38">
+      <c r="H64" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I64" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D65" s="37">
         <v>14</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="39">
         <v>20</v>
       </c>
-      <c r="F65" s="49">
+      <c r="F65" s="48">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="H65" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I65" s="44" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="54" t="s">
-        <v>389</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="D66" s="38">
-        <v>1</v>
-      </c>
-      <c r="E66" s="40">
+      <c r="H65" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" s="37">
+        <v>1</v>
+      </c>
+      <c r="E66" s="39">
         <v>10</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="48">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H66" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I66" s="38" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="D67" s="38">
+      <c r="H66" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="D67" s="37">
         <v>2</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="39">
         <v>5</v>
       </c>
-      <c r="F67" s="49">
+      <c r="F67" s="48">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H67" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I67" s="38" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="D68" s="38">
+      <c r="H67" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" s="37">
         <v>2</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="39">
         <v>62</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F68" s="48">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="H68" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I68" s="38" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="D69" s="38">
+      <c r="H68" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I68" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D69" s="37">
         <v>8</v>
       </c>
-      <c r="E69" s="40">
-        <v>1</v>
-      </c>
-      <c r="F69" s="49">
+      <c r="E69" s="39">
+        <v>1</v>
+      </c>
+      <c r="F69" s="48">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H69" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I69" s="38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="D70" s="38">
+      <c r="H69" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D70" s="37">
         <v>6</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="39">
         <v>6</v>
       </c>
-      <c r="F70" s="49">
+      <c r="F70" s="48">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="H70" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="D71" s="38">
+      <c r="H70" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="D71" s="37">
         <v>2</v>
       </c>
-      <c r="E71" s="40">
-        <v>1</v>
-      </c>
-      <c r="F71" s="49">
+      <c r="E71" s="39">
+        <v>1</v>
+      </c>
+      <c r="F71" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H71" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I71" s="38" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="D72" s="38">
-        <v>1</v>
-      </c>
-      <c r="E72" s="40">
+      <c r="H71" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71" s="37" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="D72" s="37">
+        <v>1</v>
+      </c>
+      <c r="E72" s="39">
         <v>2</v>
       </c>
-      <c r="F72" s="49">
+      <c r="F72" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H72" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I72" s="38" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="D73" s="38">
-        <v>1</v>
-      </c>
-      <c r="E73" s="40">
+      <c r="H72" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="D73" s="37">
+        <v>1</v>
+      </c>
+      <c r="E73" s="39">
         <v>15</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F73" s="48">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H73" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I73" s="38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D74" s="38">
+      <c r="H73" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="37">
         <v>2</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="39">
         <v>25</v>
       </c>
-      <c r="F74" s="49">
+      <c r="F74" s="48">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H74" s="38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="38">
+      <c r="H74" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="37">
         <v>2</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="39">
         <v>35</v>
       </c>
-      <c r="F75" s="49">
+      <c r="F75" s="48">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H75" s="38" t="s">
+      <c r="H75" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="I75" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="I75" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="J75" s="46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="D76" s="38">
+      <c r="J75" s="45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="37">
         <v>2</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="39">
         <v>92</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="48">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="H76" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I76" s="38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="D77" s="38">
+      <c r="H76" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="I76" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="37">
         <v>2</v>
       </c>
-      <c r="E77" s="40">
-        <v>1</v>
-      </c>
-      <c r="F77" s="49">
+      <c r="E77" s="39">
+        <v>1</v>
+      </c>
+      <c r="F77" s="48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H77" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="49"/>
-    </row>
-    <row r="79" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="49"/>
-    </row>
-    <row r="80" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="49"/>
+      <c r="H77" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="I77" s="37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="48"/>
+    </row>
+    <row r="79" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="48"/>
+    </row>
+    <row r="80" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="48"/>
     </row>
     <row r="81" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
+    <row r="82" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="38">
-        <v>1</v>
-      </c>
-      <c r="E82" s="40"/>
-      <c r="F82" s="49"/>
-      <c r="I82" s="38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+      <c r="D82" s="37">
+        <v>1</v>
+      </c>
+      <c r="E82" s="39"/>
+      <c r="F82" s="48"/>
+      <c r="I82" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="B83" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="D83" s="38">
-        <v>1</v>
-      </c>
-      <c r="E83" s="40">
+    </row>
+    <row r="83" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="37">
+        <v>1</v>
+      </c>
+      <c r="E83" s="39">
         <v>63</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="48">
         <f>D83*E83</f>
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="B84" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="38">
+    <row r="84" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="37">
         <v>2</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="39">
         <v>69</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="48">
         <f>D84*E84</f>
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="B85" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="D85" s="38">
-        <v>1</v>
-      </c>
-      <c r="E85" s="40">
+    <row r="85" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" s="37">
+        <v>1</v>
+      </c>
+      <c r="E85" s="39">
         <v>10</v>
       </c>
-      <c r="F85" s="49">
+      <c r="F85" s="48">
         <f>D85*E85</f>
         <v>10</v>
       </c>
-      <c r="I85" s="38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
+      <c r="I85" s="37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="38">
-        <v>1</v>
-      </c>
-      <c r="E86" s="40"/>
-      <c r="F86" s="49"/>
-      <c r="I86" s="38" t="s">
-        <v>313</v>
+      <c r="D86" s="37">
+        <v>1</v>
+      </c>
+      <c r="E86" s="39"/>
+      <c r="F86" s="48"/>
+      <c r="I86" s="37" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>14</v>
@@ -4144,13 +4114,13 @@
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -4172,13 +4142,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -4199,42 +4169,42 @@
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D92" s="3">
         <v>1</v>
       </c>
-      <c r="I92" s="38" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F93" s="51"/>
-    </row>
-    <row r="94" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F94" s="51"/>
+      <c r="I92" s="37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="50"/>
+    </row>
+    <row r="94" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" s="50"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
@@ -4250,33 +4220,33 @@
         <v>13</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A96" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-    </row>
-    <row r="97" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C97" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="D97" s="32">
-        <v>1</v>
-      </c>
-      <c r="E97" s="33">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+    </row>
+    <row r="97" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C97" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="D97" s="31">
+        <v>1</v>
+      </c>
+      <c r="E97" s="32">
         <v>912</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F97" s="32">
         <f>E97*D97</f>
         <v>912</v>
       </c>
@@ -4285,14 +4255,14 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>409</v>
+      <c r="A98" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" s="55" t="s">
+        <v>401</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
@@ -4300,24 +4270,24 @@
       <c r="E98" s="5">
         <v>837</v>
       </c>
-      <c r="F98" s="33">
+      <c r="F98" s="32">
         <f t="shared" ref="F98:F102" si="5">E98*D98</f>
         <v>837</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="32"/>
+      <c r="H98" s="31"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C99" s="57" t="s">
-        <v>410</v>
+      <c r="A99" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>402</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
@@ -4325,24 +4295,24 @@
       <c r="E99" s="5">
         <v>1540</v>
       </c>
-      <c r="F99" s="33">
+      <c r="F99" s="32">
         <f t="shared" si="5"/>
         <v>1540</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="32"/>
+      <c r="H99" s="31"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B100" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="C100" s="57" t="s">
-        <v>412</v>
+      <c r="B100" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" s="55" t="s">
+        <v>404</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -4350,24 +4320,24 @@
       <c r="E100" s="5">
         <v>1026</v>
       </c>
-      <c r="F100" s="33">
+      <c r="F100" s="32">
         <f t="shared" si="5"/>
         <v>1026</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="32"/>
+      <c r="H100" s="31"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101" s="58" t="s">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="56" t="s">
+        <v>407</v>
       </c>
       <c r="D101" s="3">
         <v>4</v>
@@ -4375,24 +4345,24 @@
       <c r="E101" s="5">
         <v>1</v>
       </c>
-      <c r="F101" s="33">
+      <c r="F101" s="32">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="32"/>
+      <c r="H101" s="31"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B102" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C102" s="58" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>410</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
@@ -4400,31 +4370,31 @@
       <c r="E102" s="5">
         <v>60</v>
       </c>
-      <c r="F102" s="33">
+      <c r="F102" s="32">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="32"/>
-    </row>
-    <row r="103" spans="1:9" s="30" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
+      <c r="H102" s="31"/>
+    </row>
+    <row r="103" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C104" s="59" t="s">
-        <v>430</v>
+        <v>423</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C104" s="57" t="s">
+        <v>422</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
@@ -4440,18 +4410,18 @@
         <v>13</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C105" s="59" t="s">
-        <v>433</v>
+        <v>426</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C105" s="57" t="s">
+        <v>425</v>
       </c>
       <c r="D105" s="3">
         <v>1</v>
@@ -4467,18 +4437,18 @@
         <v>13</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B106" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B106" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
@@ -4494,18 +4464,18 @@
         <v>13</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B107" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B107" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
@@ -4521,18 +4491,18 @@
         <v>13</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B108" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B108" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
@@ -4548,22 +4518,22 @@
         <v>13</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
-      <c r="B109" s="32"/>
+      <c r="B109" s="31"/>
     </row>
     <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>446</v>
+        <v>391</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>438</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F110" s="5">
         <f t="shared" si="6"/>
@@ -4575,13 +4545,13 @@
     </row>
     <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D111" s="3">
         <v>2</v>
@@ -4596,13 +4566,13 @@
     </row>
     <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -4617,13 +4587,13 @@
     </row>
     <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D113" s="3">
         <v>1</v>
@@ -4667,18 +4637,18 @@
         <v>58</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
@@ -4694,18 +4664,18 @@
         <v>58</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
@@ -4721,18 +4691,18 @@
         <v>58</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
@@ -4748,7 +4718,7 @@
         <v>58</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4759,7 +4729,7 @@
         <v>57</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D119" s="3">
         <v>1</v>
@@ -4801,13 +4771,13 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -4823,85 +4793,85 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36" t="s">
+    <row r="122" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D122" s="36">
+      <c r="D122" s="35">
         <v>0</v>
       </c>
-      <c r="E122" s="37">
+      <c r="E122" s="36">
         <v>2800</v>
       </c>
-      <c r="F122" s="37">
+      <c r="F122" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G122" s="36" t="s">
+      <c r="G122" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I122" s="36" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="B123" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="D123" s="38">
+      <c r="I122" s="35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" s="37">
         <v>10</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="48">
         <v>12</v>
       </c>
-      <c r="F123" s="49">
+      <c r="F123" s="48">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="G123" s="38" t="s">
+      <c r="G123" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I123" s="38" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="B124" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D124" s="38">
-        <v>1</v>
-      </c>
-      <c r="E124" s="49">
+      <c r="I123" s="37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="D124" s="37">
+        <v>1</v>
+      </c>
+      <c r="E124" s="48">
         <v>14</v>
       </c>
-      <c r="F124" s="49">
+      <c r="F124" s="48">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="G124" s="38" t="s">
+      <c r="G124" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I124" s="38" t="s">
-        <v>369</v>
+      <c r="I124" s="37" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4924,7 +4894,7 @@
         <f>E125*D125</f>
         <v>61</v>
       </c>
-      <c r="G125" s="38" t="s">
+      <c r="G125" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4948,7 +4918,7 @@
         <f>E126*D126</f>
         <v>165</v>
       </c>
-      <c r="G126" s="38" t="s">
+      <c r="G126" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4972,7 +4942,7 @@
         <f>E127*D127</f>
         <v>240</v>
       </c>
-      <c r="G127" s="38" t="s">
+      <c r="G127" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4996,13 +4966,13 @@
         <f>E128*D128</f>
         <v>144</v>
       </c>
-      <c r="G128" s="38" t="s">
+      <c r="G128" s="37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E129" s="49"/>
-      <c r="F129" s="49"/>
+    <row r="129" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
     </row>
     <row r="132" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
@@ -5778,13 +5748,13 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D169" s="3">
         <v>1</v>
@@ -5908,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>168</v>
       </c>
@@ -5916,28 +5886,27 @@
       <c r="E180" s="18"/>
       <c r="F180" s="18"/>
     </row>
-    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C181" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D181" s="3">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3" t="s">
+      <c r="I181" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J181" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I181" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K181" s="4"/>
-    </row>
-    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
         <v>169</v>
       </c>
@@ -5945,382 +5914,318 @@
         <v>174</v>
       </c>
       <c r="D182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K182" s="4"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="J182" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D183" s="3">
         <v>2</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="J183" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B184" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J184" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D184" s="3">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>179</v>
+      <c r="C185" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D185" s="3">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D188" s="3">
         <v>0</v>
       </c>
-      <c r="G185" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J185" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C186" s="19" t="s">
+      <c r="E188" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F188" s="5">
+        <f t="shared" ref="F188:F199" si="10">E188*D188</f>
+        <v>0</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D186" s="3">
+      <c r="C189" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D189" s="3">
         <v>2</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I186" s="3" t="s">
+      <c r="E189" s="5">
+        <v>331</v>
+      </c>
+      <c r="F189" s="5">
+        <f t="shared" ref="F189" si="11">E189*D189</f>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0</v>
+      </c>
+      <c r="E190" s="5">
+        <v>764</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E191" s="5">
+        <v>816</v>
+      </c>
+      <c r="F191" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I191" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J186" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D187" s="3">
-        <v>2</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D188" s="3">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J188" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D189" s="19">
-        <v>10</v>
-      </c>
-      <c r="F189" s="52"/>
-      <c r="G189" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J189" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E191" s="9"/>
-      <c r="F191" s="9"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D192" s="3">
         <v>0</v>
       </c>
       <c r="E192" s="5">
-        <v>518.5</v>
+        <v>952</v>
       </c>
       <c r="F192" s="5">
-        <f t="shared" ref="F192:F202" si="10">E192*D192</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I192" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D193" s="3">
         <v>0</v>
       </c>
       <c r="E193" s="5">
-        <v>764</v>
+        <v>99.5</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D194" s="3">
         <v>0</v>
       </c>
       <c r="E194" s="5">
-        <v>816</v>
+        <v>128.5</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I194" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D195" s="3">
         <v>0</v>
       </c>
       <c r="E195" s="5">
-        <v>952</v>
+        <v>156</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D196" s="3">
         <v>0</v>
       </c>
       <c r="E196" s="5">
-        <v>99.5</v>
+        <v>184.5</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D197" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E197" s="5">
-        <v>128.5</v>
+        <v>25</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D198" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E198" s="5">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E199" s="5">
-        <v>184.5</v>
+        <v>121.5</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D200" s="3">
-        <v>4</v>
-      </c>
-      <c r="E200" s="5">
-        <v>25</v>
-      </c>
-      <c r="F200" s="5">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D201" s="3">
-        <v>4</v>
-      </c>
-      <c r="E201" s="5">
-        <v>28</v>
-      </c>
-      <c r="F201" s="5">
-        <f t="shared" si="10"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D202" s="3">
-        <v>6</v>
-      </c>
-      <c r="E202" s="5">
-        <v>121.5</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E202" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="F202" s="5">
-        <f t="shared" si="10"/>
-        <v>729</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E205" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F205" s="5">
-        <f>SUM(F3:F203)</f>
-        <v>96362.533987999996</v>
+        <f>SUM(F3:F200)</f>
+        <v>97024.533987999996</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C97" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
     <hyperlink ref="C98" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06725D-EAD2-456E-9767-FF6A4444CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83895F-2DA5-4B37-800C-EC7614141803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8304" yWindow="3924" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Options" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="461">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -648,9 +648,6 @@
   </si>
   <si>
     <t>Alternative. FOV 29 mm diagonal</t>
-  </si>
-  <si>
-    <t>Detection: Lenses</t>
   </si>
   <si>
     <t>Recommended. Includes switching module between 2 laser ports, controlled by TTL signal.</t>
@@ -902,9 +899,6 @@
     <t>3D printed</t>
   </si>
   <si>
-    <t>Detection: Other components</t>
-  </si>
-  <si>
     <t>Sample Z-stage</t>
   </si>
   <si>
@@ -1328,12 +1322,6 @@
     <t>SM2 adapter for Mitutoyo objectives</t>
   </si>
   <si>
-    <t>SM2 tube</t>
-  </si>
-  <si>
-    <t>SM2 filter adapter</t>
-  </si>
-  <si>
     <t>Hardware store</t>
   </si>
   <si>
@@ -1406,12 +1394,6 @@
     <t>Adapter to camera with F-mount</t>
   </si>
   <si>
-    <t>Adjustable SM2 tube</t>
-  </si>
-  <si>
-    <t>Edmund/Mitutoyo?</t>
-  </si>
-  <si>
     <t>QuadLine Rejectionband ZET405/488/561/640 in 25 mm diameter</t>
   </si>
   <si>
@@ -1422,13 +1404,85 @@
   </si>
   <si>
     <t>UG-753-H75 40x40x75 fire-fused</t>
+  </si>
+  <si>
+    <t>Detection: Objectives</t>
+  </si>
+  <si>
+    <t>Detection: Tube lens</t>
+  </si>
+  <si>
+    <t>Detection: Olympus tube lens. Best suited for Olympus objectives, and also works well with Mitutoyo BD Apo 2X objective.</t>
+  </si>
+  <si>
+    <t>Mitutoyo MT-1 Accessory Tube Lens</t>
+  </si>
+  <si>
+    <t>Preferred choice for Mititoyo objectives, except the 2X/0.055 one</t>
+  </si>
+  <si>
+    <t>Adapter-MitutoyoMT1-SM2.stl</t>
+  </si>
+  <si>
+    <t>Adapter for SM2 lens tube, attached to SM2 retaining ring</t>
+  </si>
+  <si>
+    <t>SM2L30</t>
+  </si>
+  <si>
+    <t>SM2 Lens Tube, 3" Thread Depth</t>
+  </si>
+  <si>
+    <t>SM2E60</t>
+  </si>
+  <si>
+    <t>SM2 Series Extension Tube, 6"</t>
+  </si>
+  <si>
+    <t>Tube lens is inserted inside this tube</t>
+  </si>
+  <si>
+    <t>Objective is mounted on this tube using M2M40S adapter. Filter is mounted inside.</t>
+  </si>
+  <si>
+    <t>SM2M20</t>
+  </si>
+  <si>
+    <t>SM2 Lens Tube Without External Threads, 2" Thread Depth</t>
+  </si>
+  <si>
+    <t>Extends the SM2E60 and mounts to the SM2NFM2</t>
+  </si>
+  <si>
+    <t>Adapter-D37mm-SM2.stl</t>
+  </si>
+  <si>
+    <t>SM2 adapter to for quadband filter, attaches to SM2 retaining ring</t>
+  </si>
+  <si>
+    <t>Filter diameter 37 mm for historical reasons. The standard 25 mm diameter filter will do.</t>
+  </si>
+  <si>
+    <t>Works better with Olympus SWTLU-C tube lens</t>
+  </si>
+  <si>
+    <t>Works best with the Mitutoyo MT-1 tube lens</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Need to design compact motorized turret</t>
+  </si>
+  <si>
+    <t>Machined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1551,6 +1605,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1649,7 +1722,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1672,7 +1745,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1716,6 +1788,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2103,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2208,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2182,32 +2259,32 @@
         <v>12350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>25000</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <f>D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2236,7 +2313,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2252,54 +2329,54 @@
         <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
         <v>1008062</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>0</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>7400</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <f>E10*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="I10" s="35" t="s">
+      <c r="G10" s="45"/>
+      <c r="I10" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>0</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>20000</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="I11" s="35" t="s">
-        <v>371</v>
+      <c r="G11" s="45"/>
+      <c r="I11" s="34" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2330,175 +2407,175 @@
         <v>5254</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37">
-        <v>1</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="D14" s="36">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23">
         <v>1807</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="37">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23">
         <v>132</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="47">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" s="37" t="s">
+    <row r="16" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="37">
-        <v>1</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="D16" s="36">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23">
         <v>250</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="47">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="37">
-        <v>1</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="D17" s="36">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23">
         <v>1807</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="47">
         <f t="shared" si="0"/>
         <v>1807</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H17" s="37" t="s">
+      <c r="G17" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="I17" s="36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="37">
-        <v>1</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="D18" s="36">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23">
         <v>200</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="47">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I18" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    </row>
+    <row r="19" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23">
         <v>1939</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="47">
         <f t="shared" si="0"/>
         <v>1939</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>282</v>
+        <v>289</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2522,10 +2599,10 @@
         <v>110</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,10 +2626,10 @@
         <v>2450</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2576,10 +2653,10 @@
         <v>4800</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2603,28 +2680,28 @@
         <v>870</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -2637,21 +2714,21 @@
         <v>140</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
@@ -2664,21 +2741,21 @@
         <v>216</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -2691,21 +2768,21 @@
         <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2718,21 +2795,21 @@
         <v>29</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="C29" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2745,21 +2822,21 @@
         <v>195</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>324</v>
-      </c>
       <c r="B30" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2772,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2806,7 +2883,7 @@
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2895,30 +2972,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+    <row r="39" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" s="37">
+      <c r="D39" s="36">
         <v>2</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="38">
         <v>13</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="47">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="36" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2945,43 +3022,43 @@
       <c r="G40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="37">
+    <row r="41" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="36">
         <v>2</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="38">
         <v>18</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="47">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>50</v>
@@ -3006,7 +3083,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>91863</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3029,1067 +3106,1067 @@
         <v>43</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+    <row r="44" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="37">
+      <c r="B44" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="36">
         <v>2</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="38">
         <v>31</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="47">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="H44" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="I44" s="37" t="s">
+      <c r="H44" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+      <c r="B45" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="41">
+      <c r="D45" s="40">
         <v>10</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="41">
         <v>16</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="48">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="40" t="s">
+      <c r="H45" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D46" s="41">
+      <c r="B46" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="40">
         <v>2</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>41</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="48">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="H46" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="I46" s="41" t="s">
+      <c r="H46" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="B47" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="B47" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="37">
+      <c r="D47" s="36">
         <v>2</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="38">
         <v>99</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="47">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="I47" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="37" t="s">
+    </row>
+    <row r="48" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="B48" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="41">
+      <c r="D48" s="40">
         <v>4</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>189</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="48">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="I48" s="41" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+      <c r="B49" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B49" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="41">
+      <c r="D49" s="40">
         <v>4</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="41">
         <v>110</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="48">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="H49" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="I49" s="41" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="H49" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="37">
+      <c r="D50" s="36">
         <v>4</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="38">
         <v>13</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="47">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="H50" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="H50" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B51" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="37">
+      <c r="D51" s="36">
         <v>2</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="38">
         <v>8</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="47">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H51" s="37" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="H51" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="36">
         <v>4</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="38">
         <v>7</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="47">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H52" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="H52" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D53" s="37">
+      <c r="D53" s="36">
         <v>6</v>
       </c>
-      <c r="E53" s="39">
+      <c r="E53" s="38">
         <v>5</v>
       </c>
-      <c r="F53" s="48">
+      <c r="F53" s="47">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H53" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="H53" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="B54" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" s="37">
+      <c r="D54" s="36">
         <v>4</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="38">
         <v>6</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="47">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H54" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+      <c r="H54" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="37">
+      <c r="D55" s="36">
         <v>4</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="38">
         <v>5</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="47">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H55" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+      <c r="H55" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="38" t="s">
+      <c r="B56" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="36">
         <v>2</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="38">
         <v>5</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="47">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H56" s="37" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
+      <c r="H56" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="D57" s="41">
+      <c r="D57" s="40">
         <v>2</v>
       </c>
-      <c r="E57" s="42">
+      <c r="E57" s="41">
         <v>398</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="48">
         <f t="shared" si="2"/>
         <v>796</v>
       </c>
-      <c r="H57" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="D58" s="41">
+      <c r="H57" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="D58" s="40">
         <v>2</v>
       </c>
-      <c r="E58" s="42">
-        <v>1</v>
-      </c>
-      <c r="F58" s="49">
+      <c r="E58" s="41">
+        <v>1</v>
+      </c>
+      <c r="F58" s="48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H58" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="I58" s="41" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="H58" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B59" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D59" s="41">
+      <c r="D59" s="40">
         <v>2</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="41">
         <v>30</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="48">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H59" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="I59" s="41" t="s">
+      <c r="H59" s="40" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="D60" s="37">
+      <c r="I59" s="40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" s="36">
         <v>2</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E60" s="38">
         <v>36</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="47">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="H60" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="D61" s="37">
+      <c r="H60" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61" s="36">
         <v>2</v>
       </c>
-      <c r="E61" s="39">
+      <c r="E61" s="38">
         <v>2104</v>
       </c>
-      <c r="F61" s="48">
+      <c r="F61" s="47">
         <f t="shared" ref="F61:F73" si="3">E61*D61</f>
         <v>4208</v>
       </c>
-      <c r="H61" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="38" t="s">
+      <c r="H61" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I61" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="37">
+    </row>
+    <row r="62" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D62" s="36">
         <v>2</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="38">
         <v>82</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="47">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="H62" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="D63" s="37">
-        <v>1</v>
-      </c>
-      <c r="E63" s="39">
+      <c r="H62" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="36">
+        <v>1</v>
+      </c>
+      <c r="E63" s="38">
         <v>495</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F63" s="47">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="H63" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D64" s="37">
+      <c r="H63" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" s="36">
         <v>0</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="38">
         <v>390</v>
       </c>
-      <c r="F64" s="48">
+      <c r="F64" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H64" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I64" s="37" t="s">
+      <c r="H64" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="D65" s="37">
+      <c r="B65" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="D65" s="36">
         <v>14</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="38">
         <v>20</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="47">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="H65" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I65" s="43" t="s">
+      <c r="H65" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I65" s="42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" s="37" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="D66" s="37">
-        <v>1</v>
-      </c>
-      <c r="E66" s="39">
+      <c r="D66" s="36">
+        <v>1</v>
+      </c>
+      <c r="E66" s="38">
         <v>10</v>
       </c>
-      <c r="F66" s="48">
+      <c r="F66" s="47">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H66" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I66" s="37" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D67" s="37">
+      <c r="H66" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" s="36">
         <v>2</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E67" s="38">
         <v>5</v>
       </c>
-      <c r="F67" s="48">
+      <c r="F67" s="47">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H67" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I67" s="37" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="D68" s="37">
+      <c r="H67" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" s="36">
         <v>2</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="38">
         <v>62</v>
       </c>
-      <c r="F68" s="48">
+      <c r="F68" s="47">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="H68" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I68" s="37" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>413</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="D69" s="37">
+      <c r="H68" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="D69" s="36">
         <v>8</v>
       </c>
-      <c r="E69" s="39">
-        <v>1</v>
-      </c>
-      <c r="F69" s="48">
+      <c r="E69" s="38">
+        <v>1</v>
+      </c>
+      <c r="F69" s="47">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H69" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I69" s="37" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="D70" s="37">
+      <c r="H69" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="D70" s="36">
         <v>6</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="38">
         <v>6</v>
       </c>
-      <c r="F70" s="48">
+      <c r="F70" s="47">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="H70" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="D71" s="37">
+      <c r="H70" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D71" s="36">
         <v>2</v>
       </c>
-      <c r="E71" s="39">
-        <v>1</v>
-      </c>
-      <c r="F71" s="48">
+      <c r="E71" s="38">
+        <v>1</v>
+      </c>
+      <c r="F71" s="47">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H71" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I71" s="37" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="D72" s="37">
-        <v>1</v>
-      </c>
-      <c r="E72" s="39">
+      <c r="H71" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I71" s="36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="D72" s="36">
+        <v>1</v>
+      </c>
+      <c r="E72" s="38">
         <v>2</v>
       </c>
-      <c r="F72" s="48">
+      <c r="F72" s="47">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H72" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="D73" s="37">
-        <v>1</v>
-      </c>
-      <c r="E73" s="39">
+      <c r="H72" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="D73" s="36">
+        <v>1</v>
+      </c>
+      <c r="E73" s="38">
         <v>15</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F73" s="47">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="I73" s="37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="38" t="s">
+      <c r="B74" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="B74" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" s="37">
+      <c r="D74" s="36">
         <v>2</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="38">
         <v>25</v>
       </c>
-      <c r="F74" s="48">
+      <c r="F74" s="47">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H74" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="H74" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="B75" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="D75" s="37">
+      <c r="D75" s="36">
         <v>2</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="38">
         <v>35</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="47">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H75" s="37" t="s">
+      <c r="H75" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="J75" s="44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I75" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="J75" s="45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="D76" s="37">
+      <c r="B76" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="36">
         <v>2</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E76" s="38">
         <v>92</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F76" s="47">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="H76" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="I76" s="37" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" s="37">
+      <c r="H76" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="D77" s="36">
         <v>2</v>
       </c>
-      <c r="E77" s="39">
-        <v>1</v>
-      </c>
-      <c r="F77" s="48">
+      <c r="E77" s="38">
+        <v>1</v>
+      </c>
+      <c r="F77" s="47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H77" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="I77" s="37" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="48"/>
-    </row>
-    <row r="79" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="48"/>
-    </row>
-    <row r="80" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="48"/>
+      <c r="H77" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="47"/>
+    </row>
+    <row r="79" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="47"/>
+    </row>
+    <row r="80" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="47"/>
     </row>
     <row r="81" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
+    <row r="82" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="37">
-        <v>1</v>
-      </c>
-      <c r="E82" s="39"/>
-      <c r="F82" s="48"/>
-      <c r="I82" s="37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="D83" s="37">
-        <v>1</v>
-      </c>
-      <c r="E83" s="39">
+      <c r="D82" s="36">
+        <v>1</v>
+      </c>
+      <c r="E82" s="38"/>
+      <c r="F82" s="47"/>
+      <c r="I82" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="36">
+        <v>1</v>
+      </c>
+      <c r="E83" s="38">
         <v>63</v>
       </c>
-      <c r="F83" s="48">
+      <c r="F83" s="47">
         <f>D83*E83</f>
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" s="37">
+    <row r="84" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D84" s="36">
         <v>2</v>
       </c>
-      <c r="E84" s="39">
+      <c r="E84" s="38">
         <v>69</v>
       </c>
-      <c r="F84" s="48">
+      <c r="F84" s="47">
         <f>D84*E84</f>
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B85" s="37" t="s">
+    <row r="85" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="C85" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="D85" s="37">
-        <v>1</v>
-      </c>
-      <c r="E85" s="39">
+      <c r="D85" s="36">
+        <v>1</v>
+      </c>
+      <c r="E85" s="38">
         <v>10</v>
       </c>
-      <c r="F85" s="48">
+      <c r="F85" s="47">
         <f>D85*E85</f>
         <v>10</v>
       </c>
-      <c r="I85" s="37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
+      <c r="I85" s="36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="37">
-        <v>1</v>
-      </c>
-      <c r="E86" s="39"/>
-      <c r="F86" s="48"/>
-      <c r="I86" s="37" t="s">
-        <v>305</v>
+      <c r="D86" s="36">
+        <v>1</v>
+      </c>
+      <c r="E86" s="38"/>
+      <c r="F86" s="47"/>
+      <c r="I86" s="36" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>14</v>
@@ -4114,13 +4191,13 @@
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -4142,13 +4219,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -4169,42 +4246,42 @@
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D92" s="3">
         <v>1</v>
       </c>
-      <c r="I92" s="37" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="I92" s="36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="F93" s="50"/>
+      <c r="F93" s="49"/>
     </row>
     <row r="94" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="50"/>
+      <c r="F94" s="49"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
@@ -4223,46 +4300,49 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-    </row>
-    <row r="97" spans="1:9" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
+    <row r="96" spans="1:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+    </row>
+    <row r="97" spans="1:9" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C97" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="B97" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C97" s="54" t="s">
-        <v>400</v>
-      </c>
-      <c r="D97" s="31">
-        <v>1</v>
-      </c>
-      <c r="E97" s="32">
+      <c r="D97" s="30">
+        <v>1</v>
+      </c>
+      <c r="E97" s="31">
         <v>912</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F97" s="31">
         <f>E97*D97</f>
         <v>912</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I97" s="30" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C98" s="54" t="s">
         <v>399</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C98" s="55" t="s">
-        <v>401</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
@@ -4270,24 +4350,27 @@
       <c r="E98" s="5">
         <v>837</v>
       </c>
-      <c r="F98" s="32">
+      <c r="F98" s="31">
         <f t="shared" ref="F98:F102" si="5">E98*D98</f>
         <v>837</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="31"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="3" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C99" s="55" t="s">
-        <v>402</v>
+      <c r="A99" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>400</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
@@ -4295,24 +4378,27 @@
       <c r="E99" s="5">
         <v>1540</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F99" s="31">
         <f t="shared" si="5"/>
         <v>1540</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="31"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="3" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C100" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C100" s="54" t="s">
+        <v>402</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -4320,24 +4406,27 @@
       <c r="E100" s="5">
         <v>1026</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F100" s="31">
         <f t="shared" si="5"/>
         <v>1026</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="31"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="3" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C101" s="56" t="s">
-        <v>407</v>
+        <v>404</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" s="55" t="s">
+        <v>405</v>
       </c>
       <c r="D101" s="3">
         <v>4</v>
@@ -4345,24 +4434,24 @@
       <c r="E101" s="5">
         <v>1</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F101" s="31">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="31"/>
+      <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C102" s="56" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="55" t="s">
+        <v>408</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
@@ -4370,191 +4459,216 @@
       <c r="E102" s="5">
         <v>60</v>
       </c>
-      <c r="F102" s="32">
+      <c r="F102" s="31">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="31"/>
-    </row>
-    <row r="103" spans="1:9" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
+      <c r="H102" s="30"/>
+    </row>
+    <row r="103" spans="1:9" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
     </row>
     <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C104" s="57" t="s">
-        <v>422</v>
+        <v>419</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>440</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
       </c>
       <c r="E104" s="5">
-        <v>525</v>
+        <v>752</v>
       </c>
       <c r="F104" s="5">
         <f>D104*E104</f>
-        <v>525</v>
+        <v>752</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C105" s="57" t="s">
-        <v>425</v>
+        <v>442</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D105" s="3">
         <v>1</v>
       </c>
       <c r="E105" s="5">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" ref="F105:F113" si="6">D105*E105</f>
-        <v>214</v>
+        <f t="shared" ref="F105:F111" si="6">D105*E105</f>
+        <v>1</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I105" s="3" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B106" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B106" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
       </c>
       <c r="E106" s="5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F106" s="5">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>68</v>
+        <v>453</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>279</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
       </c>
       <c r="E107" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B108" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="5">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F108" s="5">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="31"/>
-    </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>438</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>32</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
+        <v>112</v>
       </c>
       <c r="F110" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I110" s="3" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>68</v>
+        <v>389</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>458</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D111" s="3">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="F111" s="5">
         <f t="shared" si="6"/>
@@ -4563,455 +4677,458 @@
       <c r="G111" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>391</v>
+      <c r="I111" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>437</v>
+        <v>65</v>
       </c>
       <c r="D113" s="3">
         <v>1</v>
       </c>
+      <c r="E113" s="5">
+        <v>3582</v>
+      </c>
       <c r="F113" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>E113*D113</f>
+        <v>3582</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5">
+        <v>1630</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" ref="F114:F122" si="7">E114*D114</f>
+        <v>1630</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
       </c>
       <c r="E115" s="5">
-        <v>3582</v>
+        <v>886</v>
       </c>
       <c r="F115" s="5">
-        <f>E115*D115</f>
-        <v>3582</v>
+        <f t="shared" si="7"/>
+        <v>886</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
       </c>
       <c r="E116" s="5">
-        <v>1630</v>
+        <v>163</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" ref="F116:F124" si="7">E116*D116</f>
-        <v>1630</v>
+        <f t="shared" si="7"/>
+        <v>163</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
       </c>
       <c r="E117" s="5">
-        <v>886</v>
+        <v>11</v>
       </c>
       <c r="F117" s="5">
         <f t="shared" si="7"/>
-        <v>886</v>
+        <v>11</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
       </c>
       <c r="E118" s="5">
-        <v>163</v>
+        <v>520</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="7"/>
-        <v>163</v>
+        <f>E118*D118</f>
+        <v>520</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D119" s="3">
         <v>1</v>
       </c>
       <c r="E119" s="5">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="7"/>
-        <v>11</v>
+        <f>E119*D119</f>
+        <v>193</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B120" s="3" t="s">
+    <row r="120" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D120" s="3">
-        <v>1</v>
-      </c>
-      <c r="E120" s="5">
-        <v>520</v>
-      </c>
-      <c r="F120" s="5">
-        <f>E120*D120</f>
-        <v>520</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-      <c r="E121" s="5">
-        <v>193</v>
-      </c>
-      <c r="F121" s="5">
-        <f>E121*D121</f>
-        <v>193</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B122" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C122" s="35" t="s">
+      <c r="C120" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D122" s="35">
+      <c r="D120" s="34">
         <v>0</v>
       </c>
-      <c r="E122" s="36">
+      <c r="E120" s="35">
         <v>2800</v>
       </c>
-      <c r="F122" s="36">
+      <c r="F120" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G122" s="35" t="s">
+      <c r="G120" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I122" s="35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="B123" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="D123" s="37">
+      <c r="I120" s="34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D121" s="36">
         <v>10</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E121" s="47">
         <v>12</v>
       </c>
-      <c r="F123" s="48">
+      <c r="F121" s="47">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="G123" s="37" t="s">
+      <c r="G121" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I123" s="37" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="B124" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="D124" s="37">
-        <v>1</v>
-      </c>
-      <c r="E124" s="48">
+      <c r="I121" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D122" s="36">
+        <v>1</v>
+      </c>
+      <c r="E122" s="47">
         <v>14</v>
       </c>
-      <c r="F124" s="48">
+      <c r="F122" s="47">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="G124" s="37" t="s">
+      <c r="G122" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I124" s="37" t="s">
-        <v>361</v>
+      <c r="I122" s="36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="3">
+        <v>4</v>
+      </c>
+      <c r="E123" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="F123" s="5">
+        <f>E123*D123</f>
+        <v>61</v>
+      </c>
+      <c r="G123" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10</v>
+      </c>
+      <c r="E124" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F124" s="5">
+        <f>E124*D124</f>
+        <v>165</v>
+      </c>
+      <c r="G124" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D125" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E125" s="5">
-        <v>15.25</v>
+        <v>24</v>
       </c>
       <c r="F125" s="5">
         <f>E125*D125</f>
-        <v>61</v>
-      </c>
-      <c r="G125" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G125" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D126" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E126" s="5">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="F126" s="5">
         <f>E126*D126</f>
-        <v>165</v>
-      </c>
-      <c r="G126" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G126" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D127" s="3">
-        <v>10</v>
-      </c>
-      <c r="E127" s="5">
-        <v>24</v>
-      </c>
-      <c r="F127" s="5">
-        <f>E127*D127</f>
-        <v>240</v>
-      </c>
-      <c r="G127" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D128" s="3">
-        <v>6</v>
-      </c>
-      <c r="E128" s="5">
-        <v>24</v>
-      </c>
-      <c r="F128" s="5">
-        <f>E128*D128</f>
-        <v>144</v>
-      </c>
-      <c r="G128" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E129" s="48"/>
-      <c r="F129" s="48"/>
-    </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
+    <row r="127" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+    </row>
+    <row r="130" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="C130" s="7"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>488</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" ref="F131:F152" si="8">E131*D131</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5">
+        <v>184</v>
+      </c>
+      <c r="F132" s="5">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
       </c>
       <c r="E133" s="5">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" ref="F133:F154" si="8">E133*D133</f>
-        <v>488</v>
+        <f t="shared" si="8"/>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
@@ -5026,128 +5143,134 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
       </c>
       <c r="E135" s="5">
-        <v>76</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F135" s="5">
         <f t="shared" si="8"/>
-        <v>76</v>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D136" s="3">
         <v>1</v>
       </c>
       <c r="E136" s="5">
-        <v>184</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F136" s="5">
         <f t="shared" si="8"/>
-        <v>184</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D137" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" s="5">
-        <v>94.180155999999997</v>
+        <v>21.21</v>
       </c>
       <c r="F137" s="5">
         <f t="shared" si="8"/>
-        <v>94.180155999999997</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D138" s="3">
         <v>1</v>
       </c>
       <c r="E138" s="5">
-        <v>36.799999999999997</v>
+        <v>304.75</v>
       </c>
       <c r="F138" s="5">
         <f t="shared" si="8"/>
-        <v>36.799999999999997</v>
+        <v>304.75</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D139" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" s="5">
-        <v>21.21</v>
+        <v>148.21</v>
       </c>
       <c r="F139" s="5">
         <f t="shared" si="8"/>
-        <v>42.42</v>
+        <v>148.21</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
       </c>
       <c r="E140" s="5">
-        <v>304.75</v>
+        <v>348.45</v>
       </c>
       <c r="F140" s="5">
         <f t="shared" si="8"/>
-        <v>304.75</v>
+        <v>348.45</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>87</v>
@@ -5155,755 +5278,747 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D141" s="3">
         <v>1</v>
       </c>
       <c r="E141" s="5">
-        <v>148.21</v>
+        <v>60.95</v>
       </c>
       <c r="F141" s="5">
         <f t="shared" si="8"/>
-        <v>148.21</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>87</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
       </c>
       <c r="E142" s="5">
-        <v>348.45</v>
+        <v>34.5</v>
       </c>
       <c r="F142" s="5">
         <f t="shared" si="8"/>
-        <v>348.45</v>
+        <v>34.5</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D143" s="3">
         <v>1</v>
       </c>
       <c r="E143" s="5">
-        <v>60.95</v>
+        <v>51.45</v>
       </c>
       <c r="F143" s="5">
         <f t="shared" si="8"/>
-        <v>60.95</v>
+        <v>51.45</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D144" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" s="5">
-        <v>34.5</v>
+        <v>13.8</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" si="8"/>
-        <v>34.5</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>96</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
       </c>
       <c r="E145" s="5">
-        <v>51.45</v>
+        <v>19.09</v>
       </c>
       <c r="F145" s="5">
         <f t="shared" si="8"/>
-        <v>51.45</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>96</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D146" s="3">
         <v>2</v>
       </c>
       <c r="E146" s="5">
-        <v>13.8</v>
+        <v>40.51</v>
       </c>
       <c r="F146" s="5">
         <f t="shared" si="8"/>
-        <v>27.6</v>
+        <v>81.02</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D147" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" s="5">
-        <v>19.09</v>
+        <v>83.598116000000005</v>
       </c>
       <c r="F147" s="5">
         <f t="shared" si="8"/>
-        <v>19.09</v>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D148" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E148" s="5">
-        <v>40.51</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="F148" s="5">
         <f t="shared" si="8"/>
-        <v>81.02</v>
+        <v>280.416</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D149" s="3">
         <v>2</v>
       </c>
       <c r="E149" s="5">
-        <v>83.598116000000005</v>
+        <v>28.75</v>
       </c>
       <c r="F149" s="5">
         <f t="shared" si="8"/>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>96</v>
+        <v>57.5</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D150" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E150" s="5">
-        <v>70.103999999999999</v>
+        <v>38.872799999999998</v>
       </c>
       <c r="F150" s="5">
         <f t="shared" si="8"/>
-        <v>280.416</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>77.745599999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D151" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" s="5">
-        <v>28.75</v>
+        <v>205</v>
       </c>
       <c r="F151" s="5">
         <f t="shared" si="8"/>
-        <v>57.5</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>113</v>
+        <v>205</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="B152" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D152" s="3">
         <v>2</v>
       </c>
       <c r="E152" s="5">
-        <v>38.872799999999998</v>
+        <v>12</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="8"/>
-        <v>77.745599999999996</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D153" s="3">
-        <v>1</v>
-      </c>
-      <c r="E153" s="5">
-        <v>205</v>
-      </c>
-      <c r="F153" s="5">
-        <f t="shared" si="8"/>
-        <v>205</v>
-      </c>
-      <c r="I153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D154" s="3">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="10"/>
+    </row>
+    <row r="154" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D155" s="3">
+        <v>4</v>
+      </c>
+      <c r="E155" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" ref="F155:F171" si="9">E155*D155</f>
+        <v>66</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D156" s="3">
         <v>2</v>
       </c>
-      <c r="E154" s="5">
-        <v>12</v>
-      </c>
-      <c r="F154" s="5">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="10"/>
-    </row>
-    <row r="156" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F156" s="9"/>
+      <c r="E156" s="5">
+        <v>140</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D157" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E157" s="5">
-        <v>16.5</v>
+        <v>85.1</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" ref="F157:F173" si="9">E157*D157</f>
-        <v>66</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>123</v>
+        <f t="shared" si="9"/>
+        <v>85.1</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D158" s="3">
         <v>2</v>
       </c>
       <c r="E158" s="5">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F158" s="5">
         <f t="shared" si="9"/>
-        <v>280</v>
+        <v>64</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D159" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" s="5">
-        <v>85.1</v>
+        <v>51.58</v>
       </c>
       <c r="F159" s="5">
         <f t="shared" si="9"/>
-        <v>85.1</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D160" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" s="5">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F160" s="5">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D161" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" s="5">
-        <v>51.58</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F161" s="5">
         <f t="shared" si="9"/>
-        <v>103.16</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D162" s="3">
         <v>1</v>
       </c>
       <c r="E162" s="5">
-        <v>60</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>144</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D163" s="3">
         <v>1</v>
       </c>
       <c r="E163" s="5">
-        <v>136.47999999999999</v>
+        <v>60.95</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="9"/>
-        <v>136.47999999999999</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D164" s="3">
         <v>1</v>
       </c>
       <c r="E164" s="5">
-        <v>136.47999999999999</v>
+        <v>119.416</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="9"/>
-        <v>136.47999999999999</v>
+        <v>119.416</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D165" s="3">
         <v>1</v>
       </c>
       <c r="E165" s="5">
-        <v>60.95</v>
+        <v>105.8</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="9"/>
-        <v>60.95</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D166" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" s="5">
-        <v>119.416</v>
+        <v>119.6</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="9"/>
-        <v>119.416</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>153</v>
+        <v>367</v>
       </c>
       <c r="D167" s="3">
         <v>1</v>
       </c>
       <c r="E167" s="5">
-        <v>105.8</v>
+        <v>100</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="9"/>
-        <v>105.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D168" s="3">
         <v>2</v>
       </c>
       <c r="E168" s="5">
-        <v>119.6</v>
+        <v>92</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="9"/>
-        <v>239.2</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="D169" s="3">
         <v>1</v>
       </c>
       <c r="E169" s="5">
-        <v>100</v>
+        <v>96.23</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D170" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" s="5">
-        <v>92</v>
+        <v>102.44</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="9"/>
-        <v>184</v>
+        <v>102.44</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D171" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171" s="5">
-        <v>96.23</v>
+        <v>28</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="9"/>
-        <v>96.23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C172" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D172" s="3">
-        <v>1</v>
-      </c>
-      <c r="E172" s="5">
-        <v>102.44</v>
-      </c>
-      <c r="F172" s="5">
-        <f t="shared" si="9"/>
-        <v>102.44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C173" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D173" s="3">
-        <v>2</v>
-      </c>
-      <c r="E173" s="5">
-        <v>28</v>
-      </c>
-      <c r="F173" s="5">
-        <f t="shared" si="9"/>
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C174" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D174" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D176" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="7"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
+      <c r="C178" s="7"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J180" s="19" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D181" s="3">
         <v>2</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="J181" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -5911,16 +6026,16 @@
         <v>169</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D182" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J182" s="19" t="s">
         <v>177</v>
@@ -5930,88 +6045,84 @@
       <c r="B183" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="19" t="s">
-        <v>178</v>
+      <c r="C183" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I183" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J183" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D184" s="3">
+      <c r="J183" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="E186" s="5">
+        <v>518.5</v>
+      </c>
+      <c r="F186" s="5">
+        <f t="shared" ref="F186:F197" si="10">E186*D186</f>
+        <v>0</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D187" s="3">
         <v>2</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J184" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B185" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D185" s="3">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
+      <c r="E187" s="5">
+        <v>331</v>
+      </c>
+      <c r="F187" s="5">
+        <f t="shared" ref="F187" si="11">E187*D187</f>
+        <v>662</v>
+      </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D188" s="3">
         <v>0</v>
       </c>
       <c r="E188" s="5">
-        <v>518.5</v>
+        <v>764</v>
       </c>
       <c r="F188" s="5">
-        <f t="shared" ref="F188:F199" si="10">E188*D188</f>
+        <f t="shared" si="10"/>
         <v>0</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6019,17 +6130,20 @@
         <v>183</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="D189" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E189" s="5">
-        <v>331</v>
+        <v>816</v>
       </c>
       <c r="F189" s="5">
-        <f t="shared" ref="F189" si="11">E189*D189</f>
-        <v>662</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6043,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="5">
-        <v>764</v>
+        <v>952</v>
       </c>
       <c r="F190" s="5">
         <f t="shared" si="10"/>
@@ -6061,15 +6175,12 @@
         <v>0</v>
       </c>
       <c r="E191" s="5">
-        <v>816</v>
+        <v>99.5</v>
       </c>
       <c r="F191" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I191" s="3" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
@@ -6082,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="E192" s="5">
-        <v>952</v>
+        <v>128.5</v>
       </c>
       <c r="F192" s="5">
         <f t="shared" si="10"/>
@@ -6100,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E193" s="5">
-        <v>99.5</v>
+        <v>156</v>
       </c>
       <c r="F193" s="5">
         <f t="shared" si="10"/>
@@ -6118,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="5">
-        <v>128.5</v>
+        <v>184.5</v>
       </c>
       <c r="F194" s="5">
         <f t="shared" si="10"/>
@@ -6133,14 +6244,14 @@
         <v>351</v>
       </c>
       <c r="D195" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E195" s="5">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="F195" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
@@ -6151,14 +6262,14 @@
         <v>352</v>
       </c>
       <c r="D196" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E196" s="5">
-        <v>184.5</v>
+        <v>28</v>
       </c>
       <c r="F196" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
@@ -6169,59 +6280,23 @@
         <v>353</v>
       </c>
       <c r="D197" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E197" s="5">
-        <v>25</v>
+        <v>121.5</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D198" s="3">
-        <v>4</v>
-      </c>
-      <c r="E198" s="5">
-        <v>28</v>
-      </c>
-      <c r="F198" s="5">
-        <f t="shared" si="10"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D199" s="3">
-        <v>6</v>
-      </c>
-      <c r="E199" s="5">
-        <v>121.5</v>
-      </c>
-      <c r="F199" s="5">
-        <f t="shared" si="10"/>
         <v>729</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E202" s="20" t="s">
+    <row r="200" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E200" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F202" s="5">
-        <f>SUM(F3:F200)</f>
-        <v>97024.533987999996</v>
+      <c r="F200" s="5">
+        <f>SUM(F3:F198)</f>
+        <v>97126.533987999996</v>
       </c>
     </row>
   </sheetData>
@@ -6231,24 +6306,150 @@
     <hyperlink ref="C98" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
     <hyperlink ref="C99" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
     <hyperlink ref="C100" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
-    <hyperlink ref="C104" r:id="rId5" xr:uid="{54BFEC5E-01BD-448D-BEB4-DF34719378D8}"/>
-    <hyperlink ref="C105" r:id="rId6" xr:uid="{5D0C521A-A3A7-4015-ACE4-34768088AF0A}"/>
+    <hyperlink ref="C104" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{54BFEC5E-01BD-448D-BEB4-DF34719378D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A6:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" s="57" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1</v>
+      </c>
+      <c r="E7" s="60">
+        <v>525</v>
+      </c>
+      <c r="F7" s="60">
+        <f>D7*E7</f>
+        <v>525</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="57" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="57">
+        <v>1</v>
+      </c>
+      <c r="E8" s="60">
+        <v>214</v>
+      </c>
+      <c r="F8" s="60">
+        <f t="shared" ref="F8:F10" si="0">D8*E8</f>
+        <v>214</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="57" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" s="57">
+        <v>1</v>
+      </c>
+      <c r="E9" s="60">
+        <v>23</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="57" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="60">
+        <v>23</v>
+      </c>
+      <c r="F10" s="60">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{47E90902-2781-43B8-B25D-BA619CD65758}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{FD011529-5D8C-44BA-8321-CE0ABF6601E4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C3182E-F2B7-496C-B310-56A336625F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B6534A-1202-4442-92EF-AF6A682FC1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6312" yWindow="5664" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="501">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -969,9 +969,6 @@
   </si>
   <si>
     <t>See file RD-PDT-S-to-RC2-height40mm.ipt (.stl) for details.</t>
-  </si>
-  <si>
-    <t>5 positions available. Motorized filterwheel is useful when multiple bandpass filters are used during an acquisition. This helps separate emission spectra of the labels.</t>
   </si>
   <si>
     <t>Laser safety snap-on covers</t>
@@ -1311,9 +1308,6 @@
   </si>
   <si>
     <t>F57-405</t>
-  </si>
-  <si>
-    <t>Detection: Filter wheel (OPTIONAL). A servo-driven filter wheel. ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm)</t>
   </si>
   <si>
     <t>UG-753-H75 40x40x75 fire-fused</t>
@@ -1520,12 +1514,6 @@
     <t>UG-753-H120</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20x20 mm</t>
-  </si>
-  <si>
-    <t>UG-751</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 30x30</t>
   </si>
   <si>
@@ -1548,6 +1536,63 @@
   </si>
   <si>
     <t>Large cuvette mount</t>
+  </si>
+  <si>
+    <t>UG-751-H75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20x20x75 mm</t>
+  </si>
+  <si>
+    <t>Detection: Filter wheel. A servo-driven filter wheel. ONLY for telecentric lenses or long-WD objectives (&gt; 75 mm), and 2-inch filters</t>
+  </si>
+  <si>
+    <t>5 filter positions. Motorized filterwheel is useful when multiple bandpass filters are used during an acquisition. This helps separate emission spectra of the labels.</t>
+  </si>
+  <si>
+    <t>Detection: Filter wheel</t>
+  </si>
+  <si>
+    <t>5-slot filter wheel for 25-mm filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWO EFW Mini 5 x 31 mm </t>
+  </si>
+  <si>
+    <t>Check local distributors (astronomy shops)</t>
+  </si>
+  <si>
+    <t>ZWO EFW-MINI</t>
+  </si>
+  <si>
+    <t>ZWO</t>
+  </si>
+  <si>
+    <t>25 mm filter adapter</t>
+  </si>
+  <si>
+    <t>Adapter to hold 25 mm filters in 31 mm slots</t>
+  </si>
+  <si>
+    <t>See /custom-parts/detection-accessories for printable 3D model</t>
+  </si>
+  <si>
+    <t>0.5" long SM2 lens tube</t>
+  </si>
+  <si>
+    <t>SM2L05</t>
+  </si>
+  <si>
+    <t>Adapter: Objective to filter wheel, via M2M40S thread adapter</t>
+  </si>
+  <si>
+    <t>SM2T2</t>
+  </si>
+  <si>
+    <t>SM2 (2.035"-40) Coupler, External Threads, 1/2" Long</t>
+  </si>
+  <si>
+    <t>Adapters for both sides of the ZWO EFW Mini filter, which has T-mount threads (M42)</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1898,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1873,6 +1917,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2260,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2458,7 @@
         <v>5254</v>
       </c>
       <c r="F10" s="5">
-        <f>E10*D10</f>
+        <f t="shared" ref="F10:F20" si="0">E10*D10</f>
         <v>5254</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2440,7 +2485,7 @@
         <v>1807</v>
       </c>
       <c r="F11" s="42">
-        <f>E11*D11</f>
+        <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -2467,7 +2512,7 @@
         <v>132</v>
       </c>
       <c r="F12" s="42">
-        <f>E12*D12</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="G12" s="32" t="s">
@@ -2479,10 +2524,10 @@
     </row>
     <row r="13" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>25</v>
@@ -2494,7 +2539,7 @@
         <v>250</v>
       </c>
       <c r="F13" s="42">
-        <f>E13*D13</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2521,7 +2566,7 @@
         <v>1807</v>
       </c>
       <c r="F14" s="42">
-        <f>E14*D14</f>
+        <f t="shared" si="0"/>
         <v>1807</v>
       </c>
       <c r="G14" s="32" t="s">
@@ -2551,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="F15" s="42">
-        <f>E15*D15</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2578,7 +2623,7 @@
         <v>1939</v>
       </c>
       <c r="F16" s="42">
-        <f>E16*D16</f>
+        <f t="shared" si="0"/>
         <v>1939</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -2605,7 +2650,7 @@
         <v>110</v>
       </c>
       <c r="F17" s="5">
-        <f>E17*D17</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2632,7 +2677,7 @@
         <v>2450</v>
       </c>
       <c r="F18" s="5">
-        <f>E18*D18</f>
+        <f t="shared" si="0"/>
         <v>2450</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -2659,7 +2704,7 @@
         <v>4800</v>
       </c>
       <c r="F19" s="5">
-        <f>E19*D19</f>
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -2686,7 +2731,7 @@
         <v>870</v>
       </c>
       <c r="F20" s="5">
-        <f>E20*D20</f>
+        <f t="shared" si="0"/>
         <v>870</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -2720,7 +2765,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="5">
-        <f>E22*D22</f>
+        <f t="shared" ref="F22:F27" si="1">E22*D22</f>
         <v>140</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -2747,7 +2792,7 @@
         <v>36</v>
       </c>
       <c r="F23" s="5">
-        <f>E23*D23</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -2774,7 +2819,7 @@
         <v>43</v>
       </c>
       <c r="F24" s="5">
-        <f>E24*D24</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -2801,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="5">
-        <f>E25*D25</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -2828,7 +2873,7 @@
         <v>195</v>
       </c>
       <c r="F26" s="5">
-        <f>E26*D26</f>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -2855,7 +2900,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="5">
-        <f>E27*D27</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -2871,7 +2916,7 @@
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -2915,7 +2960,7 @@
         <v>780</v>
       </c>
       <c r="F33" s="5">
-        <f>E33*D33</f>
+        <f t="shared" ref="F33:F38" si="2">E33*D33</f>
         <v>1560</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -2942,7 +2987,7 @@
         <v>280</v>
       </c>
       <c r="F34" s="5">
-        <f>E34*D34</f>
+        <f t="shared" si="2"/>
         <v>560</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -2972,7 +3017,7 @@
         <v>85</v>
       </c>
       <c r="F35" s="5">
-        <f>E35*D35</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -2999,7 +3044,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="42">
-        <f>E36*D36</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -3026,7 +3071,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="5">
-        <f>E37*D37</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -3038,7 +3083,7 @@
     </row>
     <row r="38" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>68</v>
@@ -3053,7 +3098,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="42">
-        <f>E38*D38</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -3065,7 +3110,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>210</v>
@@ -3109,7 +3154,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="5">
-        <f>E40*D40</f>
+        <f t="shared" ref="F40:F67" si="3">E40*D40</f>
         <v>800</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -3130,7 +3175,7 @@
         <v>167</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -3139,7 +3184,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5">
-        <f>E41*D41</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -3172,7 +3217,7 @@
         <v>35</v>
       </c>
       <c r="F42" s="42">
-        <f>E42*D42</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -3205,7 +3250,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="42">
-        <f>E43*D43</f>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -3220,13 +3265,13 @@
     </row>
     <row r="44" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>268</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D44" s="32">
         <v>2</v>
@@ -3235,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="42">
-        <f>E44*D44</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3245,7 +3290,7 @@
         <v>259</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3265,7 +3310,7 @@
         <v>31</v>
       </c>
       <c r="F45" s="42">
-        <f>E45*D45</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -3295,7 +3340,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="43">
-        <f>E46*D46</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -3325,7 +3370,7 @@
         <v>41</v>
       </c>
       <c r="F47" s="43">
-        <f>E47*D47</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -3355,7 +3400,7 @@
         <v>99</v>
       </c>
       <c r="F48" s="42">
-        <f>E48*D48</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -3385,7 +3430,7 @@
         <v>189</v>
       </c>
       <c r="F49" s="43">
-        <f>E49*D49</f>
+        <f t="shared" si="3"/>
         <v>756</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -3395,7 +3440,7 @@
         <v>228</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -3415,7 +3460,7 @@
         <v>110</v>
       </c>
       <c r="F50" s="43">
-        <f>E50*D50</f>
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -3425,7 +3470,7 @@
         <v>228</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="42">
-        <f>E51*D51</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -3475,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="F52" s="42">
-        <f>E52*D52</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -3502,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="42">
-        <f>E53*D53</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -3532,7 +3577,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="42">
-        <f>E54*D54</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -3562,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="42">
-        <f>E55*D55</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -3592,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="F56" s="42">
-        <f>E56*D56</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -3622,7 +3667,7 @@
         <v>5</v>
       </c>
       <c r="F57" s="42">
-        <f>E57*D57</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -3649,7 +3694,7 @@
         <v>398</v>
       </c>
       <c r="F58" s="43">
-        <f>E58*D58</f>
+        <f t="shared" si="3"/>
         <v>796</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -3664,13 +3709,13 @@
     </row>
     <row r="59" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>343</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>344</v>
       </c>
       <c r="D59" s="36">
         <v>2</v>
@@ -3679,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="43">
-        <f>E59*D59</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -3689,7 +3734,7 @@
         <v>253</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -3709,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="F60" s="43">
-        <f>E60*D60</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -3724,7 +3769,7 @@
     </row>
     <row r="61" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>68</v>
@@ -3739,7 +3784,7 @@
         <v>36</v>
       </c>
       <c r="F61" s="42">
-        <f>E61*D61</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -3749,18 +3794,18 @@
         <v>256</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>321</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>322</v>
       </c>
       <c r="D62" s="32">
         <v>2</v>
@@ -3769,7 +3814,7 @@
         <v>2104</v>
       </c>
       <c r="F62" s="42">
-        <f>E62*D62</f>
+        <f t="shared" si="3"/>
         <v>4208</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -3779,18 +3824,18 @@
         <v>256</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>324</v>
       </c>
       <c r="D63" s="32">
         <v>2</v>
@@ -3799,7 +3844,7 @@
         <v>82</v>
       </c>
       <c r="F63" s="42">
-        <f>E63*D63</f>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -3811,7 +3856,7 @@
     </row>
     <row r="64" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>68</v>
@@ -3826,7 +3871,7 @@
         <v>495</v>
       </c>
       <c r="F64" s="42">
-        <f>E64*D64</f>
+        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -3836,18 +3881,18 @@
         <v>256</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D65" s="32">
         <v>0</v>
@@ -3856,7 +3901,7 @@
         <v>390</v>
       </c>
       <c r="F65" s="42">
-        <f>E65*D65</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -3866,18 +3911,18 @@
         <v>256</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D66" s="32">
         <v>14</v>
@@ -3886,7 +3931,7 @@
         <v>20</v>
       </c>
       <c r="F66" s="42">
-        <f>E66*D66</f>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -3896,18 +3941,18 @@
         <v>256</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D67" s="32">
         <v>1</v>
@@ -3916,7 +3961,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="42">
-        <f>E67*D67</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -3926,7 +3971,7 @@
         <v>256</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4034,698 +4079,694 @@
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>414</v>
+    <row r="76" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
     <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>312</v>
+        <v>487</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>315</v>
+        <v>490</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>14</v>
+        <v>491</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>488</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
       </c>
       <c r="E78" s="5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F78" s="5">
         <f>E78*D78</f>
-        <v>250</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>15</v>
+        <v>200</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>316</v>
+        <v>492</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="D79" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="71">
+        <f>E79*D79</f>
+        <v>5</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
+        <v>26</v>
+      </c>
+      <c r="F80" s="71">
+        <f>E80*D80</f>
+        <v>26</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>37</v>
+      </c>
+      <c r="F81" s="71">
+        <f>E81*D81</f>
+        <v>37</v>
+      </c>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="D82" s="70">
+        <v>2</v>
+      </c>
+      <c r="E82" s="71">
+        <v>24</v>
+      </c>
+      <c r="F82" s="71">
+        <f>E82*D82</f>
+        <v>48</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="44"/>
+    </row>
+    <row r="84" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" s="44"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <v>625</v>
+      </c>
+      <c r="F85" s="5">
+        <f>E85*D85</f>
+        <v>625</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="5">
-        <f>E79*D79</f>
-        <v>13</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1</v>
-      </c>
-      <c r="E80" s="5">
-        <v>43</v>
-      </c>
-      <c r="F80" s="5">
-        <f>E80*D80</f>
-        <v>43</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F82" s="44"/>
-    </row>
-    <row r="83" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F83" s="44"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="5">
-        <v>625</v>
-      </c>
-      <c r="F84" s="5">
-        <f>E84*D84</f>
-        <v>625</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-    </row>
-    <row r="86" spans="1:9" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="B86" s="28" t="s">
+    <row r="86" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+    </row>
+    <row r="87" spans="1:9" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="C86" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="D86" s="28">
-        <v>1</v>
-      </c>
-      <c r="E86" s="29">
+      <c r="B87" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="D87" s="28">
+        <v>1</v>
+      </c>
+      <c r="E87" s="29">
         <v>912</v>
       </c>
-      <c r="F86" s="29">
-        <f>E86*D86</f>
+      <c r="F87" s="29">
+        <f t="shared" ref="F87:F92" si="4">E87*D87</f>
         <v>912</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="C87" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="5">
-        <v>837</v>
-      </c>
-      <c r="F87" s="29">
-        <f>E87*D87</f>
-        <v>837</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="28"/>
-      <c r="I87" s="3" t="s">
-        <v>436</v>
+      <c r="I87" s="28" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
       </c>
       <c r="E88" s="5">
-        <v>1540</v>
+        <v>837</v>
       </c>
       <c r="F88" s="29">
-        <f>E88*D88</f>
-        <v>1540</v>
+        <f t="shared" si="4"/>
+        <v>837</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>382</v>
+      <c r="A89" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C89" s="49" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
       </c>
       <c r="E89" s="5">
-        <v>1026</v>
+        <v>1540</v>
       </c>
       <c r="F89" s="29">
-        <f>E89*D89</f>
-        <v>1026</v>
+        <f t="shared" si="4"/>
+        <v>1540</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H89" s="28"/>
       <c r="I89" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="50" t="s">
-        <v>384</v>
+        <v>373</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>380</v>
       </c>
       <c r="D90" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90" s="5">
-        <v>1</v>
+        <v>1026</v>
       </c>
       <c r="F90" s="29">
-        <f>E90*D90</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1026</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H90" s="28"/>
+      <c r="I90" s="3" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D91" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E91" s="5">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F91" s="29">
-        <f>E91*D91</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="25" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
+        <v>60</v>
+      </c>
+      <c r="F92" s="29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="28"/>
+    </row>
+    <row r="93" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C94" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1</v>
-      </c>
-      <c r="E93" s="5">
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
         <v>752</v>
-      </c>
-      <c r="F93" s="5">
-        <f>D93*E93</f>
-        <v>752</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
-      <c r="E94" s="5">
-        <v>1</v>
       </c>
       <c r="F94" s="5">
         <f>D94*E94</f>
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I94" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
       </c>
       <c r="E95" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F95" s="5">
         <f>D95*E95</f>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>428</v>
-      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D96" s="3">
         <v>1</v>
       </c>
       <c r="E96" s="5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F96" s="5">
-        <v>1</v>
+        <f>D96*E96</f>
+        <v>36</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
       </c>
       <c r="E97" s="5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F97" s="5">
-        <f>D97*E97</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
       </c>
       <c r="E98" s="5">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F98" s="5">
         <f>D98*E98</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
       </c>
       <c r="E99" s="5">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F99" s="5">
         <f>D99*E99</f>
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>368</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>385</v>
+        <v>409</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <v>112</v>
       </c>
       <c r="F100" s="5">
         <f>D100*E100</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F101" s="5">
+        <f>D101*E101</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5">
-        <v>3582</v>
-      </c>
-      <c r="F102" s="5">
-        <f>E102*D102</f>
-        <v>3582</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="D103" s="3">
         <v>1</v>
       </c>
       <c r="E103" s="5">
-        <v>1630</v>
+        <v>3582</v>
       </c>
       <c r="F103" s="5">
-        <f>E103*D103</f>
-        <v>1630</v>
+        <f t="shared" ref="F103:F115" si="5">E103*D103</f>
+        <v>3582</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
       </c>
       <c r="E104" s="5">
-        <v>886</v>
+        <v>1630</v>
       </c>
       <c r="F104" s="5">
-        <f>E104*D104</f>
-        <v>886</v>
+        <f t="shared" si="5"/>
+        <v>1630</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D105" s="3">
         <v>1</v>
       </c>
       <c r="E105" s="5">
-        <v>163</v>
+        <v>886</v>
       </c>
       <c r="F105" s="5">
-        <f>E105*D105</f>
-        <v>163</v>
+        <f t="shared" si="5"/>
+        <v>886</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
       </c>
       <c r="E106" s="5">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F106" s="5">
-        <f>E106*D106</f>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>163</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="I106" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
       </c>
       <c r="E107" s="5">
-        <v>520</v>
+        <v>11</v>
       </c>
       <c r="F107" s="5">
-        <f>E107*D107</f>
-        <v>520</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>58</v>
@@ -4733,125 +4774,125 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="5">
-        <v>193</v>
+        <v>520</v>
       </c>
       <c r="F108" s="5">
-        <f>E108*D108</f>
-        <v>193</v>
+        <f t="shared" si="5"/>
+        <v>520</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="D109" s="32">
-        <v>10</v>
-      </c>
-      <c r="E109" s="42">
-        <v>12</v>
-      </c>
-      <c r="F109" s="42">
-        <f>E109*D109</f>
-        <v>120</v>
-      </c>
-      <c r="G109" s="32" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>193</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="5"/>
+        <v>193</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I109" s="32" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B110" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D110" s="32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E110" s="42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F110" s="42">
-        <f>E110*D110</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>58</v>
       </c>
       <c r="I110" s="32" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" s="3">
-        <v>4</v>
-      </c>
-      <c r="E111" s="5">
-        <v>15.25</v>
-      </c>
-      <c r="F111" s="5">
-        <f>E111*D111</f>
-        <v>61</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" s="32">
+        <v>1</v>
+      </c>
+      <c r="E111" s="42">
+        <v>14</v>
+      </c>
+      <c r="F111" s="42">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>58</v>
       </c>
+      <c r="I111" s="32" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D112" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E112" s="5">
-        <v>16.5</v>
+        <v>15.25</v>
       </c>
       <c r="F112" s="5">
-        <f>E112*D112</f>
-        <v>165</v>
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>58</v>
@@ -4859,23 +4900,23 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D113" s="3">
         <v>10</v>
       </c>
       <c r="E113" s="5">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="F113" s="5">
-        <f>E113*D113</f>
-        <v>240</v>
+        <f t="shared" si="5"/>
+        <v>165</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>58</v>
@@ -4883,176 +4924,179 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D114" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E114" s="5">
         <v>24</v>
       </c>
       <c r="F114" s="5">
-        <f>E114*D114</f>
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>240</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
-    </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="10"/>
-    </row>
-    <row r="118" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="3">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5">
+        <v>24</v>
+      </c>
+      <c r="F115" s="5">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="10"/>
+    </row>
+    <row r="119" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="3">
-        <v>4</v>
-      </c>
-      <c r="E119" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F119" s="5">
-        <f>E119*D119</f>
-        <v>66</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D120" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E120" s="5">
-        <v>85.1</v>
+        <v>16.5</v>
       </c>
       <c r="F120" s="5">
-        <f>E120*D120</f>
-        <v>85.1</v>
+        <f t="shared" ref="F120:F135" si="6">E120*D120</f>
+        <v>66</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D121" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="5">
-        <v>32</v>
+        <v>85.1</v>
       </c>
       <c r="F121" s="5">
-        <f>E121*D121</f>
-        <v>64</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>138</v>
+        <f t="shared" si="6"/>
+        <v>85.1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D122" s="3">
         <v>2</v>
       </c>
       <c r="E122" s="5">
-        <v>51.58</v>
+        <v>32</v>
       </c>
       <c r="F122" s="5">
-        <f>E122*D122</f>
-        <v>103.16</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D123" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" s="5">
-        <v>60</v>
+        <v>51.58</v>
       </c>
       <c r="F123" s="5">
-        <f>E123*D123</f>
-        <v>60</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>143</v>
+        <f t="shared" si="6"/>
+        <v>103.16</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
       </c>
       <c r="E124" s="5">
-        <v>136.47999999999999</v>
+        <v>60</v>
       </c>
       <c r="F124" s="5">
-        <f>E124*D124</f>
-        <v>136.47999999999999</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5063,7 +5107,7 @@
         <v>68</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D125" s="3">
         <v>1</v>
@@ -5072,378 +5116,400 @@
         <v>136.47999999999999</v>
       </c>
       <c r="F125" s="5">
-        <f>E125*D125</f>
+        <f t="shared" si="6"/>
         <v>136.47999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
       </c>
       <c r="E126" s="5">
-        <v>60.95</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F126" s="5">
-        <f>E126*D126</f>
-        <v>60.95</v>
+        <f t="shared" si="6"/>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
       </c>
       <c r="E127" s="5">
-        <v>119.416</v>
+        <v>60.95</v>
       </c>
       <c r="F127" s="5">
-        <f>E127*D127</f>
-        <v>119.416</v>
+        <f t="shared" si="6"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D128" s="3">
         <v>1</v>
       </c>
       <c r="E128" s="5">
-        <v>105.8</v>
+        <v>119.416</v>
       </c>
       <c r="F128" s="5">
-        <f>E128*D128</f>
-        <v>105.8</v>
+        <f t="shared" si="6"/>
+        <v>119.416</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D129" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" s="5">
-        <v>119.6</v>
+        <v>105.8</v>
       </c>
       <c r="F129" s="5">
-        <f>E129*D129</f>
-        <v>239.2</v>
+        <f t="shared" si="6"/>
+        <v>105.8</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>347</v>
+        <v>154</v>
       </c>
       <c r="D130" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" s="5">
-        <v>100</v>
+        <v>119.6</v>
       </c>
       <c r="F130" s="5">
-        <f>E130*D130</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>239.2</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="D131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" s="5">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F131" s="5">
-        <f>E131*D131</f>
-        <v>184</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D132" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="5">
-        <v>96.23</v>
+        <v>92</v>
       </c>
       <c r="F132" s="5">
-        <f>E132*D132</f>
-        <v>96.23</v>
+        <f t="shared" si="6"/>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
       </c>
       <c r="E133" s="5">
-        <v>102.44</v>
+        <v>96.23</v>
       </c>
       <c r="F133" s="5">
-        <f>E133*D133</f>
-        <v>102.44</v>
+        <f t="shared" si="6"/>
+        <v>96.23</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
+        <v>102.44</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="6"/>
+        <v>102.44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B135" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D135" s="3">
         <v>2</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E135" s="5">
         <v>28</v>
       </c>
-      <c r="F134" s="5">
-        <f>E134*D134</f>
+      <c r="F135" s="5">
+        <f t="shared" si="6"/>
         <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C135" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D135" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D136" s="3">
-        <v>1</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C138" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D137" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="71"/>
-      <c r="B140" s="71" t="s">
+      <c r="B140" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="70"/>
+      <c r="B141" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C140" s="73" t="s">
+      <c r="C141" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="D140" s="71">
+      <c r="D141" s="70">
         <v>4</v>
       </c>
-      <c r="E140" s="71">
+      <c r="E141" s="70">
         <v>40</v>
       </c>
-      <c r="F140" s="71">
-        <f>E140*D140</f>
+      <c r="F141" s="70">
+        <f>E141*D141</f>
         <v>160</v>
       </c>
-      <c r="G140" s="71" t="s">
-        <v>485</v>
-      </c>
-      <c r="H140" s="71"/>
-      <c r="I140" s="71" t="s">
+      <c r="G141" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="H141" s="70"/>
+      <c r="I141" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="J140" s="73" t="s">
+      <c r="J141" s="72" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="71" t="s">
+    <row r="142" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="C141" s="71" t="s">
-        <v>415</v>
-      </c>
-      <c r="D141" s="71">
+      <c r="C142" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" s="70">
         <v>2</v>
       </c>
-      <c r="E141" s="72">
+      <c r="E142" s="71">
         <v>331</v>
       </c>
-      <c r="F141" s="72">
-        <f>E141*D141</f>
+      <c r="F142" s="71">
+        <f>E142*D142</f>
         <v>662</v>
       </c>
-      <c r="G141" s="71" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="71" t="s">
+      <c r="G142" s="70" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="C142" s="71" t="s">
+      <c r="C143" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="D143" s="70">
+        <v>4</v>
+      </c>
+      <c r="E143" s="71">
+        <v>25</v>
+      </c>
+      <c r="F143" s="71">
+        <f>E143*D143</f>
+        <v>100</v>
+      </c>
+      <c r="G143" s="70" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="D142" s="71">
+      <c r="D144" s="70">
         <v>4</v>
       </c>
-      <c r="E142" s="72">
-        <v>25</v>
-      </c>
-      <c r="F142" s="72">
-        <f>E142*D142</f>
-        <v>100</v>
-      </c>
-      <c r="G142" s="71" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="71" t="s">
+      <c r="E144" s="71">
+        <v>28</v>
+      </c>
+      <c r="F144" s="71">
+        <f>E144*D144</f>
+        <v>112</v>
+      </c>
+      <c r="G144" s="70" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="C143" s="71" t="s">
+      <c r="C145" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="D143" s="71">
-        <v>4</v>
-      </c>
-      <c r="E143" s="72">
-        <v>28</v>
-      </c>
-      <c r="F143" s="72">
-        <f>E143*D143</f>
-        <v>112</v>
-      </c>
-      <c r="G143" s="71" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="C144" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="D144" s="71">
+      <c r="D145" s="70">
         <v>6</v>
       </c>
-      <c r="E144" s="72">
+      <c r="E145" s="71">
         <v>121.5</v>
       </c>
-      <c r="F144" s="72">
-        <f>E144*D144</f>
+      <c r="F145" s="71">
+        <f>E145*D145</f>
         <v>729</v>
       </c>
-      <c r="G144" s="71" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E147" s="20" t="s">
+      <c r="G145" s="70" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E148" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F147" s="5">
-        <f>SUM(F3:F145)</f>
-        <v>93856.255999999994</v>
+      <c r="F148" s="5">
+        <f>SUM(F3:F146)</f>
+        <v>93866.255999999994</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C86" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
-    <hyperlink ref="C87" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
-    <hyperlink ref="C88" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
-    <hyperlink ref="C89" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
-    <hyperlink ref="C93" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{54BFEC5E-01BD-448D-BEB4-DF34719378D8}"/>
+    <hyperlink ref="C87" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
+    <hyperlink ref="C88" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
+    <hyperlink ref="C89" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
+    <hyperlink ref="C90" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
+    <hyperlink ref="C94" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{54BFEC5E-01BD-448D-BEB4-DF34719378D8}"/>
+    <hyperlink ref="C78" r:id="rId6" xr:uid="{2D54C350-F085-4610-AC01-B5FF1DBBAFA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5492,69 +5558,69 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:9" s="64" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
+    <row r="3" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
         <v>1008062</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="64">
-        <v>1</v>
-      </c>
-      <c r="E3" s="65">
+      <c r="D3" s="63">
+        <v>1</v>
+      </c>
+      <c r="E3" s="64">
         <v>7400</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="64">
         <f>E3*D3</f>
         <v>7400</v>
       </c>
-      <c r="I3" s="64" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="64" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="I3" s="63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="64">
-        <v>1</v>
-      </c>
-      <c r="E4" s="65">
+      <c r="D4" s="63">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64">
         <v>20000</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="64">
         <f>D4*E4</f>
         <v>20000</v>
       </c>
-      <c r="I4" s="64" t="s">
-        <v>348</v>
+      <c r="I4" s="63" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>465</v>
-      </c>
       <c r="D5" s="52">
         <v>1</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5577,27 +5643,27 @@
         <v>25000</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:9" s="52" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D12" s="52">
         <v>1</v>
@@ -5613,21 +5679,21 @@
         <v>13</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="52" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D13" s="52">
         <v>1</v>
@@ -5643,21 +5709,21 @@
         <v>13</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D14" s="52">
         <v>1</v>
@@ -5673,21 +5739,21 @@
         <v>13</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="52">
         <v>1</v>
@@ -5703,29 +5769,29 @@
         <v>13</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>287</v>
       </c>
       <c r="B16" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="56" t="s">
         <v>288</v>
       </c>
       <c r="D16" s="53">
         <v>1</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="57">
         <v>2</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="58">
         <f>D16*E16</f>
         <v>2</v>
       </c>
@@ -5733,699 +5799,677 @@
         <v>13</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:9" s="62" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-    </row>
-    <row r="20" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+    <row r="19" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="70">
+        <v>1</v>
+      </c>
+      <c r="E19" s="71">
+        <v>250</v>
+      </c>
+      <c r="F19" s="71">
+        <f>E19*D19</f>
+        <v>250</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="70">
+        <v>1</v>
+      </c>
+      <c r="E20" s="71">
+        <v>13</v>
+      </c>
+      <c r="F20" s="71">
+        <f>E20*D20</f>
+        <v>13</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="70">
+        <v>1</v>
+      </c>
+      <c r="E21" s="71">
+        <v>43</v>
+      </c>
+      <c r="F21" s="71">
+        <f>E21*D21</f>
+        <v>43</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="70">
+        <v>1</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="I22" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" s="61" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="53">
+      <c r="D26" s="53">
         <v>2</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E26" s="57">
         <v>5</v>
       </c>
-      <c r="F20" s="59">
-        <f>E20*D20</f>
+      <c r="F26" s="58">
+        <f t="shared" ref="F26:F33" si="1">E26*D26</f>
         <v>10</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="I20" s="53" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="53">
-        <v>2</v>
-      </c>
-      <c r="E21" s="58">
-        <v>62</v>
-      </c>
-      <c r="F21" s="59">
-        <f>E21*D21</f>
-        <v>124</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>389</v>
-      </c>
-      <c r="D22" s="53">
-        <v>8</v>
-      </c>
-      <c r="E22" s="58">
-        <v>1</v>
-      </c>
-      <c r="F22" s="59">
-        <f>E22*D22</f>
-        <v>8</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="D23" s="53">
-        <v>6</v>
-      </c>
-      <c r="E23" s="58">
-        <v>6</v>
-      </c>
-      <c r="F23" s="59">
-        <f>E23*D23</f>
-        <v>36</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>393</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="D24" s="53">
-        <v>2</v>
-      </c>
-      <c r="E24" s="58">
-        <v>1</v>
-      </c>
-      <c r="F24" s="59">
-        <f>E24*D24</f>
-        <v>2</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>368</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="D25" s="53">
-        <v>1</v>
-      </c>
-      <c r="E25" s="58">
-        <v>2</v>
-      </c>
-      <c r="F25" s="59">
-        <f>E25*D25</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
-        <v>368</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>372</v>
-      </c>
-      <c r="D26" s="53">
-        <v>1</v>
-      </c>
-      <c r="E26" s="58">
-        <v>15</v>
-      </c>
-      <c r="F26" s="59">
-        <f>E26*D26</f>
-        <v>15</v>
       </c>
       <c r="G26" s="53" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>257</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>365</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>258</v>
+        <v>313</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>369</v>
       </c>
       <c r="D27" s="53">
         <v>2</v>
       </c>
-      <c r="E27" s="58">
-        <v>25</v>
-      </c>
-      <c r="F27" s="59">
-        <f>E27*D27</f>
-        <v>50</v>
+      <c r="E27" s="57">
+        <v>62</v>
+      </c>
+      <c r="F27" s="58">
+        <f t="shared" si="1"/>
+        <v>124</v>
       </c>
       <c r="G27" s="53" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="53" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="53">
+        <v>8</v>
+      </c>
+      <c r="E28" s="57">
+        <v>1</v>
+      </c>
+      <c r="F28" s="58">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="53">
+        <v>6</v>
+      </c>
+      <c r="E29" s="57">
+        <v>6</v>
+      </c>
+      <c r="F29" s="58">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="53">
+        <v>2</v>
+      </c>
+      <c r="E30" s="57">
+        <v>1</v>
+      </c>
+      <c r="F30" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="53">
+        <v>1</v>
+      </c>
+      <c r="E31" s="57">
+        <v>2</v>
+      </c>
+      <c r="F31" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32" s="53">
+        <v>1</v>
+      </c>
+      <c r="E32" s="57">
+        <v>15</v>
+      </c>
+      <c r="F32" s="58">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="53">
+        <v>2</v>
+      </c>
+      <c r="E33" s="57">
+        <v>25</v>
+      </c>
+      <c r="F33" s="58">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" s="64" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B38" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C38" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="64">
-        <v>1</v>
-      </c>
-      <c r="E32" s="65">
+      <c r="D38" s="63">
+        <v>1</v>
+      </c>
+      <c r="E38" s="64">
         <v>2800</v>
       </c>
-      <c r="F32" s="65">
-        <f>E32*D32</f>
+      <c r="F38" s="64">
+        <f>E38*D38</f>
         <v>2800</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G38" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="64" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="I38" s="63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="52">
-        <v>1</v>
-      </c>
-      <c r="E37" s="55">
-        <v>488</v>
-      </c>
-      <c r="F37" s="55">
-        <f>E37*D37</f>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="52">
-        <v>1</v>
-      </c>
-      <c r="E38" s="55">
-        <v>184</v>
-      </c>
-      <c r="F38" s="55">
-        <f>E38*D38</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="52">
-        <v>1</v>
-      </c>
-      <c r="E39" s="55">
-        <v>76</v>
-      </c>
-      <c r="F39" s="55">
-        <f>E39*D39</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="52">
-        <v>1</v>
-      </c>
-      <c r="E40" s="55">
-        <v>184</v>
-      </c>
-      <c r="F40" s="55">
-        <f>E40*D40</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="52">
-        <v>1</v>
-      </c>
-      <c r="E41" s="55">
-        <v>94.180155999999997</v>
-      </c>
-      <c r="F41" s="55">
-        <f>E41*D41</f>
-        <v>94.180155999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="52">
-        <v>1</v>
-      </c>
-      <c r="E42" s="55">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F42" s="55">
-        <f>E42*D42</f>
-        <v>36.799999999999997</v>
-      </c>
+      <c r="C42" s="7"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D43" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="55">
-        <v>21.21</v>
+        <v>488</v>
       </c>
       <c r="F43" s="55">
-        <f>E43*D43</f>
-        <v>42.42</v>
+        <f t="shared" ref="F43:F64" si="2">E43*D43</f>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D44" s="52">
         <v>1</v>
       </c>
       <c r="E44" s="55">
-        <v>304.75</v>
+        <v>184</v>
       </c>
       <c r="F44" s="55">
-        <f>E44*D44</f>
-        <v>304.75</v>
-      </c>
-      <c r="I44" s="52" t="s">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D45" s="52">
         <v>1</v>
       </c>
       <c r="E45" s="55">
-        <v>148.21</v>
+        <v>76</v>
       </c>
       <c r="F45" s="55">
-        <f>E45*D45</f>
-        <v>148.21</v>
-      </c>
-      <c r="I45" s="52" t="s">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D46" s="52">
         <v>1</v>
       </c>
       <c r="E46" s="55">
-        <v>348.45</v>
+        <v>184</v>
       </c>
       <c r="F46" s="55">
-        <f>E46*D46</f>
-        <v>348.45</v>
-      </c>
-      <c r="I46" s="52" t="s">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D47" s="52">
         <v>1</v>
       </c>
       <c r="E47" s="55">
-        <v>60.95</v>
+        <v>94.180155999999997</v>
       </c>
       <c r="F47" s="55">
-        <f>E47*D47</f>
-        <v>60.95</v>
+        <f t="shared" si="2"/>
+        <v>94.180155999999997</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D48" s="52">
         <v>1</v>
       </c>
       <c r="E48" s="55">
-        <v>34.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F48" s="55">
-        <f>E48*D48</f>
-        <v>34.5</v>
-      </c>
-      <c r="I48" s="52" t="s">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D49" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="55">
-        <v>51.45</v>
+        <v>21.21</v>
       </c>
       <c r="F49" s="55">
-        <f>E49*D49</f>
-        <v>51.45</v>
-      </c>
-      <c r="I49" s="52" t="s">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>42.42</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B50" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D50" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="55">
-        <v>13.8</v>
+        <v>304.75</v>
       </c>
       <c r="F50" s="55">
-        <f>E50*D50</f>
-        <v>27.6</v>
+        <f t="shared" si="2"/>
+        <v>304.75</v>
+      </c>
+      <c r="I50" s="52" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D51" s="52">
         <v>1</v>
       </c>
       <c r="E51" s="55">
-        <v>19.09</v>
+        <v>148.21</v>
       </c>
       <c r="F51" s="55">
-        <f>E51*D51</f>
-        <v>19.09</v>
+        <f t="shared" si="2"/>
+        <v>148.21</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B52" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D52" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="55">
-        <v>40.51</v>
+        <v>348.45</v>
       </c>
       <c r="F52" s="55">
-        <f>E52*D52</f>
-        <v>81.02</v>
+        <f t="shared" si="2"/>
+        <v>348.45</v>
       </c>
       <c r="I52" s="52" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B53" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D53" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="55">
-        <v>83.598116000000005</v>
+        <v>60.95</v>
       </c>
       <c r="F53" s="55">
-        <f>E53*D53</f>
-        <v>167.19623200000001</v>
-      </c>
-      <c r="I53" s="52" t="s">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>60.95</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D54" s="52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="55">
-        <v>70.103999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="F54" s="55">
-        <f>E54*D54</f>
-        <v>280.416</v>
+        <f t="shared" si="2"/>
+        <v>34.5</v>
       </c>
       <c r="I54" s="52" t="s">
         <v>96</v>
@@ -6433,380 +6477,518 @@
     </row>
     <row r="55" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D55" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="55">
-        <v>28.75</v>
+        <v>51.45</v>
       </c>
       <c r="F55" s="55">
-        <f>E55*D55</f>
-        <v>57.5</v>
-      </c>
-      <c r="I55" s="66" t="s">
-        <v>113</v>
+        <f t="shared" si="2"/>
+        <v>51.45</v>
+      </c>
+      <c r="I55" s="52" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D56" s="52">
         <v>2</v>
       </c>
       <c r="E56" s="55">
-        <v>38.872799999999998</v>
+        <v>13.8</v>
       </c>
       <c r="F56" s="55">
-        <f>E56*D56</f>
-        <v>77.745599999999996</v>
+        <f t="shared" si="2"/>
+        <v>27.6</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="52" t="s">
+        <v>101</v>
+      </c>
       <c r="B57" s="52" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D57" s="52">
         <v>1</v>
       </c>
       <c r="E57" s="55">
-        <v>205</v>
+        <v>19.09</v>
       </c>
       <c r="F57" s="55">
-        <f>E57*D57</f>
-        <v>205</v>
-      </c>
-      <c r="I57" s="52" t="s">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>19.09</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="52" t="s">
+        <v>103</v>
+      </c>
       <c r="B58" s="52" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D58" s="52">
         <v>2</v>
       </c>
       <c r="E58" s="55">
-        <v>12</v>
+        <v>40.51</v>
       </c>
       <c r="F58" s="55">
-        <f>E58*D58</f>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>81.02</v>
       </c>
       <c r="I58" s="52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F60" s="9"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="52">
+        <v>2</v>
+      </c>
+      <c r="E59" s="55">
+        <v>83.598116000000005</v>
+      </c>
+      <c r="F59" s="55">
+        <f t="shared" si="2"/>
+        <v>167.19623200000001</v>
+      </c>
+      <c r="I59" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="52">
+        <v>4</v>
+      </c>
+      <c r="E60" s="55">
+        <v>70.103999999999999</v>
+      </c>
+      <c r="F60" s="55">
+        <f t="shared" si="2"/>
+        <v>280.416</v>
+      </c>
+      <c r="I60" s="52" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="61" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D61" s="52">
         <v>2</v>
       </c>
       <c r="E61" s="55">
-        <v>140</v>
+        <v>28.75</v>
       </c>
       <c r="F61" s="55">
-        <f>E61*D61</f>
-        <v>280</v>
-      </c>
-      <c r="I61" s="52" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>448</v>
-      </c>
-      <c r="B62" s="67" t="s">
-        <v>449</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>450</v>
-      </c>
-      <c r="D62" s="67">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="I61" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="52">
         <v>2</v>
       </c>
-      <c r="E62" s="68">
-        <v>84</v>
-      </c>
-      <c r="F62">
-        <f>D62*E62</f>
-        <v>168</v>
-      </c>
-      <c r="I62" s="67" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>455</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>453</v>
-      </c>
-      <c r="D63" s="67">
-        <v>1</v>
-      </c>
-      <c r="E63" s="68">
-        <v>54</v>
-      </c>
-      <c r="F63">
-        <f>D63*E63</f>
-        <v>54</v>
-      </c>
-      <c r="I63" s="67" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="52" t="s">
-        <v>458</v>
-      </c>
-      <c r="C66" s="69"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="J66" s="69"/>
+      <c r="E62" s="55">
+        <v>38.872799999999998</v>
+      </c>
+      <c r="F62" s="55">
+        <f t="shared" si="2"/>
+        <v>77.745599999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="52">
+        <v>1</v>
+      </c>
+      <c r="E63" s="55">
+        <v>205</v>
+      </c>
+      <c r="F63" s="55">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="I63" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="52">
+        <v>2</v>
+      </c>
+      <c r="E64" s="55">
+        <v>12</v>
+      </c>
+      <c r="F64" s="55">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I64" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
-        <v>459</v>
-      </c>
-      <c r="C67" s="69"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="J67" s="69"/>
-    </row>
-    <row r="68" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C68" s="69"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="J68" s="69"/>
-    </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="52">
+        <v>2</v>
+      </c>
+      <c r="E67" s="55">
+        <v>140</v>
+      </c>
+      <c r="F67" s="55">
+        <f>E67*D67</f>
+        <v>280</v>
+      </c>
+      <c r="I67" s="52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>446</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="D68" s="66">
+        <v>2</v>
+      </c>
+      <c r="E68" s="67">
+        <v>84</v>
+      </c>
+      <c r="F68">
+        <f>D68*E68</f>
+        <v>168</v>
+      </c>
+      <c r="I68" s="66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>453</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="D69" s="66">
+        <v>1</v>
+      </c>
+      <c r="E69" s="67">
+        <v>54</v>
+      </c>
+      <c r="F69">
+        <f>D69*E69</f>
+        <v>54</v>
+      </c>
+      <c r="I69" s="66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C72" s="68"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="J72" s="68"/>
+    </row>
+    <row r="73" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C73" s="68"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="J73" s="68"/>
+    </row>
+    <row r="74" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C74" s="68"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="J74" s="68"/>
+    </row>
+    <row r="75" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="74" t="s">
+      <c r="B75" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="B76" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="73" t="s">
+        <v>467</v>
+      </c>
+      <c r="D76" s="73">
+        <v>1</v>
+      </c>
+      <c r="E76" s="74">
+        <v>518.5</v>
+      </c>
+      <c r="F76" s="74">
+        <f t="shared" ref="F76:F83" si="3">E76*D76</f>
+        <v>518.5</v>
+      </c>
+      <c r="I76" s="73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B77" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="B70" s="74" t="s">
+      <c r="D77" s="73">
+        <v>1</v>
+      </c>
+      <c r="E77" s="74">
+        <v>764</v>
+      </c>
+      <c r="F77" s="74">
+        <f t="shared" si="3"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B78" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="74" t="s">
-        <v>469</v>
-      </c>
-      <c r="D70" s="74">
-        <v>1</v>
-      </c>
-      <c r="E70" s="75">
-        <v>518.5</v>
-      </c>
-      <c r="F70" s="75">
-        <f>E70*D70</f>
-        <v>518.5</v>
-      </c>
-      <c r="I70" s="74" t="s">
+      <c r="C78" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="D78" s="73">
+        <v>1</v>
+      </c>
+      <c r="E78" s="74">
+        <v>816</v>
+      </c>
+      <c r="F78" s="74">
+        <f t="shared" si="3"/>
+        <v>816</v>
+      </c>
+      <c r="I78" s="73" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="74" t="s">
-        <v>471</v>
-      </c>
-      <c r="B71" s="74" t="s">
+    <row r="79" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B79" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="74" t="s">
-        <v>470</v>
-      </c>
-      <c r="D71" s="74">
-        <v>1</v>
-      </c>
-      <c r="E71" s="75">
-        <v>764</v>
-      </c>
-      <c r="F71" s="75">
-        <f>E71*D71</f>
-        <v>764</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="B72" s="74" t="s">
+      <c r="C79" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="D79" s="73">
+        <v>1</v>
+      </c>
+      <c r="E79" s="74">
+        <v>952</v>
+      </c>
+      <c r="F79" s="74">
+        <f t="shared" si="3"/>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="B80" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C72" s="74" t="s">
-        <v>472</v>
-      </c>
-      <c r="D72" s="74">
-        <v>1</v>
-      </c>
-      <c r="E72" s="75">
-        <v>816</v>
-      </c>
-      <c r="F72" s="75">
-        <f>E72*D72</f>
-        <v>816</v>
-      </c>
-      <c r="I72" s="74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="74" t="s">
+      <c r="C80" s="73" t="s">
+        <v>483</v>
+      </c>
+      <c r="D80" s="73">
+        <v>1</v>
+      </c>
+      <c r="E80" s="74">
+        <v>99.5</v>
+      </c>
+      <c r="F80" s="74">
+        <f t="shared" si="3"/>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="B73" s="74" t="s">
+      <c r="B81" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C81" s="73" t="s">
         <v>474</v>
       </c>
-      <c r="D73" s="74">
-        <v>1</v>
-      </c>
-      <c r="E73" s="75">
-        <v>952</v>
-      </c>
-      <c r="F73" s="75">
-        <f>E73*D73</f>
-        <v>952</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="74" t="s">
+      <c r="D81" s="73">
+        <v>1</v>
+      </c>
+      <c r="E81" s="74">
+        <v>128.5</v>
+      </c>
+      <c r="F81" s="74">
+        <f t="shared" si="3"/>
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="B74" s="74" t="s">
+      <c r="B82" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="74" t="s">
+      <c r="C82" s="73" t="s">
         <v>476</v>
       </c>
-      <c r="D74" s="74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="75">
-        <v>99.5</v>
-      </c>
-      <c r="F74" s="75">
-        <f>E74*D74</f>
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="74" t="s">
+      <c r="D82" s="73">
+        <v>1</v>
+      </c>
+      <c r="E82" s="74">
+        <v>156</v>
+      </c>
+      <c r="F82" s="74">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="73" t="s">
         <v>479</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B83" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C83" s="73" t="s">
         <v>478</v>
       </c>
-      <c r="D75" s="74">
-        <v>1</v>
-      </c>
-      <c r="E75" s="75">
-        <v>128.5</v>
-      </c>
-      <c r="F75" s="75">
-        <f>E75*D75</f>
-        <v>128.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="74" t="s">
-        <v>481</v>
-      </c>
-      <c r="B76" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="74" t="s">
-        <v>480</v>
-      </c>
-      <c r="D76" s="74">
-        <v>1</v>
-      </c>
-      <c r="E76" s="75">
-        <v>156</v>
-      </c>
-      <c r="F76" s="75">
-        <f>E76*D76</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="74" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="74" t="s">
-        <v>482</v>
-      </c>
-      <c r="D77" s="74">
-        <v>1</v>
-      </c>
-      <c r="E77" s="75">
+      <c r="D83" s="73">
+        <v>1</v>
+      </c>
+      <c r="E83" s="74">
         <v>184.5</v>
       </c>
-      <c r="F77" s="75">
-        <f>E77*D77</f>
+      <c r="F83" s="74">
+        <f t="shared" si="3"/>
         <v>184.5</v>
       </c>
     </row>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\GitHub-public\benchtop-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B6534A-1202-4442-92EF-AF6A682FC1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="34560" windowHeight="18690" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1598,7 +1597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1920,12 +1919,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Excel Built-in Note" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="3"/>
+    <cellStyle name="Excel Built-in Note" xfId="4"/>
+    <cellStyle name="Explanatory Text 2" xfId="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2304,29 +2303,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="69.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="42.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="69.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,15 +2354,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2390,27 +2389,27 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>193</v>
       </c>
@@ -2434,14 +2433,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>21</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>23</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>395</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>26</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>27</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2741,14 +2740,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>292</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>295</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
         <v>299</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>302</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>305</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>310</v>
       </c>
@@ -2907,21 +2906,21 @@
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>459</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
@@ -2936,14 +2935,14 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
         <v>232</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>340</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>341</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>91863</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>169</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>261</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
         <v>260</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>327</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
         <v>76</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>214</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>220</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
         <v>222</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
         <v>226</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
         <v>229</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>235</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
         <v>245</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
         <v>185</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
         <v>237</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
         <v>241</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
         <v>243</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
         <v>183</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35" t="s">
         <v>247</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>342</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
         <v>250</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>352</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>320</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
         <v>322</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
         <v>359</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
         <v>360</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>351</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="46" t="s">
         <v>357</v>
       </c>
@@ -3974,32 +3973,32 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="C68" s="33"/>
       <c r="E68" s="34"/>
       <c r="F68" s="42"/>
     </row>
-    <row r="69" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="C69" s="33"/>
       <c r="E69" s="34"/>
       <c r="F69" s="42"/>
     </row>
-    <row r="70" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="C70" s="33"/>
       <c r="E70" s="34"/>
       <c r="F70" s="42"/>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>283</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33" t="s">
         <v>26</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33" t="s">
         <v>284</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
         <v>289</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
         <v>23</v>
       </c>
@@ -4079,21 +4078,21 @@
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>486</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>487</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>490</v>
       </c>
@@ -4118,7 +4117,7 @@
       </c>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>492</v>
       </c>
@@ -4143,7 +4142,7 @@
       </c>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="70" t="s">
         <v>496</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>498</v>
       </c>
@@ -4189,7 +4188,7 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="70" t="s">
         <v>405</v>
       </c>
@@ -4213,19 +4212,19 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="75" t="s">
         <v>181</v>
       </c>
       <c r="F83" s="44"/>
     </row>
-    <row r="84" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>182</v>
       </c>
       <c r="F84" s="44"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>412</v>
       </c>
@@ -4252,14 +4251,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>414</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
     </row>
-    <row r="87" spans="1:9" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>374</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>375</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>379</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>381</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>382</v>
       </c>
@@ -4395,7 +4394,7 @@
       </c>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>385</v>
       </c>
@@ -4420,14 +4419,14 @@
       </c>
       <c r="H92" s="28"/>
     </row>
-    <row r="93" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>415</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>397</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>419</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>421</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>430</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>423</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>427</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>408</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>367</v>
       </c>
@@ -4633,14 +4632,14 @@
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>64</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>202</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>201</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>206</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>59</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>62</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>209</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
         <v>334</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
         <v>336</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>129</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>131</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>133</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>129</v>
       </c>
@@ -4970,22 +4969,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E116" s="42"/>
       <c r="F116" s="42"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>119</v>
       </c>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>127</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>136</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>139</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>103.16</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>141</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>144</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>144</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>147</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>149</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>119.416</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>151</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>153</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>239.2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>345</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>155</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>157</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>96.23</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>159</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>102.44</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C136" s="3" t="s">
         <v>163</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C137" s="3" t="s">
         <v>164</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C138" s="3" t="s">
         <v>166</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>174</v>
       </c>
@@ -5367,7 +5366,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="70"/>
       <c r="B141" s="70" t="s">
         <v>167</v>
@@ -5396,7 +5395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="70" t="s">
         <v>175</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="70" t="s">
         <v>175</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="70" t="s">
         <v>175</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="145" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="70" t="s">
         <v>175</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E148" s="20" t="s">
         <v>177</v>
       </c>
@@ -5492,12 +5491,12 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C87" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{3D527150-CD66-4BE5-B185-85CFF78C5CA5}"/>
-    <hyperlink ref="C88" r:id="rId2" display="Plan Apo" xr:uid="{E97E73FC-AE1E-4348-9424-88ED8BD705E0}"/>
-    <hyperlink ref="C89" r:id="rId3" display="Plan Apo" xr:uid="{D8344794-7BA0-4E50-AD86-C3517128EA92}"/>
-    <hyperlink ref="C90" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{46B4BB89-8C51-4E18-A88E-F41D266DC652}"/>
-    <hyperlink ref="C94" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{54BFEC5E-01BD-448D-BEB4-DF34719378D8}"/>
-    <hyperlink ref="C78" r:id="rId6" xr:uid="{2D54C350-F085-4610-AC01-B5FF1DBBAFA1}"/>
+    <hyperlink ref="C87" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X"/>
+    <hyperlink ref="C88" r:id="rId2" display="Plan Apo"/>
+    <hyperlink ref="C89" r:id="rId3" display="Plan Apo"/>
+    <hyperlink ref="C90" r:id="rId4" display="Plan Apo Brightfield and Darkfield "/>
+    <hyperlink ref="C94" r:id="rId5" display="MT-1 Accessory Tube Lens"/>
+    <hyperlink ref="C78" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -5505,24 +5504,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5551,14 +5550,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="63">
         <v>1008062</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
         <v>180</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="52" t="s">
         <v>461</v>
       </c>
@@ -5617,15 +5616,15 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>464</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="52" t="s">
         <v>189</v>
       </c>
@@ -5646,16 +5645,16 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>416</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:9" s="52" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>397</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="52" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>400</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
         <v>402</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
         <v>405</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="s">
         <v>287</v>
       </c>
@@ -5805,21 +5804,21 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>484</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>485</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>314</v>
       </c>
@@ -5847,7 +5846,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>315</v>
       </c>
@@ -5875,7 +5874,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="70" t="s">
         <v>317</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>329</v>
       </c>
@@ -5921,21 +5920,21 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>439</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="61" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>440</v>
       </c>
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
     </row>
-    <row r="26" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
         <v>362</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="56" t="s">
         <v>365</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
         <v>341</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
         <v>391</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
         <v>392</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="59" t="s">
         <v>367</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
         <v>367</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
         <v>257</v>
       </c>
@@ -6169,14 +6168,14 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
         <v>60</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>66</v>
       </c>
@@ -6211,7 +6210,7 @@
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
     </row>
-    <row r="43" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
         <v>67</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>70</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="52" t="s">
         <v>72</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>74</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="52" t="s">
         <v>77</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>94.180155999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>79</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="52" t="s">
         <v>83</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>42.42</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="52" t="s">
         <v>85</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="52" t="s">
         <v>88</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
         <v>90</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
         <v>92</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
         <v>94</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
         <v>97</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
         <v>99</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
         <v>101</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="52" t="s">
         <v>103</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="52" t="s">
         <v>106</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="52" t="s">
         <v>108</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
         <v>110</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="52" t="s">
         <v>114</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>77.745599999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="52" t="s">
         <v>116</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="52" t="s">
         <v>116</v>
       </c>
@@ -6700,13 +6699,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>445</v>
       </c>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="52" t="s">
         <v>124</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>446</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>453</v>
       </c>
@@ -6778,13 +6777,13 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>455</v>
       </c>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
         <v>456</v>
       </c>
@@ -6793,7 +6792,7 @@
       <c r="F72" s="55"/>
       <c r="J72" s="68"/>
     </row>
-    <row r="73" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="52" t="s">
         <v>457</v>
       </c>
@@ -6802,13 +6801,13 @@
       <c r="F73" s="55"/>
       <c r="J73" s="68"/>
     </row>
-    <row r="74" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="68"/>
       <c r="E74" s="55"/>
       <c r="F74" s="55"/>
       <c r="J74" s="68"/>
     </row>
-    <row r="75" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>174</v>
       </c>
@@ -6818,7 +6817,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="73" t="s">
         <v>466</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="73" t="s">
         <v>469</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="73" t="s">
         <v>471</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="73" t="s">
         <v>473</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="73" t="s">
         <v>482</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="73" t="s">
         <v>475</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="73" t="s">
         <v>477</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="73" t="s">
         <v>479</v>
       </c>
@@ -6994,8 +6993,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{47E90902-2781-43B8-B25D-BA619CD65758}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{FD011529-5D8C-44BA-8321-CE0ABF6601E4}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -7003,12 +7002,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\GitHub-public\benchtop-hardware\Benchtop\parts-list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB27C5D-16E7-42C1-A427-422B62805AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="34560" windowHeight="18690" tabRatio="500"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="501">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -1445,9 +1446,6 @@
   </si>
   <si>
     <t>Nikon objective mount</t>
-  </si>
-  <si>
-    <t>Recommendations: at least 64 GB RAM, 2 TB SSD drive</t>
   </si>
   <si>
     <r>
@@ -1477,18 +1475,12 @@
     <t>Toptica</t>
   </si>
   <si>
-    <t>50000?</t>
-  </si>
-  <si>
     <t>Dual-fiber output option</t>
   </si>
   <si>
     <t>Cameras</t>
   </si>
   <si>
-    <t>FOV 29 mm diagonal, can be challenging for detection optics to priovide high resolution in the corners</t>
-  </si>
-  <si>
     <t>UG-205-H80</t>
   </si>
   <si>
@@ -1592,12 +1584,21 @@
   </si>
   <si>
     <t>Adapters for both sides of the ZWO EFW Mini filter, which has T-mount threads (M42)</t>
+  </si>
+  <si>
+    <t>Recommendations: at least 64 GB RAM, 2 TB SSD drive, 2 PCIex8 slots</t>
+  </si>
+  <si>
+    <t>SOFTWARE not yet compatible! Can be done on request. FOV 29 mm diagonal.</t>
+  </si>
+  <si>
+    <t>One module serves both arms, fiber switching mechanism built-in.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1832,7 +1833,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1917,14 +1918,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel Built-in Heading 1" xfId="3"/>
-    <cellStyle name="Excel Built-in Note" xfId="4"/>
-    <cellStyle name="Explanatory Text 2" xfId="1"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Note" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2303,29 +2305,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="69.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="42.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="69.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,15 +2356,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2389,27 +2391,27 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>193</v>
       </c>
@@ -2433,14 +2435,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>21</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>23</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>395</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>27</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2740,14 +2742,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>292</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>295</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>299</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>302</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>305</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>310</v>
       </c>
@@ -2906,43 +2908,42 @@
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="15" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="5">
-        <v>8000</v>
+      <c r="E30" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="F30" s="5">
-        <f>E30*D30</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>232</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>340</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>341</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>91863</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>169</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>261</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>260</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>327</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>76</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>214</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>220</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>222</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>226</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>229</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>235</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>245</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>185</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>237</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>241</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>243</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>183</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>247</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
         <v>342</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>250</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>352</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>320</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>322</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>359</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>360</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>351</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="46" t="s">
         <v>357</v>
       </c>
@@ -3973,32 +3974,32 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="33"/>
       <c r="C68" s="33"/>
       <c r="E68" s="34"/>
       <c r="F68" s="42"/>
     </row>
-    <row r="69" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="C69" s="33"/>
       <c r="E69" s="34"/>
       <c r="F69" s="42"/>
     </row>
-    <row r="70" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
       <c r="C70" s="33"/>
       <c r="E70" s="34"/>
       <c r="F70" s="42"/>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>283</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>26</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>284</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
         <v>289</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>23</v>
       </c>
@@ -4078,29 +4079,29 @@
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -4113,19 +4114,19 @@
         <v>200</v>
       </c>
       <c r="I78" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D79" s="3">
         <v>5</v>
@@ -4138,19 +4139,19 @@
         <v>5</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
@@ -4163,18 +4164,18 @@
         <v>26</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -4188,7 +4189,7 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
         <v>405</v>
       </c>
@@ -4209,22 +4210,22 @@
         <v>48</v>
       </c>
       <c r="I82" s="32" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="75" t="s">
         <v>181</v>
       </c>
       <c r="F83" s="44"/>
     </row>
-    <row r="84" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>182</v>
       </c>
       <c r="F84" s="44"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>412</v>
       </c>
@@ -4251,14 +4252,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>414</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
     </row>
-    <row r="87" spans="1:9" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>374</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
         <v>375</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
         <v>379</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>381</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>382</v>
       </c>
@@ -4394,7 +4395,7 @@
       </c>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>385</v>
       </c>
@@ -4419,14 +4420,14 @@
       </c>
       <c r="H92" s="28"/>
     </row>
-    <row r="93" spans="1:9" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
         <v>415</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>397</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>419</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>421</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>430</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>423</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>427</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>408</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>367</v>
       </c>
@@ -4632,14 +4633,14 @@
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>64</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>202</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>201</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>206</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>59</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>62</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>209</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>334</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>336</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>129</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>131</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>133</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>129</v>
       </c>
@@ -4969,22 +4970,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E116" s="42"/>
       <c r="F116" s="42"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>119</v>
       </c>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>127</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>136</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>139</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>103.16</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>141</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>144</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>144</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>136.47999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>147</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>149</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>119.416</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>151</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>153</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>239.2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>345</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>155</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>157</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>96.23</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>159</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>102.44</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="3" t="s">
         <v>163</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="3" t="s">
         <v>164</v>
       </c>
@@ -5348,7 +5349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C138" s="3" t="s">
         <v>166</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>174</v>
       </c>
@@ -5366,7 +5367,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="70"/>
       <c r="B141" s="70" t="s">
         <v>167</v>
@@ -5385,7 +5386,7 @@
         <v>160</v>
       </c>
       <c r="G141" s="70" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H141" s="70"/>
       <c r="I141" s="70" t="s">
@@ -5395,7 +5396,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="70" t="s">
         <v>175</v>
       </c>
@@ -5413,10 +5414,10 @@
         <v>662</v>
       </c>
       <c r="G142" s="70" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="70" t="s">
         <v>175</v>
       </c>
@@ -5434,10 +5435,10 @@
         <v>100</v>
       </c>
       <c r="G143" s="70" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="70" t="s">
         <v>175</v>
       </c>
@@ -5455,10 +5456,10 @@
         <v>112</v>
       </c>
       <c r="G144" s="70" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="70" t="s">
         <v>175</v>
       </c>
@@ -5476,27 +5477,27 @@
         <v>729</v>
       </c>
       <c r="G145" s="70" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E148" s="20" t="s">
         <v>177</v>
       </c>
       <c r="F148" s="5">
         <f>SUM(F3:F146)</f>
-        <v>93866.255999999994</v>
+        <v>85866.255999999994</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C87" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X"/>
-    <hyperlink ref="C88" r:id="rId2" display="Plan Apo"/>
-    <hyperlink ref="C89" r:id="rId3" display="Plan Apo"/>
-    <hyperlink ref="C90" r:id="rId4" display="Plan Apo Brightfield and Darkfield "/>
-    <hyperlink ref="C94" r:id="rId5" display="MT-1 Accessory Tube Lens"/>
-    <hyperlink ref="C78" r:id="rId6"/>
+    <hyperlink ref="C87" r:id="rId1" display="Mitutoyo Plan Apo Brightfield and Darkfield, 2X" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C88" r:id="rId2" display="Plan Apo" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C89" r:id="rId3" display="Plan Apo" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C90" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C94" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C78" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -5504,24 +5505,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5550,14 +5552,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:9" s="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="63">
         <v>1008062</v>
       </c>
@@ -5570,7 +5572,7 @@
       <c r="D3" s="63">
         <v>1</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="76">
         <v>7400</v>
       </c>
       <c r="F3" s="64">
@@ -5578,10 +5580,10 @@
         <v>7400</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="63" t="s">
         <v>180</v>
       </c>
@@ -5591,7 +5593,7 @@
       <c r="D4" s="63">
         <v>1</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="76">
         <v>20000</v>
       </c>
       <c r="F4" s="64">
@@ -5602,29 +5604,35 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>463</v>
-      </c>
       <c r="D5" s="52">
         <v>1</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="52">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="52">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>189</v>
       </c>
@@ -5642,19 +5650,19 @@
         <v>25000</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>416</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="52" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>397</v>
       </c>
@@ -5684,7 +5692,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="52" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>400</v>
       </c>
@@ -5714,7 +5722,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>402</v>
       </c>
@@ -5744,7 +5752,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>405</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>287</v>
       </c>
@@ -5804,21 +5812,21 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:10" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
         <v>314</v>
       </c>
@@ -5846,7 +5854,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="70" t="s">
         <v>315</v>
       </c>
@@ -5874,7 +5882,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>317</v>
       </c>
@@ -5901,7 +5909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
         <v>329</v>
       </c>
@@ -5920,21 +5928,21 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>439</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="61" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="61" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>440</v>
       </c>
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
     </row>
-    <row r="26" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>362</v>
       </c>
@@ -5964,7 +5972,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
         <v>365</v>
       </c>
@@ -5994,7 +6002,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>341</v>
       </c>
@@ -6024,7 +6032,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>391</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>392</v>
       </c>
@@ -6081,7 +6089,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
         <v>367</v>
       </c>
@@ -6111,7 +6119,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
         <v>367</v>
       </c>
@@ -6141,7 +6149,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>257</v>
       </c>
@@ -6168,14 +6176,14 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:9" s="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="63" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>60</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>66</v>
       </c>
@@ -6210,7 +6218,7 @@
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
     </row>
-    <row r="43" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
         <v>67</v>
       </c>
@@ -6231,7 +6239,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>70</v>
       </c>
@@ -6252,7 +6260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>72</v>
       </c>
@@ -6273,7 +6281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>74</v>
       </c>
@@ -6294,7 +6302,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
         <v>77</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>94.180155999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>79</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
         <v>83</v>
       </c>
@@ -6357,7 +6365,7 @@
         <v>42.42</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>85</v>
       </c>
@@ -6381,7 +6389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
         <v>88</v>
       </c>
@@ -6405,7 +6413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>90</v>
       </c>
@@ -6429,7 +6437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
         <v>92</v>
       </c>
@@ -6450,7 +6458,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
         <v>94</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>97</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>99</v>
       </c>
@@ -6519,7 +6527,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>101</v>
       </c>
@@ -6540,7 +6548,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
         <v>103</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
         <v>106</v>
       </c>
@@ -6588,7 +6596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>108</v>
       </c>
@@ -6612,7 +6620,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
         <v>110</v>
       </c>
@@ -6636,7 +6644,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
         <v>114</v>
       </c>
@@ -6657,7 +6665,7 @@
         <v>77.745599999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="52" t="s">
         <v>116</v>
       </c>
@@ -6678,7 +6686,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="52" t="s">
         <v>116</v>
       </c>
@@ -6699,13 +6707,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>445</v>
       </c>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
         <v>124</v>
       </c>
@@ -6729,7 +6737,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>446</v>
       </c>
@@ -6753,7 +6761,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>453</v>
       </c>
@@ -6777,13 +6785,13 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>455</v>
       </c>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>456</v>
       </c>
@@ -6792,7 +6800,7 @@
       <c r="F72" s="55"/>
       <c r="J72" s="68"/>
     </row>
-    <row r="73" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
         <v>457</v>
       </c>
@@ -6801,13 +6809,13 @@
       <c r="F73" s="55"/>
       <c r="J73" s="68"/>
     </row>
-    <row r="74" spans="1:10" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="68"/>
       <c r="E74" s="55"/>
       <c r="F74" s="55"/>
       <c r="J74" s="68"/>
     </row>
-    <row r="75" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>174</v>
       </c>
@@ -6817,15 +6825,15 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="73" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B76" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C76" s="73" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D76" s="73">
         <v>1</v>
@@ -6841,15 +6849,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="73" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B77" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C77" s="73" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D77" s="73">
         <v>1</v>
@@ -6862,15 +6870,15 @@
         <v>764</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="73" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B78" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C78" s="73" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D78" s="73">
         <v>1</v>
@@ -6886,15 +6894,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="73" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B79" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="73" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D79" s="73">
         <v>1</v>
@@ -6907,15 +6915,15 @@
         <v>952</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="73" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B80" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C80" s="73" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D80" s="73">
         <v>1</v>
@@ -6928,15 +6936,15 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="73" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B81" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C81" s="73" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D81" s="73">
         <v>1</v>
@@ -6949,15 +6957,15 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="73" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B82" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C82" s="73" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D82" s="73">
         <v>1</v>
@@ -6970,15 +6978,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="73" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="73" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B83" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D83" s="73">
         <v>1</v>
@@ -6993,8 +7001,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -7002,12 +7010,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB27C5D-16E7-42C1-A427-422B62805AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA2EBB-783C-4678-B2A5-565AF1D788B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5952" yWindow="3864" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="506">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -1593,6 +1593,21 @@
   </si>
   <si>
     <t>One module serves both arms, fiber switching mechanism built-in.</t>
+  </si>
+  <si>
+    <t>Works best with the Mitutoyo MT-1 tube lens. Optional.</t>
+  </si>
+  <si>
+    <t>378-847</t>
+  </si>
+  <si>
+    <t>Mitutoyo</t>
+  </si>
+  <si>
+    <t>Mitutoyo G Plan APO 20X/t3,5</t>
+  </si>
+  <si>
+    <t>Corrected for 3.5 mm of glass (n1.52). Thread is unusual, but fits SM1.</t>
   </si>
 </sst>
 </file>
@@ -2306,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,7 +4291,7 @@
         <v>912</v>
       </c>
       <c r="F87" s="29">
-        <f t="shared" ref="F87:F92" si="4">E87*D87</f>
+        <f t="shared" ref="F87:F93" si="4">E87*D87</f>
         <v>912</v>
       </c>
       <c r="G87" s="3" t="s">
@@ -4325,21 +4340,21 @@
         <v>378</v>
       </c>
       <c r="D89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="5">
         <v>1540</v>
       </c>
       <c r="F89" s="29">
         <f t="shared" si="4"/>
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H89" s="28"/>
       <c r="I89" s="3" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -4370,754 +4385,761 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>382</v>
+    <row r="91" spans="1:9" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="70" t="s">
+        <v>502</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C91" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="D91" s="3">
-        <v>4</v>
-      </c>
-      <c r="E91" s="5">
-        <v>1</v>
+        <v>503</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="D91" s="70">
+        <v>0</v>
+      </c>
+      <c r="E91" s="71">
+        <v>3670</v>
       </c>
       <c r="F91" s="29">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="70" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="28"/>
+      <c r="I91" s="70" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C92" s="50" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D92" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92" s="5">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F92" s="29">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="28"/>
     </row>
-    <row r="93" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="25" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5">
+        <v>60</v>
+      </c>
+      <c r="F93" s="29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B95" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C95" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
-      <c r="E94" s="5">
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
         <v>752</v>
-      </c>
-      <c r="F94" s="5">
-        <f>D94*E94</f>
-        <v>752</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5">
-        <v>1</v>
       </c>
       <c r="F95" s="5">
         <f>D95*E95</f>
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I95" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D96" s="3">
         <v>1</v>
       </c>
       <c r="E96" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F96" s="5">
         <f>D96*E96</f>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
       </c>
       <c r="E97" s="5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F97" s="5">
-        <v>1</v>
+        <f>D97*E97</f>
+        <v>36</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
       </c>
       <c r="E98" s="5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F98" s="5">
-        <f>D98*E98</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
       </c>
       <c r="E99" s="5">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F99" s="5">
         <f>D99*E99</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
       </c>
       <c r="E100" s="5">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F100" s="5">
         <f>D100*E100</f>
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>367</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>435</v>
+        <v>68</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>384</v>
+        <v>409</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
+        <v>112</v>
       </c>
       <c r="F101" s="5">
         <f>D101*E101</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I101" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F102" s="5">
+        <f>D102*E102</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+    <row r="103" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D103" s="3">
-        <v>1</v>
-      </c>
-      <c r="E103" s="5">
-        <v>3582</v>
-      </c>
-      <c r="F103" s="5">
-        <f t="shared" ref="F103:F115" si="5">E103*D103</f>
-        <v>3582</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" ref="F104:F116" si="5">E104*D104</f>
+        <v>3582</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D104" s="3">
-        <v>1</v>
-      </c>
-      <c r="E104" s="5">
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5">
         <v>1630</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F105" s="5">
         <f t="shared" si="5"/>
         <v>1630</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D105" s="3">
-        <v>1</v>
-      </c>
-      <c r="E105" s="5">
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
         <v>886</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F106" s="5">
         <f t="shared" si="5"/>
         <v>886</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D106" s="3">
-        <v>1</v>
-      </c>
-      <c r="E106" s="5">
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
         <v>163</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F107" s="5">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D107" s="3">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5">
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
         <v>11</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F108" s="5">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D108" s="3">
-        <v>1</v>
-      </c>
-      <c r="E108" s="5">
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
         <v>520</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F109" s="5">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5">
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
         <v>193</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F110" s="5">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
+    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="B110" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C110" s="32" t="s">
+      <c r="B111" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="32">
+      <c r="D111" s="32">
         <v>10</v>
       </c>
-      <c r="E110" s="42">
+      <c r="E111" s="42">
         <v>12</v>
       </c>
-      <c r="F110" s="42">
+      <c r="F111" s="42">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G111" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I110" s="32" t="s">
+      <c r="I111" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
+    <row r="112" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" s="32" t="s">
+      <c r="B112" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="D111" s="32">
-        <v>1</v>
-      </c>
-      <c r="E111" s="42">
+      <c r="D112" s="32">
+        <v>1</v>
+      </c>
+      <c r="E112" s="42">
         <v>14</v>
       </c>
-      <c r="F111" s="42">
+      <c r="F112" s="42">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="G112" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I111" s="32" t="s">
+      <c r="I112" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B113" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D113" s="3">
         <v>4</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E113" s="5">
         <v>15.25</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F113" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G113" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B114" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D114" s="3">
         <v>10</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E114" s="5">
         <v>16.5</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F114" s="5">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G114" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B115" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D115" s="3">
         <v>10</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E115" s="5">
         <v>24</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F115" s="5">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G115" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B116" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D116" s="3">
         <v>6</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E116" s="5">
         <v>24</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F116" s="5">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="G115" s="32" t="s">
+      <c r="G116" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-    </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="10"/>
-    </row>
-    <row r="119" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
+    <row r="117" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D120" s="3">
-        <v>4</v>
-      </c>
-      <c r="E120" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F120" s="5">
-        <f t="shared" ref="F120:F135" si="6">E120*D120</f>
-        <v>66</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="3">
+        <v>4</v>
+      </c>
+      <c r="E121" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F121" s="5">
+        <f t="shared" ref="F121:F136" si="6">E121*D121</f>
+        <v>66</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="B122" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-      <c r="E121" s="5">
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
         <v>85.1</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F122" s="5">
         <f t="shared" si="6"/>
         <v>85.1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="B123" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D123" s="3">
         <v>2</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E123" s="5">
         <v>32</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F123" s="5">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="B124" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D124" s="3">
         <v>2</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E124" s="5">
         <v>51.58</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F124" s="5">
         <f t="shared" si="6"/>
         <v>103.16</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="B125" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-      <c r="E124" s="5">
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
         <v>60</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F125" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D125" s="3">
-        <v>1</v>
-      </c>
-      <c r="E125" s="5">
-        <v>136.47999999999999</v>
-      </c>
-      <c r="F125" s="5">
-        <f t="shared" si="6"/>
-        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5128,7 +5150,7 @@
         <v>68</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
@@ -5143,278 +5165,278 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
       </c>
       <c r="E127" s="5">
-        <v>60.95</v>
+        <v>136.47999999999999</v>
       </c>
       <c r="F127" s="5">
         <f t="shared" si="6"/>
-        <v>60.95</v>
+        <v>136.47999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D128" s="3">
         <v>1</v>
       </c>
       <c r="E128" s="5">
-        <v>119.416</v>
+        <v>60.95</v>
       </c>
       <c r="F128" s="5">
         <f t="shared" si="6"/>
-        <v>119.416</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D129" s="3">
         <v>1</v>
       </c>
       <c r="E129" s="5">
-        <v>105.8</v>
+        <v>119.416</v>
       </c>
       <c r="F129" s="5">
         <f t="shared" si="6"/>
-        <v>105.8</v>
+        <v>119.416</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" s="5">
-        <v>119.6</v>
+        <v>105.8</v>
       </c>
       <c r="F130" s="5">
         <f t="shared" si="6"/>
-        <v>239.2</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>345</v>
+        <v>153</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="D131" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" s="5">
-        <v>100</v>
+        <v>119.6</v>
       </c>
       <c r="F131" s="5">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="D132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" s="5">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F132" s="5">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D133" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" s="5">
-        <v>96.23</v>
+        <v>92</v>
       </c>
       <c r="F133" s="5">
         <f t="shared" si="6"/>
-        <v>96.23</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
       </c>
       <c r="E134" s="5">
-        <v>102.44</v>
+        <v>96.23</v>
       </c>
       <c r="F134" s="5">
         <f t="shared" si="6"/>
-        <v>102.44</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D135" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135" s="5">
-        <v>28</v>
+        <v>102.44</v>
       </c>
       <c r="F135" s="5">
         <f t="shared" si="6"/>
+        <v>102.44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2</v>
+      </c>
+      <c r="E136" s="5">
+        <v>28</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="6"/>
         <v>56</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C136" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D136" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D137" s="3">
-        <v>1</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C138" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C139" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D138" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
+      <c r="D139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B141" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70" t="s">
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="70"/>
+      <c r="B142" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C141" s="72" t="s">
+      <c r="C142" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="D141" s="70">
+      <c r="D142" s="70">
         <v>4</v>
       </c>
-      <c r="E141" s="70">
+      <c r="E142" s="70">
         <v>40</v>
       </c>
-      <c r="F141" s="70">
-        <f>E141*D141</f>
+      <c r="F142" s="70">
+        <f>E142*D142</f>
         <v>160</v>
       </c>
-      <c r="G141" s="70" t="s">
+      <c r="G142" s="70" t="s">
         <v>478</v>
       </c>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70" t="s">
+      <c r="H142" s="70"/>
+      <c r="I142" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="J141" s="72" t="s">
+      <c r="J142" s="72" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C142" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="D142" s="70">
-        <v>2</v>
-      </c>
-      <c r="E142" s="71">
-        <v>331</v>
-      </c>
-      <c r="F142" s="71">
-        <f>E142*D142</f>
-        <v>662</v>
-      </c>
-      <c r="G142" s="70" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
@@ -5422,17 +5444,17 @@
         <v>175</v>
       </c>
       <c r="C143" s="70" t="s">
-        <v>330</v>
+        <v>413</v>
       </c>
       <c r="D143" s="70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E143" s="71">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="F143" s="71">
         <f>E143*D143</f>
-        <v>100</v>
+        <v>662</v>
       </c>
       <c r="G143" s="70" t="s">
         <v>477</v>
@@ -5443,17 +5465,17 @@
         <v>175</v>
       </c>
       <c r="C144" s="70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D144" s="70">
         <v>4</v>
       </c>
       <c r="E144" s="71">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F144" s="71">
         <f>E144*D144</f>
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G144" s="70" t="s">
         <v>477</v>
@@ -5464,29 +5486,50 @@
         <v>175</v>
       </c>
       <c r="C145" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D145" s="70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E145" s="71">
-        <v>121.5</v>
+        <v>28</v>
       </c>
       <c r="F145" s="71">
         <f>E145*D145</f>
-        <v>729</v>
+        <v>112</v>
       </c>
       <c r="G145" s="70" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E148" s="20" t="s">
+    <row r="146" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D146" s="70">
+        <v>6</v>
+      </c>
+      <c r="E146" s="71">
+        <v>121.5</v>
+      </c>
+      <c r="F146" s="71">
+        <f>E146*D146</f>
+        <v>729</v>
+      </c>
+      <c r="G146" s="70" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E149" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F148" s="5">
-        <f>SUM(F3:F146)</f>
-        <v>85866.255999999994</v>
+      <c r="F149" s="5">
+        <f>SUM(F3:F147)</f>
+        <v>84327.255999999994</v>
       </c>
     </row>
   </sheetData>
@@ -5496,11 +5539,12 @@
     <hyperlink ref="C88" r:id="rId2" display="Plan Apo" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C89" r:id="rId3" display="Plan Apo" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C90" r:id="rId4" display="Plan Apo Brightfield and Darkfield " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C94" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C95" r:id="rId5" display="MT-1 Accessory Tube Lens" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C78" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C91" r:id="rId7" xr:uid="{3002EF90-377A-4FAD-A836-B22D0D243A96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
+++ b/Benchtop/parts-list/Benchtop-partslist-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA2EBB-783C-4678-B2A5-565AF1D788B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9FFD2-ABEC-40CF-B39C-A7E5E8171C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5952" yWindow="3864" windowWidth="34560" windowHeight="18684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="509">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -1608,6 +1608,15 @@
   </si>
   <si>
     <t>Corrected for 3.5 mm of glass (n1.52). Thread is unusual, but fits SM1.</t>
+  </si>
+  <si>
+    <t>f=100 mm, Ø1" Achromatic Doublet, SM1-Threaded Mount, ARC: 400-700 nm</t>
+  </si>
+  <si>
+    <t>A 1:1 relay from ETL to galvo</t>
+  </si>
+  <si>
+    <t>Lenses L2, L3 in the design view</t>
   </si>
 </sst>
 </file>
@@ -2321,20 +2330,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="81.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="69.33203125" style="3" customWidth="1"/>
@@ -3169,7 +3178,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" ref="F40:F67" si="3">E40*D40</f>
+        <f t="shared" ref="F40:F68" si="3">E40*D40</f>
         <v>800</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -3428,572 +3437,596 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="D49" s="32">
+        <v>4</v>
+      </c>
+      <c r="E49" s="34">
+        <v>104</v>
+      </c>
+      <c r="F49" s="42">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="G49" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="35" t="s">
+      <c r="B50" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D50" s="36">
         <v>4</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E50" s="37">
         <v>189</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F50" s="43">
         <f t="shared" si="3"/>
         <v>756</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H50" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I50" s="36" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+    <row r="51" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="35" t="s">
+      <c r="B51" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D51" s="36">
         <v>4</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E51" s="37">
         <v>110</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F51" s="43">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H51" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I51" s="36" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+    <row r="52" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="33" t="s">
+      <c r="B52" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D52" s="32">
         <v>4</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E52" s="34">
         <v>13</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F52" s="42">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H52" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I52" s="32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+    <row r="53" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="33" t="s">
+      <c r="B53" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D53" s="32">
         <v>2</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E53" s="34">
         <v>8</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F53" s="42">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="H53" s="32" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+    <row r="54" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="33" t="s">
+      <c r="B54" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D54" s="32">
         <v>4</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E54" s="34">
         <v>7</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F54" s="42">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="32" t="s">
+      <c r="H54" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I53" s="32" t="s">
+      <c r="I54" s="32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+    <row r="55" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="B54" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="33" t="s">
+      <c r="B55" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D55" s="32">
         <v>6</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E55" s="34">
         <v>5</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F55" s="42">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H55" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I54" s="32" t="s">
+      <c r="I55" s="32" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+    <row r="56" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="33" t="s">
+      <c r="B56" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D56" s="32">
         <v>4</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E56" s="34">
         <v>6</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F56" s="42">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="H56" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I55" s="32" t="s">
+      <c r="I56" s="32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+    <row r="57" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="33" t="s">
+      <c r="B57" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D57" s="32">
         <v>4</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E57" s="34">
         <v>5</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F57" s="42">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H57" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I56" s="32" t="s">
+      <c r="I57" s="32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+    <row r="58" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="33" t="s">
+      <c r="B58" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D58" s="32">
         <v>2</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E58" s="34">
         <v>5</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F58" s="42">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="H58" s="32" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
+    <row r="59" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="35" t="s">
+      <c r="B59" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D59" s="36">
         <v>2</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E59" s="37">
         <v>398</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F59" s="43">
         <f t="shared" si="3"/>
         <v>796</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H59" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="I58" s="36" t="s">
+      <c r="I59" s="36" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+    <row r="60" spans="1:9" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B60" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C60" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D60" s="36">
         <v>2</v>
       </c>
-      <c r="E59" s="37">
-        <v>1</v>
-      </c>
-      <c r="F59" s="43">
+      <c r="E60" s="37">
+        <v>1</v>
+      </c>
+      <c r="F60" s="43">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H60" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I60" s="36" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+    <row r="61" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="35" t="s">
+      <c r="B61" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D61" s="36">
         <v>2</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E61" s="37">
         <v>30</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F61" s="43">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H61" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I61" s="36" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
+    <row r="62" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="B61" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="33" t="s">
+      <c r="B62" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D62" s="32">
         <v>2</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E62" s="34">
         <v>36</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F62" s="42">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H62" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I61" s="38" t="s">
+      <c r="I62" s="38" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+    <row r="63" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="B62" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="33" t="s">
+      <c r="B63" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D63" s="32">
         <v>2</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E63" s="34">
         <v>2104</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F63" s="42">
         <f t="shared" si="3"/>
         <v>4208</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H63" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I62" s="32" t="s">
+      <c r="I63" s="32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+    <row r="64" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="33" t="s">
+      <c r="B64" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D64" s="32">
         <v>2</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E64" s="34">
         <v>82</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F64" s="42">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H64" s="32" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
+    <row r="65" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="B64" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="33" t="s">
+      <c r="B65" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="32">
-        <v>1</v>
-      </c>
-      <c r="E64" s="34">
+      <c r="D65" s="32">
+        <v>1</v>
+      </c>
+      <c r="E65" s="34">
         <v>495</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F65" s="42">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H65" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I64" s="32" t="s">
+      <c r="I65" s="32" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
+    <row r="66" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="B65" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="33" t="s">
+      <c r="B66" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D66" s="32">
         <v>0</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E66" s="34">
         <v>390</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F66" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="32" t="s">
+      <c r="H66" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I66" s="32" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+    <row r="67" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B67" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C67" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D67" s="32">
         <v>14</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E67" s="34">
         <v>20</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F67" s="42">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="H67" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I66" s="38" t="s">
+      <c r="I67" s="38" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="46" t="s">
+    <row r="68" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B68" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C68" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="D67" s="32">
-        <v>1</v>
-      </c>
-      <c r="E67" s="34">
+      <c r="D68" s="32">
+        <v>1</v>
+      </c>
+      <c r="E68" s="34">
         <v>10</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F68" s="42">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H67" s="32" t="s">
+      <c r="H68" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I68" s="32" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
@@ -4007,1160 +4040,1145 @@
       <c r="E70" s="34"/>
       <c r="F70" s="42"/>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="32">
-        <v>1</v>
-      </c>
-      <c r="E72" s="34"/>
-      <c r="F72" s="42"/>
-      <c r="I72" s="32" t="s">
-        <v>291</v>
-      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="32">
+        <v>1</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="42"/>
+      <c r="I73" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B73" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="33" t="s">
+      <c r="B74" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="D73" s="32">
-        <v>1</v>
-      </c>
-      <c r="E73" s="34">
+      <c r="D74" s="32">
+        <v>1</v>
+      </c>
+      <c r="E74" s="34">
         <v>63</v>
-      </c>
-      <c r="F73" s="42">
-        <f>D73*E73</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D74" s="32">
-        <v>2</v>
-      </c>
-      <c r="E74" s="34">
-        <v>69</v>
       </c>
       <c r="F74" s="42">
         <f>D74*E74</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="32">
+        <v>2</v>
+      </c>
+      <c r="E75" s="34">
+        <v>69</v>
+      </c>
+      <c r="F75" s="42">
+        <f>D75*E75</f>
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
+    <row r="76" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B76" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C76" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="32">
-        <v>1</v>
-      </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="42"/>
-      <c r="I75" s="32" t="s">
+      <c r="D76" s="32">
+        <v>1</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="42"/>
+      <c r="I76" s="32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+    <row r="77" spans="1:10" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="5">
-        <v>200</v>
-      </c>
-      <c r="F78" s="5">
-        <f>E78*D78</f>
-        <v>200</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="J78" s="4"/>
+    <row r="78" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <v>200</v>
+      </c>
+      <c r="F79" s="5">
+        <f>E79*D79</f>
+        <v>200</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D80" s="3">
         <v>5</v>
       </c>
-      <c r="E79" s="5">
-        <v>1</v>
-      </c>
-      <c r="F79" s="71">
-        <f>E79*D79</f>
-        <v>5</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="70" t="s">
-        <v>493</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1</v>
-      </c>
       <c r="E80" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F80" s="71">
         <f>E80*D80</f>
+        <v>5</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="70" t="s">
+        <v>493</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
         <v>26</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5">
-        <v>37</v>
       </c>
       <c r="F81" s="71">
         <f>E81*D81</f>
+        <v>26</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
         <v>37</v>
-      </c>
-      <c r="I81" s="32"/>
-    </row>
-    <row r="82" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="70" t="s">
-        <v>405</v>
-      </c>
-      <c r="B82" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="70" t="s">
-        <v>404</v>
-      </c>
-      <c r="D82" s="70">
-        <v>2</v>
-      </c>
-      <c r="E82" s="71">
-        <v>24</v>
       </c>
       <c r="F82" s="71">
         <f>E82*D82</f>
+        <v>37</v>
+      </c>
+      <c r="I82" s="32"/>
+    </row>
+    <row r="83" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="B83" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="70">
+        <v>2</v>
+      </c>
+      <c r="E83" s="71">
+        <v>24</v>
+      </c>
+      <c r="F83" s="71">
+        <f>E83*D83</f>
         <v>48</v>
       </c>
-      <c r="I82" s="32" t="s">
+      <c r="I83" s="32" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="75" t="s">
+    <row r="84" spans="1:9" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="44"/>
-    </row>
-    <row r="84" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+      <c r="F84" s="44"/>
+    </row>
+    <row r="85" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F84" s="44"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="F85" s="44"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D85" s="3">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5">
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
         <v>625</v>
       </c>
-      <c r="F85" s="5">
-        <f>E85*D85</f>
+      <c r="F86" s="5">
+        <f>E86*D86</f>
         <v>625</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
+    <row r="87" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-    </row>
-    <row r="87" spans="1:9" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+    </row>
+    <row r="88" spans="1:9" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
         <v>374</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="C87" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="D87" s="28">
-        <v>1</v>
-      </c>
-      <c r="E87" s="29">
-        <v>912</v>
-      </c>
-      <c r="F87" s="29">
-        <f t="shared" ref="F87:F93" si="4">E87*D87</f>
-        <v>912</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
-        <v>375</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" s="28">
+        <v>1</v>
+      </c>
+      <c r="E88" s="29">
+        <v>912</v>
+      </c>
+      <c r="F88" s="29">
+        <f t="shared" ref="F88:F94" si="4">E88*D88</f>
+        <v>912</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
         <v>837</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F89" s="29">
         <f t="shared" si="4"/>
         <v>837</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="28"/>
-      <c r="I88" s="3" t="s">
+      <c r="H89" s="28"/>
+      <c r="I89" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B90" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C90" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D90" s="3">
         <v>0</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E90" s="5">
         <v>1540</v>
       </c>
-      <c r="F89" s="29">
+      <c r="F90" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="28"/>
-      <c r="I89" s="3" t="s">
+      <c r="H90" s="28"/>
+      <c r="I90" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B91" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C91" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5">
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
         <v>1026</v>
       </c>
-      <c r="F90" s="29">
+      <c r="F91" s="29">
         <f t="shared" si="4"/>
         <v>1026</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="28"/>
-      <c r="I90" s="3" t="s">
+      <c r="H91" s="28"/>
+      <c r="I91" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="70" t="s">
+    <row r="92" spans="1:9" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="70" t="s">
         <v>502</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B92" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C92" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="D91" s="70">
+      <c r="D92" s="70">
         <v>0</v>
       </c>
-      <c r="E91" s="71">
+      <c r="E92" s="71">
         <v>3670</v>
       </c>
-      <c r="F91" s="29">
+      <c r="F92" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G91" s="70" t="s">
+      <c r="G92" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="28"/>
-      <c r="I91" s="70" t="s">
+      <c r="H92" s="28"/>
+      <c r="I92" s="70" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B93" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C93" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D93" s="3">
         <v>5</v>
       </c>
-      <c r="E92" s="5">
-        <v>1</v>
-      </c>
-      <c r="F92" s="29">
+      <c r="E93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="29">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="28"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B93" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="50" t="s">
+      <c r="B94" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="D93" s="3">
-        <v>1</v>
-      </c>
-      <c r="E93" s="5">
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
         <v>60</v>
       </c>
-      <c r="F93" s="29">
+      <c r="F94" s="29">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="28"/>
-    </row>
-    <row r="94" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="25" t="s">
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="1:9" s="26" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A95" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B96" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C96" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5">
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5">
         <v>752</v>
-      </c>
-      <c r="F95" s="5">
-        <f>D95*E95</f>
-        <v>752</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1</v>
       </c>
       <c r="F96" s="5">
         <f>D96*E96</f>
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I96" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
       </c>
       <c r="E97" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F97" s="5">
         <f>D97*E97</f>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
       </c>
       <c r="E98" s="5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F98" s="5">
-        <v>1</v>
+        <f>D98*E98</f>
+        <v>36</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
       </c>
       <c r="E99" s="5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F99" s="5">
-        <f>D99*E99</f>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
       </c>
       <c r="E100" s="5">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F100" s="5">
         <f>D100*E100</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="D101" s="3">
         <v>1</v>
       </c>
       <c r="E101" s="5">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F101" s="5">
         <f>D101*E101</f>
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>367</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>435</v>
+        <v>68</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>384</v>
+        <v>409</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5">
+        <v>112</v>
       </c>
       <c r="F102" s="5">
         <f>D102*E102</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I102" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F103" s="5">
+        <f>D103*E103</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+    <row r="104" spans="1:9" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="3">
-        <v>1</v>
-      </c>
-      <c r="E104" s="5">
-        <v>3582</v>
-      </c>
-      <c r="F104" s="5">
-        <f t="shared" ref="F104:F116" si="5">E104*D104</f>
-        <v>3582</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5">
+        <v>3582</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" ref="F105:F117" si="5">E105*D105</f>
+        <v>3582</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D105" s="3">
-        <v>1</v>
-      </c>
-      <c r="E105" s="5">
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
         <v>1630</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F106" s="5">
         <f t="shared" si="5"/>
         <v>1630</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="3">
-        <v>1</v>
-      </c>
-      <c r="E106" s="5">
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
         <v>886</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F107" s="5">
         <f t="shared" si="5"/>
         <v>886</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D107" s="3">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5">
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
         <v>163</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F108" s="5">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D108" s="3">
-        <v>1</v>
-      </c>
-      <c r="E108" s="5">
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
         <v>11</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F109" s="5">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="3">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5">
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
         <v>520</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F110" s="5">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D110" s="3">
-        <v>1</v>
-      </c>
-      <c r="E110" s="5">
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
         <v>193</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F111" s="5">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
+    <row r="112" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="B111" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" s="32" t="s">
+      <c r="B112" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="32">
+      <c r="D112" s="32">
         <v>10</v>
       </c>
-      <c r="E111" s="42">
+      <c r="E112" s="42">
         <v>12</v>
       </c>
-      <c r="F111" s="42">
+      <c r="F112" s="42">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="G112" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I111" s="32" t="s">
+      <c r="I112" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32" t="s">
+    <row r="113" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="B112" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="32" t="s">
+      <c r="B113" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="D112" s="32">
-        <v>1</v>
-      </c>
-      <c r="E112" s="42">
+      <c r="D113" s="32">
+        <v>1</v>
+      </c>
+      <c r="E113" s="42">
         <v>14</v>
       </c>
-      <c r="F112" s="42">
+      <c r="F113" s="42">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G113" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I112" s="32" t="s">
+      <c r="I113" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B114" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D114" s="3">
         <v>4</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E114" s="5">
         <v>15.25</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F114" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G114" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B115" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D115" s="3">
         <v>10</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E115" s="5">
         <v>16.5</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F115" s="5">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G115" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B116" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D116" s="3">
         <v>10</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E116" s="5">
         <v>24</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F116" s="5">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="G115" s="32" t="s">
+      <c r="G116" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="B117" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D117" s="3">
         <v>6</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E117" s="5">
         <v>24</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F117" s="5">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="G116" s="32" t="s">
+      <c r="G117" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
-    </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="10"/>
-    </row>
-    <row r="120" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
+    <row r="118" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D121" s="3">
-        <v>4</v>
-      </c>
-      <c r="E121" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F121" s="5">
-        <f t="shared" ref="F121:F136" si="6">E121*D121</f>
-        <v>66</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D122" s="3">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" ref="F122:F137" si="6">E122*D122</f>
+        <v>66</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="B123" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="3">
-        <v>1</v>
-      </c>
-      <c r="E122" s="5">
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
         <v>85.1</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F123" s="5">
         <f t="shared" si="6"/>
         <v>85.1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="B124" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D124" s="3">
         <v>2</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E124" s="5">
         <v>32</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F124" s="5">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="I124" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="B125" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D125" s="3">
         <v>2</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E125" s="5">
         <v>51.58</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F125" s="5">
         <f t="shared" si="6"/>
         <v>103.16</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="B126" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D125" s="3">
-        <v>1</v>
-      </c>
-      <c r="E125" s="5">
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5">
         <v>60</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F126" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="I126" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D126" s="3"